--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\"/>
@@ -22,11 +22,14 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Application!$A$1:$A$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FPA!$A$1:$J$177</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="244">
   <si>
     <t>Project ID</t>
   </si>
@@ -345,9 +348,6 @@
     <t>TCTCPIT_E_05</t>
   </si>
   <si>
-    <t>inaccurate information</t>
-  </si>
-  <si>
     <t>01033.011</t>
   </si>
   <si>
@@ -387,15 +387,9 @@
     <t>WWLIMS WorkStation v9.3: ADDULCD771510T</t>
   </si>
   <si>
-    <t>ADDULCD771510T</t>
-  </si>
-  <si>
     <t>WWLIMS WorkStation v9.3: ADDULCD772728l</t>
   </si>
   <si>
-    <t>ADDULCD772728l</t>
-  </si>
-  <si>
     <t>HCE_Protocol</t>
   </si>
   <si>
@@ -637,6 +631,147 @@
   </si>
   <si>
     <t>FRS Section 11 Traceability Matrix (for QIMS 2.50)</t>
+  </si>
+  <si>
+    <t>01117.000</t>
+  </si>
+  <si>
+    <t>ideaPoint</t>
+  </si>
+  <si>
+    <t>Development Test Protocol</t>
+  </si>
+  <si>
+    <t>TCISVR_01</t>
+  </si>
+  <si>
+    <t>resubmitted</t>
+  </si>
+  <si>
+    <t>Traceability Matrix - TPISVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unit Test - WorkStation v9.3b</t>
+  </si>
+  <si>
+    <t>Blank page</t>
+  </si>
+  <si>
+    <t>Test Protocol 04 -  Employees Maintenance Regression Testing</t>
+  </si>
+  <si>
+    <t>Test Protocol 02 -  IPDR ADDQIMS08557</t>
+  </si>
+  <si>
+    <t>wrong document attached to NVP</t>
+  </si>
+  <si>
+    <t>Configuration Item Inventory-Workstation v9.3b</t>
+  </si>
+  <si>
+    <t>Certification Summary</t>
+  </si>
+  <si>
+    <t>Val Plan</t>
+  </si>
+  <si>
+    <t>Test Protocol 02 -  IPDR ADDQIMS08557: failed</t>
+  </si>
+  <si>
+    <t>Failed step will be rerun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WWLIMS WorkStation v9.3)Validation: ADDULCD771510T 9.3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WWLIMS WorkStation v9.3)Validation: ADDULCD772728L 9.3b</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol_Prod</t>
+  </si>
+  <si>
+    <t>Test Protocol 01 - Employee Valuation Testing</t>
+  </si>
+  <si>
+    <t>Pass - Test Protocol DT_ArchitectAssayDetail Result: ADDULCD772728L</t>
+  </si>
+  <si>
+    <t>Pass Test Protocol TCAFMARAD_2  Result: ADDULCD771510T</t>
+  </si>
+  <si>
+    <t>01033.013</t>
+  </si>
+  <si>
+    <t>Release v15.0</t>
+  </si>
+  <si>
+    <t>WWLIMS WorkStation v9.3 ADDULCL771783  9.3</t>
+  </si>
+  <si>
+    <t>Pass Test Protocol TCAFMARAD_3  Result: ADDULCD772728L</t>
+  </si>
+  <si>
+    <t>Test Protocol 03 -  IPDR ADDQIMS08558</t>
+  </si>
+  <si>
+    <t>Pass Test Protocol - TCAFMARAD_1  Result: ADDULCD772728L</t>
+  </si>
+  <si>
+    <t>WWLIMS Supplemental Items v9.3 - Validation: ADDULCD878490T</t>
+  </si>
+  <si>
+    <t>WWLIMS User Requirements Specification</t>
+  </si>
+  <si>
+    <t>WWLIMS Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Unit Testing Document for QIMS v2.50</t>
+  </si>
+  <si>
+    <t>Pass Test Protocol TCTCPLR_R_11 Result: ADDULCD771510T</t>
+  </si>
+  <si>
+    <t>missing screen prints</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unit test - Instrument Server v9.3b</t>
+  </si>
+  <si>
+    <t>Configuration Item Inventory - Instrument Server v9.3b</t>
+  </si>
+  <si>
+    <t>01006.002</t>
+  </si>
+  <si>
+    <t>Link to original SCA</t>
+  </si>
+  <si>
+    <t>Quality Information Management System (QIMS) Version 2.50 – Manual Installation Instructions for 32 bit or 64 bit pc</t>
+  </si>
+  <si>
+    <t>Pass Test Protocol  TC_IPDR_ ADDWWLIMS08562_SLIGO Result: ADDULCD773047T</t>
+  </si>
+  <si>
+    <t>Pass Test Protocol - TC_IPDR_ ADDWWLIMS08562_LONGFORD Result: ADDULCD773047T</t>
+  </si>
+  <si>
+    <t>regplot micro</t>
+  </si>
+  <si>
+    <t>ePAS 18-1902</t>
+  </si>
+  <si>
+    <t>ePAS 17-4771 V11.0</t>
+  </si>
+  <si>
+    <t>1 prod</t>
+  </si>
+  <si>
+    <t>ePAS 18-2537</t>
+  </si>
+  <si>
+    <t>ePAS 18-2538</t>
   </si>
 </sst>
 </file>
@@ -775,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -822,9 +957,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -834,12 +966,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,6 +1041,48 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SQA"/>
+      <sheetName val="Deliverable Types"/>
+      <sheetName val="Application"/>
+      <sheetName val="A or D"/>
+      <sheetName val="Reasons for Disapproval"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Deliverable Types"/>
+      <sheetName val="Application"/>
+      <sheetName val="A or D"/>
+      <sheetName val="Reasons for Disapproval"/>
+      <sheetName val="SQA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1200,11 +1385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J275"/>
+  <dimension ref="A1:J440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1397,8 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="8" width="13" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13" style="29" customWidth="1"/>
     <col min="9" max="9" width="36.140625" customWidth="1"/>
     <col min="10" max="10" width="62.7109375" customWidth="1"/>
   </cols>
@@ -1239,7 +1425,7 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="26" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1285,7 +1471,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -1315,7 +1501,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -1451,7 +1637,7 @@
         <v>43111</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -1488,7 +1674,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>42</v>
@@ -1500,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>74</v>
@@ -1516,7 +1702,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>42</v>
@@ -1528,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>74</v>
@@ -1544,7 +1730,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
@@ -1556,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>74</v>
@@ -1572,7 +1758,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>42</v>
@@ -1584,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>74</v>
@@ -1600,7 +1786,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>42</v>
@@ -1638,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>58</v>
@@ -1650,7 +1836,7 @@
         <v>55</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1670,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>57</v>
@@ -1724,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>74</v>
@@ -1752,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>74</v>
@@ -1780,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>74</v>
@@ -1796,7 +1982,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>43</v>
@@ -1808,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>74</v>
@@ -1824,7 +2010,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>43</v>
@@ -1836,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>74</v>
@@ -1852,7 +2038,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>43</v>
@@ -1864,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>74</v>
@@ -1892,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>74</v>
@@ -1900,9 +2086,7 @@
       <c r="H24" s="10">
         <v>43117</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="I24" s="13"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1922,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>74</v>
@@ -1930,9 +2114,7 @@
       <c r="H25" s="10">
         <v>43117</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1940,7 +2122,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>43</v>
@@ -1966,7 +2148,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>43</v>
@@ -1992,7 +2174,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>42</v>
@@ -2004,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>74</v>
@@ -2020,7 +2202,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>42</v>
@@ -2032,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>58</v>
@@ -2044,7 +2226,7 @@
         <v>28</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2052,7 +2234,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>42</v>
@@ -2064,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>57</v>
@@ -2080,7 +2262,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>67</v>
@@ -2092,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>74</v>
@@ -2102,7 +2284,7 @@
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2110,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>67</v>
@@ -2122,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>74</v>
@@ -2138,7 +2320,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>42</v>
@@ -2150,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>74</v>
@@ -2166,7 +2348,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>42</v>
@@ -2178,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>74</v>
@@ -2194,7 +2376,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>67</v>
@@ -2222,7 +2404,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>43</v>
@@ -2248,7 +2430,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>48</v>
@@ -2260,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>74</v>
@@ -2276,7 +2458,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>48</v>
@@ -2288,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>74</v>
@@ -2316,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>74</v>
@@ -2332,7 +2514,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>48</v>
@@ -2344,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>58</v>
@@ -2362,7 +2544,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>48</v>
@@ -2374,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>58</v>
@@ -2392,7 +2574,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>96</v>
@@ -2414,7 +2596,7 @@
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2439,705 +2621,671 @@
       <c r="G43" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="27">
         <v>43115</v>
       </c>
-      <c r="I43" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="I43" s="16"/>
       <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="20">
-        <v>1</v>
-      </c>
-      <c r="F44" s="20">
+      <c r="E44" s="19">
+        <v>1</v>
+      </c>
+      <c r="F44" s="19">
         <v>4</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="28">
         <v>43115</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="21"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>3</v>
       </c>
-      <c r="F45" s="20">
-        <v>1</v>
-      </c>
-      <c r="G45" s="21" t="s">
+      <c r="F45" s="19">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="28">
         <v>43115</v>
       </c>
-      <c r="I45" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="21"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>6</v>
       </c>
-      <c r="F46" s="20">
-        <v>1</v>
-      </c>
-      <c r="G46" s="21" t="s">
+      <c r="F46" s="19">
+        <v>1</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="28">
         <v>43115</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="21" t="s">
-        <v>134</v>
+      <c r="J46" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>6</v>
       </c>
-      <c r="F47" s="20">
-        <v>1</v>
-      </c>
-      <c r="G47" s="21" t="s">
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="28">
         <v>43115</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="21" t="s">
-        <v>134</v>
+      <c r="J47" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="20">
-        <v>1</v>
-      </c>
-      <c r="F48" s="20">
+      <c r="E48" s="19">
+        <v>1</v>
+      </c>
+      <c r="F48" s="19">
         <v>3</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="28">
         <v>43115</v>
       </c>
-      <c r="I48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" s="21"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="20">
-        <v>1</v>
-      </c>
-      <c r="F49" s="20">
+      <c r="E49" s="19">
+        <v>1</v>
+      </c>
+      <c r="F49" s="19">
         <v>4</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="28">
         <v>43115</v>
       </c>
-      <c r="I49" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="21"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>3</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>2</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="28">
         <v>43116</v>
       </c>
-      <c r="I50" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="21"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>2</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>6</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="28">
         <v>43116</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51" s="21"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>2</v>
       </c>
-      <c r="F52" s="20">
-        <v>1</v>
-      </c>
-      <c r="G52" s="21" t="s">
+      <c r="F52" s="19">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="28">
         <v>43116</v>
       </c>
-      <c r="I52" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" s="21"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>2</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>12</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="28">
         <v>43116</v>
       </c>
-      <c r="I53" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" s="21"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="19">
         <v>928.00699999999995</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>2</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="19">
         <v>11</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="28">
         <v>43116</v>
       </c>
-      <c r="I54" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" s="21"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>6</v>
       </c>
-      <c r="F55" s="20">
-        <v>1</v>
-      </c>
-      <c r="G55" s="21" t="s">
+      <c r="F55" s="19">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="28">
         <v>43116</v>
       </c>
-      <c r="I55" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55" s="21"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>15</v>
       </c>
-      <c r="F56" s="20">
-        <v>1</v>
-      </c>
-      <c r="G56" s="21" t="s">
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="28">
         <v>43116</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="21"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>9</v>
       </c>
-      <c r="F57" s="20">
-        <v>1</v>
-      </c>
-      <c r="G57" s="21" t="s">
+      <c r="F57" s="19">
+        <v>1</v>
+      </c>
+      <c r="G57" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="28">
         <v>43116</v>
       </c>
-      <c r="I57" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" s="21"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="19">
         <v>354.00400000000002</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>3</v>
       </c>
-      <c r="F58" s="20">
-        <v>1</v>
-      </c>
-      <c r="G58" s="21" t="s">
+      <c r="F58" s="19">
+        <v>1</v>
+      </c>
+      <c r="G58" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="28">
         <v>43116</v>
       </c>
-      <c r="I58" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J58" s="21"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>15</v>
       </c>
-      <c r="F59" s="20">
-        <v>1</v>
-      </c>
-      <c r="G59" s="21" t="s">
+      <c r="F59" s="19">
+        <v>1</v>
+      </c>
+      <c r="G59" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="28">
         <v>43116</v>
       </c>
-      <c r="I59" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" s="21"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>2</v>
       </c>
-      <c r="F60" s="20">
-        <v>1</v>
-      </c>
-      <c r="G60" s="21" t="s">
+      <c r="F60" s="19">
+        <v>1</v>
+      </c>
+      <c r="G60" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="28">
         <v>43117</v>
       </c>
-      <c r="I60" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J60" s="21"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>2</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21" t="s">
+      <c r="F61" s="20"/>
+      <c r="G61" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="28">
         <v>43118</v>
       </c>
-      <c r="I61" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" s="21"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="19">
         <v>750.01099999999997</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="19">
         <v>2</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="19">
         <v>3</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="28">
         <v>43118</v>
       </c>
-      <c r="I62" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J62" s="21"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="19">
         <v>1075.001</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="20">
-        <v>1</v>
-      </c>
-      <c r="F63" s="20">
-        <v>1</v>
-      </c>
-      <c r="G63" s="21" t="s">
+      <c r="E63" s="19">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19">
+        <v>1</v>
+      </c>
+      <c r="G63" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="28">
         <v>43118</v>
       </c>
-      <c r="I63" s="21" t="s">
+      <c r="I63" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J63" s="21"/>
+      <c r="J63" s="20"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="19">
         <v>1075.001</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="20">
-        <v>1</v>
-      </c>
-      <c r="F64" s="20">
-        <v>1</v>
-      </c>
-      <c r="G64" s="21" t="s">
+      <c r="E64" s="19">
+        <v>1</v>
+      </c>
+      <c r="F64" s="19">
+        <v>1</v>
+      </c>
+      <c r="G64" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="28">
         <v>43119</v>
       </c>
-      <c r="I64" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J64" s="21"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="19">
         <v>1075.001</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="20">
-        <v>1</v>
-      </c>
-      <c r="F65" s="20">
-        <v>1</v>
-      </c>
-      <c r="G65" s="21" t="s">
+      <c r="E65" s="19">
+        <v>1</v>
+      </c>
+      <c r="F65" s="19">
+        <v>1</v>
+      </c>
+      <c r="G65" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="28">
         <v>43119</v>
       </c>
-      <c r="I65" s="21" t="s">
+      <c r="I65" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="21"/>
+      <c r="J65" s="20"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="19">
         <v>1075.001</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="19">
         <v>2</v>
       </c>
-      <c r="F66" s="20">
-        <v>1</v>
-      </c>
-      <c r="G66" s="21" t="s">
+      <c r="F66" s="19">
+        <v>1</v>
+      </c>
+      <c r="G66" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="28">
         <v>43119</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J66" s="21"/>
+      <c r="J66" s="20"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -3175,7 +3323,7 @@
         <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>8</v>
@@ -3196,7 +3344,7 @@
         <v>36</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3338,7 +3486,7 @@
         <v>31</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3404,10 +3552,10 @@
         <v>39</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>8</v>
@@ -3452,7 +3600,7 @@
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3487,9 +3635,9 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="23">
+        <v>140</v>
+      </c>
+      <c r="B79" s="21">
         <v>589.04999999999995</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -3572,7 +3720,7 @@
         <v>28</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3604,7 +3752,7 @@
         <v>28</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3640,10 +3788,10 @@
         <v>39</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>8</v>
@@ -3666,7 +3814,7 @@
         <v>39</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>65</v>
@@ -3686,7 +3834,7 @@
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3694,7 +3842,7 @@
         <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>65</v>
@@ -3714,7 +3862,7 @@
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3860,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3868,13 +4016,13 @@
         <v>39</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3977,7 +4125,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B96" s="3">
         <v>1075.001</v>
@@ -4408,7 +4556,7 @@
         <v>31</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4441,8 +4589,8 @@
       <c r="A112" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="24" t="s">
-        <v>126</v>
+      <c r="B112" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>48</v>
@@ -4454,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>58</v>
@@ -4466,15 +4614,15 @@
         <v>31</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>126</v>
+      <c r="B113" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>48</v>
@@ -4486,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>57</v>
@@ -4501,8 +4649,8 @@
       <c r="A114" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="24" t="s">
-        <v>126</v>
+      <c r="B114" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>48</v>
@@ -4513,8 +4661,8 @@
       <c r="E114" s="3">
         <v>1</v>
       </c>
-      <c r="F114" s="25" t="s">
-        <v>131</v>
+      <c r="F114" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>58</v>
@@ -4526,15 +4674,15 @@
         <v>31</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="24" t="s">
-        <v>126</v>
+      <c r="B115" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>48</v>
@@ -4545,8 +4693,8 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="25" t="s">
-        <v>131</v>
+      <c r="F115" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>57</v>
@@ -4561,7 +4709,7 @@
       <c r="A116" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -4574,7 +4722,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>57</v>
@@ -4584,14 +4732,14 @@
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -4604,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>57</v>
@@ -4614,14 +4762,14 @@
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -4634,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>57</v>
@@ -4644,14 +4792,14 @@
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -4664,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>58</v>
@@ -4681,7 +4829,7 @@
       <c r="A120" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -4694,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>57</v>
@@ -4709,7 +4857,7 @@
       <c r="A121" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B121" s="24" t="s">
+      <c r="B121" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -4722,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>74</v>
@@ -4737,7 +4885,7 @@
       <c r="A122" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -4750,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>58</v>
@@ -4760,14 +4908,14 @@
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -4780,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>57</v>
@@ -4795,7 +4943,7 @@
       <c r="A124" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -4808,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>58</v>
@@ -4818,14 +4966,14 @@
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -4838,7 +4986,7 @@
         <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>57</v>
@@ -4853,7 +5001,7 @@
       <c r="A126" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -4866,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>58</v>
@@ -4876,14 +5024,14 @@
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -4896,7 +5044,7 @@
         <v>4</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>57</v>
@@ -4911,7 +5059,7 @@
       <c r="A128" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -4924,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>74</v>
@@ -4939,7 +5087,7 @@
       <c r="A129" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -4952,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>74</v>
@@ -4967,7 +5115,7 @@
       <c r="A130" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -4980,7 +5128,7 @@
         <v>5</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>58</v>
@@ -4997,7 +5145,7 @@
       <c r="A131" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -5010,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>57</v>
@@ -5025,7 +5173,7 @@
       <c r="A132" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -5038,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>57</v>
@@ -5048,14 +5196,14 @@
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="B133" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -5068,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>74</v>
@@ -5083,7 +5231,7 @@
       <c r="A134" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -5096,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>57</v>
@@ -5106,14 +5254,14 @@
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -5126,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>57</v>
@@ -5136,14 +5284,14 @@
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -5156,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>74</v>
@@ -5171,7 +5319,7 @@
       <c r="A137" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -5184,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>74</v>
@@ -5199,8 +5347,8 @@
       <c r="A138" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B138" s="24" t="s">
-        <v>170</v>
+      <c r="B138" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>51</v>
@@ -5212,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>74</v>
@@ -5227,7 +5375,7 @@
       <c r="A139" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -5240,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>74</v>
@@ -5255,8 +5403,8 @@
       <c r="A140" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B140" s="24" t="s">
-        <v>126</v>
+      <c r="B140" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>48</v>
@@ -5268,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>74</v>
@@ -5283,8 +5431,8 @@
       <c r="A141" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B141" s="24" t="s">
-        <v>126</v>
+      <c r="B141" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>48</v>
@@ -5296,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>58</v>
@@ -5313,8 +5461,8 @@
       <c r="A142" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B142" s="24" t="s">
-        <v>126</v>
+      <c r="B142" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>48</v>
@@ -5326,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>57</v>
@@ -5341,8 +5489,8 @@
       <c r="A143" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B143" s="24" t="s">
-        <v>126</v>
+      <c r="B143" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>48</v>
@@ -5354,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>58</v>
@@ -5371,8 +5519,8 @@
       <c r="A144" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B144" s="24" t="s">
-        <v>126</v>
+      <c r="B144" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>48</v>
@@ -5384,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>57</v>
@@ -5399,8 +5547,8 @@
       <c r="A145" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B145" s="24" t="s">
-        <v>126</v>
+      <c r="B145" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>48</v>
@@ -5412,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>58</v>
@@ -5429,8 +5577,8 @@
       <c r="A146" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B146" s="24" t="s">
-        <v>126</v>
+      <c r="B146" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>48</v>
@@ -5442,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>58</v>
@@ -5459,8 +5607,8 @@
       <c r="A147" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="24" t="s">
-        <v>126</v>
+      <c r="B147" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>48</v>
@@ -5472,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>58</v>
@@ -5489,8 +5637,8 @@
       <c r="A148" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="24" t="s">
-        <v>126</v>
+      <c r="B148" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>48</v>
@@ -5502,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>58</v>
@@ -5519,8 +5667,8 @@
       <c r="A149" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B149" s="24" t="s">
-        <v>126</v>
+      <c r="B149" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>48</v>
@@ -5532,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>58</v>
@@ -5549,8 +5697,8 @@
       <c r="A150" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B150" s="24" t="s">
-        <v>126</v>
+      <c r="B150" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>48</v>
@@ -5562,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>57</v>
@@ -5577,8 +5725,8 @@
       <c r="A151" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B151" s="24" t="s">
-        <v>126</v>
+      <c r="B151" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>48</v>
@@ -5590,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>58</v>
@@ -5600,15 +5748,15 @@
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B152" s="24" t="s">
-        <v>126</v>
+      <c r="B152" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>48</v>
@@ -5620,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>58</v>
@@ -5637,8 +5785,8 @@
       <c r="A153" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B153" s="24" t="s">
-        <v>111</v>
+      <c r="B153" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>43</v>
@@ -5650,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>74</v>
@@ -5665,7 +5813,7 @@
       <c r="A154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -5678,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>74</v>
@@ -5693,8 +5841,8 @@
       <c r="A155" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B155" s="24" t="s">
-        <v>111</v>
+      <c r="B155" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>43</v>
@@ -5706,7 +5854,7 @@
         <v>4</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>74</v>
@@ -5721,8 +5869,8 @@
       <c r="A156" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="24" t="s">
-        <v>111</v>
+      <c r="B156" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>43</v>
@@ -5734,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>74</v>
@@ -5749,8 +5897,8 @@
       <c r="A157" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B157" s="24" t="s">
-        <v>111</v>
+      <c r="B157" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>43</v>
@@ -5762,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>74</v>
@@ -5777,8 +5925,8 @@
       <c r="A158" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B158" s="24" t="s">
-        <v>111</v>
+      <c r="B158" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>43</v>
@@ -5790,7 +5938,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>58</v>
@@ -5802,15 +5950,15 @@
         <v>29</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B159" s="24" t="s">
-        <v>111</v>
+      <c r="B159" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>43</v>
@@ -5822,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>57</v>
@@ -5837,8 +5985,8 @@
       <c r="A160" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B160" s="24" t="s">
-        <v>111</v>
+      <c r="B160" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>43</v>
@@ -5850,7 +5998,7 @@
         <v>3</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>74</v>
@@ -5865,8 +6013,8 @@
       <c r="A161" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B161" s="24" t="s">
-        <v>111</v>
+      <c r="B161" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>43</v>
@@ -5878,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>58</v>
@@ -5895,8 +6043,8 @@
       <c r="A162" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B162" s="24" t="s">
-        <v>111</v>
+      <c r="B162" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>43</v>
@@ -5908,7 +6056,7 @@
         <v>3</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>57</v>
@@ -5918,14 +6066,14 @@
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -5938,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>74</v>
@@ -5953,7 +6101,7 @@
       <c r="A164" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B164" s="24" t="s">
+      <c r="B164" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -5966,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>74</v>
@@ -5981,7 +6129,7 @@
       <c r="A165" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -5994,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>58</v>
@@ -6011,7 +6159,7 @@
       <c r="A166" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -6024,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>57</v>
@@ -6039,7 +6187,7 @@
       <c r="A167" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B167" s="24" t="s">
+      <c r="B167" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -6052,7 +6200,7 @@
         <v>2</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>57</v>
@@ -6062,14 +6210,14 @@
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -6082,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>57</v>
@@ -6092,14 +6240,14 @@
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -6112,7 +6260,7 @@
         <v>16</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>58</v>
@@ -6124,14 +6272,14 @@
         <v>31</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -6144,7 +6292,7 @@
         <v>16</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>57</v>
@@ -6159,8 +6307,8 @@
       <c r="A171" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B171" s="24" t="s">
-        <v>126</v>
+      <c r="B171" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>48</v>
@@ -6172,7 +6320,7 @@
         <v>7</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>58</v>
@@ -6189,8 +6337,8 @@
       <c r="A172" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B172" s="24" t="s">
-        <v>126</v>
+      <c r="B172" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>48</v>
@@ -6202,7 +6350,7 @@
         <v>7</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>57</v>
@@ -6217,7 +6365,7 @@
       <c r="A173" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B173" s="24" t="s">
+      <c r="B173" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -6230,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>74</v>
@@ -6245,7 +6393,7 @@
       <c r="A174" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C174" s="3" t="s">
@@ -6258,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>74</v>
@@ -6273,7 +6421,7 @@
       <c r="A175" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -6286,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>74</v>
@@ -6301,7 +6449,7 @@
       <c r="A176" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -6314,7 +6462,7 @@
         <v>11</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>74</v>
@@ -6329,7 +6477,7 @@
       <c r="A177" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="B177" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -6342,7 +6490,7 @@
         <v>5</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>58</v>
@@ -6356,1118 +6504,2658 @@
       <c r="J177" s="8"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
       <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="5"/>
+      <c r="G178" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" s="5">
+        <v>43131</v>
+      </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="3"/>
+      <c r="A179" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" s="3">
+        <v>2</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H179" s="5">
+        <v>43126</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J179" s="3"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="5"/>
+      <c r="A180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" s="3">
+        <v>3</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H180" s="5">
+        <v>43129</v>
+      </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="5"/>
+      <c r="A181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" s="3">
+        <v>4</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181" s="5">
+        <v>43126</v>
+      </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="5"/>
+      <c r="A182" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182" s="3">
+        <v>4</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H182" s="5">
+        <v>43130</v>
+      </c>
       <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
+      <c r="J182" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="3"/>
+      <c r="A183" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B183" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="3">
+        <v>8</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H183" s="5">
+        <v>43126</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="5"/>
+      <c r="A184" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B184" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="3">
+        <v>8</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H184" s="5">
+        <v>43129</v>
+      </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="5"/>
+      <c r="A185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B185" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H185" s="5">
+        <v>43126</v>
+      </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="5"/>
+    <row r="186" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B186" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="8">
+        <v>5</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H186" s="5">
+        <v>43126</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="8">
+        <v>5</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H187" s="5">
+        <v>43129</v>
+      </c>
       <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
+      <c r="J187" s="8"/>
+    </row>
+    <row r="188" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B188" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="8">
+        <v>1</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H188" s="5">
+        <v>43126</v>
+      </c>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+    </row>
+    <row r="189" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="8">
+        <v>1</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H189" s="5">
+        <v>43126</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="8">
+        <v>1</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H190" s="5">
+        <v>43126</v>
+      </c>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+    </row>
+    <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B191" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" s="8">
+        <v>1</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" s="5">
+        <v>43126</v>
+      </c>
+      <c r="I191" s="8"/>
+      <c r="J191" s="12"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="5"/>
+      <c r="A192" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="8">
+        <v>3</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H192" s="10">
+        <v>43129</v>
+      </c>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
+    </row>
+    <row r="193" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" s="8">
+        <v>1</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H193" s="10">
+        <v>43126</v>
+      </c>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
+    </row>
+    <row r="194" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" s="8">
+        <v>1</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H194" s="10">
+        <v>43129</v>
+      </c>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+    </row>
+    <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="8">
+        <v>1</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H195" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I195" s="8"/>
+      <c r="J195" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196" s="8">
+        <v>2</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" s="10">
+        <v>43129</v>
+      </c>
+      <c r="I196" s="8"/>
+      <c r="J196" s="8"/>
+    </row>
+    <row r="197" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E197" s="8">
+        <v>1</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H197" s="10">
+        <v>43129</v>
+      </c>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+    </row>
+    <row r="198" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" s="8">
+        <v>1</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H198" s="10">
+        <v>43129</v>
+      </c>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
+    </row>
+    <row r="199" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E199" s="8">
+        <v>1</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H199" s="10">
+        <v>43129</v>
+      </c>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+    </row>
+    <row r="200" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="8">
+        <v>1</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H200" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J200" s="8"/>
+    </row>
+    <row r="201" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B201" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" s="8">
+        <v>1</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H201" s="10">
+        <v>43131</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J201" s="8"/>
+    </row>
+    <row r="202" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202" s="8">
+        <v>1</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H202" s="10">
+        <v>43131</v>
+      </c>
       <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="5"/>
+      <c r="J202" s="8"/>
+    </row>
+    <row r="203" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B203" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="8">
+        <v>1</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H203" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J203" s="8"/>
+    </row>
+    <row r="204" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="8">
+        <v>1</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H204" s="10">
+        <v>43131</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J204" s="8"/>
+    </row>
+    <row r="205" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B205" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="8">
+        <v>1</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H205" s="10">
+        <v>43131</v>
+      </c>
       <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="J205" s="8"/>
+    </row>
+    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B206" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206" s="8">
+        <v>3</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H206" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
+    </row>
+    <row r="207" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" s="8">
+        <v>1</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H207" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I207" s="8"/>
+      <c r="J207" s="8"/>
+    </row>
+    <row r="208" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B208" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" s="8">
+        <v>4</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H208" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
+    </row>
+    <row r="209" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B209" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" s="8">
+        <v>2</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
+      <c r="A210" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="8">
+        <v>1</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H210" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="5"/>
+      <c r="A211" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B211" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="8">
+        <v>6</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H211" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I211" s="13"/>
+      <c r="J211" s="8"/>
+    </row>
+    <row r="212" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B212" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" s="8">
+        <v>1</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H212" s="10">
+        <v>43130</v>
+      </c>
+      <c r="I212" s="13"/>
+      <c r="J212" s="8"/>
+    </row>
+    <row r="213" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B213" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="8">
+        <v>4</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H213" s="10">
+        <v>43131</v>
+      </c>
+      <c r="I213" s="8"/>
+      <c r="J213" s="8"/>
+    </row>
+    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B214" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" s="8">
+        <v>1</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H214" s="10">
+        <v>43131</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J214" s="8"/>
+    </row>
+    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B215" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E215" s="8">
+        <v>1</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H215" s="10">
+        <v>43131</v>
+      </c>
       <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
+      <c r="J215" s="8"/>
+    </row>
+    <row r="216" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B216" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216" s="8">
+        <v>4</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H216" s="10">
+        <v>43131</v>
+      </c>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="5"/>
+      <c r="A217" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B217" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E217" s="8">
+        <v>1</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H217" s="10">
+        <v>43131</v>
+      </c>
+      <c r="I217" s="8"/>
+      <c r="J217" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B218" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E218" s="8">
+        <v>1</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H218" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J218" s="8"/>
+    </row>
+    <row r="219" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B219" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" s="8">
+        <v>1</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H219" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J219" s="8"/>
+    </row>
+    <row r="220" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B220" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220" s="8">
+        <v>1</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H220" s="10">
+        <v>43132</v>
+      </c>
       <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
+      <c r="J220" s="8"/>
+    </row>
+    <row r="221" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B221" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" s="8">
+        <v>33</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G221" s="6"/>
+      <c r="H221" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I221" s="8"/>
+      <c r="J221" s="8"/>
+    </row>
+    <row r="222" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B222" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" s="8">
+        <v>24</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G222" s="8"/>
+      <c r="H222" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I222" s="8"/>
+      <c r="J222" s="8"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="5"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="5"/>
+      <c r="A223" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E223" s="8">
+        <v>1</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H223" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I223" s="8"/>
+      <c r="J223" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B224" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="8">
+        <v>2</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H224" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I224" s="8"/>
+      <c r="J224" s="8"/>
+    </row>
+    <row r="225" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B225" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225" s="8">
+        <v>1</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H225" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B226" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226" s="8">
+        <v>1</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H226" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J226" s="8"/>
+    </row>
+    <row r="227" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" s="8">
+        <v>1</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H227" s="10">
+        <v>43132</v>
+      </c>
       <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
+      <c r="J227" s="8"/>
+    </row>
+    <row r="228" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B228" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="8">
+        <v>1</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H228" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I228" s="8"/>
+      <c r="J228" s="8"/>
+    </row>
+    <row r="229" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B229" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229" s="8">
+        <v>1</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H229" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I229" s="8"/>
+      <c r="J229" s="8"/>
+    </row>
+    <row r="230" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B230" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="8">
+        <v>2</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H230" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I230" s="8"/>
+      <c r="J230" s="8"/>
+    </row>
+    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B231" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" s="8">
+        <v>1</v>
+      </c>
+      <c r="F231" s="8"/>
+      <c r="G231" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H231" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I231" s="8"/>
+      <c r="J231" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B232" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" s="8">
+        <v>2</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H232" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I232" s="8"/>
+      <c r="J232" s="8"/>
+    </row>
+    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B233" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="8">
+        <v>1</v>
+      </c>
+      <c r="F233" s="8"/>
+      <c r="G233" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H233" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I233" s="8"/>
+      <c r="J233" s="8"/>
+    </row>
+    <row r="234" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B234" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" s="8">
+        <v>1</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H234" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I234" s="8"/>
+      <c r="J234" s="8"/>
+    </row>
+    <row r="235" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B235" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" s="8">
+        <v>1</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H235" s="10">
+        <v>43132</v>
+      </c>
+      <c r="I235" s="16"/>
+      <c r="J235" s="16"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="5"/>
+      <c r="A236" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B236" s="3">
+        <v>345.00400000000002</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" s="3">
+        <v>1</v>
+      </c>
+      <c r="F236" s="3">
+        <v>1</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H236" s="5">
+        <v>43125</v>
+      </c>
       <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
+      <c r="J236" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="5"/>
+      <c r="A237" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1</v>
+      </c>
+      <c r="F237" s="3">
+        <v>1</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H237" s="5">
+        <v>43127</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="3"/>
+      <c r="A238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B238" s="3">
+        <v>589.04999999999995</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="3">
+        <v>1</v>
+      </c>
+      <c r="F238" s="3">
+        <v>1</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H238" s="5">
+        <v>43129</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J238" s="3"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="5"/>
+      <c r="A239" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E239" s="3">
+        <v>1</v>
+      </c>
+      <c r="F239" s="3">
+        <v>1</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H239" s="5">
+        <v>43129</v>
+      </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="5"/>
+      <c r="A240" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B240" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1</v>
+      </c>
+      <c r="F240" s="3">
+        <v>4</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H240" s="5">
+        <v>43129</v>
+      </c>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="5"/>
+      <c r="A241" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B241" s="3">
+        <v>750.01099999999997</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E241" s="3">
+        <v>2</v>
+      </c>
+      <c r="F241" s="3">
+        <v>2</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H241" s="5">
+        <v>43129</v>
+      </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="3"/>
+      <c r="A242" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242" s="3">
+        <v>2</v>
+      </c>
+      <c r="F242" s="3">
+        <v>3</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H242" s="5">
+        <v>43129</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J242" s="3"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="5"/>
+      <c r="A243" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B243" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E243" s="3">
+        <v>2</v>
+      </c>
+      <c r="F243" s="3">
+        <v>3</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H243" s="5">
+        <v>43129</v>
+      </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="5"/>
+      <c r="A244" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B244" s="3">
+        <v>581.024</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="3">
+        <v>1</v>
+      </c>
+      <c r="F244" s="3">
+        <v>1</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H244" s="5">
+        <v>43129</v>
+      </c>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B245" s="3">
+        <v>928.00800000000004</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1</v>
+      </c>
+      <c r="F245" s="3">
+        <v>1</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H245" s="5">
+        <v>43130</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J245" s="3"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="5"/>
+      <c r="A246" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E246" s="3">
+        <v>1</v>
+      </c>
+      <c r="F246" s="3">
+        <v>1</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H246" s="5">
+        <v>43130</v>
+      </c>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="5"/>
-      <c r="I247" s="3"/>
+      <c r="A247" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B247" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1</v>
+      </c>
+      <c r="F247" s="3">
+        <v>1</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H247" s="5">
+        <v>43130</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J247" s="3"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="3"/>
+      <c r="A248" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H248" s="5">
+        <v>43130</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J248" s="3"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
+      <c r="A249" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="3">
+        <v>1</v>
+      </c>
       <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="5"/>
+      <c r="G249" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H249" s="5">
+        <v>43131</v>
+      </c>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="5"/>
+      <c r="A250" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" s="3">
+        <v>2</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H250" s="5">
+        <v>43131</v>
+      </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="5"/>
+      <c r="A251" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" s="3">
+        <v>2</v>
+      </c>
+      <c r="F251" s="3">
+        <v>2</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H251" s="5">
+        <v>43131</v>
+      </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="5"/>
-      <c r="I252" s="3"/>
+      <c r="A252" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" s="3">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3">
+        <v>4</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H252" s="5">
+        <v>43131</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J252" s="3"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="3"/>
+      <c r="A253" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" s="3">
+        <v>1</v>
+      </c>
+      <c r="F253" s="3">
+        <v>1</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H253" s="5">
+        <v>43131</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J253" s="3"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="5"/>
+      <c r="A254" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1</v>
+      </c>
+      <c r="F254" s="3">
+        <v>4</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H254" s="5">
+        <v>43131</v>
+      </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="3"/>
+      <c r="A255" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1</v>
+      </c>
+      <c r="F255" s="3">
+        <v>1</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H255" s="5">
+        <v>43131</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J255" s="3"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="5"/>
-      <c r="I256" s="3"/>
+      <c r="A256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F256" s="3">
+        <v>1</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H256" s="5">
+        <v>43131</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J256" s="3"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="5"/>
-      <c r="I257" s="3"/>
+      <c r="A257" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E257" s="3">
+        <v>1</v>
+      </c>
+      <c r="F257" s="3">
+        <v>1</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H257" s="5">
+        <v>43131</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J257" s="3"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="5"/>
+      <c r="A258" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1</v>
+      </c>
+      <c r="F258" s="3">
+        <v>1</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H258" s="5">
+        <v>43131</v>
+      </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
-      <c r="H259" s="5"/>
+      <c r="A259" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1</v>
+      </c>
+      <c r="F259" s="3">
+        <v>1</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H259" s="5">
+        <v>43131</v>
+      </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="5"/>
+      <c r="A260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B260" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1</v>
+      </c>
+      <c r="F260" s="3">
+        <v>1</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H260" s="5">
+        <v>43131</v>
+      </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="5"/>
+      <c r="A261" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1</v>
+      </c>
+      <c r="F261" s="3">
+        <v>1</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H261" s="5">
+        <v>43131</v>
+      </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="5"/>
-      <c r="I262" s="3"/>
+      <c r="A262" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H262" s="5">
+        <v>43132</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J262" s="3"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
+      <c r="A263" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1</v>
+      </c>
       <c r="F263" s="3"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="5"/>
+      <c r="G263" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H263" s="5">
+        <v>43132</v>
+      </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
+      <c r="A264" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
       <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="5"/>
+      <c r="G264" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H264" s="5">
+        <v>43132</v>
+      </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
+      <c r="A265" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265" s="3">
+        <v>1</v>
+      </c>
       <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="5"/>
+      <c r="G265" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H265" s="5">
+        <v>43132</v>
+      </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
+      <c r="A266" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1</v>
+      </c>
       <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="5"/>
+      <c r="G266" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H266" s="5">
+        <v>43132</v>
+      </c>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="5"/>
+      <c r="A267" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B267" s="3">
+        <v>345.00400000000002</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E267" s="3">
+        <v>1</v>
+      </c>
+      <c r="F267" s="3">
+        <v>1</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H267" s="5">
+        <v>43132</v>
+      </c>
       <c r="I267" s="3"/>
-      <c r="J267" s="3"/>
+      <c r="J267" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="5"/>
-      <c r="I268" s="3"/>
+      <c r="A268" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B268" s="3">
+        <v>750.01099999999997</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" s="3">
+        <v>2</v>
+      </c>
+      <c r="F268" s="3">
+        <v>3</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H268" s="5">
+        <v>43132</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J268" s="3"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="5"/>
+      <c r="A269" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B269" s="3">
+        <v>1075.001</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E269" s="3">
+        <v>1</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H269" s="5">
+        <v>43133</v>
+      </c>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="5"/>
+      <c r="A270" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270" s="3">
+        <v>750.01099999999997</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E270" s="3">
+        <v>2</v>
+      </c>
+      <c r="F270" s="3">
+        <v>3</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H270" s="5">
+        <v>43133</v>
+      </c>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
@@ -7531,59 +9219,2021 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="3"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="3"/>
+      <c r="J301" s="3"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="3"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="3"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="3"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="3"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="3"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="3"/>
+      <c r="J306" s="3"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="3"/>
+      <c r="J307" s="3"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="3"/>
+      <c r="J310" s="3"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="3"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="3"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+      <c r="G322" s="3"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="3"/>
+      <c r="J322" s="3"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+      <c r="F323" s="3"/>
+      <c r="G323" s="3"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="3"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="3"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="3"/>
+      <c r="G325" s="3"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="3"/>
+      <c r="J325" s="3"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="3"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+      <c r="F328" s="3"/>
+      <c r="G328" s="3"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="3"/>
+      <c r="J328" s="3"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="3"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+      <c r="F329" s="3"/>
+      <c r="G329" s="3"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="3"/>
+      <c r="J329" s="3"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="3"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+      <c r="F330" s="3"/>
+      <c r="G330" s="3"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="3"/>
+      <c r="J330" s="3"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+      <c r="G331" s="3"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="3"/>
+      <c r="J331" s="3"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="3"/>
+      <c r="G332" s="3"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="3"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="3"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
+      <c r="F335" s="3"/>
+      <c r="G335" s="3"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="3"/>
+      <c r="J335" s="3"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
+      <c r="F336" s="3"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="3"/>
+      <c r="J336" s="3"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+      <c r="F338" s="3"/>
+      <c r="G338" s="3"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3"/>
+      <c r="G342" s="3"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="3"/>
+      <c r="J342" s="3"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3"/>
+      <c r="G343" s="3"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+      <c r="F344" s="3"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="3"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="3"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="3"/>
+      <c r="J347" s="3"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+      <c r="F348" s="3"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="3"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="3"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="3"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+      <c r="F350" s="3"/>
+      <c r="G350" s="3"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="3"/>
+      <c r="J350" s="3"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="3"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+      <c r="F352" s="3"/>
+      <c r="G352" s="3"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="3"/>
+      <c r="J352" s="3"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+      <c r="F353" s="3"/>
+      <c r="G353" s="3"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="3"/>
+      <c r="J353" s="3"/>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="3"/>
+      <c r="J354" s="3"/>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="3"/>
+      <c r="J355" s="3"/>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="3"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
+      <c r="F357" s="3"/>
+      <c r="G357" s="3"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="3"/>
+      <c r="J357" s="3"/>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="3"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="3"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="3"/>
+      <c r="G359" s="3"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="3"/>
+      <c r="J359" s="3"/>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="3"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+      <c r="F360" s="3"/>
+      <c r="G360" s="3"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="3"/>
+      <c r="J360" s="3"/>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="3"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+      <c r="F361" s="3"/>
+      <c r="G361" s="3"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="3"/>
+      <c r="J361" s="3"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="3"/>
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+      <c r="F362" s="3"/>
+      <c r="G362" s="3"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="3"/>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="3"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="3"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="3"/>
+      <c r="G365" s="3"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="3"/>
+      <c r="E367" s="3"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="3"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="3"/>
+      <c r="J367" s="3"/>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+      <c r="F368" s="3"/>
+      <c r="G368" s="3"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="3"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="3"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="3"/>
+      <c r="J369" s="3"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3"/>
+      <c r="G370" s="3"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="3"/>
+      <c r="J370" s="3"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="3"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="3"/>
+      <c r="E371" s="3"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="3"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="3"/>
+      <c r="J371" s="3"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="3"/>
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
+      <c r="F372" s="3"/>
+      <c r="G372" s="3"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="3"/>
+      <c r="J372" s="3"/>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="3"/>
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+      <c r="F373" s="3"/>
+      <c r="G373" s="3"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="3"/>
+      <c r="J373" s="3"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="3"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="3"/>
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="3"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="3"/>
+      <c r="J375" s="3"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="3"/>
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+      <c r="F376" s="3"/>
+      <c r="G376" s="3"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="3"/>
+      <c r="J376" s="3"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="3"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="3"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="3"/>
+      <c r="J377" s="3"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="3"/>
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+      <c r="F378" s="3"/>
+      <c r="G378" s="3"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="3"/>
+      <c r="J378" s="3"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+      <c r="F379" s="3"/>
+      <c r="G379" s="3"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="3"/>
+      <c r="J379" s="3"/>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="3"/>
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+      <c r="D380" s="3"/>
+      <c r="E380" s="3"/>
+      <c r="F380" s="3"/>
+      <c r="G380" s="3"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="3"/>
+      <c r="J380" s="3"/>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="3"/>
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="3"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="3"/>
+      <c r="J381" s="3"/>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="3"/>
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+      <c r="D382" s="3"/>
+      <c r="E382" s="3"/>
+      <c r="F382" s="3"/>
+      <c r="G382" s="3"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="3"/>
+      <c r="J382" s="3"/>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="3"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+      <c r="F383" s="3"/>
+      <c r="G383" s="3"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="3"/>
+      <c r="J383" s="3"/>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="3"/>
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+      <c r="F384" s="3"/>
+      <c r="G384" s="3"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="3"/>
+      <c r="J384" s="3"/>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="3"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+      <c r="F385" s="3"/>
+      <c r="G385" s="3"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="3"/>
+      <c r="J385" s="3"/>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="3"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+      <c r="F386" s="3"/>
+      <c r="G386" s="3"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="3"/>
+      <c r="J386" s="3"/>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="3"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="3"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="3"/>
+      <c r="J387" s="3"/>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+      <c r="F388" s="3"/>
+      <c r="G388" s="3"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="3"/>
+      <c r="J388" s="3"/>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="3"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="3"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="3"/>
+      <c r="J389" s="3"/>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="3"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+      <c r="F390" s="3"/>
+      <c r="G390" s="3"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="3"/>
+      <c r="J390" s="3"/>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="3"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="3"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="3"/>
+      <c r="G392" s="3"/>
+      <c r="H392" s="5"/>
+      <c r="I392" s="3"/>
+      <c r="J392" s="3"/>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+      <c r="F393" s="3"/>
+      <c r="G393" s="3"/>
+      <c r="H393" s="5"/>
+      <c r="I393" s="3"/>
+      <c r="J393" s="3"/>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="3"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+      <c r="F394" s="3"/>
+      <c r="G394" s="3"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="3"/>
+      <c r="J394" s="3"/>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="3"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+      <c r="F395" s="3"/>
+      <c r="G395" s="3"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="3"/>
+      <c r="J395" s="3"/>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="3"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="3"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="3"/>
+      <c r="J396" s="3"/>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="3"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+      <c r="F397" s="3"/>
+      <c r="G397" s="3"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="3"/>
+      <c r="J397" s="3"/>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="3"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+      <c r="F398" s="3"/>
+      <c r="G398" s="3"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="3"/>
+      <c r="J398" s="3"/>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="3"/>
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+      <c r="D399" s="3"/>
+      <c r="E399" s="3"/>
+      <c r="F399" s="3"/>
+      <c r="G399" s="3"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="3"/>
+      <c r="J399" s="3"/>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="3"/>
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="3"/>
+      <c r="E400" s="3"/>
+      <c r="F400" s="3"/>
+      <c r="G400" s="3"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="3"/>
+      <c r="J400" s="3"/>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="3"/>
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
+      <c r="D401" s="3"/>
+      <c r="E401" s="3"/>
+      <c r="F401" s="3"/>
+      <c r="G401" s="3"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="3"/>
+      <c r="J401" s="3"/>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="3"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+      <c r="F402" s="3"/>
+      <c r="G402" s="3"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="3"/>
+      <c r="J402" s="3"/>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="3"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
+      <c r="D403" s="3"/>
+      <c r="E403" s="3"/>
+      <c r="F403" s="3"/>
+      <c r="G403" s="3"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="3"/>
+      <c r="J403" s="3"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="3"/>
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+      <c r="D404" s="3"/>
+      <c r="E404" s="3"/>
+      <c r="F404" s="3"/>
+      <c r="G404" s="3"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="3"/>
+      <c r="J404" s="3"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="3"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
+      <c r="E405" s="3"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="3"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="3"/>
+      <c r="J405" s="3"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="3"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+      <c r="G406" s="3"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="3"/>
+      <c r="J406" s="3"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="3"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+      <c r="F407" s="3"/>
+      <c r="G407" s="3"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="3"/>
+      <c r="J407" s="3"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="3"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="3"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="3"/>
+      <c r="J408" s="3"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="3"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="3"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="3"/>
+      <c r="J409" s="3"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="3"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="3"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="3"/>
+      <c r="J410" s="3"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="3"/>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="3"/>
+      <c r="E411" s="3"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="3"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="3"/>
+      <c r="J411" s="3"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" s="3"/>
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+      <c r="D412" s="3"/>
+      <c r="E412" s="3"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="3"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="3"/>
+      <c r="J412" s="3"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="3"/>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+      <c r="D413" s="3"/>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="3"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="3"/>
+      <c r="J413" s="3"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" s="3"/>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
+      <c r="D414" s="3"/>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="3"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="3"/>
+      <c r="J414" s="3"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="3"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+      <c r="D415" s="3"/>
+      <c r="E415" s="3"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="3"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="3"/>
+      <c r="J415" s="3"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="3"/>
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+      <c r="D416" s="3"/>
+      <c r="E416" s="3"/>
+      <c r="F416" s="3"/>
+      <c r="G416" s="3"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="3"/>
+      <c r="J416" s="3"/>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" s="3"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="3"/>
+      <c r="E417" s="3"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="3"/>
+      <c r="H417" s="5"/>
+      <c r="I417" s="3"/>
+      <c r="J417" s="3"/>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="3"/>
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+      <c r="D418" s="3"/>
+      <c r="E418" s="3"/>
+      <c r="F418" s="3"/>
+      <c r="G418" s="3"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="3"/>
+      <c r="J418" s="3"/>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="3"/>
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
+      <c r="F419" s="3"/>
+      <c r="G419" s="3"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="3"/>
+      <c r="J419" s="3"/>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="3"/>
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="3"/>
+      <c r="H420" s="5"/>
+      <c r="I420" s="3"/>
+      <c r="J420" s="3"/>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="3"/>
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
+      <c r="E421" s="3"/>
+      <c r="F421" s="3"/>
+      <c r="G421" s="3"/>
+      <c r="H421" s="5"/>
+      <c r="I421" s="3"/>
+      <c r="J421" s="3"/>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="3"/>
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+      <c r="D422" s="3"/>
+      <c r="E422" s="3"/>
+      <c r="F422" s="3"/>
+      <c r="G422" s="3"/>
+      <c r="H422" s="5"/>
+      <c r="I422" s="3"/>
+      <c r="J422" s="3"/>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="3"/>
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="3"/>
+      <c r="E423" s="3"/>
+      <c r="F423" s="3"/>
+      <c r="G423" s="3"/>
+      <c r="H423" s="5"/>
+      <c r="I423" s="3"/>
+      <c r="J423" s="3"/>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="3"/>
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+      <c r="D424" s="3"/>
+      <c r="E424" s="3"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="3"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="3"/>
+      <c r="J424" s="3"/>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" s="3"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="3"/>
+      <c r="E425" s="3"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="3"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="3"/>
+      <c r="J425" s="3"/>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" s="3"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="3"/>
+      <c r="E426" s="3"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="3"/>
+      <c r="H426" s="5"/>
+      <c r="I426" s="3"/>
+      <c r="J426" s="3"/>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="3"/>
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+      <c r="D427" s="3"/>
+      <c r="E427" s="3"/>
+      <c r="F427" s="3"/>
+      <c r="G427" s="3"/>
+      <c r="H427" s="5"/>
+      <c r="I427" s="3"/>
+      <c r="J427" s="3"/>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" s="3"/>
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3"/>
+      <c r="E428" s="3"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="3"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="3"/>
+      <c r="J428" s="3"/>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" s="3"/>
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="3"/>
+      <c r="E429" s="3"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="3"/>
+      <c r="H429" s="5"/>
+      <c r="I429" s="3"/>
+      <c r="J429" s="3"/>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" s="3"/>
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+      <c r="D430" s="3"/>
+      <c r="E430" s="3"/>
+      <c r="F430" s="3"/>
+      <c r="G430" s="3"/>
+      <c r="H430" s="5"/>
+      <c r="I430" s="3"/>
+      <c r="J430" s="3"/>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" s="3"/>
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="3"/>
+      <c r="E431" s="3"/>
+      <c r="F431" s="3"/>
+      <c r="G431" s="3"/>
+      <c r="H431" s="5"/>
+      <c r="I431" s="3"/>
+      <c r="J431" s="3"/>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="3"/>
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+      <c r="D432" s="3"/>
+      <c r="E432" s="3"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="3"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="3"/>
+      <c r="J432" s="3"/>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="3"/>
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+      <c r="D433" s="3"/>
+      <c r="E433" s="3"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="3"/>
+      <c r="H433" s="5"/>
+      <c r="I433" s="3"/>
+      <c r="J433" s="3"/>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" s="3"/>
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="3"/>
+      <c r="E434" s="3"/>
+      <c r="F434" s="3"/>
+      <c r="G434" s="3"/>
+      <c r="H434" s="5"/>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" s="3"/>
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="3"/>
+      <c r="E435" s="3"/>
+      <c r="F435" s="3"/>
+      <c r="G435" s="3"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="3"/>
+      <c r="J435" s="3"/>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" s="3"/>
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+      <c r="D436" s="3"/>
+      <c r="E436" s="3"/>
+      <c r="F436" s="3"/>
+      <c r="G436" s="3"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="3"/>
+      <c r="J436" s="3"/>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="3"/>
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+      <c r="D437" s="3"/>
+      <c r="E437" s="3"/>
+      <c r="F437" s="3"/>
+      <c r="G437" s="3"/>
+      <c r="H437" s="5"/>
+      <c r="I437" s="3"/>
+      <c r="J437" s="3"/>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="3"/>
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="3"/>
+      <c r="E438" s="3"/>
+      <c r="F438" s="3"/>
+      <c r="G438" s="3"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="3"/>
+      <c r="J438" s="3"/>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="3"/>
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+      <c r="D439" s="3"/>
+      <c r="E439" s="3"/>
+      <c r="F439" s="3"/>
+      <c r="G439" s="3"/>
+      <c r="H439" s="5"/>
+      <c r="I439" s="3"/>
+      <c r="J439" s="3"/>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="3"/>
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="3"/>
+      <c r="E440" s="3"/>
+      <c r="F440" s="3"/>
+      <c r="G440" s="3"/>
+      <c r="H440" s="5"/>
+      <c r="I440" s="3"/>
+      <c r="J440" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Deliverable Types'!$A$1:$A$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>D276:D394</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A5 A67:A72 A109:A111 A178:A275</xm:sqref>
+          <xm:sqref>A2:A5 A67:A72 A109:A111 A178 A236:A440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 I67:I72 I109:I111 I178:I275</xm:sqref>
+          <xm:sqref>I2:I178 I236:I440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G5 G67:G72 G109:G111 G178:G275</xm:sqref>
+          <xm:sqref>G2:G178 G236:G440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Application!$A$2:$A$42</xm:f>
+            <xm:f>Application!$A$2:$A$43</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C42 C67:C72 C109:C111 C178:C275</xm:sqref>
+          <xm:sqref>C2:C178 C236:C440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Deliverable Types'!$A$1:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D5 D22:D23 D67:D72 D109:D111 D178:D275</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\warnoek\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\6JWVL9LX\[First Pass Acceptance_Beilah 1182018.xlsx]Reasons for Disapproval'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I26:I42 I6:I23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\warnoek\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\6JWVL9LX\[First Pass Acceptance_Beilah 1182018.xlsx]A or D'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G6:G42</xm:sqref>
+          <xm:sqref>D2:D178 D236:D440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7593,39 +11243,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\warnoek\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\6JWVL9LX\[First Pass Acceptance_Beilah 1182018.xlsx]Deliverable Types'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6:D21 D24:D42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]A or D'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G73:G108</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Application'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C73:C108</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Reasons for Disapproval'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I73:I108</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A73:A108</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Deliverable Types'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D73:D108</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7635,27 +11255,45 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[First Pass Acceptance_Beilah 1252018.xlsx]Deliverable Types'!#REF!</xm:f>
+            <xm:f>'C:\Users\warnoek\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\6JWVL9LX\[First Pass Acceptance_Beilah 1182018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D112:D177</xm:sqref>
+          <xm:sqref>G222</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[First Pass Acceptance_Beilah 1252018.xlsx]Application'!#REF!</xm:f>
+            <xm:f>'C:\Users\warnoek\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\6JWVL9LX\[First Pass Acceptance_Beilah 1182018.xlsx]Reasons for Disapproval'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C112:C177</xm:sqref>
+          <xm:sqref>I206:I210 I188 I190:I199 I213 I216:I217 I221:I224 I228:I234</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[First Pass Acceptance_Beilah 1252018.xlsx]A or D'!#REF!</xm:f>
+            <xm:f>'[First Pass Acceptance_Beilah 212018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G112:G177</xm:sqref>
+          <xm:sqref>D179:D235</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[First Pass Acceptance_Beilah 1252018.xlsx]Reasons for Disapproval'!#REF!</xm:f>
+            <xm:f>'[First Pass Acceptance_Beilah 212018.xlsx]Application'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I112:I177</xm:sqref>
+          <xm:sqref>C179:C235</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 212018.xlsx]A or D'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G223:G235 G179:G221</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 212018.xlsx]Reasons for Disapproval'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I179:I187 I189 I200:I205 I214:I215 I225:I227 I218:I220</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SQA!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A179:A235</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7700,10 +11338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7763,7 +11401,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -7833,7 +11471,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -7843,92 +11481,97 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A8">
-    <sortState ref="A2:A41">
+    <sortState ref="A2:A42">
       <sortCondition ref="A1:A8"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:A42">
-    <sortCondition ref="A2:A42"/>
+  <sortState ref="A2:A43">
+    <sortCondition ref="A2:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7939,7 +11582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -7995,7 +11638,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -8005,7 +11648,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,11 +23,10 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Application!$A$1:$A$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FPA!$A$1:$J$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FPA!$A$1:$J$270</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="242">
   <si>
     <t>Project ID</t>
   </si>
@@ -462,9 +461,6 @@
     <t>Sas Micro Biasplot</t>
   </si>
   <si>
-    <t>NIck</t>
-  </si>
-  <si>
     <t>Approver List</t>
   </si>
   <si>
@@ -484,9 +480,6 @@
   </si>
   <si>
     <t>ePAS 16-38941 V3</t>
-  </si>
-  <si>
-    <t>nick</t>
   </si>
   <si>
     <t>No instruction to generate Objective Evidence</t>
@@ -1027,29 +1020,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="First Pass Acceptance"/>
-      <sheetName val="SQA"/>
-      <sheetName val="Application"/>
-      <sheetName val="Deliverable Types"/>
-      <sheetName val="Reasons for Disapproval"/>
-      <sheetName val="A or D"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="SQA"/>
       <sheetName val="Deliverable Types"/>
       <sheetName val="Application"/>
@@ -1067,7 +1037,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1388,8 +1358,8 @@
   <dimension ref="A1:J440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,7 +3605,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B79" s="21">
         <v>589.04999999999995</v>
@@ -3720,7 +3690,7 @@
         <v>28</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3752,7 +3722,7 @@
         <v>28</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3788,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>135</v>
@@ -3814,7 +3784,7 @@
         <v>39</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>65</v>
@@ -3834,7 +3804,7 @@
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3842,7 +3812,7 @@
         <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>65</v>
@@ -3862,7 +3832,7 @@
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,7 +3978,7 @@
         <v>55</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4016,7 +3986,7 @@
         <v>39</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>135</v>
@@ -4125,7 +4095,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="B96" s="3">
         <v>1075.001</v>
@@ -4556,7 +4526,7 @@
         <v>31</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4614,7 +4584,7 @@
         <v>31</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4674,7 +4644,7 @@
         <v>31</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4722,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>57</v>
@@ -4732,7 +4702,7 @@
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4762,7 +4732,7 @@
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4792,7 +4762,7 @@
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4812,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>58</v>
@@ -4842,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>57</v>
@@ -4870,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>74</v>
@@ -4898,7 +4868,7 @@
         <v>4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>58</v>
@@ -4908,7 +4878,7 @@
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4928,7 +4898,7 @@
         <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>57</v>
@@ -4956,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>58</v>
@@ -4966,7 +4936,7 @@
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4986,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>57</v>
@@ -5014,7 +4984,7 @@
         <v>4</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>58</v>
@@ -5024,7 +4994,7 @@
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>57</v>
@@ -5072,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>74</v>
@@ -5100,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>74</v>
@@ -5128,7 +5098,7 @@
         <v>5</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>58</v>
@@ -5158,7 +5128,7 @@
         <v>5</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>57</v>
@@ -5186,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>57</v>
@@ -5196,7 +5166,7 @@
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5216,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>74</v>
@@ -5244,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>57</v>
@@ -5254,7 +5224,7 @@
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5274,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>57</v>
@@ -5284,7 +5254,7 @@
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5304,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>74</v>
@@ -5332,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>74</v>
@@ -5348,7 +5318,7 @@
         <v>37</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>51</v>
@@ -5360,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>74</v>
@@ -5388,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>74</v>
@@ -5416,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>74</v>
@@ -5444,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>58</v>
@@ -5474,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>57</v>
@@ -5502,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>58</v>
@@ -5532,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>57</v>
@@ -5560,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>58</v>
@@ -5590,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>58</v>
@@ -5620,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>58</v>
@@ -5650,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>58</v>
@@ -5680,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>58</v>
@@ -5710,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>57</v>
@@ -5738,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>58</v>
@@ -5748,7 +5718,7 @@
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5768,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>58</v>
@@ -5798,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>74</v>
@@ -5826,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>74</v>
@@ -5854,7 +5824,7 @@
         <v>4</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>74</v>
@@ -5882,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>74</v>
@@ -5910,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>74</v>
@@ -5950,7 +5920,7 @@
         <v>29</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6026,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>58</v>
@@ -6056,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>57</v>
@@ -6066,7 +6036,7 @@
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6086,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>74</v>
@@ -6114,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>74</v>
@@ -6142,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>58</v>
@@ -6172,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>57</v>
@@ -6200,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>57</v>
@@ -6210,7 +6180,7 @@
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -6230,7 +6200,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>57</v>
@@ -6240,7 +6210,7 @@
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6260,7 +6230,7 @@
         <v>16</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>58</v>
@@ -6272,7 +6242,7 @@
         <v>31</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6292,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>57</v>
@@ -6320,7 +6290,7 @@
         <v>7</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>58</v>
@@ -6350,7 +6320,7 @@
         <v>7</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>57</v>
@@ -6378,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>74</v>
@@ -6406,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>74</v>
@@ -6434,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>74</v>
@@ -6462,7 +6432,7 @@
         <v>11</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>74</v>
@@ -6490,7 +6460,7 @@
         <v>5</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>58</v>
@@ -6508,10 +6478,10 @@
         <v>38</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>6</v>
@@ -6546,7 +6516,7 @@
         <v>2</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G179" s="6" t="s">
         <v>58</v>
@@ -6576,7 +6546,7 @@
         <v>3</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G180" s="6" t="s">
         <v>57</v>
@@ -6604,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G181" s="6" t="s">
         <v>74</v>
@@ -6632,7 +6602,7 @@
         <v>4</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>74</v>
@@ -6642,7 +6612,7 @@
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6662,7 +6632,7 @@
         <v>8</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G183" s="6" t="s">
         <v>58</v>
@@ -6692,7 +6662,7 @@
         <v>8</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>57</v>
@@ -6720,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G185" s="6" t="s">
         <v>74</v>
@@ -6748,7 +6718,7 @@
         <v>5</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>58</v>
@@ -6760,7 +6730,7 @@
         <v>36</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -6780,7 +6750,7 @@
         <v>5</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G187" s="6" t="s">
         <v>57</v>
@@ -6808,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G188" s="6" t="s">
         <v>57</v>
@@ -6836,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>58</v>
@@ -6848,7 +6818,7 @@
         <v>36</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -6868,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G190" s="6" t="s">
         <v>74</v>
@@ -6896,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>74</v>
@@ -6924,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>74</v>
@@ -6952,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>58</v>
@@ -6980,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>57</v>
@@ -7008,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>74</v>
@@ -7018,7 +6988,7 @@
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7038,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>74</v>
@@ -7066,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>74</v>
@@ -7094,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>74</v>
@@ -7122,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>74</v>
@@ -7150,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G200" s="6" t="s">
         <v>58</v>
@@ -7180,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>58</v>
@@ -7210,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G202" s="6" t="s">
         <v>57</v>
@@ -7238,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G203" s="6" t="s">
         <v>58</v>
@@ -7268,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G204" s="6" t="s">
         <v>58</v>
@@ -7298,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>57</v>
@@ -7326,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G206" s="6" t="s">
         <v>74</v>
@@ -7354,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>74</v>
@@ -7382,7 +7352,7 @@
         <v>4</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>74</v>
@@ -7410,7 +7380,7 @@
         <v>2</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G209" s="6" t="s">
         <v>74</v>
@@ -7438,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G210" s="6" t="s">
         <v>57</v>
@@ -7448,7 +7418,7 @@
       </c>
       <c r="I210" s="8"/>
       <c r="J210" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7456,7 +7426,7 @@
         <v>37</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>42</v>
@@ -7468,7 +7438,7 @@
         <v>6</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>74</v>
@@ -7496,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>74</v>
@@ -7524,7 +7494,7 @@
         <v>4</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G213" s="6" t="s">
         <v>74</v>
@@ -7552,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G214" s="6" t="s">
         <v>58</v>
@@ -7582,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>57</v>
@@ -7610,7 +7580,7 @@
         <v>4</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>74</v>
@@ -7638,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>57</v>
@@ -7648,7 +7618,7 @@
       </c>
       <c r="I217" s="8"/>
       <c r="J217" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -7668,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>58</v>
@@ -7698,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>58</v>
@@ -7728,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>57</v>
@@ -7756,7 +7726,7 @@
         <v>33</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="10">
@@ -7782,7 +7752,7 @@
         <v>24</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G222" s="8"/>
       <c r="H222" s="10">
@@ -7818,7 +7788,7 @@
       </c>
       <c r="I223" s="8"/>
       <c r="J223" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7838,7 +7808,7 @@
         <v>2</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G224" s="6" t="s">
         <v>74</v>
@@ -7866,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>58</v>
@@ -7878,7 +7848,7 @@
         <v>32</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -7898,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G226" s="6" t="s">
         <v>58</v>
@@ -7928,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G227" s="6" t="s">
         <v>57</v>
@@ -7956,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>74</v>
@@ -7984,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G229" s="6" t="s">
         <v>74</v>
@@ -8028,7 +7998,7 @@
         <v>37</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>70</v>
@@ -8048,7 +8018,7 @@
       </c>
       <c r="I231" s="8"/>
       <c r="J231" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -8068,7 +8038,7 @@
         <v>2</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G232" s="6" t="s">
         <v>74</v>
@@ -8084,7 +8054,7 @@
         <v>37</v>
       </c>
       <c r="B233" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>70</v>
@@ -8122,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G234" s="6" t="s">
         <v>74</v>
@@ -8150,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G235" s="6" t="s">
         <v>74</v>
@@ -8188,7 +8158,7 @@
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -8260,7 +8230,7 @@
         <v>64</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E239" s="3">
         <v>1</v>
@@ -8542,7 +8512,7 @@
         <v>39</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>65</v>
@@ -8830,7 +8800,7 @@
         <v>39</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>135</v>
@@ -8926,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G262" s="3" t="s">
         <v>58</v>
@@ -8944,7 +8914,7 @@
         <v>39</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>65</v>
@@ -8970,7 +8940,7 @@
         <v>39</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>65</v>
@@ -8996,7 +8966,7 @@
         <v>39</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>65</v>
@@ -9022,7 +8992,7 @@
         <v>39</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>65</v>
@@ -9070,7 +9040,7 @@
       </c>
       <c r="I267" s="3"/>
       <c r="J267" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -9120,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>57</v>
@@ -11243,7 +11213,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]SQA'!#REF!</xm:f>
+            <xm:f>SQA!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>A73:A108</xm:sqref>
         </x14:dataValidation>
@@ -11481,7 +11451,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -11638,7 +11608,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -24,7 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Application!$A$1:$A$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FPA!$A$1:$J$587</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FPA!$A$1:$J$659</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="451">
   <si>
     <t>Project ID</t>
   </si>
@@ -1265,14 +1265,141 @@
   </si>
   <si>
     <t>ePAS 18-5711 V1</t>
+  </si>
+  <si>
+    <t>DP_Download_Protocol_v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WWLIMS WorkStation v9.3 - LC Prod (multiple)</t>
+  </si>
+  <si>
+    <t>EDMS - Sovan Unit Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Instrument Server-v9.3 -LC PROD (multiple)</t>
+  </si>
+  <si>
+    <t>PEAR5.0.1 SAS9.4 Analysis Generation - Unit Testing</t>
+  </si>
+  <si>
+    <t>DP_Download_Protocol_v4</t>
+  </si>
+  <si>
+    <t>Fixed protocol error</t>
+  </si>
+  <si>
+    <t>Code Review - CR_Public Websites</t>
+  </si>
+  <si>
+    <t>Code Review - CR_Distributor Portal</t>
+  </si>
+  <si>
+    <t>Primary Test Protocol 1</t>
+  </si>
+  <si>
+    <t>Regression Test Protocol</t>
+  </si>
+  <si>
+    <t>Primary Test Protocol - 1l</t>
+  </si>
+  <si>
+    <t>EDMS - Sovan Unit Testing-2</t>
+  </si>
+  <si>
+    <t>EDMS-Satish Unit Testing 2</t>
+  </si>
+  <si>
+    <t>ePAS 18-6813 v1</t>
+  </si>
+  <si>
+    <t>ePAS 18-7032 v1</t>
+  </si>
+  <si>
+    <t>55.041</t>
+  </si>
+  <si>
+    <t>EDMS Unit Testing - Regression</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol - WWLIMS WorkStation v9.3_UAT_SligoDb Migration</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol - WWLIMS Supplemental Items v9.3 - UAT_Sligo DB Migration</t>
+  </si>
+  <si>
+    <t>User Acceptance Test Protocol - Sligo: ADDIE6D0D6303L</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol Results: wa01924p</t>
+  </si>
+  <si>
+    <t>Primary Test Protocol - 1</t>
+  </si>
+  <si>
+    <t>Test Protocol - M1 S3 ZX and R1 Analysis Download and Output Protocol</t>
+  </si>
+  <si>
+    <t>conditional cert completed</t>
+  </si>
+  <si>
+    <t>done through email review</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol - Instrument Manager Service(Link to v9.21)</t>
+  </si>
+  <si>
+    <t>ePAS 18-7778 V1</t>
+  </si>
+  <si>
+    <t>ePAS 16-26283 V16</t>
+  </si>
+  <si>
+    <t>ePAS 13-28491 V32</t>
+  </si>
+  <si>
+    <t>ePAS 17-4072 V15</t>
+  </si>
+  <si>
+    <t>ePAS 17-19657</t>
+  </si>
+  <si>
+    <t>ePAS 16-37034 v5</t>
+  </si>
+  <si>
+    <t>ePAS 18-9570 V1</t>
+  </si>
+  <si>
+    <t>Incomplete information</t>
+  </si>
+  <si>
+    <t>ePAS 18-7062 V1</t>
+  </si>
+  <si>
+    <t>ePAS 18-9122 v1</t>
+  </si>
+  <si>
+    <t>ePAS 18-9775 v1</t>
+  </si>
+  <si>
+    <t>Missing approvers</t>
+  </si>
+  <si>
+    <t>Missing approvers and incorrect approvers</t>
+  </si>
+  <si>
+    <t>ePAS 18-9573 V1</t>
+  </si>
+  <si>
+    <t>Power BI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1420,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1514,6 +1641,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1841,11 +1972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1367"/>
+  <dimension ref="A1:J1366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J587" sqref="A1:J587"/>
+      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A670" sqref="A670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18490,998 +18621,2296 @@
       <c r="J587" s="3"/>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A588" s="3"/>
-      <c r="B588" s="29"/>
-      <c r="C588" s="3"/>
-      <c r="D588" s="3"/>
-      <c r="E588" s="3"/>
+      <c r="A588" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B588" s="39">
+        <v>1104</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E588" s="3">
+        <v>1</v>
+      </c>
       <c r="F588" s="3"/>
-      <c r="G588" s="3"/>
-      <c r="H588" s="5"/>
-      <c r="I588" s="3"/>
+      <c r="G588" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H588" s="5">
+        <v>43166</v>
+      </c>
+      <c r="I588" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J588" s="3"/>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A589" s="3"/>
-      <c r="B589" s="29"/>
-      <c r="C589" s="3"/>
-      <c r="D589" s="3"/>
-      <c r="E589" s="3"/>
-      <c r="F589" s="3"/>
-      <c r="G589" s="3"/>
-      <c r="H589" s="5"/>
+      <c r="A589" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B589" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E589" s="3">
+        <v>3</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H589" s="5">
+        <v>43161</v>
+      </c>
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A590" s="3"/>
-      <c r="B590" s="29"/>
-      <c r="C590" s="3"/>
-      <c r="D590" s="3"/>
-      <c r="E590" s="3"/>
-      <c r="F590" s="3"/>
-      <c r="G590" s="3"/>
-      <c r="H590" s="5"/>
+      <c r="A590" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B590" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E590" s="3">
+        <v>1</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H590" s="5">
+        <v>43161</v>
+      </c>
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A591" s="3"/>
-      <c r="B591" s="29"/>
-      <c r="C591" s="3"/>
-      <c r="D591" s="3"/>
-      <c r="E591" s="3"/>
-      <c r="F591" s="3"/>
-      <c r="G591" s="3"/>
-      <c r="H591" s="5"/>
+      <c r="A591" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B591" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E591" s="3">
+        <v>1</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H591" s="5">
+        <v>43161</v>
+      </c>
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A592" s="3"/>
-      <c r="B592" s="29"/>
-      <c r="C592" s="3"/>
-      <c r="D592" s="3"/>
-      <c r="E592" s="3"/>
-      <c r="F592" s="3"/>
-      <c r="G592" s="3"/>
-      <c r="H592" s="5"/>
+      <c r="A592" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B592" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E592" s="3">
+        <v>1</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H592" s="5">
+        <v>43161</v>
+      </c>
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A593" s="3"/>
-      <c r="B593" s="29"/>
-      <c r="C593" s="3"/>
-      <c r="D593" s="3"/>
-      <c r="E593" s="3"/>
-      <c r="F593" s="3"/>
-      <c r="G593" s="3"/>
-      <c r="H593" s="5"/>
+      <c r="A593" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B593" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E593" s="3">
+        <v>3</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H593" s="5">
+        <v>43161</v>
+      </c>
       <c r="I593" s="3"/>
-      <c r="J593" s="3"/>
+      <c r="J593" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A594" s="3"/>
-      <c r="B594" s="29"/>
-      <c r="C594" s="3"/>
-      <c r="D594" s="3"/>
-      <c r="E594" s="3"/>
-      <c r="F594" s="3"/>
-      <c r="G594" s="3"/>
-      <c r="H594" s="5"/>
+      <c r="A594" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B594" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E594" s="3">
+        <v>3</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H594" s="5">
+        <v>43164</v>
+      </c>
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A595" s="3"/>
-      <c r="B595" s="29"/>
-      <c r="C595" s="3"/>
-      <c r="D595" s="3"/>
-      <c r="E595" s="3"/>
-      <c r="F595" s="3"/>
-      <c r="G595" s="3"/>
-      <c r="H595" s="5"/>
+      <c r="A595" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B595" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E595" s="3">
+        <v>3</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H595" s="5">
+        <v>43164</v>
+      </c>
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A596" s="3"/>
-      <c r="B596" s="29"/>
-      <c r="C596" s="3"/>
-      <c r="D596" s="3"/>
-      <c r="E596" s="3"/>
-      <c r="F596" s="3"/>
-      <c r="G596" s="3"/>
-      <c r="H596" s="5"/>
+      <c r="A596" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B596" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E596" s="3">
+        <v>1</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H596" s="5">
+        <v>43164</v>
+      </c>
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A597" s="3"/>
-      <c r="B597" s="29"/>
-      <c r="C597" s="3"/>
-      <c r="D597" s="3"/>
-      <c r="E597" s="3"/>
-      <c r="F597" s="3"/>
-      <c r="G597" s="3"/>
-      <c r="H597" s="5"/>
+      <c r="A597" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B597" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E597" s="3">
+        <v>1</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H597" s="5">
+        <v>43164</v>
+      </c>
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A598" s="3"/>
-      <c r="B598" s="29"/>
-      <c r="C598" s="3"/>
-      <c r="D598" s="3"/>
-      <c r="E598" s="3"/>
-      <c r="F598" s="3"/>
-      <c r="G598" s="3"/>
-      <c r="H598" s="5"/>
+      <c r="A598" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B598" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E598" s="3">
+        <v>1</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H598" s="5">
+        <v>43164</v>
+      </c>
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A599" s="3"/>
-      <c r="B599" s="29"/>
-      <c r="C599" s="3"/>
-      <c r="D599" s="3"/>
-      <c r="E599" s="3"/>
-      <c r="F599" s="3"/>
-      <c r="G599" s="3"/>
-      <c r="H599" s="5"/>
+      <c r="A599" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B599" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E599" s="3">
+        <v>1</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H599" s="5">
+        <v>43164</v>
+      </c>
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A600" s="3"/>
-      <c r="B600" s="29"/>
-      <c r="C600" s="3"/>
-      <c r="D600" s="3"/>
-      <c r="E600" s="3"/>
-      <c r="F600" s="3"/>
-      <c r="G600" s="3"/>
-      <c r="H600" s="5"/>
+      <c r="A600" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B600" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E600" s="3">
+        <v>4</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H600" s="5">
+        <v>43164</v>
+      </c>
       <c r="I600" s="3"/>
-      <c r="J600" s="3"/>
+      <c r="J600" s="3" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A601" s="3"/>
-      <c r="B601" s="29"/>
-      <c r="C601" s="3"/>
-      <c r="D601" s="3"/>
-      <c r="E601" s="3"/>
-      <c r="F601" s="3"/>
-      <c r="G601" s="3"/>
-      <c r="H601" s="5"/>
+      <c r="A601" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B601" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E601" s="3">
+        <v>3</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H601" s="5">
+        <v>43164</v>
+      </c>
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A602" s="3"/>
-      <c r="B602" s="29"/>
-      <c r="C602" s="3"/>
-      <c r="D602" s="3"/>
-      <c r="E602" s="3"/>
-      <c r="F602" s="3"/>
-      <c r="G602" s="3"/>
-      <c r="H602" s="5"/>
+      <c r="A602" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B602" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E602" s="3">
+        <v>4</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H602" s="5">
+        <v>43165</v>
+      </c>
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A603" s="3"/>
-      <c r="B603" s="29"/>
-      <c r="C603" s="3"/>
-      <c r="D603" s="3"/>
-      <c r="E603" s="3"/>
-      <c r="F603" s="3"/>
-      <c r="G603" s="3"/>
-      <c r="H603" s="5"/>
+      <c r="A603" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B603" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E603" s="3">
+        <v>2</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H603" s="5">
+        <v>43165</v>
+      </c>
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A604" s="3"/>
-      <c r="B604" s="29"/>
-      <c r="C604" s="3"/>
-      <c r="D604" s="3"/>
-      <c r="E604" s="3"/>
-      <c r="F604" s="3"/>
-      <c r="G604" s="3"/>
-      <c r="H604" s="5"/>
+      <c r="A604" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B604" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E604" s="3">
+        <v>1</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H604" s="5">
+        <v>43166</v>
+      </c>
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A605" s="3"/>
-      <c r="B605" s="29"/>
-      <c r="C605" s="3"/>
-      <c r="D605" s="3"/>
-      <c r="E605" s="3"/>
-      <c r="F605" s="3"/>
-      <c r="G605" s="3"/>
-      <c r="H605" s="5"/>
+      <c r="A605" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B605" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E605" s="3">
+        <v>1</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H605" s="5">
+        <v>43166</v>
+      </c>
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="3"/>
-      <c r="B606" s="29"/>
-      <c r="C606" s="3"/>
-      <c r="D606" s="3"/>
-      <c r="E606" s="3"/>
+      <c r="A606" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B606" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E606" s="3">
+        <v>1</v>
+      </c>
       <c r="F606" s="3"/>
-      <c r="G606" s="3"/>
-      <c r="H606" s="5"/>
-      <c r="I606" s="3"/>
+      <c r="G606" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H606" s="5">
+        <v>43166</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J606" s="3"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A607" s="3"/>
-      <c r="B607" s="29"/>
-      <c r="C607" s="3"/>
-      <c r="D607" s="3"/>
-      <c r="E607" s="3"/>
+      <c r="A607" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B607" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E607" s="3">
+        <v>1</v>
+      </c>
       <c r="F607" s="3"/>
-      <c r="G607" s="3"/>
-      <c r="H607" s="5"/>
+      <c r="G607" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H607" s="5">
+        <v>43166</v>
+      </c>
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A608" s="3"/>
-      <c r="B608" s="29"/>
-      <c r="C608" s="3"/>
-      <c r="D608" s="3"/>
-      <c r="E608" s="3"/>
+      <c r="A608" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B608" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E608" s="3">
+        <v>1</v>
+      </c>
       <c r="F608" s="3"/>
-      <c r="G608" s="3"/>
-      <c r="H608" s="5"/>
+      <c r="G608" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H608" s="5">
+        <v>43167</v>
+      </c>
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A609" s="3"/>
-      <c r="B609" s="29"/>
-      <c r="C609" s="3"/>
-      <c r="D609" s="3"/>
-      <c r="E609" s="3"/>
-      <c r="F609" s="3"/>
-      <c r="G609" s="3"/>
-      <c r="H609" s="5"/>
+      <c r="A609" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B609" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E609" s="3">
+        <v>1</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H609" s="5">
+        <v>43167</v>
+      </c>
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="3"/>
-      <c r="B610" s="29"/>
-      <c r="C610" s="3"/>
-      <c r="D610" s="3"/>
-      <c r="E610" s="3"/>
-      <c r="F610" s="3"/>
-      <c r="G610" s="3"/>
-      <c r="H610" s="5"/>
+      <c r="A610" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B610" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E610" s="3">
+        <v>1</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H610" s="5">
+        <v>43167</v>
+      </c>
       <c r="I610" s="3"/>
-      <c r="J610" s="3"/>
+      <c r="J610" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A611" s="3"/>
-      <c r="B611" s="29"/>
-      <c r="C611" s="3"/>
-      <c r="D611" s="3"/>
-      <c r="E611" s="3"/>
+      <c r="A611" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B611" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E611" s="3">
+        <v>1</v>
+      </c>
       <c r="F611" s="3"/>
-      <c r="G611" s="3"/>
-      <c r="H611" s="5"/>
+      <c r="G611" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H611" s="5">
+        <v>43167</v>
+      </c>
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A612" s="3"/>
-      <c r="B612" s="29"/>
-      <c r="C612" s="3"/>
-      <c r="D612" s="3"/>
-      <c r="E612" s="3"/>
-      <c r="F612" s="3"/>
-      <c r="G612" s="3"/>
-      <c r="H612" s="5"/>
+      <c r="A612" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B612" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E612" s="3">
+        <v>1</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H612" s="5">
+        <v>43167</v>
+      </c>
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A613" s="3"/>
-      <c r="B613" s="29"/>
-      <c r="C613" s="3"/>
-      <c r="D613" s="3"/>
-      <c r="E613" s="3"/>
-      <c r="F613" s="3"/>
-      <c r="G613" s="3"/>
-      <c r="H613" s="5"/>
+      <c r="A613" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B613" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E613" s="3">
+        <v>1</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H613" s="5">
+        <v>43167</v>
+      </c>
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A614" s="3"/>
-      <c r="B614" s="29"/>
-      <c r="C614" s="3"/>
-      <c r="D614" s="3"/>
-      <c r="E614" s="3"/>
-      <c r="F614" s="3"/>
-      <c r="G614" s="3"/>
-      <c r="H614" s="5"/>
+      <c r="A614" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B614" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E614" s="3">
+        <v>1</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H614" s="5">
+        <v>43167</v>
+      </c>
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A615" s="3"/>
-      <c r="B615" s="29"/>
-      <c r="C615" s="3"/>
-      <c r="D615" s="3"/>
-      <c r="E615" s="3"/>
-      <c r="F615" s="3"/>
-      <c r="G615" s="3"/>
-      <c r="H615" s="5"/>
+      <c r="A615" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B615" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E615" s="3">
+        <v>1</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H615" s="5">
+        <v>43167</v>
+      </c>
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="3"/>
-      <c r="B616" s="29"/>
-      <c r="C616" s="3"/>
-      <c r="D616" s="3"/>
-      <c r="E616" s="3"/>
-      <c r="F616" s="3"/>
-      <c r="G616" s="3"/>
-      <c r="H616" s="5"/>
-      <c r="I616" s="3"/>
+      <c r="A616" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B616" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E616" s="3">
+        <v>1</v>
+      </c>
+      <c r="F616" s="3">
+        <v>1</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H616" s="5">
+        <v>43164</v>
+      </c>
+      <c r="I616" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J616" s="3"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A617" s="3"/>
-      <c r="B617" s="29"/>
-      <c r="C617" s="3"/>
-      <c r="D617" s="3"/>
-      <c r="E617" s="3"/>
+      <c r="A617" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B617" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E617" s="3">
+        <v>4.2</v>
+      </c>
       <c r="F617" s="3"/>
-      <c r="G617" s="3"/>
-      <c r="H617" s="5"/>
+      <c r="G617" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H617" s="5">
+        <v>43166</v>
+      </c>
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A618" s="3"/>
-      <c r="B618" s="29"/>
-      <c r="C618" s="3"/>
-      <c r="D618" s="3"/>
-      <c r="E618" s="3"/>
-      <c r="F618" s="3"/>
-      <c r="G618" s="3"/>
-      <c r="H618" s="5"/>
-      <c r="I618" s="3"/>
+      <c r="A618" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B618" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E618" s="3">
+        <v>1</v>
+      </c>
+      <c r="F618" s="3">
+        <v>1</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H618" s="5">
+        <v>43166</v>
+      </c>
+      <c r="I618" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J618" s="3"/>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A619" s="3"/>
-      <c r="B619" s="29"/>
-      <c r="C619" s="3"/>
-      <c r="D619" s="3"/>
-      <c r="E619" s="3"/>
-      <c r="F619" s="3"/>
-      <c r="G619" s="3"/>
-      <c r="H619" s="5"/>
+      <c r="A619" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B619" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E619" s="3">
+        <v>1</v>
+      </c>
+      <c r="F619" s="3">
+        <v>1</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H619" s="5">
+        <v>43166</v>
+      </c>
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="3"/>
-      <c r="B620" s="29"/>
-      <c r="C620" s="3"/>
-      <c r="D620" s="3"/>
-      <c r="E620" s="3"/>
+      <c r="A620" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B620" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E620" s="3">
+        <v>1</v>
+      </c>
       <c r="F620" s="3"/>
-      <c r="G620" s="3"/>
-      <c r="H620" s="5"/>
+      <c r="G620" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H620" s="5">
+        <v>43167</v>
+      </c>
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A621" s="3"/>
-      <c r="B621" s="29"/>
-      <c r="C621" s="3"/>
-      <c r="D621" s="3"/>
-      <c r="E621" s="3"/>
-      <c r="F621" s="3"/>
-      <c r="G621" s="3"/>
-      <c r="H621" s="5"/>
+      <c r="A621" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B621" s="29">
+        <v>500.03800000000001</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E621" s="3">
+        <v>1</v>
+      </c>
+      <c r="F621" s="3">
+        <v>1</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H621" s="5">
+        <v>43168</v>
+      </c>
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A622" s="3"/>
-      <c r="B622" s="29"/>
-      <c r="C622" s="3"/>
-      <c r="D622" s="3"/>
-      <c r="E622" s="3"/>
+      <c r="A622" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B622" s="29">
+        <v>55.040999999999997</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E622" s="3">
+        <v>1</v>
+      </c>
       <c r="F622" s="3"/>
-      <c r="G622" s="3"/>
-      <c r="H622" s="5"/>
-      <c r="I622" s="3"/>
+      <c r="G622" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H622" s="5">
+        <v>43172</v>
+      </c>
+      <c r="I622" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J622" s="3"/>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A623" s="3"/>
-      <c r="B623" s="29"/>
-      <c r="C623" s="3"/>
-      <c r="D623" s="3"/>
-      <c r="E623" s="3"/>
+      <c r="A623" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B623" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E623" s="3">
+        <v>1</v>
+      </c>
       <c r="F623" s="3"/>
-      <c r="G623" s="3"/>
-      <c r="H623" s="5"/>
+      <c r="G623" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H623" s="5">
+        <v>43173</v>
+      </c>
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A624" s="3"/>
-      <c r="B624" s="29"/>
-      <c r="C624" s="3"/>
-      <c r="D624" s="3"/>
-      <c r="E624" s="3"/>
+      <c r="A624" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B624" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E624" s="3">
+        <v>1</v>
+      </c>
       <c r="F624" s="3"/>
-      <c r="G624" s="3"/>
-      <c r="H624" s="5"/>
+      <c r="G624" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H624" s="5">
+        <v>43174</v>
+      </c>
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A625" s="3"/>
-      <c r="B625" s="29"/>
-      <c r="C625" s="3"/>
-      <c r="D625" s="3"/>
-      <c r="E625" s="3"/>
-      <c r="F625" s="3"/>
-      <c r="G625" s="3"/>
-      <c r="H625" s="5"/>
+      <c r="A625" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B625" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E625" s="3">
+        <v>1</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H625" s="5">
+        <v>43171</v>
+      </c>
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A626" s="3"/>
-      <c r="B626" s="29"/>
-      <c r="C626" s="3"/>
-      <c r="D626" s="3"/>
-      <c r="E626" s="3"/>
-      <c r="F626" s="3"/>
-      <c r="G626" s="3"/>
-      <c r="H626" s="5"/>
+      <c r="A626" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B626" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E626" s="3">
+        <v>1</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H626" s="5">
+        <v>43171</v>
+      </c>
       <c r="I626" s="3"/>
-      <c r="J626" s="3"/>
+      <c r="J626" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A627" s="3"/>
-      <c r="B627" s="29"/>
-      <c r="C627" s="3"/>
-      <c r="D627" s="3"/>
-      <c r="E627" s="3"/>
-      <c r="F627" s="3"/>
-      <c r="G627" s="3"/>
-      <c r="H627" s="5"/>
+      <c r="A627" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B627" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E627" s="3">
+        <v>1</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H627" s="5">
+        <v>43171</v>
+      </c>
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A628" s="3"/>
-      <c r="B628" s="29"/>
-      <c r="C628" s="3"/>
-      <c r="D628" s="3"/>
-      <c r="E628" s="3"/>
-      <c r="F628" s="3"/>
-      <c r="G628" s="3"/>
-      <c r="H628" s="5"/>
-      <c r="I628" s="3"/>
+      <c r="A628" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B628" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E628" s="3">
+        <v>1</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H628" s="5">
+        <v>43172</v>
+      </c>
+      <c r="I628" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J628" s="3"/>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A629" s="3"/>
-      <c r="B629" s="29"/>
-      <c r="C629" s="3"/>
-      <c r="D629" s="3"/>
-      <c r="E629" s="3"/>
-      <c r="F629" s="3"/>
-      <c r="G629" s="3"/>
-      <c r="H629" s="5"/>
+      <c r="A629" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B629" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E629" s="3">
+        <v>1</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H629" s="5">
+        <v>43173</v>
+      </c>
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A630" s="3"/>
-      <c r="B630" s="29"/>
-      <c r="C630" s="3"/>
-      <c r="D630" s="3"/>
-      <c r="E630" s="3"/>
-      <c r="F630" s="3"/>
-      <c r="G630" s="3"/>
-      <c r="H630" s="5"/>
+      <c r="A630" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B630" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E630" s="3">
+        <v>1</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H630" s="5">
+        <v>43173</v>
+      </c>
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A631" s="3"/>
-      <c r="B631" s="29"/>
-      <c r="C631" s="3"/>
-      <c r="D631" s="3"/>
-      <c r="E631" s="3"/>
-      <c r="F631" s="3"/>
-      <c r="G631" s="3"/>
-      <c r="H631" s="5"/>
+      <c r="A631" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B631" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E631" s="3">
+        <v>1</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H631" s="5">
+        <v>43174</v>
+      </c>
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A632" s="3"/>
-      <c r="B632" s="29"/>
-      <c r="C632" s="3"/>
-      <c r="D632" s="3"/>
-      <c r="E632" s="3"/>
-      <c r="F632" s="3"/>
-      <c r="G632" s="3"/>
-      <c r="H632" s="5"/>
+      <c r="A632" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B632" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E632" s="3">
+        <v>1</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H632" s="5">
+        <v>43178</v>
+      </c>
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A633" s="3"/>
-      <c r="B633" s="29"/>
-      <c r="C633" s="3"/>
-      <c r="D633" s="3"/>
-      <c r="E633" s="3"/>
-      <c r="F633" s="3"/>
-      <c r="G633" s="3"/>
-      <c r="H633" s="5"/>
+      <c r="A633" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B633" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E633" s="3">
+        <v>1</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H633" s="5">
+        <v>43178</v>
+      </c>
       <c r="I633" s="3"/>
-      <c r="J633" s="3"/>
+      <c r="J633" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A634" s="3"/>
-      <c r="B634" s="29"/>
-      <c r="C634" s="3"/>
-      <c r="D634" s="3"/>
-      <c r="E634" s="3"/>
+      <c r="A634" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B634" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E634" s="3">
+        <v>3</v>
+      </c>
       <c r="F634" s="3"/>
-      <c r="G634" s="3"/>
-      <c r="H634" s="5"/>
+      <c r="G634" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H634" s="5">
+        <v>43178</v>
+      </c>
       <c r="I634" s="3"/>
-      <c r="J634" s="3"/>
+      <c r="J634" s="3" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A635" s="3"/>
-      <c r="B635" s="29"/>
-      <c r="C635" s="3"/>
-      <c r="D635" s="3"/>
-      <c r="E635" s="3"/>
-      <c r="F635" s="3"/>
-      <c r="G635" s="3"/>
-      <c r="H635" s="5"/>
+      <c r="A635" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B635" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E635" s="3">
+        <v>1</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H635" s="5">
+        <v>43180</v>
+      </c>
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A636" s="3"/>
-      <c r="B636" s="29"/>
-      <c r="C636" s="3"/>
-      <c r="D636" s="3"/>
-      <c r="E636" s="3"/>
+      <c r="A636" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B636" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E636" s="3">
+        <v>1</v>
+      </c>
       <c r="F636" s="3"/>
-      <c r="G636" s="3"/>
-      <c r="H636" s="5"/>
+      <c r="G636" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H636" s="5">
+        <v>43180</v>
+      </c>
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A637" s="3"/>
-      <c r="B637" s="29"/>
-      <c r="C637" s="3"/>
-      <c r="D637" s="3"/>
-      <c r="E637" s="3"/>
+      <c r="A637" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B637" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E637" s="3">
+        <v>2</v>
+      </c>
       <c r="F637" s="3"/>
-      <c r="G637" s="3"/>
-      <c r="H637" s="5"/>
-      <c r="I637" s="3"/>
-      <c r="J637" s="3"/>
+      <c r="G637" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H637" s="5">
+        <v>43180</v>
+      </c>
+      <c r="I637" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J637" s="3" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A638" s="3"/>
-      <c r="B638" s="29"/>
-      <c r="C638" s="3"/>
-      <c r="D638" s="3"/>
-      <c r="E638" s="3"/>
+      <c r="A638" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B638" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E638" s="3">
+        <v>2</v>
+      </c>
       <c r="F638" s="3"/>
-      <c r="G638" s="3"/>
-      <c r="H638" s="5"/>
+      <c r="G638" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H638" s="5">
+        <v>43180</v>
+      </c>
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A639" s="3"/>
-      <c r="B639" s="29"/>
-      <c r="C639" s="3"/>
-      <c r="D639" s="3"/>
-      <c r="E639" s="3"/>
+      <c r="A639" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B639" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E639" s="3">
+        <v>2</v>
+      </c>
       <c r="F639" s="3"/>
-      <c r="G639" s="3"/>
-      <c r="H639" s="5"/>
-      <c r="I639" s="3"/>
-      <c r="J639" s="3"/>
+      <c r="G639" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H639" s="5">
+        <v>43180</v>
+      </c>
+      <c r="I639" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J639" s="3" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A640" s="3"/>
-      <c r="B640" s="29"/>
-      <c r="C640" s="3"/>
-      <c r="D640" s="3"/>
-      <c r="E640" s="3"/>
+      <c r="A640" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B640" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E640" s="3">
+        <v>2</v>
+      </c>
       <c r="F640" s="3"/>
-      <c r="G640" s="3"/>
-      <c r="H640" s="5"/>
+      <c r="G640" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H640" s="5">
+        <v>43181</v>
+      </c>
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A641" s="3"/>
-      <c r="B641" s="29"/>
-      <c r="C641" s="3"/>
-      <c r="D641" s="3"/>
-      <c r="E641" s="3"/>
-      <c r="F641" s="3"/>
-      <c r="G641" s="3"/>
-      <c r="H641" s="5"/>
+      <c r="A641" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B641" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E641" s="3">
+        <v>2</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H641" s="5">
+        <v>43180</v>
+      </c>
       <c r="I641" s="3"/>
-      <c r="J641" s="3"/>
+      <c r="J641" s="3" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A642" s="3"/>
-      <c r="B642" s="29"/>
-      <c r="C642" s="3"/>
-      <c r="D642" s="3"/>
-      <c r="E642" s="3"/>
+      <c r="A642" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B642" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E642" s="3">
+        <v>1</v>
+      </c>
       <c r="F642" s="3"/>
-      <c r="G642" s="3"/>
-      <c r="H642" s="5"/>
+      <c r="G642" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H642" s="5">
+        <v>43171</v>
+      </c>
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A643" s="3"/>
-      <c r="B643" s="29"/>
-      <c r="C643" s="3"/>
-      <c r="D643" s="3"/>
-      <c r="E643" s="3"/>
+      <c r="A643" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B643" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E643" s="3">
+        <v>1</v>
+      </c>
       <c r="F643" s="3"/>
-      <c r="G643" s="3"/>
-      <c r="H643" s="5"/>
+      <c r="G643" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H643" s="5">
+        <v>43171</v>
+      </c>
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A644" s="3"/>
-      <c r="B644" s="29"/>
-      <c r="C644" s="3"/>
-      <c r="D644" s="3"/>
-      <c r="E644" s="3"/>
+      <c r="A644" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B644" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E644" s="3">
+        <v>1</v>
+      </c>
       <c r="F644" s="3"/>
-      <c r="G644" s="3"/>
-      <c r="H644" s="5"/>
+      <c r="G644" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H644" s="5">
+        <v>43173</v>
+      </c>
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A645" s="3"/>
-      <c r="B645" s="29"/>
-      <c r="C645" s="3"/>
-      <c r="D645" s="3"/>
-      <c r="E645" s="3"/>
+      <c r="A645" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B645" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E645" s="3">
+        <v>1</v>
+      </c>
       <c r="F645" s="3"/>
-      <c r="G645" s="3"/>
-      <c r="H645" s="5"/>
+      <c r="G645" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H645" s="5">
+        <v>43173</v>
+      </c>
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A646" s="3"/>
-      <c r="B646" s="29"/>
-      <c r="C646" s="3"/>
-      <c r="D646" s="3"/>
-      <c r="E646" s="3"/>
+      <c r="A646" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B646" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E646" s="3">
+        <v>1</v>
+      </c>
       <c r="F646" s="3"/>
-      <c r="G646" s="3"/>
-      <c r="H646" s="5"/>
+      <c r="G646" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H646" s="5">
+        <v>43174</v>
+      </c>
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A647" s="3"/>
-      <c r="B647" s="29"/>
-      <c r="C647" s="3"/>
-      <c r="D647" s="3"/>
-      <c r="E647" s="3"/>
-      <c r="F647" s="3"/>
-      <c r="G647" s="3"/>
-      <c r="H647" s="5"/>
-      <c r="I647" s="3"/>
+      <c r="A647" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B647" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E647" s="3">
+        <v>1</v>
+      </c>
+      <c r="F647" s="3">
+        <v>1</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H647" s="5">
+        <v>43175</v>
+      </c>
+      <c r="I647" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J647" s="3"/>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A648" s="3"/>
-      <c r="B648" s="29"/>
-      <c r="C648" s="3"/>
-      <c r="D648" s="3"/>
-      <c r="E648" s="3"/>
-      <c r="F648" s="3"/>
-      <c r="G648" s="3"/>
-      <c r="H648" s="5"/>
-      <c r="I648" s="3"/>
+      <c r="A648" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B648" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E648" s="3">
+        <v>1</v>
+      </c>
+      <c r="F648" s="3">
+        <v>1</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H648" s="5">
+        <v>43178</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J648" s="3"/>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A649" s="3"/>
-      <c r="B649" s="29"/>
-      <c r="C649" s="3"/>
-      <c r="D649" s="3"/>
-      <c r="E649" s="3"/>
-      <c r="F649" s="3"/>
-      <c r="G649" s="3"/>
-      <c r="H649" s="5"/>
+      <c r="A649" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B649" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E649" s="3">
+        <v>1</v>
+      </c>
+      <c r="F649" s="3">
+        <v>1</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H649" s="5">
+        <v>43180</v>
+      </c>
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A650" s="3"/>
-      <c r="B650" s="29"/>
-      <c r="C650" s="3"/>
-      <c r="D650" s="3"/>
-      <c r="E650" s="3"/>
+      <c r="A650" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B650" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E650" s="3">
+        <v>1</v>
+      </c>
       <c r="F650" s="3"/>
-      <c r="G650" s="3"/>
-      <c r="H650" s="5"/>
+      <c r="G650" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H650" s="5">
+        <v>43172</v>
+      </c>
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A651" s="3"/>
-      <c r="B651" s="29"/>
-      <c r="C651" s="3"/>
-      <c r="D651" s="3"/>
-      <c r="E651" s="3"/>
+      <c r="A651" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B651" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E651" s="3">
+        <v>1</v>
+      </c>
       <c r="F651" s="3"/>
-      <c r="G651" s="3"/>
-      <c r="H651" s="5"/>
+      <c r="G651" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H651" s="5">
+        <v>43166</v>
+      </c>
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A652" s="3"/>
-      <c r="B652" s="29"/>
-      <c r="C652" s="3"/>
-      <c r="D652" s="3"/>
-      <c r="E652" s="3"/>
+      <c r="A652" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B652" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E652" s="3">
+        <v>1</v>
+      </c>
       <c r="F652" s="3"/>
-      <c r="G652" s="3"/>
-      <c r="H652" s="5"/>
+      <c r="G652" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H652" s="5">
+        <v>43165</v>
+      </c>
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A653" s="3"/>
-      <c r="B653" s="29"/>
-      <c r="C653" s="3"/>
-      <c r="D653" s="3"/>
-      <c r="E653" s="3"/>
+      <c r="A653" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B653" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E653" s="3">
+        <v>1</v>
+      </c>
       <c r="F653" s="3"/>
-      <c r="G653" s="3"/>
-      <c r="H653" s="5"/>
+      <c r="G653" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H653" s="5">
+        <v>43165</v>
+      </c>
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A654" s="3"/>
-      <c r="B654" s="29"/>
-      <c r="C654" s="3"/>
-      <c r="D654" s="3"/>
-      <c r="E654" s="3"/>
+      <c r="A654" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B654" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E654" s="3">
+        <v>1</v>
+      </c>
       <c r="F654" s="3"/>
-      <c r="G654" s="3"/>
-      <c r="H654" s="5"/>
+      <c r="G654" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H654" s="5">
+        <v>43173</v>
+      </c>
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A655" s="3"/>
-      <c r="B655" s="29"/>
-      <c r="C655" s="3"/>
-      <c r="D655" s="3"/>
-      <c r="E655" s="3"/>
+      <c r="A655" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B655" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E655" s="3">
+        <v>1</v>
+      </c>
       <c r="F655" s="3"/>
-      <c r="G655" s="3"/>
-      <c r="H655" s="5"/>
+      <c r="G655" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H655" s="5">
+        <v>43173</v>
+      </c>
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A656" s="3"/>
-      <c r="B656" s="29"/>
-      <c r="C656" s="3"/>
-      <c r="D656" s="3"/>
-      <c r="E656" s="3"/>
+      <c r="A656" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B656" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E656" s="3">
+        <v>1</v>
+      </c>
       <c r="F656" s="3"/>
-      <c r="G656" s="3"/>
-      <c r="H656" s="5"/>
+      <c r="G656" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H656" s="5">
+        <v>43187</v>
+      </c>
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A657" s="3"/>
-      <c r="B657" s="29"/>
-      <c r="C657" s="3"/>
-      <c r="D657" s="3"/>
-      <c r="E657" s="3"/>
+      <c r="A657" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B657" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E657" s="3">
+        <v>1</v>
+      </c>
       <c r="F657" s="3"/>
-      <c r="G657" s="3"/>
-      <c r="H657" s="5"/>
+      <c r="G657" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H657" s="5">
+        <v>43173</v>
+      </c>
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A658" s="3"/>
-      <c r="B658" s="29"/>
-      <c r="C658" s="3"/>
-      <c r="D658" s="3"/>
-      <c r="E658" s="3"/>
+      <c r="A658" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B658" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E658" s="3">
+        <v>1</v>
+      </c>
       <c r="F658" s="3"/>
-      <c r="G658" s="3"/>
-      <c r="H658" s="5"/>
+      <c r="G658" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H658" s="5">
+        <v>43187</v>
+      </c>
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A659" s="3"/>
-      <c r="B659" s="29"/>
-      <c r="C659" s="3"/>
-      <c r="D659" s="3"/>
-      <c r="E659" s="3"/>
+      <c r="A659" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B659" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E659" s="3">
+        <v>2</v>
+      </c>
       <c r="F659" s="3"/>
-      <c r="G659" s="3"/>
-      <c r="H659" s="5"/>
+      <c r="G659" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H659" s="5">
+        <v>43179</v>
+      </c>
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A660" s="3"/>
-      <c r="B660" s="29"/>
-      <c r="C660" s="3"/>
-      <c r="D660" s="3"/>
-      <c r="E660" s="3"/>
+      <c r="A660" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B660" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E660" s="3">
+        <v>1</v>
+      </c>
       <c r="F660" s="3"/>
-      <c r="G660" s="3"/>
-      <c r="H660" s="5"/>
+      <c r="G660" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H660" s="5">
+        <v>43188</v>
+      </c>
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A661" s="3"/>
-      <c r="B661" s="29"/>
-      <c r="C661" s="3"/>
-      <c r="D661" s="3"/>
-      <c r="E661" s="3"/>
+      <c r="A661" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B661" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E661" s="3">
+        <v>1</v>
+      </c>
       <c r="F661" s="3"/>
-      <c r="G661" s="3"/>
-      <c r="H661" s="5"/>
-      <c r="I661" s="3"/>
+      <c r="G661" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H661" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I661" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J661" s="3"/>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A662" s="3"/>
-      <c r="B662" s="29"/>
-      <c r="C662" s="3"/>
-      <c r="D662" s="3"/>
-      <c r="E662" s="3"/>
+      <c r="A662" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E662" s="3">
+        <v>1</v>
+      </c>
       <c r="F662" s="3"/>
-      <c r="G662" s="3"/>
-      <c r="H662" s="5"/>
+      <c r="G662" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H662" s="5">
+        <v>43185</v>
+      </c>
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A663" s="3"/>
-      <c r="B663" s="29"/>
-      <c r="C663" s="3"/>
-      <c r="D663" s="3"/>
-      <c r="E663" s="3"/>
+      <c r="A663" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E663" s="3">
+        <v>1</v>
+      </c>
       <c r="F663" s="3"/>
-      <c r="G663" s="3"/>
-      <c r="H663" s="5"/>
+      <c r="G663" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H663" s="5">
+        <v>43185</v>
+      </c>
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A664" s="3"/>
-      <c r="B664" s="29"/>
-      <c r="C664" s="3"/>
-      <c r="D664" s="3"/>
-      <c r="E664" s="3"/>
+      <c r="A664" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E664" s="3">
+        <v>1</v>
+      </c>
       <c r="F664" s="3"/>
-      <c r="G664" s="3"/>
-      <c r="H664" s="5"/>
+      <c r="G664" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H664" s="5">
+        <v>43186</v>
+      </c>
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A665" s="3"/>
-      <c r="B665" s="29"/>
-      <c r="C665" s="3"/>
-      <c r="D665" s="3"/>
-      <c r="E665" s="3"/>
-      <c r="F665" s="3"/>
-      <c r="G665" s="3"/>
-      <c r="H665" s="5"/>
-      <c r="I665" s="3"/>
-      <c r="J665" s="3"/>
+      <c r="A665" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B665" s="3">
+        <v>500.06</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E665" s="3">
+        <v>1</v>
+      </c>
+      <c r="F665" s="3">
+        <v>1</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H665" s="5">
+        <v>43186</v>
+      </c>
+      <c r="I665" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J665" s="3" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A666" s="3"/>
-      <c r="B666" s="29"/>
-      <c r="C666" s="3"/>
-      <c r="D666" s="3"/>
-      <c r="E666" s="3"/>
+      <c r="A666" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E666" s="3">
+        <v>1</v>
+      </c>
       <c r="F666" s="3"/>
-      <c r="G666" s="3"/>
-      <c r="H666" s="5"/>
+      <c r="G666" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H666" s="5">
+        <v>43172</v>
+      </c>
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A667" s="3"/>
-      <c r="B667" s="29"/>
-      <c r="C667" s="3"/>
-      <c r="D667" s="3"/>
-      <c r="E667" s="3"/>
+      <c r="A667" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E667" s="3">
+        <v>1</v>
+      </c>
       <c r="F667" s="3"/>
-      <c r="G667" s="3"/>
-      <c r="H667" s="5"/>
+      <c r="G667" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H667" s="5">
+        <v>43187</v>
+      </c>
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A668" s="3"/>
-      <c r="B668" s="29"/>
-      <c r="C668" s="3"/>
-      <c r="D668" s="3"/>
-      <c r="E668" s="3"/>
+      <c r="A668" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E668" s="3">
+        <v>1</v>
+      </c>
       <c r="F668" s="3"/>
-      <c r="G668" s="3"/>
-      <c r="H668" s="5"/>
-      <c r="I668" s="3"/>
-      <c r="J668" s="3"/>
+      <c r="G668" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H668" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I668" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J668" s="3" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A669" s="3"/>
-      <c r="B669" s="29"/>
-      <c r="C669" s="3"/>
-      <c r="D669" s="3"/>
-      <c r="E669" s="3"/>
+      <c r="A669" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E669" s="3">
+        <v>1</v>
+      </c>
       <c r="F669" s="3"/>
-      <c r="G669" s="3"/>
-      <c r="H669" s="5"/>
-      <c r="I669" s="3"/>
-      <c r="J669" s="3"/>
+      <c r="G669" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H669" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I669" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J669" s="3" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A670" s="3"/>
-      <c r="B670" s="29"/>
-      <c r="C670" s="3"/>
-      <c r="D670" s="3"/>
-      <c r="E670" s="3"/>
+      <c r="A670" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E670" s="3">
+        <v>1</v>
+      </c>
       <c r="F670" s="3"/>
-      <c r="G670" s="3"/>
-      <c r="H670" s="5"/>
+      <c r="G670" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H670" s="5">
+        <v>43189</v>
+      </c>
       <c r="I670" s="3"/>
       <c r="J670" s="3"/>
     </row>
@@ -27837,60 +29266,80 @@
       <c r="I1366" s="3"/>
       <c r="J1366" s="3"/>
     </row>
-    <row r="1367" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1367" s="3"/>
-      <c r="B1367" s="29"/>
-      <c r="C1367" s="3"/>
-      <c r="D1367" s="3"/>
-      <c r="E1367" s="3"/>
-      <c r="F1367" s="3"/>
-      <c r="G1367" s="3"/>
-      <c r="H1367" s="5"/>
-      <c r="I1367" s="3"/>
-      <c r="J1367" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J587"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B615 B589:B614 B641 B623" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>SQA!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Reasons for Disapproval'!$A$1:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>I1:I1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G315 G317:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Application!$A$2:$A$49</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Deliverable Types'!$A$1:$A$28</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>G2:G315 G317:G661 G671:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 282018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G316</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SQA!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A661 A671:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Reasons for Disapproval'!$A$1:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I661 I671:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Application!$A$2:$A$49</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1363:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Deliverable Types'!$A$1:$A$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D661 D671:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]Deliverable Types'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D662:D670</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Application!$A$2:$A$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1362</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]A or D'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G662:G670</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]Reasons for Disapproval'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I662:I670</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]SQA'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A662:A670</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27935,10 +29384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A50" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28143,57 +29592,62 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>378</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A49">
-    <sortCondition ref="A2:A49"/>
+  <sortState ref="A2:A50">
+    <sortCondition ref="A2:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Application!$A$1:$A$8</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="563">
   <si>
     <t>Project ID</t>
   </si>
@@ -1391,6 +1392,342 @@
   </si>
   <si>
     <t>Power BI</t>
+  </si>
+  <si>
+    <t>Primary Test Protocol 1 Results</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol - Task Items - Prod Sligo</t>
+  </si>
+  <si>
+    <t>01094.002</t>
+  </si>
+  <si>
+    <t>IRIS Application</t>
+  </si>
+  <si>
+    <t>01096.000</t>
+  </si>
+  <si>
+    <t>e-Tech</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Link to the parent</t>
+  </si>
+  <si>
+    <t>through email</t>
+  </si>
+  <si>
+    <t>IRIS Application: 2md time</t>
+  </si>
+  <si>
+    <t>M1 S3 ZX and R1 Analysis Download and Output Protocol</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol</t>
+  </si>
+  <si>
+    <t>01096.001</t>
+  </si>
+  <si>
+    <t>01094.000</t>
+  </si>
+  <si>
+    <t>IRIS eRIM assessment</t>
+  </si>
+  <si>
+    <t>Functional Requirements Specification/URS Combo</t>
+  </si>
+  <si>
+    <t>ePAS 18-3544 v1</t>
+  </si>
+  <si>
+    <t>ePAS 11-6695</t>
+  </si>
+  <si>
+    <t>ePAS 17-22024</t>
+  </si>
+  <si>
+    <t>ePAS 16-34569 v6</t>
+  </si>
+  <si>
+    <t>ePAS 17-12802 v5</t>
+  </si>
+  <si>
+    <t>ePAS 11-30688 V4</t>
+  </si>
+  <si>
+    <t>00936.000</t>
+  </si>
+  <si>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t>Decommissioning Plan</t>
+  </si>
+  <si>
+    <t>Decommissioning Report</t>
+  </si>
+  <si>
+    <t>Primary Test Protocol - 1 Results</t>
+  </si>
+  <si>
+    <t>Regression Test Protocol Results</t>
+  </si>
+  <si>
+    <t>Installation Instructions and Verification Protocol: Prod</t>
+  </si>
+  <si>
+    <t>Incident Report Form_Protocol_v6</t>
+  </si>
+  <si>
+    <t>parent: 01038.000</t>
+  </si>
+  <si>
+    <t>My Instruments_v4_Protocol</t>
+  </si>
+  <si>
+    <t>Functional Requirements Specification - Customer Portal_v12</t>
+  </si>
+  <si>
+    <t>Customer Portal</t>
+  </si>
+  <si>
+    <t>Functional Requirements Specification application</t>
+  </si>
+  <si>
+    <t>per request</t>
+  </si>
+  <si>
+    <t>Maintenance Plan_IRIS Application</t>
+  </si>
+  <si>
+    <t>eTech</t>
+  </si>
+  <si>
+    <t>ePAS 18-11313 v1</t>
+  </si>
+  <si>
+    <t>ePAS 16-33266 v13</t>
+  </si>
+  <si>
+    <t>17-4771 V12</t>
+  </si>
+  <si>
+    <t>email review</t>
+  </si>
+  <si>
+    <t>ePAS 13-28491 V33</t>
+  </si>
+  <si>
+    <t>ePAS 16-37034 V6</t>
+  </si>
+  <si>
+    <t>ePAS 18-10792 v1</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>TestComplete</t>
+  </si>
+  <si>
+    <t>Print on Demand</t>
+  </si>
+  <si>
+    <t>Unit Test Protocol</t>
+  </si>
+  <si>
+    <t>IRIS DB Unit Test Protocol</t>
+  </si>
+  <si>
+    <t>IRIS Application/Views V06</t>
+  </si>
+  <si>
+    <t>00153.002</t>
+  </si>
+  <si>
+    <t>Pick By Light</t>
+  </si>
+  <si>
+    <t>00303.091</t>
+  </si>
+  <si>
+    <t>DFCS: Pick by light changes</t>
+  </si>
+  <si>
+    <t>01032.000</t>
+  </si>
+  <si>
+    <t>sent through email</t>
+  </si>
+  <si>
+    <t>E-Tech Publisher Job</t>
+  </si>
+  <si>
+    <t>approved in parent 01096.000</t>
+  </si>
+  <si>
+    <t>IRIS Country Information Form</t>
+  </si>
+  <si>
+    <t>approved in parent 01094.000</t>
+  </si>
+  <si>
+    <t>IRIS Product Registration Status Form</t>
+  </si>
+  <si>
+    <t>disapproved in parent 01094.000</t>
+  </si>
+  <si>
+    <t>IRIS Product Category Form</t>
+  </si>
+  <si>
+    <t>IRIS Certificate Category and Chapter Category Forms</t>
+  </si>
+  <si>
+    <t>IRIS Lookup forms field validation</t>
+  </si>
+  <si>
+    <t>IRIS Verify ISO Certificate Workflow</t>
+  </si>
+  <si>
+    <t>IRIS Verify New Certificates Licenses Letters Workflow</t>
+  </si>
+  <si>
+    <t>IRIS Lookup Forms (Security Testing)</t>
+  </si>
+  <si>
+    <t>IRIS Workflows (Security Testing)</t>
+  </si>
+  <si>
+    <t>E-Tech Certificate Type Lookup Form</t>
+  </si>
+  <si>
+    <t>eTech: e-Record &amp; e-Signature Risk Assessment</t>
+  </si>
+  <si>
+    <t>Original in 00056.013</t>
+  </si>
+  <si>
+    <t>eTech: Identification of Supporting System Documents</t>
+  </si>
+  <si>
+    <t>approved in parent</t>
+  </si>
+  <si>
+    <t>in NPV</t>
+  </si>
+  <si>
+    <t>DFCS: PBL</t>
+  </si>
+  <si>
+    <t>through NPV</t>
+  </si>
+  <si>
+    <t>IRIS Verify Update Certificates Licenses Letters Workflow</t>
+  </si>
+  <si>
+    <t>IRIS CIF Regression Test</t>
+  </si>
+  <si>
+    <t>IRIS PRSF PCF Regression</t>
+  </si>
+  <si>
+    <t>e-Record &amp; e-Signature Risk Assessment</t>
+  </si>
+  <si>
+    <t>Instructions for Use_Protocol_v5</t>
+  </si>
+  <si>
+    <t>Wrong bucket reverted back to version 4</t>
+  </si>
+  <si>
+    <t>My Instruments_v5_Protocol</t>
+  </si>
+  <si>
+    <t>ePAS 11-9948 V20</t>
+  </si>
+  <si>
+    <t>ePAS 13-28491 V34</t>
+  </si>
+  <si>
+    <t>ePAS 16-3704 v7</t>
+  </si>
+  <si>
+    <t>ver 3 4-18-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ePAS 17-13342 v4.0 </t>
+  </si>
+  <si>
+    <t>email 16 apr</t>
+  </si>
+  <si>
+    <t>URS/FRS to Test Protocol Trace - v14</t>
+  </si>
+  <si>
+    <t>Parent 01038.000</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Etech</t>
+  </si>
+  <si>
+    <t>Parent 01096.000</t>
+  </si>
+  <si>
+    <t>Pick by Light</t>
+  </si>
+  <si>
+    <t>Test Protocol 06-IRIS Lookup forms field validation</t>
+  </si>
+  <si>
+    <t>Test Protocol 11-E-Tech Certificate Type Lookup Form</t>
+  </si>
+  <si>
+    <t>Test Protocol 04-IRIS Product Category Form</t>
+  </si>
+  <si>
+    <t>Test Protocol 09-IRIS Lookup Forms (Security Testing)</t>
+  </si>
+  <si>
+    <t>Test Protocol 03-IRIS Product Registration Status Form</t>
+  </si>
+  <si>
+    <t>ePAS 16-33266 V14</t>
+  </si>
+  <si>
+    <t>ePAS 17-4771 v13</t>
+  </si>
+  <si>
+    <t>stated 1</t>
+  </si>
+  <si>
+    <t>Changes to the URS not in the SCR and This is not version 1 of the KM URS.</t>
+  </si>
+  <si>
+    <t>Changes to the FRS not in the SCR and This is not version 1 of the KM FRS.</t>
+  </si>
+  <si>
+    <t>Document links in NPV</t>
+  </si>
+  <si>
+    <t>ePAS 16-33266</t>
+  </si>
+  <si>
+    <t>Missing link to version 1</t>
+  </si>
+  <si>
+    <t>ePAS 17-4771 V14</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1645,6 +1982,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1670,6 +2008,29 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="First Pass Acceptance"/>
+      <sheetName val="SQA"/>
+      <sheetName val="Application"/>
+      <sheetName val="Deliverable Types"/>
+      <sheetName val="Reasons for Disapproval"/>
+      <sheetName val="A or D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1975,8 +2336,8 @@
   <dimension ref="A1:J1366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A670" sqref="A670"/>
+      <pane ySplit="1" topLeftCell="A828" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A845" sqref="A845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20915,2091 +21276,4999 @@
       <c r="J670" s="3"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A671" s="3"/>
-      <c r="B671" s="29"/>
-      <c r="C671" s="3"/>
-      <c r="D671" s="3"/>
-      <c r="E671" s="3"/>
+      <c r="A671" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B671" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E671" s="3">
+        <v>2</v>
+      </c>
       <c r="F671" s="3"/>
-      <c r="G671" s="3"/>
-      <c r="H671" s="5"/>
+      <c r="G671" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H671" s="5">
+        <v>43182</v>
+      </c>
       <c r="I671" s="3"/>
-      <c r="J671" s="3"/>
+      <c r="J671" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A672" s="3"/>
-      <c r="B672" s="29"/>
-      <c r="C672" s="3"/>
-      <c r="D672" s="3"/>
-      <c r="E672" s="3"/>
-      <c r="F672" s="3"/>
-      <c r="G672" s="3"/>
-      <c r="H672" s="5"/>
+      <c r="A672" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B672" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E672" s="3">
+        <v>1</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H672" s="5">
+        <v>43182</v>
+      </c>
       <c r="I672" s="3"/>
       <c r="J672" s="3"/>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A673" s="3"/>
-      <c r="B673" s="29"/>
-      <c r="C673" s="3"/>
-      <c r="D673" s="3"/>
-      <c r="E673" s="3"/>
-      <c r="F673" s="3"/>
-      <c r="G673" s="3"/>
-      <c r="H673" s="5"/>
+      <c r="A673" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B673" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E673" s="3">
+        <v>1</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H673" s="5">
+        <v>43185</v>
+      </c>
       <c r="I673" s="3"/>
       <c r="J673" s="3"/>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A674" s="3"/>
-      <c r="B674" s="29"/>
-      <c r="C674" s="3"/>
-      <c r="D674" s="3"/>
-      <c r="E674" s="3"/>
-      <c r="F674" s="3"/>
-      <c r="G674" s="3"/>
-      <c r="H674" s="5"/>
+      <c r="A674" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B674" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E674" s="3">
+        <v>1</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H674" s="5">
+        <v>43185</v>
+      </c>
       <c r="I674" s="3"/>
-      <c r="J674" s="3"/>
+      <c r="J674" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A675" s="3"/>
-      <c r="B675" s="29"/>
-      <c r="C675" s="3"/>
-      <c r="D675" s="3"/>
-      <c r="E675" s="3"/>
-      <c r="F675" s="3"/>
-      <c r="G675" s="3"/>
-      <c r="H675" s="5"/>
+      <c r="A675" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B675" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E675" s="3">
+        <v>1</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H675" s="5">
+        <v>43185</v>
+      </c>
       <c r="I675" s="3"/>
-      <c r="J675" s="3"/>
+      <c r="J675" s="3" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A676" s="3"/>
-      <c r="B676" s="29"/>
-      <c r="C676" s="3"/>
-      <c r="D676" s="3"/>
-      <c r="E676" s="3"/>
-      <c r="F676" s="3"/>
-      <c r="G676" s="3"/>
-      <c r="H676" s="5"/>
+      <c r="A676" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B676" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E676" s="3">
+        <v>1</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H676" s="5">
+        <v>43185</v>
+      </c>
       <c r="I676" s="3"/>
-      <c r="J676" s="3"/>
+      <c r="J676" s="3" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A677" s="3"/>
-      <c r="B677" s="29"/>
-      <c r="C677" s="3"/>
-      <c r="D677" s="3"/>
-      <c r="E677" s="3"/>
-      <c r="F677" s="3"/>
-      <c r="G677" s="3"/>
-      <c r="H677" s="5"/>
-      <c r="I677" s="3"/>
-      <c r="J677" s="3"/>
+      <c r="A677" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B677" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E677" s="3">
+        <v>1</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H677" s="5">
+        <v>43185</v>
+      </c>
+      <c r="I677" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J677" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A678" s="3"/>
-      <c r="B678" s="29"/>
-      <c r="C678" s="3"/>
-      <c r="D678" s="3"/>
-      <c r="E678" s="3"/>
-      <c r="F678" s="3"/>
-      <c r="G678" s="3"/>
-      <c r="H678" s="5"/>
-      <c r="I678" s="3"/>
-      <c r="J678" s="3"/>
+      <c r="A678" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B678" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E678" s="3">
+        <v>1</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H678" s="5">
+        <v>43185</v>
+      </c>
+      <c r="I678" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J678" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A679" s="3"/>
-      <c r="B679" s="29"/>
-      <c r="C679" s="3"/>
-      <c r="D679" s="3"/>
-      <c r="E679" s="3"/>
-      <c r="F679" s="3"/>
-      <c r="G679" s="3"/>
-      <c r="H679" s="5"/>
-      <c r="I679" s="3"/>
-      <c r="J679" s="3"/>
+      <c r="A679" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B679" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E679" s="3">
+        <v>1</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H679" s="5">
+        <v>43186</v>
+      </c>
+      <c r="I679" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J679" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A680" s="3"/>
-      <c r="B680" s="29"/>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
-      <c r="H680" s="5"/>
+      <c r="A680" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B680" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E680" s="3">
+        <v>1</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H680" s="5">
+        <v>43187</v>
+      </c>
       <c r="I680" s="3"/>
       <c r="J680" s="3"/>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A681" s="3"/>
-      <c r="B681" s="29"/>
-      <c r="C681" s="3"/>
-      <c r="D681" s="3"/>
-      <c r="E681" s="3"/>
+      <c r="A681" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B681" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E681" s="3">
+        <v>1</v>
+      </c>
       <c r="F681" s="3"/>
-      <c r="G681" s="3"/>
-      <c r="H681" s="5"/>
-      <c r="I681" s="3"/>
+      <c r="G681" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H681" s="5">
+        <v>43192</v>
+      </c>
+      <c r="I681" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J681" s="3"/>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A682" s="3"/>
-      <c r="B682" s="29"/>
-      <c r="C682" s="3"/>
-      <c r="D682" s="3"/>
-      <c r="E682" s="3"/>
+      <c r="A682" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B682" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E682" s="3">
+        <v>1</v>
+      </c>
       <c r="F682" s="3"/>
-      <c r="G682" s="3"/>
-      <c r="H682" s="5"/>
+      <c r="G682" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H682" s="5">
+        <v>43192</v>
+      </c>
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A683" s="3"/>
-      <c r="B683" s="29"/>
-      <c r="C683" s="3"/>
-      <c r="D683" s="3"/>
-      <c r="E683" s="3"/>
-      <c r="F683" s="3"/>
-      <c r="G683" s="3"/>
-      <c r="H683" s="5"/>
+      <c r="A683" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B683" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E683" s="3">
+        <v>1</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H683" s="5">
+        <v>43192</v>
+      </c>
       <c r="I683" s="3"/>
-      <c r="J683" s="3"/>
+      <c r="J683" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A684" s="3"/>
-      <c r="B684" s="29"/>
-      <c r="C684" s="3"/>
-      <c r="D684" s="3"/>
-      <c r="E684" s="3"/>
-      <c r="F684" s="3"/>
-      <c r="G684" s="3"/>
-      <c r="H684" s="5"/>
+      <c r="A684" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B684" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E684" s="3">
+        <v>1</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H684" s="5">
+        <v>43193</v>
+      </c>
       <c r="I684" s="3"/>
-      <c r="J684" s="3"/>
+      <c r="J684" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A685" s="3"/>
-      <c r="B685" s="29"/>
-      <c r="C685" s="3"/>
-      <c r="D685" s="3"/>
-      <c r="E685" s="3"/>
-      <c r="F685" s="3"/>
-      <c r="G685" s="3"/>
-      <c r="H685" s="5"/>
+      <c r="A685" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B685" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E685" s="3">
+        <v>1</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H685" s="5">
+        <v>43192</v>
+      </c>
       <c r="I685" s="3"/>
       <c r="J685" s="3"/>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A686" s="3"/>
-      <c r="B686" s="29"/>
-      <c r="C686" s="3"/>
-      <c r="D686" s="3"/>
-      <c r="E686" s="3"/>
-      <c r="F686" s="3"/>
-      <c r="G686" s="3"/>
-      <c r="H686" s="5"/>
+      <c r="A686" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B686" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E686" s="3">
+        <v>1</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H686" s="5">
+        <v>43195</v>
+      </c>
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A687" s="3"/>
-      <c r="B687" s="29"/>
-      <c r="C687" s="3"/>
-      <c r="D687" s="3"/>
-      <c r="E687" s="3"/>
-      <c r="F687" s="3"/>
-      <c r="G687" s="3"/>
-      <c r="H687" s="5"/>
-      <c r="I687" s="3"/>
+      <c r="A687" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B687" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E687" s="3">
+        <v>1</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H687" s="5">
+        <v>43192</v>
+      </c>
+      <c r="I687" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J687" s="3"/>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A688" s="3"/>
-      <c r="B688" s="29"/>
-      <c r="C688" s="3"/>
-      <c r="D688" s="3"/>
-      <c r="E688" s="3"/>
-      <c r="F688" s="3"/>
-      <c r="G688" s="3"/>
-      <c r="H688" s="5"/>
-      <c r="I688" s="3"/>
+      <c r="A688" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B688" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E688" s="3">
+        <v>1</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H688" s="5">
+        <v>43192</v>
+      </c>
+      <c r="I688" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J688" s="3"/>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A689" s="3"/>
-      <c r="B689" s="29"/>
-      <c r="C689" s="3"/>
-      <c r="D689" s="3"/>
-      <c r="E689" s="3"/>
-      <c r="F689" s="3"/>
-      <c r="G689" s="3"/>
-      <c r="H689" s="5"/>
+      <c r="A689" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B689" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E689" s="3">
+        <v>1</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H689" s="5">
+        <v>43193</v>
+      </c>
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A690" s="3"/>
-      <c r="B690" s="29"/>
-      <c r="C690" s="3"/>
-      <c r="D690" s="3"/>
-      <c r="E690" s="3"/>
-      <c r="F690" s="3"/>
-      <c r="G690" s="3"/>
-      <c r="H690" s="5"/>
+      <c r="A690" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B690" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E690" s="3">
+        <v>2</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H690" s="5">
+        <v>43192</v>
+      </c>
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A691" s="3"/>
-      <c r="B691" s="29"/>
-      <c r="C691" s="3"/>
-      <c r="D691" s="3"/>
-      <c r="E691" s="3"/>
-      <c r="F691" s="3"/>
-      <c r="G691" s="3"/>
-      <c r="H691" s="5"/>
+      <c r="A691" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B691" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E691" s="3">
+        <v>1</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H691" s="5">
+        <v>43193</v>
+      </c>
       <c r="I691" s="3"/>
-      <c r="J691" s="3"/>
+      <c r="J691" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A692" s="3"/>
-      <c r="B692" s="29"/>
-      <c r="C692" s="3"/>
-      <c r="D692" s="3"/>
-      <c r="E692" s="3"/>
-      <c r="F692" s="3"/>
-      <c r="G692" s="3"/>
-      <c r="H692" s="5"/>
-      <c r="I692" s="3"/>
+      <c r="A692" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B692" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E692" s="3">
+        <v>5</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H692" s="5">
+        <v>43195</v>
+      </c>
+      <c r="I692" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J692" s="3"/>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A693" s="3"/>
-      <c r="B693" s="29"/>
-      <c r="C693" s="3"/>
-      <c r="D693" s="3"/>
-      <c r="E693" s="3"/>
-      <c r="F693" s="3"/>
-      <c r="G693" s="3"/>
-      <c r="H693" s="5"/>
-      <c r="I693" s="3"/>
-      <c r="J693" s="3"/>
+      <c r="A693" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B693" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E693" s="3">
+        <v>5</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H693" s="5">
+        <v>43195</v>
+      </c>
+      <c r="I693" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J693" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A694" s="3"/>
-      <c r="B694" s="29"/>
-      <c r="C694" s="3"/>
-      <c r="D694" s="3"/>
-      <c r="E694" s="3"/>
-      <c r="F694" s="3"/>
-      <c r="G694" s="3"/>
-      <c r="H694" s="5"/>
-      <c r="I694" s="3"/>
-      <c r="J694" s="3"/>
+      <c r="A694" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B694" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E694" s="3">
+        <v>2</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H694" s="5">
+        <v>43195</v>
+      </c>
+      <c r="I694" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J694" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A695" s="3"/>
-      <c r="B695" s="29"/>
-      <c r="C695" s="3"/>
-      <c r="D695" s="3"/>
-      <c r="E695" s="3"/>
+      <c r="A695" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B695" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E695" s="3">
+        <v>1</v>
+      </c>
       <c r="F695" s="3"/>
-      <c r="G695" s="3"/>
-      <c r="H695" s="5"/>
+      <c r="G695" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H695" s="5">
+        <v>43189</v>
+      </c>
       <c r="I695" s="3"/>
       <c r="J695" s="3"/>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A696" s="3"/>
-      <c r="B696" s="29"/>
-      <c r="C696" s="3"/>
-      <c r="D696" s="3"/>
-      <c r="E696" s="3"/>
+      <c r="A696" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B696" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E696" s="3">
+        <v>1</v>
+      </c>
       <c r="F696" s="3"/>
-      <c r="G696" s="3"/>
-      <c r="H696" s="5"/>
+      <c r="G696" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H696" s="5">
+        <v>43192</v>
+      </c>
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A697" s="3"/>
-      <c r="B697" s="29"/>
-      <c r="C697" s="3"/>
-      <c r="D697" s="3"/>
-      <c r="E697" s="3"/>
+      <c r="A697" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B697" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E697" s="3">
+        <v>1</v>
+      </c>
       <c r="F697" s="3"/>
-      <c r="G697" s="3"/>
-      <c r="H697" s="5"/>
+      <c r="G697" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H697" s="5">
+        <v>43193</v>
+      </c>
       <c r="I697" s="3"/>
       <c r="J697" s="3"/>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A698" s="3"/>
-      <c r="B698" s="29"/>
-      <c r="C698" s="3"/>
-      <c r="D698" s="3"/>
-      <c r="E698" s="3"/>
+      <c r="A698" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B698" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E698" s="3">
+        <v>1</v>
+      </c>
       <c r="F698" s="3"/>
-      <c r="G698" s="3"/>
-      <c r="H698" s="5"/>
+      <c r="G698" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H698" s="5">
+        <v>43194</v>
+      </c>
       <c r="I698" s="3"/>
       <c r="J698" s="3"/>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A699" s="3"/>
-      <c r="B699" s="29"/>
-      <c r="C699" s="3"/>
-      <c r="D699" s="3"/>
-      <c r="E699" s="3"/>
+      <c r="A699" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B699" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E699" s="3">
+        <v>1</v>
+      </c>
       <c r="F699" s="3"/>
-      <c r="G699" s="3"/>
-      <c r="H699" s="5"/>
+      <c r="G699" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H699" s="5">
+        <v>43195</v>
+      </c>
       <c r="I699" s="3"/>
       <c r="J699" s="3"/>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A700" s="3"/>
-      <c r="B700" s="29"/>
-      <c r="C700" s="3"/>
-      <c r="D700" s="3"/>
-      <c r="E700" s="3"/>
+      <c r="A700" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B700" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E700" s="3">
+        <v>1</v>
+      </c>
       <c r="F700" s="3"/>
-      <c r="G700" s="3"/>
-      <c r="H700" s="5"/>
+      <c r="G700" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H700" s="5">
+        <v>43195</v>
+      </c>
       <c r="I700" s="3"/>
       <c r="J700" s="3"/>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A701" s="3"/>
-      <c r="B701" s="29"/>
-      <c r="C701" s="3"/>
-      <c r="D701" s="3"/>
-      <c r="E701" s="3"/>
+      <c r="A701" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B701" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E701" s="3">
+        <v>1</v>
+      </c>
       <c r="F701" s="3"/>
-      <c r="G701" s="3"/>
-      <c r="H701" s="5"/>
+      <c r="G701" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H701" s="5">
+        <v>43195</v>
+      </c>
       <c r="I701" s="3"/>
       <c r="J701" s="3"/>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A702" s="3"/>
-      <c r="B702" s="29"/>
-      <c r="C702" s="3"/>
-      <c r="D702" s="3"/>
-      <c r="E702" s="3"/>
+      <c r="A702" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B702" s="29">
+        <v>1092.001</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E702" s="3">
+        <v>1</v>
+      </c>
       <c r="F702" s="3"/>
-      <c r="G702" s="3"/>
-      <c r="H702" s="5"/>
+      <c r="G702" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H702" s="5">
+        <v>43195</v>
+      </c>
       <c r="I702" s="3"/>
       <c r="J702" s="3"/>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A703" s="3"/>
-      <c r="B703" s="29"/>
-      <c r="C703" s="3"/>
-      <c r="D703" s="3"/>
-      <c r="E703" s="3"/>
+      <c r="A703" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B703" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E703" s="3">
+        <v>1</v>
+      </c>
       <c r="F703" s="3"/>
-      <c r="G703" s="3"/>
-      <c r="H703" s="5"/>
-      <c r="I703" s="3"/>
+      <c r="G703" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H703" s="5">
+        <v>43199</v>
+      </c>
+      <c r="I703" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J703" s="3"/>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A704" s="3"/>
-      <c r="B704" s="29"/>
-      <c r="C704" s="3"/>
-      <c r="D704" s="3"/>
-      <c r="E704" s="3"/>
+      <c r="A704" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B704" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E704" s="3">
+        <v>1</v>
+      </c>
       <c r="F704" s="3"/>
-      <c r="G704" s="3"/>
-      <c r="H704" s="5"/>
+      <c r="G704" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H704" s="5">
+        <v>43202</v>
+      </c>
       <c r="I704" s="3"/>
       <c r="J704" s="3"/>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A705" s="3"/>
-      <c r="B705" s="29"/>
-      <c r="C705" s="3"/>
-      <c r="D705" s="3"/>
-      <c r="E705" s="3"/>
+      <c r="A705" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B705" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E705" s="3">
+        <v>1</v>
+      </c>
       <c r="F705" s="3"/>
-      <c r="G705" s="3"/>
-      <c r="H705" s="5"/>
-      <c r="I705" s="3"/>
+      <c r="G705" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H705" s="5">
+        <v>43196</v>
+      </c>
+      <c r="I705" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J705" s="3"/>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A706" s="3"/>
-      <c r="B706" s="29"/>
-      <c r="C706" s="3"/>
-      <c r="D706" s="3"/>
-      <c r="E706" s="3"/>
+      <c r="A706" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B706" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E706" s="3">
+        <v>1</v>
+      </c>
       <c r="F706" s="3"/>
-      <c r="G706" s="3"/>
-      <c r="H706" s="5"/>
+      <c r="G706" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H706" s="5">
+        <v>43199</v>
+      </c>
       <c r="I706" s="3"/>
       <c r="J706" s="3"/>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A707" s="3"/>
-      <c r="B707" s="29"/>
-      <c r="C707" s="3"/>
-      <c r="D707" s="3"/>
-      <c r="E707" s="3"/>
-      <c r="F707" s="3"/>
-      <c r="G707" s="3"/>
-      <c r="H707" s="5"/>
+      <c r="A707" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B707" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E707" s="3">
+        <v>1</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H707" s="5">
+        <v>43199</v>
+      </c>
       <c r="I707" s="3"/>
       <c r="J707" s="3"/>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A708" s="3"/>
-      <c r="B708" s="29"/>
-      <c r="C708" s="3"/>
-      <c r="D708" s="3"/>
-      <c r="E708" s="3"/>
-      <c r="F708" s="3"/>
-      <c r="G708" s="3"/>
-      <c r="H708" s="5"/>
+      <c r="A708" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B708" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E708" s="3">
+        <v>1</v>
+      </c>
+      <c r="F708" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H708" s="5">
+        <v>43199</v>
+      </c>
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A709" s="3"/>
-      <c r="B709" s="29"/>
-      <c r="C709" s="3"/>
-      <c r="D709" s="3"/>
-      <c r="E709" s="3"/>
-      <c r="F709" s="3"/>
-      <c r="G709" s="3"/>
-      <c r="H709" s="5"/>
+      <c r="A709" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B709" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E709" s="3">
+        <v>1</v>
+      </c>
+      <c r="F709" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H709" s="5">
+        <v>43199</v>
+      </c>
       <c r="I709" s="3"/>
       <c r="J709" s="3"/>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A710" s="3"/>
-      <c r="B710" s="29"/>
-      <c r="C710" s="3"/>
-      <c r="D710" s="3"/>
-      <c r="E710" s="3"/>
-      <c r="F710" s="3"/>
-      <c r="G710" s="3"/>
-      <c r="H710" s="5"/>
+      <c r="A710" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B710" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E710" s="3">
+        <v>5</v>
+      </c>
+      <c r="F710" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H710" s="5">
+        <v>43199</v>
+      </c>
       <c r="I710" s="3"/>
       <c r="J710" s="3"/>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A711" s="3"/>
-      <c r="B711" s="29"/>
-      <c r="C711" s="3"/>
-      <c r="D711" s="3"/>
-      <c r="E711" s="3"/>
-      <c r="F711" s="3"/>
-      <c r="G711" s="3"/>
-      <c r="H711" s="5"/>
+      <c r="A711" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B711" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E711" s="3">
+        <v>3</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H711" s="5">
+        <v>43199</v>
+      </c>
       <c r="I711" s="3"/>
-      <c r="J711" s="3"/>
+      <c r="J711" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A712" s="3"/>
-      <c r="B712" s="29"/>
-      <c r="C712" s="3"/>
-      <c r="D712" s="3"/>
-      <c r="E712" s="3"/>
-      <c r="F712" s="3"/>
-      <c r="G712" s="3"/>
-      <c r="H712" s="5"/>
-      <c r="I712" s="3"/>
-      <c r="J712" s="3"/>
+      <c r="A712" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B712" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E712" s="3">
+        <v>6</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H712" s="5">
+        <v>43199</v>
+      </c>
+      <c r="I712" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J712" s="3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A713" s="3"/>
-      <c r="B713" s="29"/>
-      <c r="C713" s="3"/>
-      <c r="D713" s="3"/>
-      <c r="E713" s="3"/>
-      <c r="F713" s="3"/>
-      <c r="G713" s="3"/>
-      <c r="H713" s="5"/>
+      <c r="A713" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B713" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E713" s="3">
+        <v>6</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H713" s="5">
+        <v>43199</v>
+      </c>
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A714" s="3"/>
-      <c r="B714" s="29"/>
-      <c r="C714" s="3"/>
-      <c r="D714" s="3"/>
-      <c r="E714" s="3"/>
-      <c r="F714" s="3"/>
-      <c r="G714" s="3"/>
-      <c r="H714" s="5"/>
-      <c r="I714" s="3"/>
-      <c r="J714" s="3"/>
+      <c r="A714" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B714" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E714" s="3">
+        <v>4</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H714" s="5">
+        <v>43199</v>
+      </c>
+      <c r="I714" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J714" s="3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A715" s="3"/>
-      <c r="B715" s="29"/>
-      <c r="C715" s="3"/>
-      <c r="D715" s="3"/>
-      <c r="E715" s="3"/>
-      <c r="F715" s="3"/>
-      <c r="G715" s="3"/>
-      <c r="H715" s="5"/>
+      <c r="A715" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B715" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E715" s="3">
+        <v>4</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H715" s="5">
+        <v>43199</v>
+      </c>
       <c r="I715" s="3"/>
       <c r="J715" s="3"/>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A716" s="3"/>
-      <c r="B716" s="29"/>
-      <c r="C716" s="3"/>
-      <c r="D716" s="3"/>
-      <c r="E716" s="3"/>
-      <c r="F716" s="3"/>
-      <c r="G716" s="3"/>
-      <c r="H716" s="5"/>
+      <c r="A716" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B716" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E716" s="3">
+        <v>12</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H716" s="5">
+        <v>43199</v>
+      </c>
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A717" s="3"/>
-      <c r="B717" s="29"/>
-      <c r="C717" s="3"/>
-      <c r="D717" s="3"/>
-      <c r="E717" s="3"/>
-      <c r="F717" s="3"/>
-      <c r="G717" s="3"/>
-      <c r="H717" s="5"/>
+      <c r="A717" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B717" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E717" s="3">
+        <v>13</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H717" s="5">
+        <v>43200</v>
+      </c>
       <c r="I717" s="3"/>
-      <c r="J717" s="3"/>
+      <c r="J717" s="3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A718" s="3"/>
-      <c r="B718" s="29"/>
-      <c r="C718" s="3"/>
-      <c r="D718" s="3"/>
-      <c r="E718" s="3"/>
-      <c r="F718" s="3"/>
-      <c r="G718" s="3"/>
-      <c r="H718" s="5"/>
-      <c r="I718" s="3"/>
-      <c r="J718" s="3"/>
+      <c r="A718" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B718" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E718" s="3">
+        <v>6</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H718" s="5">
+        <v>43200</v>
+      </c>
+      <c r="I718" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J718" s="3" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A719" s="3"/>
-      <c r="B719" s="29"/>
-      <c r="C719" s="3"/>
-      <c r="D719" s="3"/>
-      <c r="E719" s="3"/>
-      <c r="F719" s="3"/>
-      <c r="G719" s="3"/>
-      <c r="H719" s="5"/>
+      <c r="A719" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B719" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E719" s="3">
+        <v>6</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H719" s="5">
+        <v>43201</v>
+      </c>
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A720" s="3"/>
-      <c r="B720" s="29"/>
-      <c r="C720" s="3"/>
-      <c r="D720" s="3"/>
-      <c r="E720" s="3"/>
-      <c r="F720" s="3"/>
-      <c r="G720" s="3"/>
-      <c r="H720" s="5"/>
+      <c r="A720" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B720" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D720" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E720" s="3">
+        <v>2</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H720" s="5">
+        <v>43201</v>
+      </c>
       <c r="I720" s="3"/>
       <c r="J720" s="3"/>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A721" s="3"/>
-      <c r="B721" s="29"/>
-      <c r="C721" s="3"/>
-      <c r="D721" s="3"/>
-      <c r="E721" s="3"/>
-      <c r="F721" s="3"/>
-      <c r="G721" s="3"/>
-      <c r="H721" s="5"/>
+      <c r="A721" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B721" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E721" s="3">
+        <v>2</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H721" s="5">
+        <v>43201</v>
+      </c>
       <c r="I721" s="3"/>
-      <c r="J721" s="3"/>
+      <c r="J721" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A722" s="3"/>
-      <c r="B722" s="29"/>
-      <c r="C722" s="3"/>
-      <c r="D722" s="3"/>
-      <c r="E722" s="3"/>
-      <c r="F722" s="3"/>
-      <c r="G722" s="3"/>
-      <c r="H722" s="5"/>
-      <c r="I722" s="3"/>
+      <c r="A722" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B722" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D722" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E722" s="3">
+        <v>1</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H722" s="5">
+        <v>43201</v>
+      </c>
+      <c r="I722" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J722" s="3"/>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A723" s="3"/>
-      <c r="B723" s="29"/>
-      <c r="C723" s="3"/>
-      <c r="D723" s="3"/>
-      <c r="E723" s="3"/>
-      <c r="F723" s="3"/>
-      <c r="G723" s="3"/>
-      <c r="H723" s="5"/>
+      <c r="A723" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B723" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E723" s="3">
+        <v>1</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H723" s="5">
+        <v>43202</v>
+      </c>
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A724" s="3"/>
-      <c r="B724" s="29"/>
-      <c r="C724" s="3"/>
-      <c r="D724" s="3"/>
-      <c r="E724" s="3"/>
-      <c r="F724" s="3"/>
-      <c r="G724" s="3"/>
-      <c r="H724" s="5"/>
+      <c r="A724" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B724" s="29">
+        <v>1092.001</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E724" s="3">
+        <v>1</v>
+      </c>
+      <c r="F724" s="3">
+        <v>1</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H724" s="5">
+        <v>43199</v>
+      </c>
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A725" s="3"/>
-      <c r="B725" s="29"/>
-      <c r="C725" s="3"/>
-      <c r="D725" s="3"/>
-      <c r="E725" s="3"/>
+      <c r="A725" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B725" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E725" s="3">
+        <v>1</v>
+      </c>
       <c r="F725" s="3"/>
-      <c r="G725" s="3"/>
-      <c r="H725" s="5"/>
+      <c r="G725" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H725" s="5">
+        <v>43200</v>
+      </c>
       <c r="I725" s="3"/>
       <c r="J725" s="3"/>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A726" s="3"/>
-      <c r="B726" s="29"/>
-      <c r="C726" s="3"/>
-      <c r="D726" s="3"/>
-      <c r="E726" s="3"/>
+      <c r="A726" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B726" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E726" s="3">
+        <v>1</v>
+      </c>
       <c r="F726" s="3"/>
-      <c r="G726" s="3"/>
-      <c r="H726" s="5"/>
+      <c r="G726" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H726" s="5">
+        <v>43201</v>
+      </c>
       <c r="I726" s="3"/>
       <c r="J726" s="3"/>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A727" s="3"/>
-      <c r="B727" s="29"/>
-      <c r="C727" s="3"/>
-      <c r="D727" s="3"/>
-      <c r="E727" s="3"/>
-      <c r="F727" s="3"/>
-      <c r="G727" s="3"/>
-      <c r="H727" s="5"/>
-      <c r="I727" s="3"/>
+      <c r="A727" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B727" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E727" s="3">
+        <v>1</v>
+      </c>
+      <c r="F727" s="3">
+        <v>1</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H727" s="5">
+        <v>43201</v>
+      </c>
+      <c r="I727" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J727" s="3"/>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A728" s="3"/>
-      <c r="B728" s="29"/>
-      <c r="C728" s="3"/>
-      <c r="D728" s="3"/>
-      <c r="E728" s="3"/>
+      <c r="A728" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B728" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E728" s="3">
+        <v>1</v>
+      </c>
       <c r="F728" s="3"/>
-      <c r="G728" s="3"/>
-      <c r="H728" s="5"/>
+      <c r="G728" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H728" s="5">
+        <v>43201</v>
+      </c>
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A729" s="3"/>
-      <c r="B729" s="29"/>
-      <c r="C729" s="3"/>
-      <c r="D729" s="3"/>
-      <c r="E729" s="3"/>
-      <c r="F729" s="3"/>
-      <c r="G729" s="3"/>
-      <c r="H729" s="5"/>
-      <c r="I729" s="3"/>
-      <c r="J729" s="3"/>
+      <c r="A729" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B729" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E729" s="3">
+        <v>1</v>
+      </c>
+      <c r="F729" s="3">
+        <v>1</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H729" s="5">
+        <v>43201</v>
+      </c>
+      <c r="I729" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J729" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A730" s="3"/>
-      <c r="B730" s="29"/>
-      <c r="C730" s="3"/>
-      <c r="D730" s="3"/>
-      <c r="E730" s="3"/>
-      <c r="F730" s="3"/>
-      <c r="G730" s="3"/>
-      <c r="H730" s="5"/>
+      <c r="A730" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B730" s="29">
+        <v>962</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E730" s="3">
+        <v>1</v>
+      </c>
+      <c r="F730" s="3">
+        <v>1</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H730" s="5">
+        <v>43202</v>
+      </c>
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A731" s="3"/>
-      <c r="B731" s="29"/>
-      <c r="C731" s="3"/>
-      <c r="D731" s="3"/>
-      <c r="E731" s="3"/>
+      <c r="A731" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B731" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E731" s="3">
+        <v>1</v>
+      </c>
       <c r="F731" s="3"/>
-      <c r="G731" s="3"/>
-      <c r="H731" s="5"/>
+      <c r="G731" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H731" s="5">
+        <v>43202</v>
+      </c>
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A732" s="3"/>
-      <c r="B732" s="29"/>
-      <c r="C732" s="3"/>
-      <c r="D732" s="3"/>
-      <c r="E732" s="3"/>
+      <c r="A732" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B732" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E732" s="3">
+        <v>1</v>
+      </c>
       <c r="F732" s="3"/>
-      <c r="G732" s="3"/>
-      <c r="H732" s="5"/>
+      <c r="G732" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H732" s="5">
+        <v>43202</v>
+      </c>
       <c r="I732" s="3"/>
       <c r="J732" s="3"/>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A733" s="3"/>
-      <c r="B733" s="29"/>
-      <c r="C733" s="3"/>
-      <c r="D733" s="3"/>
-      <c r="E733" s="3"/>
+      <c r="A733" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B733" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E733" s="3">
+        <v>1</v>
+      </c>
       <c r="F733" s="3"/>
-      <c r="G733" s="3"/>
-      <c r="H733" s="5"/>
+      <c r="G733" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H733" s="5">
+        <v>43202</v>
+      </c>
       <c r="I733" s="3"/>
       <c r="J733" s="3"/>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A734" s="3"/>
-      <c r="B734" s="29"/>
-      <c r="C734" s="3"/>
-      <c r="D734" s="3"/>
-      <c r="E734" s="3"/>
-      <c r="F734" s="3"/>
-      <c r="G734" s="3"/>
-      <c r="H734" s="5"/>
+      <c r="A734" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B734" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E734" s="3">
+        <v>1</v>
+      </c>
+      <c r="F734" s="3">
+        <v>12</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H734" s="5">
+        <v>43203</v>
+      </c>
       <c r="I734" s="3"/>
       <c r="J734" s="3"/>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A735" s="3"/>
-      <c r="B735" s="29"/>
-      <c r="C735" s="3"/>
-      <c r="D735" s="3"/>
-      <c r="E735" s="3"/>
-      <c r="F735" s="3"/>
-      <c r="G735" s="3"/>
-      <c r="H735" s="5"/>
+      <c r="A735" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B735" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E735" s="3">
+        <v>1</v>
+      </c>
+      <c r="F735" s="3">
+        <v>10</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H735" s="5">
+        <v>43203</v>
+      </c>
       <c r="I735" s="3"/>
       <c r="J735" s="3"/>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A736" s="3"/>
-      <c r="B736" s="29"/>
-      <c r="C736" s="3"/>
-      <c r="D736" s="3"/>
-      <c r="E736" s="3"/>
-      <c r="F736" s="3"/>
-      <c r="G736" s="3"/>
-      <c r="H736" s="5"/>
+      <c r="A736" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B736" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E736" s="3">
+        <v>1</v>
+      </c>
+      <c r="F736" s="3">
+        <v>9</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H736" s="5">
+        <v>43203</v>
+      </c>
       <c r="I736" s="3"/>
       <c r="J736" s="3"/>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A737" s="3"/>
-      <c r="B737" s="29"/>
-      <c r="C737" s="3"/>
-      <c r="D737" s="3"/>
-      <c r="E737" s="3"/>
-      <c r="F737" s="3"/>
-      <c r="G737" s="3"/>
-      <c r="H737" s="5"/>
+      <c r="A737" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B737" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E737" s="3">
+        <v>1</v>
+      </c>
+      <c r="F737" s="3">
+        <v>8</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H737" s="5">
+        <v>43203</v>
+      </c>
       <c r="I737" s="3"/>
       <c r="J737" s="3"/>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A738" s="3"/>
-      <c r="B738" s="29"/>
-      <c r="C738" s="3"/>
-      <c r="D738" s="3"/>
-      <c r="E738" s="3"/>
-      <c r="F738" s="3"/>
-      <c r="G738" s="3"/>
-      <c r="H738" s="5"/>
+      <c r="A738" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B738" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E738" s="3">
+        <v>1</v>
+      </c>
+      <c r="F738" s="3">
+        <v>6</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H738" s="5">
+        <v>43203</v>
+      </c>
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A739" s="3"/>
-      <c r="B739" s="29"/>
-      <c r="C739" s="3"/>
-      <c r="D739" s="3"/>
-      <c r="E739" s="3"/>
-      <c r="F739" s="3"/>
-      <c r="G739" s="3"/>
-      <c r="H739" s="5"/>
+      <c r="A739" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B739" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E739" s="3">
+        <v>1</v>
+      </c>
+      <c r="F739" s="3">
+        <v>5</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H739" s="5">
+        <v>43203</v>
+      </c>
       <c r="I739" s="3"/>
       <c r="J739" s="3"/>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A740" s="3"/>
-      <c r="B740" s="29"/>
-      <c r="C740" s="3"/>
-      <c r="D740" s="3"/>
-      <c r="E740" s="3"/>
-      <c r="F740" s="3"/>
-      <c r="G740" s="3"/>
-      <c r="H740" s="5"/>
+      <c r="A740" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B740" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E740" s="3">
+        <v>1</v>
+      </c>
+      <c r="F740" s="3">
+        <v>2</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H740" s="5">
+        <v>43203</v>
+      </c>
       <c r="I740" s="3"/>
       <c r="J740" s="3"/>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A741" s="3"/>
-      <c r="B741" s="29"/>
-      <c r="C741" s="3"/>
-      <c r="D741" s="3"/>
-      <c r="E741" s="3"/>
-      <c r="F741" s="3"/>
-      <c r="G741" s="3"/>
-      <c r="H741" s="5"/>
+      <c r="A741" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B741" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E741" s="3">
+        <v>1</v>
+      </c>
+      <c r="F741" s="3">
+        <v>1</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H741" s="5">
+        <v>43203</v>
+      </c>
       <c r="I741" s="3"/>
       <c r="J741" s="3"/>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A742" s="3"/>
-      <c r="B742" s="29"/>
-      <c r="C742" s="3"/>
-      <c r="D742" s="3"/>
-      <c r="E742" s="3"/>
-      <c r="F742" s="3"/>
-      <c r="G742" s="3"/>
-      <c r="H742" s="5"/>
+      <c r="A742" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B742" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E742" s="3">
+        <v>1</v>
+      </c>
+      <c r="F742" s="3">
+        <v>9</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H742" s="5">
+        <v>43203</v>
+      </c>
       <c r="I742" s="3"/>
       <c r="J742" s="3"/>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A743" s="3"/>
-      <c r="B743" s="29"/>
-      <c r="C743" s="3"/>
-      <c r="D743" s="3"/>
-      <c r="E743" s="3"/>
+      <c r="A743" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B743" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E743" s="3">
+        <v>1</v>
+      </c>
       <c r="F743" s="3"/>
-      <c r="G743" s="3"/>
-      <c r="H743" s="5"/>
-      <c r="I743" s="3"/>
+      <c r="G743" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H743" s="5">
+        <v>43208</v>
+      </c>
+      <c r="I743" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J743" s="3"/>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A744" s="3"/>
-      <c r="B744" s="29"/>
-      <c r="C744" s="3"/>
-      <c r="D744" s="3"/>
-      <c r="E744" s="3"/>
-      <c r="F744" s="3"/>
-      <c r="G744" s="3"/>
-      <c r="H744" s="5"/>
-      <c r="I744" s="3"/>
+      <c r="A744" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B744" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D744" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E744" s="3">
+        <v>1</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H744" s="5">
+        <v>43203</v>
+      </c>
+      <c r="I744" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J744" s="3"/>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A745" s="3"/>
-      <c r="B745" s="29"/>
-      <c r="C745" s="3"/>
-      <c r="D745" s="3"/>
-      <c r="E745" s="3"/>
-      <c r="F745" s="3"/>
-      <c r="G745" s="3"/>
-      <c r="H745" s="5"/>
+      <c r="A745" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B745" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E745" s="3">
+        <v>1</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H745" s="5">
+        <v>43206</v>
+      </c>
       <c r="I745" s="3"/>
       <c r="J745" s="3"/>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A746" s="3"/>
-      <c r="B746" s="29"/>
-      <c r="C746" s="3"/>
-      <c r="D746" s="3"/>
-      <c r="E746" s="3"/>
-      <c r="F746" s="3"/>
-      <c r="G746" s="3"/>
-      <c r="H746" s="5"/>
-      <c r="I746" s="3"/>
+      <c r="A746" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B746" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E746" s="3">
+        <v>1</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H746" s="5">
+        <v>43203</v>
+      </c>
+      <c r="I746" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J746" s="3"/>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A747" s="3"/>
-      <c r="B747" s="29"/>
-      <c r="C747" s="3"/>
-      <c r="D747" s="3"/>
-      <c r="E747" s="3"/>
-      <c r="F747" s="3"/>
-      <c r="G747" s="3"/>
-      <c r="H747" s="5"/>
+      <c r="A747" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B747" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E747" s="3">
+        <v>1</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H747" s="5">
+        <v>43206</v>
+      </c>
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A748" s="3"/>
-      <c r="B748" s="29"/>
-      <c r="C748" s="3"/>
-      <c r="D748" s="3"/>
-      <c r="E748" s="3"/>
-      <c r="F748" s="3"/>
-      <c r="G748" s="3"/>
-      <c r="H748" s="5"/>
+      <c r="A748" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B748" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E748" s="3">
+        <v>6</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H748" s="5">
+        <v>43206</v>
+      </c>
       <c r="I748" s="3"/>
-      <c r="J748" s="3"/>
+      <c r="J748" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A749" s="3"/>
-      <c r="B749" s="29"/>
-      <c r="C749" s="3"/>
-      <c r="D749" s="3"/>
-      <c r="E749" s="3"/>
-      <c r="F749" s="3"/>
-      <c r="G749" s="3"/>
-      <c r="H749" s="5"/>
-      <c r="I749" s="3"/>
+      <c r="A749" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B749" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D749" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E749" s="3">
+        <v>1</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H749" s="5">
+        <v>43206</v>
+      </c>
+      <c r="I749" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J749" s="3"/>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A750" s="3"/>
-      <c r="B750" s="29"/>
-      <c r="C750" s="3"/>
-      <c r="D750" s="3"/>
-      <c r="E750" s="3"/>
-      <c r="F750" s="3"/>
-      <c r="G750" s="3"/>
-      <c r="H750" s="5"/>
+      <c r="A750" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B750" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E750" s="3">
+        <v>1</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H750" s="5">
+        <v>43206</v>
+      </c>
       <c r="I750" s="3"/>
       <c r="J750" s="3"/>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A751" s="3"/>
-      <c r="B751" s="29"/>
-      <c r="C751" s="3"/>
-      <c r="D751" s="3"/>
-      <c r="E751" s="3"/>
-      <c r="F751" s="3"/>
-      <c r="G751" s="3"/>
-      <c r="H751" s="5"/>
-      <c r="I751" s="3"/>
+      <c r="A751" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B751" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D751" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E751" s="3">
+        <v>1</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H751" s="5">
+        <v>43206</v>
+      </c>
+      <c r="I751" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J751" s="3"/>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A752" s="3"/>
-      <c r="B752" s="29"/>
-      <c r="C752" s="3"/>
-      <c r="D752" s="3"/>
-      <c r="E752" s="3"/>
+      <c r="A752" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B752" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D752" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E752" s="3">
+        <v>14</v>
+      </c>
       <c r="F752" s="3"/>
-      <c r="G752" s="3"/>
-      <c r="H752" s="5"/>
-      <c r="I752" s="3"/>
-      <c r="J752" s="3"/>
+      <c r="G752" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H752" s="5">
+        <v>43206</v>
+      </c>
+      <c r="I752" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J752" s="3" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A753" s="3"/>
-      <c r="B753" s="29"/>
-      <c r="C753" s="3"/>
-      <c r="D753" s="3"/>
-      <c r="E753" s="3"/>
-      <c r="F753" s="3"/>
-      <c r="G753" s="3"/>
-      <c r="H753" s="5"/>
+      <c r="A753" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B753" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D753" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E753" s="3">
+        <v>2</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H753" s="5">
+        <v>43207</v>
+      </c>
       <c r="I753" s="3"/>
-      <c r="J753" s="3"/>
+      <c r="J753" s="3" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A754" s="3"/>
-      <c r="B754" s="29"/>
-      <c r="C754" s="3"/>
-      <c r="D754" s="3"/>
-      <c r="E754" s="3"/>
-      <c r="F754" s="3"/>
-      <c r="G754" s="3"/>
-      <c r="H754" s="5"/>
+      <c r="A754" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B754" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E754" s="3">
+        <v>1</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H754" s="5">
+        <v>43207</v>
+      </c>
       <c r="I754" s="3"/>
-      <c r="J754" s="3"/>
+      <c r="J754" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A755" s="3"/>
-      <c r="B755" s="29"/>
-      <c r="C755" s="3"/>
-      <c r="D755" s="3"/>
-      <c r="E755" s="3"/>
-      <c r="F755" s="3"/>
-      <c r="G755" s="3"/>
-      <c r="H755" s="5"/>
-      <c r="I755" s="3"/>
-      <c r="J755" s="3"/>
+      <c r="A755" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B755" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E755" s="3">
+        <v>1</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H755" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I755" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J755" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A756" s="3"/>
-      <c r="B756" s="29"/>
-      <c r="C756" s="3"/>
-      <c r="D756" s="3"/>
-      <c r="E756" s="3"/>
-      <c r="F756" s="3"/>
-      <c r="G756" s="3"/>
-      <c r="H756" s="5"/>
+      <c r="A756" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B756" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E756" s="3">
+        <v>1</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H756" s="5">
+        <v>43208</v>
+      </c>
       <c r="I756" s="3"/>
       <c r="J756" s="3"/>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A757" s="3"/>
-      <c r="B757" s="29"/>
-      <c r="C757" s="3"/>
-      <c r="D757" s="3"/>
-      <c r="E757" s="3"/>
-      <c r="F757" s="3"/>
-      <c r="G757" s="3"/>
-      <c r="H757" s="5"/>
-      <c r="I757" s="3"/>
-      <c r="J757" s="3"/>
+      <c r="A757" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B757" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E757" s="3">
+        <v>1</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H757" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I757" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J757" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A758" s="3"/>
-      <c r="B758" s="29"/>
-      <c r="C758" s="3"/>
-      <c r="D758" s="3"/>
-      <c r="E758" s="3"/>
-      <c r="F758" s="3"/>
-      <c r="G758" s="3"/>
-      <c r="H758" s="5"/>
+      <c r="A758" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B758" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E758" s="3">
+        <v>1</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H758" s="5">
+        <v>43208</v>
+      </c>
       <c r="I758" s="3"/>
       <c r="J758" s="3"/>
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A759" s="3"/>
-      <c r="B759" s="29"/>
-      <c r="C759" s="3"/>
-      <c r="D759" s="3"/>
-      <c r="E759" s="3"/>
-      <c r="F759" s="3"/>
-      <c r="G759" s="3"/>
-      <c r="H759" s="5"/>
-      <c r="I759" s="3"/>
-      <c r="J759" s="3"/>
+      <c r="A759" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B759" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E759" s="3">
+        <v>1</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H759" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I759" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J759" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A760" s="3"/>
-      <c r="B760" s="29"/>
-      <c r="C760" s="3"/>
-      <c r="D760" s="3"/>
-      <c r="E760" s="3"/>
-      <c r="F760" s="3"/>
-      <c r="G760" s="3"/>
-      <c r="H760" s="5"/>
+      <c r="A760" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B760" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D760" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E760" s="3">
+        <v>1</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H760" s="5">
+        <v>43208</v>
+      </c>
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A761" s="3"/>
-      <c r="B761" s="29"/>
-      <c r="C761" s="3"/>
-      <c r="D761" s="3"/>
-      <c r="E761" s="3"/>
-      <c r="F761" s="3"/>
-      <c r="G761" s="3"/>
-      <c r="H761" s="5"/>
-      <c r="I761" s="3"/>
-      <c r="J761" s="3"/>
+      <c r="A761" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B761" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E761" s="3">
+        <v>1</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H761" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I761" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J761" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A762" s="3"/>
-      <c r="B762" s="29"/>
-      <c r="C762" s="3"/>
-      <c r="D762" s="3"/>
-      <c r="E762" s="3"/>
-      <c r="F762" s="3"/>
-      <c r="G762" s="3"/>
-      <c r="H762" s="5"/>
+      <c r="A762" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B762" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D762" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E762" s="3">
+        <v>1</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H762" s="5">
+        <v>43208</v>
+      </c>
       <c r="I762" s="3"/>
       <c r="J762" s="3"/>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A763" s="3"/>
-      <c r="B763" s="29"/>
-      <c r="C763" s="3"/>
-      <c r="D763" s="3"/>
-      <c r="E763" s="3"/>
-      <c r="F763" s="3"/>
-      <c r="G763" s="3"/>
-      <c r="H763" s="5"/>
+      <c r="A763" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B763" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D763" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E763" s="3">
+        <v>1</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H763" s="5">
+        <v>43207</v>
+      </c>
       <c r="I763" s="3"/>
-      <c r="J763" s="3"/>
+      <c r="J763" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A764" s="3"/>
-      <c r="B764" s="29"/>
-      <c r="C764" s="3"/>
-      <c r="D764" s="3"/>
-      <c r="E764" s="3"/>
-      <c r="F764" s="3"/>
-      <c r="G764" s="3"/>
-      <c r="H764" s="5"/>
-      <c r="I764" s="3"/>
-      <c r="J764" s="3"/>
+      <c r="A764" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B764" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D764" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E764" s="3">
+        <v>1</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H764" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I764" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J764" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A765" s="3"/>
-      <c r="B765" s="29"/>
-      <c r="C765" s="3"/>
-      <c r="D765" s="3"/>
-      <c r="E765" s="3"/>
-      <c r="F765" s="3"/>
-      <c r="G765" s="3"/>
-      <c r="H765" s="5"/>
+      <c r="A765" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B765" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D765" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E765" s="3">
+        <v>1</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H765" s="5">
+        <v>43208</v>
+      </c>
       <c r="I765" s="3"/>
       <c r="J765" s="3"/>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A766" s="3"/>
-      <c r="B766" s="29"/>
-      <c r="C766" s="3"/>
-      <c r="D766" s="3"/>
-      <c r="E766" s="3"/>
-      <c r="F766" s="3"/>
-      <c r="G766" s="3"/>
-      <c r="H766" s="5"/>
+      <c r="A766" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B766" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D766" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E766" s="3">
+        <v>1</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H766" s="5">
+        <v>43207</v>
+      </c>
       <c r="I766" s="3"/>
-      <c r="J766" s="3"/>
+      <c r="J766" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A767" s="3"/>
-      <c r="B767" s="29"/>
-      <c r="C767" s="3"/>
-      <c r="D767" s="3"/>
-      <c r="E767" s="3"/>
-      <c r="F767" s="3"/>
-      <c r="G767" s="3"/>
-      <c r="H767" s="5"/>
+      <c r="A767" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B767" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E767" s="3">
+        <v>1</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H767" s="5">
+        <v>43207</v>
+      </c>
       <c r="I767" s="3"/>
-      <c r="J767" s="3"/>
+      <c r="J767" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A768" s="3"/>
-      <c r="B768" s="29"/>
-      <c r="C768" s="3"/>
-      <c r="D768" s="3"/>
-      <c r="E768" s="3"/>
-      <c r="F768" s="3"/>
-      <c r="G768" s="3"/>
-      <c r="H768" s="5"/>
-      <c r="I768" s="3"/>
-      <c r="J768" s="3"/>
+      <c r="A768" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B768" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D768" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E768" s="3">
+        <v>1</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H768" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I768" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J768" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A769" s="3"/>
-      <c r="B769" s="29"/>
-      <c r="C769" s="3"/>
-      <c r="D769" s="3"/>
-      <c r="E769" s="3"/>
-      <c r="F769" s="3"/>
-      <c r="G769" s="3"/>
-      <c r="H769" s="5"/>
+      <c r="A769" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B769" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D769" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E769" s="3">
+        <v>1</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H769" s="5">
+        <v>43208</v>
+      </c>
       <c r="I769" s="3"/>
       <c r="J769" s="3"/>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A770" s="3"/>
-      <c r="B770" s="29"/>
-      <c r="C770" s="3"/>
-      <c r="D770" s="3"/>
-      <c r="E770" s="3"/>
-      <c r="F770" s="3"/>
-      <c r="G770" s="3"/>
-      <c r="H770" s="5"/>
+      <c r="A770" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B770" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D770" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E770" s="3">
+        <v>1</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H770" s="5">
+        <v>43207</v>
+      </c>
       <c r="I770" s="3"/>
-      <c r="J770" s="3"/>
+      <c r="J770" s="3" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A771" s="3"/>
-      <c r="B771" s="29"/>
-      <c r="C771" s="3"/>
-      <c r="D771" s="3"/>
-      <c r="E771" s="3"/>
-      <c r="F771" s="3"/>
-      <c r="G771" s="3"/>
-      <c r="H771" s="5"/>
+      <c r="A771" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B771" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D771" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E771" s="3">
+        <v>1</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H771" s="5">
+        <v>43207</v>
+      </c>
       <c r="I771" s="3"/>
-      <c r="J771" s="3"/>
+      <c r="J771" s="3" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A772" s="3"/>
-      <c r="B772" s="29"/>
-      <c r="C772" s="3"/>
-      <c r="D772" s="3"/>
-      <c r="E772" s="3"/>
-      <c r="F772" s="3"/>
-      <c r="G772" s="3"/>
-      <c r="H772" s="5"/>
-      <c r="I772" s="3"/>
+      <c r="A772" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B772" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E772" s="3">
+        <v>1</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H772" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I772" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J772" s="3"/>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A773" s="3"/>
-      <c r="B773" s="29"/>
-      <c r="C773" s="3"/>
-      <c r="D773" s="3"/>
-      <c r="E773" s="3"/>
-      <c r="F773" s="3"/>
-      <c r="G773" s="3"/>
-      <c r="H773" s="5"/>
+      <c r="A773" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B773" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D773" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E773" s="3">
+        <v>1</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H773" s="5">
+        <v>43208</v>
+      </c>
       <c r="I773" s="3"/>
-      <c r="J773" s="3"/>
+      <c r="J773" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A774" s="3"/>
-      <c r="B774" s="29"/>
-      <c r="C774" s="3"/>
-      <c r="D774" s="3"/>
-      <c r="E774" s="3"/>
-      <c r="F774" s="3"/>
-      <c r="G774" s="3"/>
-      <c r="H774" s="5"/>
+      <c r="A774" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B774" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E774" s="3">
+        <v>1</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H774" s="5">
+        <v>43208</v>
+      </c>
       <c r="I774" s="3"/>
-      <c r="J774" s="3"/>
+      <c r="J774" s="3" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A775" s="3"/>
-      <c r="B775" s="29"/>
-      <c r="C775" s="3"/>
-      <c r="D775" s="3"/>
-      <c r="E775" s="3"/>
-      <c r="F775" s="3"/>
-      <c r="G775" s="3"/>
-      <c r="H775" s="5"/>
-      <c r="I775" s="3"/>
+      <c r="A775" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B775" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E775" s="3">
+        <v>1</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H775" s="5">
+        <v>43207</v>
+      </c>
+      <c r="I775" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J775" s="3"/>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A776" s="3"/>
-      <c r="B776" s="29"/>
-      <c r="C776" s="3"/>
-      <c r="D776" s="3"/>
-      <c r="E776" s="3"/>
-      <c r="F776" s="3"/>
-      <c r="G776" s="3"/>
-      <c r="H776" s="5"/>
+      <c r="A776" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B776" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E776" s="3">
+        <v>1</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H776" s="5">
+        <v>43208</v>
+      </c>
       <c r="I776" s="3"/>
-      <c r="J776" s="3"/>
+      <c r="J776" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A777" s="3"/>
-      <c r="B777" s="29"/>
-      <c r="C777" s="3"/>
-      <c r="D777" s="3"/>
-      <c r="E777" s="3"/>
-      <c r="F777" s="3"/>
-      <c r="G777" s="3"/>
-      <c r="H777" s="5"/>
+      <c r="A777" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B777" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E777" s="3">
+        <v>1</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H777" s="5">
+        <v>43208</v>
+      </c>
       <c r="I777" s="3"/>
-      <c r="J777" s="3"/>
+      <c r="J777" s="3" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A778" s="3"/>
-      <c r="B778" s="29"/>
-      <c r="C778" s="3"/>
-      <c r="D778" s="3"/>
-      <c r="E778" s="3"/>
+      <c r="A778" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B778" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E778" s="3">
+        <v>1</v>
+      </c>
       <c r="F778" s="3"/>
-      <c r="G778" s="3"/>
-      <c r="H778" s="5"/>
+      <c r="G778" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H778" s="5">
+        <v>43208</v>
+      </c>
       <c r="I778" s="3"/>
       <c r="J778" s="3"/>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A779" s="3"/>
-      <c r="B779" s="29"/>
-      <c r="C779" s="3"/>
-      <c r="D779" s="3"/>
-      <c r="E779" s="3"/>
-      <c r="F779" s="3"/>
-      <c r="G779" s="3"/>
-      <c r="H779" s="5"/>
+      <c r="A779" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B779" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E779" s="3">
+        <v>1</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H779" s="5">
+        <v>43208</v>
+      </c>
       <c r="I779" s="3"/>
-      <c r="J779" s="3"/>
+      <c r="J779" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A780" s="3"/>
-      <c r="B780" s="29"/>
-      <c r="C780" s="3"/>
-      <c r="D780" s="3"/>
-      <c r="E780" s="3"/>
-      <c r="F780" s="3"/>
-      <c r="G780" s="3"/>
-      <c r="H780" s="5"/>
+      <c r="A780" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B780" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E780" s="3">
+        <v>1</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G780" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H780" s="5">
+        <v>43208</v>
+      </c>
       <c r="I780" s="3"/>
-      <c r="J780" s="3"/>
+      <c r="J780" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A781" s="3"/>
-      <c r="B781" s="29"/>
-      <c r="C781" s="3"/>
-      <c r="D781" s="3"/>
-      <c r="E781" s="3"/>
-      <c r="F781" s="3"/>
-      <c r="G781" s="3"/>
-      <c r="H781" s="5"/>
+      <c r="A781" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B781" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D781" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E781" s="3">
+        <v>1</v>
+      </c>
+      <c r="F781" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G781" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H781" s="5">
+        <v>43208</v>
+      </c>
       <c r="I781" s="3"/>
-      <c r="J781" s="3"/>
+      <c r="J781" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A782" s="3"/>
-      <c r="B782" s="29"/>
-      <c r="C782" s="3"/>
-      <c r="D782" s="3"/>
-      <c r="E782" s="3"/>
+      <c r="A782" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B782" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E782" s="3">
+        <v>1</v>
+      </c>
       <c r="F782" s="3"/>
-      <c r="G782" s="3"/>
-      <c r="H782" s="5"/>
+      <c r="G782" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H782" s="5">
+        <v>43208</v>
+      </c>
       <c r="I782" s="3"/>
       <c r="J782" s="3"/>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A783" s="3"/>
-      <c r="B783" s="29"/>
-      <c r="C783" s="3"/>
-      <c r="D783" s="3"/>
-      <c r="E783" s="3"/>
+      <c r="A783" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B783" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E783" s="3">
+        <v>1</v>
+      </c>
       <c r="F783" s="3"/>
-      <c r="G783" s="3"/>
-      <c r="H783" s="5"/>
+      <c r="G783" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H783" s="5">
+        <v>43209</v>
+      </c>
       <c r="I783" s="3"/>
       <c r="J783" s="3"/>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A784" s="3"/>
-      <c r="B784" s="29"/>
-      <c r="C784" s="3"/>
-      <c r="D784" s="3"/>
-      <c r="E784" s="3"/>
+      <c r="A784" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B784" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E784" s="3">
+        <v>16</v>
+      </c>
       <c r="F784" s="3"/>
-      <c r="G784" s="3"/>
-      <c r="H784" s="5"/>
+      <c r="G784" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H784" s="5">
+        <v>43209</v>
+      </c>
       <c r="I784" s="3"/>
       <c r="J784" s="3"/>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A785" s="3"/>
-      <c r="B785" s="29"/>
-      <c r="C785" s="3"/>
-      <c r="D785" s="3"/>
-      <c r="E785" s="3"/>
+      <c r="A785" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B785" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E785" s="3">
+        <v>24</v>
+      </c>
       <c r="F785" s="3"/>
-      <c r="G785" s="3"/>
-      <c r="H785" s="5"/>
+      <c r="G785" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H785" s="5">
+        <v>43209</v>
+      </c>
       <c r="I785" s="3"/>
       <c r="J785" s="3"/>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A786" s="3"/>
-      <c r="B786" s="29"/>
-      <c r="C786" s="3"/>
-      <c r="D786" s="3"/>
-      <c r="E786" s="3"/>
+      <c r="A786" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B786" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E786" s="3">
+        <v>1</v>
+      </c>
       <c r="F786" s="3"/>
-      <c r="G786" s="3"/>
-      <c r="H786" s="5"/>
-      <c r="I786" s="3"/>
+      <c r="G786" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H786" s="5">
+        <v>43209</v>
+      </c>
+      <c r="I786" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J786" s="3"/>
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A787" s="3"/>
-      <c r="B787" s="29"/>
-      <c r="C787" s="3"/>
-      <c r="D787" s="3"/>
-      <c r="E787" s="3"/>
+      <c r="A787" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B787" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E787" s="3">
+        <v>1</v>
+      </c>
       <c r="F787" s="3"/>
-      <c r="G787" s="3"/>
-      <c r="H787" s="5"/>
+      <c r="G787" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H787" s="5">
+        <v>43209</v>
+      </c>
       <c r="I787" s="3"/>
       <c r="J787" s="3"/>
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A788" s="3"/>
-      <c r="B788" s="29"/>
-      <c r="C788" s="3"/>
-      <c r="D788" s="3"/>
-      <c r="E788" s="3"/>
-      <c r="F788" s="3"/>
-      <c r="G788" s="3"/>
-      <c r="H788" s="5"/>
+      <c r="A788" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B788" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E788" s="3">
+        <v>1</v>
+      </c>
+      <c r="F788" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G788" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H788" s="5">
+        <v>43209</v>
+      </c>
       <c r="I788" s="3"/>
       <c r="J788" s="3"/>
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A789" s="3"/>
-      <c r="B789" s="29"/>
-      <c r="C789" s="3"/>
-      <c r="D789" s="3"/>
-      <c r="E789" s="3"/>
-      <c r="F789" s="3"/>
-      <c r="G789" s="3"/>
-      <c r="H789" s="5"/>
+      <c r="A789" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B789" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E789" s="3">
+        <v>5</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H789" s="5">
+        <v>43209</v>
+      </c>
       <c r="I789" s="3"/>
       <c r="J789" s="3"/>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A790" s="3"/>
-      <c r="B790" s="29"/>
-      <c r="C790" s="3"/>
-      <c r="D790" s="3"/>
-      <c r="E790" s="3"/>
-      <c r="F790" s="3"/>
-      <c r="G790" s="3"/>
-      <c r="H790" s="5"/>
+      <c r="A790" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B790" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E790" s="3">
+        <v>4</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H790" s="5">
+        <v>43209</v>
+      </c>
       <c r="I790" s="3"/>
-      <c r="J790" s="3"/>
+      <c r="J790" s="3" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A791" s="3"/>
-      <c r="B791" s="29"/>
-      <c r="C791" s="3"/>
-      <c r="D791" s="3"/>
-      <c r="E791" s="3"/>
-      <c r="F791" s="3"/>
-      <c r="G791" s="3"/>
-      <c r="H791" s="5"/>
+      <c r="A791" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B791" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E791" s="3">
+        <v>5</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H791" s="5">
+        <v>43209</v>
+      </c>
       <c r="I791" s="3"/>
       <c r="J791" s="3"/>
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A792" s="3"/>
-      <c r="B792" s="29"/>
-      <c r="C792" s="3"/>
-      <c r="D792" s="3"/>
-      <c r="E792" s="3"/>
-      <c r="F792" s="3"/>
-      <c r="G792" s="3"/>
-      <c r="H792" s="5"/>
+      <c r="A792" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B792" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E792" s="3">
+        <v>5</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H792" s="5">
+        <v>43209</v>
+      </c>
       <c r="I792" s="3"/>
-      <c r="J792" s="3"/>
+      <c r="J792" s="3" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A793" s="3"/>
-      <c r="B793" s="29"/>
-      <c r="C793" s="3"/>
-      <c r="D793" s="3"/>
-      <c r="E793" s="3"/>
+      <c r="A793" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B793" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E793" s="3">
+        <v>1</v>
+      </c>
       <c r="F793" s="3"/>
-      <c r="G793" s="3"/>
-      <c r="H793" s="5"/>
+      <c r="G793" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H793" s="5">
+        <v>43207</v>
+      </c>
       <c r="I793" s="3"/>
       <c r="J793" s="3"/>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A794" s="3"/>
-      <c r="B794" s="29"/>
-      <c r="C794" s="3"/>
-      <c r="D794" s="3"/>
-      <c r="E794" s="3"/>
-      <c r="F794" s="3"/>
-      <c r="G794" s="3"/>
-      <c r="H794" s="5"/>
+      <c r="A794" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B794" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E794" s="3">
+        <v>1</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H794" s="5">
+        <v>43207</v>
+      </c>
       <c r="I794" s="3"/>
       <c r="J794" s="3"/>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A795" s="3"/>
-      <c r="B795" s="29"/>
-      <c r="C795" s="3"/>
-      <c r="D795" s="3"/>
-      <c r="E795" s="3"/>
+      <c r="A795" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B795" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E795" s="3">
+        <v>1</v>
+      </c>
       <c r="F795" s="3"/>
-      <c r="G795" s="3"/>
-      <c r="H795" s="5"/>
+      <c r="G795" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H795" s="5">
+        <v>43208</v>
+      </c>
       <c r="I795" s="3"/>
       <c r="J795" s="3"/>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A796" s="3"/>
-      <c r="B796" s="29"/>
-      <c r="C796" s="3"/>
-      <c r="D796" s="3"/>
-      <c r="E796" s="3"/>
+      <c r="A796" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B796" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E796" s="3">
+        <v>1</v>
+      </c>
       <c r="F796" s="3"/>
-      <c r="G796" s="3"/>
-      <c r="H796" s="5"/>
+      <c r="G796" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H796" s="5">
+        <v>43208</v>
+      </c>
       <c r="I796" s="3"/>
       <c r="J796" s="3"/>
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A797" s="3"/>
-      <c r="B797" s="29"/>
-      <c r="C797" s="3"/>
-      <c r="D797" s="3"/>
-      <c r="E797" s="3"/>
-      <c r="F797" s="3"/>
-      <c r="G797" s="3"/>
-      <c r="H797" s="5"/>
+      <c r="A797" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B797" s="29">
+        <v>136.00299999999999</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E797" s="3">
+        <v>14</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H797" s="5">
+        <v>43208</v>
+      </c>
       <c r="I797" s="3"/>
       <c r="J797" s="3"/>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A798" s="3"/>
-      <c r="B798" s="29"/>
-      <c r="C798" s="3"/>
-      <c r="D798" s="3"/>
-      <c r="E798" s="3"/>
+      <c r="A798" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B798" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D798" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E798" s="3">
+        <v>1</v>
+      </c>
       <c r="F798" s="3"/>
-      <c r="G798" s="3"/>
-      <c r="H798" s="5"/>
+      <c r="G798" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H798" s="5">
+        <v>43209</v>
+      </c>
       <c r="I798" s="3"/>
       <c r="J798" s="3"/>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A799" s="3"/>
-      <c r="B799" s="29"/>
-      <c r="C799" s="3"/>
-      <c r="D799" s="3"/>
-      <c r="E799" s="3"/>
+      <c r="A799" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B799" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E799" s="3">
+        <v>14</v>
+      </c>
       <c r="F799" s="3"/>
-      <c r="G799" s="3"/>
-      <c r="H799" s="5"/>
+      <c r="G799" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H799" s="5">
+        <v>43210</v>
+      </c>
       <c r="I799" s="3"/>
       <c r="J799" s="3"/>
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A800" s="3"/>
-      <c r="B800" s="29"/>
-      <c r="C800" s="3"/>
-      <c r="D800" s="3"/>
-      <c r="E800" s="3"/>
+      <c r="A800" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B800" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E800" s="3">
+        <v>4</v>
+      </c>
       <c r="F800" s="3"/>
-      <c r="G800" s="3"/>
-      <c r="H800" s="5"/>
+      <c r="G800" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H800" s="5">
+        <v>43210</v>
+      </c>
       <c r="I800" s="3"/>
       <c r="J800" s="3"/>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A801" s="3"/>
-      <c r="B801" s="29"/>
-      <c r="C801" s="3"/>
-      <c r="D801" s="3"/>
-      <c r="E801" s="3"/>
+      <c r="A801" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B801" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E801" s="3">
+        <v>4</v>
+      </c>
       <c r="F801" s="3"/>
-      <c r="G801" s="3"/>
-      <c r="H801" s="5"/>
+      <c r="G801" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H801" s="5">
+        <v>43210</v>
+      </c>
       <c r="I801" s="3"/>
-      <c r="J801" s="3"/>
+      <c r="J801" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A802" s="3"/>
-      <c r="B802" s="29"/>
-      <c r="C802" s="3"/>
-      <c r="D802" s="3"/>
-      <c r="E802" s="3"/>
-      <c r="F802" s="3"/>
-      <c r="G802" s="3"/>
-      <c r="H802" s="5"/>
+      <c r="A802" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B802" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E802" s="3">
+        <v>9</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G802" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H802" s="5">
+        <v>43210</v>
+      </c>
       <c r="I802" s="3"/>
       <c r="J802" s="3"/>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A803" s="3"/>
-      <c r="B803" s="29"/>
-      <c r="C803" s="3"/>
-      <c r="D803" s="3"/>
-      <c r="E803" s="3"/>
-      <c r="F803" s="3"/>
-      <c r="G803" s="3"/>
-      <c r="H803" s="5"/>
+      <c r="A803" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B803" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E803" s="3">
+        <v>14</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G803" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H803" s="5">
+        <v>43210</v>
+      </c>
       <c r="I803" s="3"/>
-      <c r="J803" s="3"/>
+      <c r="J803" s="3" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A804" s="3"/>
-      <c r="B804" s="29"/>
-      <c r="C804" s="3"/>
-      <c r="D804" s="3"/>
-      <c r="E804" s="3"/>
-      <c r="F804" s="3"/>
-      <c r="G804" s="3"/>
-      <c r="H804" s="5"/>
+      <c r="A804" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B804" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E804" s="3">
+        <v>1</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H804" s="5">
+        <v>43213</v>
+      </c>
       <c r="I804" s="3"/>
       <c r="J804" s="3"/>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A805" s="3"/>
-      <c r="B805" s="29"/>
-      <c r="C805" s="3"/>
-      <c r="D805" s="3"/>
-      <c r="E805" s="3"/>
-      <c r="F805" s="3"/>
-      <c r="G805" s="3"/>
-      <c r="H805" s="5"/>
+      <c r="A805" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B805" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E805" s="3">
+        <v>1</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H805" s="5">
+        <v>43213</v>
+      </c>
       <c r="I805" s="3"/>
-      <c r="J805" s="3"/>
+      <c r="J805" s="3" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A806" s="3"/>
-      <c r="B806" s="29"/>
-      <c r="C806" s="3"/>
-      <c r="D806" s="3"/>
-      <c r="E806" s="3"/>
-      <c r="F806" s="3"/>
-      <c r="G806" s="3"/>
-      <c r="H806" s="5"/>
+      <c r="A806" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B806" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E806" s="3">
+        <v>1</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H806" s="5">
+        <v>43213</v>
+      </c>
       <c r="I806" s="3"/>
       <c r="J806" s="3"/>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A807" s="3"/>
-      <c r="B807" s="29"/>
-      <c r="C807" s="3"/>
-      <c r="D807" s="3"/>
-      <c r="E807" s="3"/>
-      <c r="F807" s="3"/>
-      <c r="G807" s="3"/>
-      <c r="H807" s="5"/>
+      <c r="A807" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B807" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E807" s="3">
+        <v>1</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H807" s="5">
+        <v>43213</v>
+      </c>
       <c r="I807" s="3"/>
       <c r="J807" s="3"/>
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A808" s="3"/>
-      <c r="B808" s="29"/>
-      <c r="C808" s="3"/>
-      <c r="D808" s="3"/>
-      <c r="E808" s="3"/>
+      <c r="A808" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B808" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E808" s="3">
+        <v>2</v>
+      </c>
       <c r="F808" s="3"/>
-      <c r="G808" s="3"/>
-      <c r="H808" s="5"/>
-      <c r="I808" s="3"/>
-      <c r="J808" s="3"/>
+      <c r="G808" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H808" s="5">
+        <v>43214</v>
+      </c>
+      <c r="I808" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J808" s="3" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A809" s="3"/>
-      <c r="B809" s="29"/>
-      <c r="C809" s="3"/>
-      <c r="D809" s="3"/>
-      <c r="E809" s="3"/>
+      <c r="A809" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B809" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D809" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E809" s="3">
+        <v>2</v>
+      </c>
       <c r="F809" s="3"/>
-      <c r="G809" s="3"/>
-      <c r="H809" s="5"/>
+      <c r="G809" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H809" s="5">
+        <v>43214</v>
+      </c>
       <c r="I809" s="3"/>
       <c r="J809" s="3"/>
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A810" s="3"/>
-      <c r="B810" s="29"/>
-      <c r="C810" s="3"/>
-      <c r="D810" s="3"/>
-      <c r="E810" s="3"/>
-      <c r="F810" s="3"/>
-      <c r="G810" s="3"/>
-      <c r="H810" s="5"/>
+      <c r="A810" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B810" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E810" s="3">
+        <v>2</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H810" s="5">
+        <v>43214</v>
+      </c>
       <c r="I810" s="3"/>
-      <c r="J810" s="3"/>
+      <c r="J810" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A811" s="3"/>
-      <c r="B811" s="29"/>
-      <c r="C811" s="3"/>
-      <c r="D811" s="3"/>
-      <c r="E811" s="3"/>
-      <c r="F811" s="3"/>
-      <c r="G811" s="3"/>
-      <c r="H811" s="5"/>
-      <c r="I811" s="3"/>
+      <c r="A811" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B811" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E811" s="3">
+        <v>1</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G811" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H811" s="5">
+        <v>43215</v>
+      </c>
+      <c r="I811" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J811" s="3"/>
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A812" s="3"/>
-      <c r="B812" s="29"/>
-      <c r="C812" s="3"/>
-      <c r="D812" s="3"/>
-      <c r="E812" s="3"/>
-      <c r="F812" s="3"/>
-      <c r="G812" s="3"/>
-      <c r="H812" s="5"/>
+      <c r="A812" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B812" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E812" s="3">
+        <v>1</v>
+      </c>
+      <c r="F812" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G812" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H812" s="5">
+        <v>43216</v>
+      </c>
       <c r="I812" s="3"/>
-      <c r="J812" s="3"/>
+      <c r="J812" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A813" s="3"/>
-      <c r="B813" s="29"/>
-      <c r="C813" s="3"/>
-      <c r="D813" s="3"/>
-      <c r="E813" s="3"/>
-      <c r="F813" s="3"/>
-      <c r="G813" s="3"/>
-      <c r="H813" s="5"/>
-      <c r="I813" s="3"/>
+      <c r="A813" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B813" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E813" s="3">
+        <v>1</v>
+      </c>
+      <c r="F813" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G813" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H813" s="5">
+        <v>43215</v>
+      </c>
+      <c r="I813" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J813" s="3"/>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A814" s="3"/>
-      <c r="B814" s="29"/>
-      <c r="C814" s="3"/>
-      <c r="D814" s="3"/>
-      <c r="E814" s="3"/>
-      <c r="F814" s="3"/>
-      <c r="G814" s="3"/>
-      <c r="H814" s="5"/>
+      <c r="A814" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B814" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E814" s="3">
+        <v>1</v>
+      </c>
+      <c r="F814" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H814" s="5">
+        <v>43216</v>
+      </c>
       <c r="I814" s="3"/>
-      <c r="J814" s="3"/>
+      <c r="J814" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A815" s="3"/>
-      <c r="B815" s="29"/>
-      <c r="C815" s="3"/>
-      <c r="D815" s="3"/>
-      <c r="E815" s="3"/>
-      <c r="F815" s="3"/>
-      <c r="G815" s="3"/>
-      <c r="H815" s="5"/>
+      <c r="A815" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B815" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E815" s="3">
+        <v>1</v>
+      </c>
+      <c r="F815" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H815" s="5">
+        <v>43216</v>
+      </c>
       <c r="I815" s="3"/>
-      <c r="J815" s="3"/>
+      <c r="J815" s="3" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A816" s="3"/>
-      <c r="B816" s="29"/>
-      <c r="C816" s="3"/>
-      <c r="D816" s="3"/>
-      <c r="E816" s="3"/>
-      <c r="F816" s="3"/>
-      <c r="G816" s="3"/>
-      <c r="H816" s="5"/>
+      <c r="A816" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B816" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E816" s="3">
+        <v>1</v>
+      </c>
+      <c r="F816" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H816" s="5">
+        <v>43216</v>
+      </c>
       <c r="I816" s="3"/>
-      <c r="J816" s="3"/>
+      <c r="J816" s="3" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A817" s="3"/>
-      <c r="B817" s="29"/>
-      <c r="C817" s="3"/>
-      <c r="D817" s="3"/>
-      <c r="E817" s="3"/>
-      <c r="F817" s="3"/>
-      <c r="G817" s="3"/>
-      <c r="H817" s="5"/>
-      <c r="I817" s="3"/>
+      <c r="A817" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B817" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E817" s="3">
+        <v>1</v>
+      </c>
+      <c r="F817" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H817" s="5">
+        <v>43215</v>
+      </c>
+      <c r="I817" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J817" s="3"/>
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A818" s="3"/>
-      <c r="B818" s="29"/>
-      <c r="C818" s="3"/>
-      <c r="D818" s="3"/>
-      <c r="E818" s="3"/>
-      <c r="F818" s="3"/>
-      <c r="G818" s="3"/>
-      <c r="H818" s="5"/>
-      <c r="I818" s="3"/>
-      <c r="J818" s="3"/>
+      <c r="A818" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B818" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E818" s="3">
+        <v>1</v>
+      </c>
+      <c r="F818" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H818" s="5">
+        <v>43216</v>
+      </c>
+      <c r="I818" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J818" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A819" s="3"/>
-      <c r="B819" s="29"/>
-      <c r="C819" s="3"/>
-      <c r="D819" s="3"/>
-      <c r="E819" s="3"/>
-      <c r="F819" s="3"/>
-      <c r="G819" s="3"/>
-      <c r="H819" s="5"/>
+      <c r="A819" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B819" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E819" s="3">
+        <v>1</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H819" s="5">
+        <v>43216</v>
+      </c>
       <c r="I819" s="3"/>
       <c r="J819" s="3"/>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A820" s="3"/>
-      <c r="B820" s="29"/>
-      <c r="C820" s="3"/>
-      <c r="D820" s="3"/>
-      <c r="E820" s="3"/>
-      <c r="F820" s="3"/>
-      <c r="G820" s="3"/>
-      <c r="H820" s="5"/>
+      <c r="A820" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B820" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E820" s="3">
+        <v>1</v>
+      </c>
+      <c r="F820" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G820" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H820" s="5">
+        <v>43216</v>
+      </c>
       <c r="I820" s="3"/>
       <c r="J820" s="3"/>
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A821" s="3"/>
-      <c r="B821" s="29"/>
-      <c r="C821" s="3"/>
-      <c r="D821" s="3"/>
-      <c r="E821" s="3"/>
-      <c r="F821" s="3"/>
-      <c r="G821" s="3"/>
-      <c r="H821" s="5"/>
+      <c r="A821" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B821" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E821" s="3">
+        <v>1</v>
+      </c>
+      <c r="F821" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G821" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H821" s="5">
+        <v>43216</v>
+      </c>
       <c r="I821" s="3"/>
       <c r="J821" s="3"/>
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A822" s="3"/>
-      <c r="B822" s="29"/>
-      <c r="C822" s="3"/>
-      <c r="D822" s="3"/>
-      <c r="E822" s="3"/>
-      <c r="F822" s="3"/>
-      <c r="G822" s="3"/>
-      <c r="H822" s="5"/>
+      <c r="A822" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B822" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E822" s="3">
+        <v>1</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H822" s="5">
+        <v>43217</v>
+      </c>
       <c r="I822" s="3"/>
       <c r="J822" s="3"/>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A823" s="3"/>
-      <c r="B823" s="29"/>
-      <c r="C823" s="3"/>
-      <c r="D823" s="3"/>
-      <c r="E823" s="3"/>
-      <c r="F823" s="3"/>
-      <c r="G823" s="3"/>
-      <c r="H823" s="5"/>
+      <c r="A823" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B823" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E823" s="3">
+        <v>1</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H823" s="5">
+        <v>43217</v>
+      </c>
       <c r="I823" s="3"/>
       <c r="J823" s="3"/>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A824" s="3"/>
-      <c r="B824" s="29"/>
-      <c r="C824" s="3"/>
-      <c r="D824" s="3"/>
-      <c r="E824" s="3"/>
-      <c r="F824" s="3"/>
-      <c r="G824" s="3"/>
-      <c r="H824" s="5"/>
+      <c r="A824" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B824" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E824" s="3">
+        <v>1</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H824" s="5">
+        <v>43220</v>
+      </c>
       <c r="I824" s="3"/>
       <c r="J824" s="3"/>
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A825" s="3"/>
-      <c r="B825" s="29"/>
-      <c r="C825" s="3"/>
-      <c r="D825" s="3"/>
-      <c r="E825" s="3"/>
-      <c r="F825" s="3"/>
-      <c r="G825" s="3"/>
-      <c r="H825" s="5"/>
+      <c r="A825" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B825" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E825" s="3">
+        <v>1</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H825" s="5">
+        <v>43220</v>
+      </c>
       <c r="I825" s="3"/>
       <c r="J825" s="3"/>
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A826" s="3"/>
-      <c r="B826" s="29"/>
-      <c r="C826" s="3"/>
-      <c r="D826" s="3"/>
-      <c r="E826" s="3"/>
-      <c r="F826" s="3"/>
-      <c r="G826" s="3"/>
-      <c r="H826" s="5"/>
-      <c r="I826" s="3"/>
+      <c r="A826" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B826" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E826" s="3">
+        <v>1</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H826" s="5">
+        <v>43220</v>
+      </c>
+      <c r="I826" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J826" s="3"/>
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A827" s="3"/>
-      <c r="B827" s="29"/>
-      <c r="C827" s="3"/>
-      <c r="D827" s="3"/>
-      <c r="E827" s="3"/>
-      <c r="F827" s="3"/>
-      <c r="G827" s="3"/>
-      <c r="H827" s="5"/>
+      <c r="A827" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B827" s="29">
+        <v>624</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E827" s="3">
+        <v>9</v>
+      </c>
+      <c r="F827" s="3">
+        <v>1</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H827" s="5">
+        <v>43213</v>
+      </c>
       <c r="I827" s="3"/>
       <c r="J827" s="3"/>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A828" s="3"/>
-      <c r="B828" s="29"/>
-      <c r="C828" s="3"/>
-      <c r="D828" s="3"/>
-      <c r="E828" s="3"/>
-      <c r="F828" s="3"/>
-      <c r="G828" s="3"/>
-      <c r="H828" s="5"/>
+      <c r="A828" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B828" s="29">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E828" s="3">
+        <v>1</v>
+      </c>
+      <c r="F828" s="3">
+        <v>1</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H828" s="5">
+        <v>43213</v>
+      </c>
       <c r="I828" s="3"/>
       <c r="J828" s="3"/>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A829" s="3"/>
-      <c r="B829" s="29"/>
-      <c r="C829" s="3"/>
-      <c r="D829" s="3"/>
-      <c r="E829" s="3"/>
-      <c r="F829" s="3"/>
-      <c r="G829" s="3"/>
-      <c r="H829" s="5"/>
-      <c r="I829" s="3"/>
+      <c r="A829" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B829" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E829" s="3">
+        <v>1</v>
+      </c>
+      <c r="F829" s="3">
+        <v>1</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H829" s="5">
+        <v>43214</v>
+      </c>
+      <c r="I829" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J829" s="3"/>
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A830" s="3"/>
-      <c r="B830" s="29"/>
-      <c r="C830" s="3"/>
-      <c r="D830" s="3"/>
-      <c r="E830" s="3"/>
-      <c r="F830" s="3"/>
-      <c r="G830" s="3"/>
-      <c r="H830" s="5"/>
-      <c r="I830" s="3"/>
+      <c r="A830" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B830" s="29">
+        <v>1108</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E830" s="3">
+        <v>1</v>
+      </c>
+      <c r="F830" s="3">
+        <v>1</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H830" s="5">
+        <v>43215</v>
+      </c>
+      <c r="I830" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J830" s="3"/>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A831" s="3"/>
-      <c r="B831" s="29"/>
-      <c r="C831" s="3"/>
-      <c r="D831" s="3"/>
-      <c r="E831" s="3"/>
+      <c r="A831" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B831" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E831" s="3">
+        <v>1</v>
+      </c>
       <c r="F831" s="3"/>
-      <c r="G831" s="3"/>
-      <c r="H831" s="5"/>
+      <c r="G831" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H831" s="5">
+        <v>43216</v>
+      </c>
       <c r="I831" s="3"/>
       <c r="J831" s="3"/>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A832" s="3"/>
-      <c r="B832" s="29"/>
-      <c r="C832" s="3"/>
-      <c r="D832" s="3"/>
-      <c r="E832" s="3"/>
+      <c r="A832" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B832" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E832" s="3">
+        <v>1</v>
+      </c>
       <c r="F832" s="3"/>
-      <c r="G832" s="3"/>
-      <c r="H832" s="5"/>
+      <c r="G832" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H832" s="5">
+        <v>43216</v>
+      </c>
       <c r="I832" s="3"/>
       <c r="J832" s="3"/>
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A833" s="3"/>
-      <c r="B833" s="29"/>
-      <c r="C833" s="3"/>
-      <c r="D833" s="3"/>
-      <c r="E833" s="3"/>
-      <c r="F833" s="3"/>
-      <c r="G833" s="3"/>
-      <c r="H833" s="5"/>
-      <c r="I833" s="3"/>
+      <c r="A833" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B833" s="29">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E833" s="3">
+        <v>1</v>
+      </c>
+      <c r="F833" s="3">
+        <v>1</v>
+      </c>
+      <c r="G833" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H833" s="5">
+        <v>43216</v>
+      </c>
+      <c r="I833" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J833" s="3"/>
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A834" s="3"/>
-      <c r="B834" s="29"/>
-      <c r="C834" s="3"/>
-      <c r="D834" s="3"/>
-      <c r="E834" s="3"/>
-      <c r="F834" s="3"/>
-      <c r="G834" s="3"/>
-      <c r="H834" s="5"/>
-      <c r="I834" s="3"/>
+      <c r="A834" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B834" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E834" s="3">
+        <v>14</v>
+      </c>
+      <c r="F834" s="3">
+        <v>1</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H834" s="5">
+        <v>43216</v>
+      </c>
+      <c r="I834" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="J834" s="3"/>
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A835" s="3"/>
-      <c r="B835" s="29"/>
-      <c r="C835" s="3"/>
-      <c r="D835" s="3"/>
-      <c r="E835" s="3"/>
-      <c r="F835" s="3"/>
-      <c r="G835" s="3"/>
-      <c r="H835" s="5"/>
-      <c r="I835" s="3"/>
-      <c r="J835" s="3"/>
+      <c r="A835" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B835" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F835" s="3">
+        <v>1</v>
+      </c>
+      <c r="G835" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H835" s="5">
+        <v>43217</v>
+      </c>
+      <c r="I835" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J835" s="3" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A836" s="3"/>
-      <c r="B836" s="29"/>
-      <c r="C836" s="3"/>
-      <c r="D836" s="3"/>
-      <c r="E836" s="3"/>
-      <c r="F836" s="3"/>
-      <c r="G836" s="3"/>
-      <c r="H836" s="5"/>
-      <c r="I836" s="3"/>
-      <c r="J836" s="3"/>
+      <c r="A836" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B836" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F836" s="3">
+        <v>1</v>
+      </c>
+      <c r="G836" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H836" s="5">
+        <v>43217</v>
+      </c>
+      <c r="I836" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J836" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A837" s="3"/>
-      <c r="B837" s="29"/>
-      <c r="C837" s="3"/>
-      <c r="D837" s="3"/>
-      <c r="E837" s="3"/>
-      <c r="F837" s="3"/>
-      <c r="G837" s="3"/>
-      <c r="H837" s="5"/>
-      <c r="I837" s="3"/>
+      <c r="A837" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B837" s="29">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E837" s="3">
+        <v>1</v>
+      </c>
+      <c r="F837" s="3">
+        <v>1</v>
+      </c>
+      <c r="G837" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H837" s="5">
+        <v>43217</v>
+      </c>
+      <c r="I837" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J837" s="3"/>
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A838" s="3"/>
-      <c r="B838" s="29"/>
-      <c r="C838" s="3"/>
-      <c r="D838" s="3"/>
-      <c r="E838" s="3"/>
-      <c r="F838" s="3"/>
-      <c r="G838" s="3"/>
-      <c r="H838" s="5"/>
-      <c r="I838" s="3"/>
-      <c r="J838" s="3"/>
+      <c r="A838" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B838" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E838" s="3">
+        <v>2</v>
+      </c>
+      <c r="F838" s="3">
+        <v>1</v>
+      </c>
+      <c r="G838" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H838" s="5">
+        <v>43220</v>
+      </c>
+      <c r="I838" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J838" s="3" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A839" s="3"/>
-      <c r="B839" s="29"/>
-      <c r="C839" s="3"/>
-      <c r="D839" s="3"/>
-      <c r="E839" s="3"/>
+      <c r="A839" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B839" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E839" s="3">
+        <v>1</v>
+      </c>
       <c r="F839" s="3"/>
-      <c r="G839" s="3"/>
-      <c r="H839" s="5"/>
+      <c r="G839" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H839" s="5">
+        <v>43220</v>
+      </c>
       <c r="I839" s="3"/>
       <c r="J839" s="3"/>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A840" s="3"/>
-      <c r="B840" s="29"/>
-      <c r="C840" s="3"/>
-      <c r="D840" s="3"/>
-      <c r="E840" s="3"/>
-      <c r="F840" s="3"/>
-      <c r="G840" s="3"/>
-      <c r="H840" s="5"/>
-      <c r="I840" s="3"/>
-      <c r="J840" s="3"/>
+      <c r="A840" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B840" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E840" s="3">
+        <v>2</v>
+      </c>
+      <c r="F840" s="3">
+        <v>11</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H840" s="5">
+        <v>43220</v>
+      </c>
+      <c r="I840" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J840" s="3" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A841" s="3"/>
-      <c r="B841" s="29"/>
-      <c r="C841" s="3"/>
-      <c r="D841" s="3"/>
-      <c r="E841" s="3"/>
+      <c r="A841" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B841" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E841" s="3">
+        <v>1</v>
+      </c>
       <c r="F841" s="3"/>
-      <c r="G841" s="3"/>
-      <c r="H841" s="5"/>
+      <c r="G841" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H841" s="5">
+        <v>43220</v>
+      </c>
       <c r="I841" s="3"/>
       <c r="J841" s="3"/>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A842" s="3"/>
-      <c r="B842" s="29"/>
-      <c r="C842" s="3"/>
-      <c r="D842" s="3"/>
-      <c r="E842" s="3"/>
-      <c r="F842" s="3"/>
-      <c r="G842" s="3"/>
-      <c r="H842" s="5"/>
+      <c r="A842" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B842" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E842" s="3">
+        <v>1</v>
+      </c>
+      <c r="F842" s="3">
+        <v>1</v>
+      </c>
+      <c r="G842" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H842" s="5">
+        <v>43220</v>
+      </c>
       <c r="I842" s="3"/>
       <c r="J842" s="3"/>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A843" s="3"/>
-      <c r="B843" s="29"/>
-      <c r="C843" s="3"/>
-      <c r="D843" s="3"/>
-      <c r="E843" s="3"/>
-      <c r="F843" s="3"/>
-      <c r="G843" s="3"/>
-      <c r="H843" s="5"/>
+      <c r="A843" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B843" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E843" s="3">
+        <v>6</v>
+      </c>
+      <c r="F843" s="3">
+        <v>1</v>
+      </c>
+      <c r="G843" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H843" s="5">
+        <v>43220</v>
+      </c>
       <c r="I843" s="3"/>
       <c r="J843" s="3"/>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A844" s="3"/>
-      <c r="B844" s="29"/>
-      <c r="C844" s="3"/>
-      <c r="D844" s="3"/>
-      <c r="E844" s="3"/>
-      <c r="F844" s="3"/>
-      <c r="G844" s="3"/>
-      <c r="H844" s="5"/>
-      <c r="I844" s="3"/>
+      <c r="A844" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B844" s="29">
+        <v>908.00099999999998</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E844" s="3">
+        <v>1</v>
+      </c>
+      <c r="F844" s="3">
+        <v>1</v>
+      </c>
+      <c r="G844" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H844" s="5">
+        <v>43220</v>
+      </c>
+      <c r="I844" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J844" s="3"/>
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.25">
@@ -29267,6 +32536,9 @@
       <c r="J1366" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A793:H798">
+    <sortCondition ref="H793:H798"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
@@ -29301,13 +32573,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Application!$A$2:$A$49</xm:f>
+            <xm:f>Application!$A$2:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>C1363:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Deliverable Types'!$A$1:$A$28</xm:f>
+            <xm:f>'Deliverable Types'!$A$1:$A$31</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D661 D671:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -29319,7 +32591,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Application!$A$2:$A$50</xm:f>
+            <xm:f>Application!$A$2:$A$53</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1362</xm:sqref>
         </x14:dataValidation>
@@ -29384,10 +32656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A50" sqref="A2:A50"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29432,57 +32704,57 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -29492,162 +32764,177 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A50">
-    <sortCondition ref="A2:A50"/>
+  <sortState ref="A2:A53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -29656,10 +32943,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29689,127 +32976,142 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>89</v>
+      <c r="A26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>90</v>
+      <c r="A27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A28">
-    <sortCondition ref="A1:A28"/>
+  <sortState ref="A1:A31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7361" uniqueCount="758">
   <si>
     <t>Project ID</t>
   </si>
@@ -2091,6 +2091,228 @@
   </si>
   <si>
     <t>Parent 00069.000</t>
+  </si>
+  <si>
+    <t>ePAS 17-4072 V16</t>
+  </si>
+  <si>
+    <t>ePAS 18-17803 v1.0</t>
+  </si>
+  <si>
+    <t>ePAS 18-17985 v1</t>
+  </si>
+  <si>
+    <t>ePAS 18-17990 V1</t>
+  </si>
+  <si>
+    <t>1 QA Build 179</t>
+  </si>
+  <si>
+    <t>Does not trace to a specific requirement</t>
+  </si>
+  <si>
+    <t>Unit testing not identified in table of deliverables.</t>
+  </si>
+  <si>
+    <t>via email</t>
+  </si>
+  <si>
+    <t>need to add versions to protocols due to authoring errors to package configuration</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31: WWLIMS WorkStation v9.31</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31: Instrument Manager Service v9.22</t>
+  </si>
+  <si>
+    <t>PBL Phase 2</t>
+  </si>
+  <si>
+    <t>PBL: Conditional</t>
+  </si>
+  <si>
+    <t>Phase 2 - UAT 02_PBL_Replacement_Results</t>
+  </si>
+  <si>
+    <t>Phase 2 - UAT 03_ PBL Backup System</t>
+  </si>
+  <si>
+    <t>FedEx Management</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WorkStation v9.31a</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  Instrument Manager Service v9.22a</t>
+  </si>
+  <si>
+    <t>IRIS Application prod</t>
+  </si>
+  <si>
+    <t>e-Tech prod</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  IMS v.22a</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31 TCIDBSQ_01</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31 Traceability Matrix - TPIDBSQ</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WWLIMS WorkStation v9.31 qa ADDULCD771510T</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WWLIMS WorkStation v9.31 qa ADDULCD773400</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  Instrument Manager Service v9.22a qa  ADDULCD772228</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WWLIMS WorkStation v9.31) UAT ADDDE1D119711</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WWLIMS WorkStation v9.31) UAT ADDDE1D119711 WS</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  Instrument Manager Service v9.22 UAT ADDDE1D119721</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  Instrument Manager Service v9.22 qa  ADDULCD772228</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31: WWLIMS Traceability Matrix</t>
+  </si>
+  <si>
+    <t>IMS v9.22</t>
+  </si>
+  <si>
+    <t>WorkStation v9.31</t>
+  </si>
+  <si>
+    <t>ePAS 18-17808 V1</t>
+  </si>
+  <si>
+    <t>Missing PM as approver</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31   Test Protocol - TCTCPLR_R_09_Result: ADDULCD771510t</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WorkStation v9.31 ADDULCD773400</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WorkStation v9.31 ADDULCD772736</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31   Pass - Test Protocol - TCREG_05 - Result: ADDULCD773400</t>
+  </si>
+  <si>
+    <t>resuvbmitted</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WorkStation v9.31 UAT ADDULCD772736</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  Pass - Test Protocol - TCIDICQ_02 - Result</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31 Test Protocol - TCIDBSQ_02 - Result</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31 Test Protocol - TCIDBSQ_01 - Result</t>
+  </si>
+  <si>
+    <t>HCE_Protocol_v2</t>
+  </si>
+  <si>
+    <t>in parent 01035.000</t>
+  </si>
+  <si>
+    <t>approval of link to parent</t>
+  </si>
+  <si>
+    <t>URS/FRS to Test Protocol Trace - v15</t>
+  </si>
+  <si>
+    <t>in parent 01038.000</t>
+  </si>
+  <si>
+    <t>Fed Ex upgrade</t>
+  </si>
+  <si>
+    <t>HTML5_Protocol</t>
+  </si>
+  <si>
+    <t>in parent 01034.000</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31Test Protocol - User Acceptance Testing - Protocol 1 - Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWLIMS v9.31  </t>
+  </si>
+  <si>
+    <t>Pick by light Phase 3 - UAT 02_PBL_Replacement_Results</t>
+  </si>
+  <si>
+    <t>ePAS 16-26283 v18</t>
+  </si>
+  <si>
+    <t>ePAS 17-4072 V17</t>
+  </si>
+  <si>
+    <t>Email review</t>
+  </si>
+  <si>
+    <t>SQA as approver on code review</t>
+  </si>
+  <si>
+    <t>Missing approver</t>
+  </si>
+  <si>
+    <t>Used BTS/AQR template</t>
+  </si>
+  <si>
+    <t>1 QA LC776430</t>
+  </si>
+  <si>
+    <t>01090.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWLIMS v9.32 - WIF 9515 - Phase 1 AMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resubmitted in parent </t>
+  </si>
+  <si>
+    <t>URS/FRS to Test Protocol Trace - v9</t>
+  </si>
+  <si>
+    <t>URS/FRS to Test Protocol Trace_v8</t>
+  </si>
+  <si>
+    <t>in parent 01037.000</t>
+  </si>
+  <si>
+    <t>in parent 01036.000</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31  WWLIMS WorkStation v9.31 - ADDULCL989799 - Prod</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.32 - WIF 9515 - Phase 1 AMD</t>
+  </si>
+  <si>
+    <t>WWLIMS v9.31 Lake county Production</t>
+  </si>
+  <si>
+    <t>1 - Prod</t>
+  </si>
+  <si>
+    <t>1 QA LC728042</t>
   </si>
 </sst>
 </file>
@@ -2708,8 +2930,8 @@
   <dimension ref="A1:J1366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1121" sqref="D1121"/>
+      <pane ySplit="1" topLeftCell="A1276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1291" sqref="A1291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34766,1970 +34988,4736 @@
       <c r="J1126" s="3"/>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1127" s="3"/>
-      <c r="B1127" s="29"/>
-      <c r="C1127" s="3"/>
-      <c r="D1127" s="3"/>
-      <c r="E1127" s="3"/>
-      <c r="F1127" s="3"/>
-      <c r="G1127" s="3"/>
-      <c r="H1127" s="5"/>
+      <c r="A1127" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1127" s="29">
+        <v>1108</v>
+      </c>
+      <c r="C1127" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1127" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1127" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1127" s="5">
+        <v>43255</v>
+      </c>
       <c r="I1127" s="3"/>
       <c r="J1127" s="3"/>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1128" s="3"/>
-      <c r="B1128" s="29"/>
-      <c r="C1128" s="3"/>
-      <c r="D1128" s="3"/>
-      <c r="E1128" s="3"/>
-      <c r="F1128" s="3"/>
-      <c r="G1128" s="3"/>
-      <c r="H1128" s="5"/>
+      <c r="A1128" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1128" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1128" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1128" s="3">
+        <v>10</v>
+      </c>
+      <c r="G1128" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1128" s="5">
+        <v>43255</v>
+      </c>
       <c r="I1128" s="3"/>
       <c r="J1128" s="3"/>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1129" s="3"/>
-      <c r="B1129" s="29"/>
-      <c r="C1129" s="3"/>
-      <c r="D1129" s="3"/>
-      <c r="E1129" s="3"/>
-      <c r="F1129" s="3"/>
-      <c r="G1129" s="3"/>
-      <c r="H1129" s="5"/>
-      <c r="I1129" s="3"/>
+      <c r="A1129" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1129" s="29">
+        <v>936.00099999999998</v>
+      </c>
+      <c r="C1129" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1129" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1129" s="5">
+        <v>43255</v>
+      </c>
+      <c r="I1129" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1129" s="3"/>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1130" s="3"/>
-      <c r="B1130" s="29"/>
-      <c r="C1130" s="3"/>
-      <c r="D1130" s="3"/>
-      <c r="E1130" s="3"/>
-      <c r="F1130" s="3"/>
-      <c r="G1130" s="3"/>
-      <c r="H1130" s="5"/>
-      <c r="I1130" s="3"/>
-      <c r="J1130" s="3"/>
+      <c r="A1130" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1130" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1130" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1130" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1130" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1130" s="5">
+        <v>43255</v>
+      </c>
+      <c r="I1130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1130" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1131" s="3"/>
-      <c r="B1131" s="29"/>
-      <c r="C1131" s="3"/>
-      <c r="D1131" s="3"/>
-      <c r="E1131" s="3"/>
-      <c r="F1131" s="3"/>
-      <c r="G1131" s="3"/>
-      <c r="H1131" s="5"/>
+      <c r="A1131" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1131" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1131" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1131" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1131" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1131" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1131" s="3"/>
       <c r="J1131" s="3"/>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1132" s="3"/>
-      <c r="B1132" s="29"/>
-      <c r="C1132" s="3"/>
-      <c r="D1132" s="3"/>
-      <c r="E1132" s="3"/>
-      <c r="F1132" s="3"/>
-      <c r="G1132" s="3"/>
-      <c r="H1132" s="5"/>
+      <c r="A1132" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1132" s="29">
+        <v>936.00099999999998</v>
+      </c>
+      <c r="C1132" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1132" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1132" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1132" s="3"/>
       <c r="J1132" s="3"/>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1133" s="3"/>
-      <c r="B1133" s="29"/>
-      <c r="C1133" s="3"/>
-      <c r="D1133" s="3"/>
-      <c r="E1133" s="3"/>
-      <c r="F1133" s="3"/>
-      <c r="G1133" s="3"/>
-      <c r="H1133" s="5"/>
-      <c r="I1133" s="3"/>
+      <c r="A1133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1133" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1133" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1133" s="3">
+        <v>8</v>
+      </c>
+      <c r="G1133" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1133" s="5">
+        <v>43256</v>
+      </c>
+      <c r="I1133" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J1133" s="3"/>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1134" s="3"/>
-      <c r="B1134" s="29"/>
-      <c r="C1134" s="3"/>
-      <c r="D1134" s="3"/>
-      <c r="E1134" s="3"/>
-      <c r="F1134" s="3"/>
-      <c r="G1134" s="3"/>
-      <c r="H1134" s="5"/>
+      <c r="A1134" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1134" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1134" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1134" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1134" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1134" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1134" s="3"/>
       <c r="J1134" s="3"/>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1135" s="3"/>
-      <c r="B1135" s="29"/>
-      <c r="C1135" s="3"/>
-      <c r="D1135" s="3"/>
-      <c r="E1135" s="3"/>
-      <c r="F1135" s="3"/>
-      <c r="G1135" s="3"/>
-      <c r="H1135" s="5"/>
-      <c r="I1135" s="3"/>
+      <c r="A1135" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1135" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1135" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1135" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1135" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1135" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1135" s="5">
+        <v>43256</v>
+      </c>
+      <c r="I1135" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J1135" s="3"/>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1136" s="3"/>
-      <c r="B1136" s="29"/>
-      <c r="C1136" s="3"/>
-      <c r="D1136" s="3"/>
-      <c r="E1136" s="3"/>
-      <c r="F1136" s="3"/>
-      <c r="G1136" s="3"/>
-      <c r="H1136" s="5"/>
+      <c r="A1136" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1136" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1136" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1136" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1136" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1136" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1136" s="3"/>
       <c r="J1136" s="3"/>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1137" s="3"/>
-      <c r="B1137" s="29"/>
-      <c r="C1137" s="3"/>
-      <c r="D1137" s="3"/>
-      <c r="E1137" s="3"/>
-      <c r="F1137" s="3"/>
-      <c r="G1137" s="3"/>
-      <c r="H1137" s="5"/>
+      <c r="A1137" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1137" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1137" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1137" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1137" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1137" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1137" s="3"/>
       <c r="J1137" s="3"/>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1138" s="3"/>
-      <c r="B1138" s="29"/>
-      <c r="C1138" s="3"/>
-      <c r="D1138" s="3"/>
-      <c r="E1138" s="3"/>
+      <c r="A1138" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1138" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1138" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1138" s="3">
+        <v>1</v>
+      </c>
       <c r="F1138" s="3"/>
-      <c r="G1138" s="3"/>
-      <c r="H1138" s="5"/>
+      <c r="G1138" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1138" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1138" s="3"/>
       <c r="J1138" s="3"/>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1139" s="3"/>
-      <c r="B1139" s="29"/>
-      <c r="C1139" s="3"/>
-      <c r="D1139" s="3"/>
-      <c r="E1139" s="3"/>
-      <c r="F1139" s="3"/>
-      <c r="G1139" s="3"/>
-      <c r="H1139" s="5"/>
-      <c r="I1139" s="3"/>
+      <c r="A1139" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1139" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1139" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1139" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1139" s="5">
+        <v>43257</v>
+      </c>
+      <c r="I1139" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1139" s="3"/>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1140" s="3"/>
-      <c r="B1140" s="29"/>
-      <c r="C1140" s="3"/>
-      <c r="D1140" s="3"/>
-      <c r="E1140" s="3"/>
-      <c r="F1140" s="3"/>
-      <c r="G1140" s="3"/>
-      <c r="H1140" s="5"/>
+      <c r="A1140" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1140" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1140" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1140" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1140" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1140" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1140" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1140" s="3"/>
       <c r="J1140" s="3"/>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1141" s="3"/>
-      <c r="B1141" s="29"/>
-      <c r="C1141" s="3"/>
-      <c r="D1141" s="3"/>
-      <c r="E1141" s="3"/>
-      <c r="F1141" s="3"/>
-      <c r="G1141" s="3"/>
-      <c r="H1141" s="5"/>
-      <c r="I1141" s="3"/>
-      <c r="J1141" s="3"/>
+      <c r="A1141" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1141" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1141" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1141" s="3">
+        <v>20</v>
+      </c>
+      <c r="G1141" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1141" s="5">
+        <v>43257</v>
+      </c>
+      <c r="I1141" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1141" s="3" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1142" s="3"/>
-      <c r="B1142" s="29"/>
-      <c r="C1142" s="3"/>
-      <c r="D1142" s="3"/>
-      <c r="E1142" s="3"/>
-      <c r="F1142" s="3"/>
-      <c r="G1142" s="3"/>
-      <c r="H1142" s="5"/>
-      <c r="I1142" s="3"/>
+      <c r="A1142" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1142" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1142" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1142" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1142" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1142" s="5">
+        <v>43257</v>
+      </c>
+      <c r="I1142" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J1142" s="3"/>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1143" s="3"/>
-      <c r="B1143" s="29"/>
-      <c r="C1143" s="3"/>
-      <c r="D1143" s="3"/>
-      <c r="E1143" s="3"/>
-      <c r="F1143" s="3"/>
-      <c r="G1143" s="3"/>
-      <c r="H1143" s="5"/>
+      <c r="A1143" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1143" s="29">
+        <v>588</v>
+      </c>
+      <c r="C1143" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1143" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1143" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1143" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1143" s="3"/>
       <c r="J1143" s="3"/>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1144" s="3"/>
-      <c r="B1144" s="29"/>
-      <c r="C1144" s="3"/>
-      <c r="D1144" s="3"/>
-      <c r="E1144" s="3"/>
-      <c r="F1144" s="3"/>
-      <c r="G1144" s="3"/>
-      <c r="H1144" s="5"/>
+      <c r="A1144" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1144" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1144" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1144" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1144" s="3">
+        <v>10</v>
+      </c>
+      <c r="G1144" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1144" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1144" s="3"/>
       <c r="J1144" s="3"/>
     </row>
     <row r="1145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1145" s="3"/>
-      <c r="B1145" s="29"/>
-      <c r="C1145" s="3"/>
-      <c r="D1145" s="3"/>
-      <c r="E1145" s="3"/>
-      <c r="F1145" s="3"/>
-      <c r="G1145" s="3"/>
-      <c r="H1145" s="5"/>
+      <c r="A1145" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1145" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1145" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1145" s="3">
+        <v>9</v>
+      </c>
+      <c r="G1145" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1145" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1145" s="3"/>
       <c r="J1145" s="3"/>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1146" s="3"/>
-      <c r="B1146" s="29"/>
-      <c r="C1146" s="3"/>
-      <c r="D1146" s="3"/>
-      <c r="E1146" s="3"/>
-      <c r="F1146" s="3"/>
-      <c r="G1146" s="3"/>
-      <c r="H1146" s="5"/>
+      <c r="A1146" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1146" s="29">
+        <v>1125</v>
+      </c>
+      <c r="C1146" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1146" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1146" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1146" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1146" s="3"/>
       <c r="J1146" s="3"/>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1147" s="3"/>
-      <c r="B1147" s="29"/>
-      <c r="C1147" s="3"/>
-      <c r="D1147" s="3"/>
-      <c r="E1147" s="3"/>
-      <c r="F1147" s="3"/>
-      <c r="G1147" s="3"/>
-      <c r="H1147" s="5"/>
+      <c r="A1147" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1147" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1147" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1147" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1147" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1147" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1147" s="3"/>
       <c r="J1147" s="3"/>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1148" s="3"/>
-      <c r="B1148" s="29"/>
-      <c r="C1148" s="3"/>
-      <c r="D1148" s="3"/>
-      <c r="E1148" s="3"/>
-      <c r="F1148" s="3"/>
-      <c r="G1148" s="3"/>
-      <c r="H1148" s="5"/>
-      <c r="I1148" s="3"/>
-      <c r="J1148" s="3"/>
+      <c r="A1148" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1148" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1148" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1148" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1148" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1148" s="5">
+        <v>43258</v>
+      </c>
+      <c r="I1148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1148" s="3" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="1149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1149" s="3"/>
-      <c r="B1149" s="29"/>
-      <c r="C1149" s="3"/>
-      <c r="D1149" s="3"/>
-      <c r="E1149" s="3"/>
-      <c r="F1149" s="3"/>
-      <c r="G1149" s="3"/>
-      <c r="H1149" s="5"/>
-      <c r="I1149" s="3"/>
+      <c r="A1149" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1149" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1149" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1149" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1149" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1149" s="5">
+        <v>43258</v>
+      </c>
+      <c r="I1149" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J1149" s="3"/>
     </row>
     <row r="1150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1150" s="3"/>
-      <c r="B1150" s="29"/>
-      <c r="C1150" s="3"/>
-      <c r="D1150" s="3"/>
-      <c r="E1150" s="3"/>
-      <c r="F1150" s="3"/>
-      <c r="G1150" s="3"/>
-      <c r="H1150" s="5"/>
+      <c r="A1150" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1150" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1150" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1150" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1150" s="3">
+        <v>20</v>
+      </c>
+      <c r="G1150" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1150" s="5">
+        <v>43258</v>
+      </c>
       <c r="I1150" s="3"/>
       <c r="J1150" s="3"/>
     </row>
     <row r="1151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1151" s="3"/>
-      <c r="B1151" s="29"/>
-      <c r="C1151" s="3"/>
-      <c r="D1151" s="3"/>
-      <c r="E1151" s="3"/>
-      <c r="F1151" s="3"/>
-      <c r="G1151" s="3"/>
-      <c r="H1151" s="5"/>
+      <c r="A1151" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1151" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1151" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1151" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1151" s="3">
+        <v>20</v>
+      </c>
+      <c r="G1151" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1151" s="5">
+        <v>43258</v>
+      </c>
       <c r="I1151" s="3"/>
       <c r="J1151" s="3"/>
     </row>
     <row r="1152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1152" s="3"/>
-      <c r="B1152" s="29"/>
-      <c r="C1152" s="3"/>
-      <c r="D1152" s="3"/>
-      <c r="E1152" s="3"/>
-      <c r="F1152" s="3"/>
-      <c r="G1152" s="3"/>
-      <c r="H1152" s="5"/>
+      <c r="A1152" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1152" s="29">
+        <v>1115</v>
+      </c>
+      <c r="C1152" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1152" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1152" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1152" s="5">
+        <v>43258</v>
+      </c>
       <c r="I1152" s="3"/>
       <c r="J1152" s="3"/>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1153" s="3"/>
-      <c r="B1153" s="29"/>
-      <c r="C1153" s="3"/>
-      <c r="D1153" s="3"/>
-      <c r="E1153" s="3"/>
-      <c r="F1153" s="3"/>
-      <c r="G1153" s="3"/>
-      <c r="H1153" s="5"/>
+      <c r="A1153" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1153" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1153" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1153" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1153" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1153" s="5">
+        <v>43258</v>
+      </c>
       <c r="I1153" s="3"/>
       <c r="J1153" s="3"/>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1154" s="3"/>
-      <c r="B1154" s="29"/>
-      <c r="C1154" s="3"/>
-      <c r="D1154" s="3"/>
-      <c r="E1154" s="3"/>
-      <c r="F1154" s="3"/>
-      <c r="G1154" s="3"/>
-      <c r="H1154" s="5"/>
+      <c r="A1154" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1154" s="29">
+        <v>1115</v>
+      </c>
+      <c r="C1154" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1154" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1154" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1154" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1154" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1154" s="5">
+        <v>43258</v>
+      </c>
       <c r="I1154" s="3"/>
       <c r="J1154" s="3"/>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1155" s="3"/>
-      <c r="B1155" s="29"/>
-      <c r="C1155" s="3"/>
-      <c r="D1155" s="3"/>
-      <c r="E1155" s="3"/>
-      <c r="F1155" s="3"/>
-      <c r="G1155" s="3"/>
-      <c r="H1155" s="5"/>
-      <c r="I1155" s="3"/>
-      <c r="J1155" s="3"/>
+      <c r="A1155" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1155" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1155" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1155" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1155" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1155" s="5">
+        <v>43258</v>
+      </c>
+      <c r="I1155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1155" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1156" s="3"/>
-      <c r="B1156" s="29"/>
-      <c r="C1156" s="3"/>
-      <c r="D1156" s="3"/>
-      <c r="E1156" s="3"/>
-      <c r="F1156" s="3"/>
-      <c r="G1156" s="3"/>
-      <c r="H1156" s="5"/>
+      <c r="A1156" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1156" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1156" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1156" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1156" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1156" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1156" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1156" s="3"/>
       <c r="J1156" s="3"/>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1157" s="3"/>
-      <c r="B1157" s="29"/>
-      <c r="C1157" s="3"/>
-      <c r="D1157" s="3"/>
-      <c r="E1157" s="3"/>
-      <c r="F1157" s="3"/>
-      <c r="G1157" s="3"/>
-      <c r="H1157" s="5"/>
+      <c r="A1157" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1157" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1157" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1157" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1157" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1157" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1157" s="3"/>
       <c r="J1157" s="3"/>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1158" s="3"/>
-      <c r="B1158" s="29"/>
-      <c r="C1158" s="3"/>
-      <c r="D1158" s="3"/>
-      <c r="E1158" s="3"/>
-      <c r="F1158" s="3"/>
-      <c r="G1158" s="3"/>
-      <c r="H1158" s="5"/>
+      <c r="A1158" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1158" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1158" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1158" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1158" s="3">
+        <v>6</v>
+      </c>
+      <c r="G1158" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1158" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1158" s="3"/>
       <c r="J1158" s="3"/>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1159" s="3"/>
-      <c r="B1159" s="29"/>
-      <c r="C1159" s="3"/>
-      <c r="D1159" s="3"/>
-      <c r="E1159" s="3"/>
-      <c r="F1159" s="3"/>
-      <c r="G1159" s="3"/>
-      <c r="H1159" s="5"/>
+      <c r="A1159" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1159" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1159" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1159" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1159" s="3">
+        <v>9</v>
+      </c>
+      <c r="G1159" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1159" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1159" s="3"/>
       <c r="J1159" s="3"/>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1160" s="3"/>
-      <c r="B1160" s="29"/>
-      <c r="C1160" s="3"/>
-      <c r="D1160" s="3"/>
-      <c r="E1160" s="3"/>
-      <c r="F1160" s="3"/>
-      <c r="G1160" s="3"/>
-      <c r="H1160" s="5"/>
+      <c r="A1160" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1160" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1160" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1160" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1160" s="3">
+        <v>7</v>
+      </c>
+      <c r="G1160" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1160" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1160" s="3"/>
       <c r="J1160" s="3"/>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1161" s="3"/>
-      <c r="B1161" s="29"/>
-      <c r="C1161" s="3"/>
-      <c r="D1161" s="3"/>
-      <c r="E1161" s="3"/>
-      <c r="F1161" s="3"/>
-      <c r="G1161" s="3"/>
-      <c r="H1161" s="5"/>
+      <c r="A1161" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1161" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1161" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1161" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1161" s="3">
+        <v>15</v>
+      </c>
+      <c r="G1161" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1161" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1161" s="3"/>
       <c r="J1161" s="3"/>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1162" s="3"/>
-      <c r="B1162" s="29"/>
-      <c r="C1162" s="3"/>
-      <c r="D1162" s="3"/>
-      <c r="E1162" s="3"/>
-      <c r="F1162" s="3"/>
-      <c r="G1162" s="3"/>
-      <c r="H1162" s="5"/>
+      <c r="A1162" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1162" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1162" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1162" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1162" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1162" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1162" s="3"/>
       <c r="J1162" s="3"/>
     </row>
     <row r="1163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1163" s="3"/>
-      <c r="B1163" s="29"/>
-      <c r="C1163" s="3"/>
-      <c r="D1163" s="3"/>
-      <c r="E1163" s="3"/>
-      <c r="F1163" s="3"/>
-      <c r="G1163" s="3"/>
-      <c r="H1163" s="5"/>
+      <c r="A1163" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1163" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1163" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1163" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1163" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1163" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1163" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1163" s="3"/>
       <c r="J1163" s="3"/>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1164" s="3"/>
-      <c r="B1164" s="29"/>
-      <c r="C1164" s="3"/>
-      <c r="D1164" s="3"/>
-      <c r="E1164" s="3"/>
-      <c r="F1164" s="3"/>
-      <c r="G1164" s="3"/>
-      <c r="H1164" s="5"/>
-      <c r="I1164" s="3"/>
-      <c r="J1164" s="3"/>
+      <c r="A1164" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1164" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1164" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1164" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1164" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1164" s="5">
+        <v>43259</v>
+      </c>
+      <c r="I1164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1164" s="3" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1165" s="3"/>
-      <c r="B1165" s="29"/>
-      <c r="C1165" s="3"/>
-      <c r="D1165" s="3"/>
-      <c r="E1165" s="3"/>
-      <c r="F1165" s="3"/>
-      <c r="G1165" s="3"/>
-      <c r="H1165" s="5"/>
-      <c r="I1165" s="3"/>
-      <c r="J1165" s="3"/>
+      <c r="A1165" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1165" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1165" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1165" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1165" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1165" s="5">
+        <v>43259</v>
+      </c>
+      <c r="I1165" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1165" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1166" s="3"/>
-      <c r="B1166" s="29"/>
-      <c r="C1166" s="3"/>
-      <c r="D1166" s="3"/>
-      <c r="E1166" s="3"/>
-      <c r="F1166" s="3"/>
-      <c r="G1166" s="3"/>
-      <c r="H1166" s="5"/>
+      <c r="A1166" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1166" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1166" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1166" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1166" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1166" s="3"/>
       <c r="J1166" s="3"/>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1167" s="3"/>
-      <c r="B1167" s="29"/>
-      <c r="C1167" s="3"/>
-      <c r="D1167" s="3"/>
-      <c r="E1167" s="3"/>
-      <c r="F1167" s="3"/>
-      <c r="G1167" s="3"/>
-      <c r="H1167" s="5"/>
+      <c r="A1167" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1167" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1167" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1167" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1167" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1167" s="3"/>
       <c r="J1167" s="3"/>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1168" s="3"/>
-      <c r="B1168" s="29"/>
-      <c r="C1168" s="3"/>
-      <c r="D1168" s="3"/>
-      <c r="E1168" s="3"/>
-      <c r="F1168" s="3"/>
-      <c r="G1168" s="3"/>
-      <c r="H1168" s="5"/>
+      <c r="A1168" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1168" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1168" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1168" s="3">
+        <v>34</v>
+      </c>
+      <c r="F1168" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1168" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1168" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1168" s="3"/>
       <c r="J1168" s="3"/>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1169" s="3"/>
-      <c r="B1169" s="29"/>
-      <c r="C1169" s="3"/>
-      <c r="D1169" s="3"/>
-      <c r="E1169" s="3"/>
+      <c r="A1169" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1169" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1169" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1169" s="3">
+        <v>1</v>
+      </c>
       <c r="F1169" s="3"/>
-      <c r="G1169" s="3"/>
-      <c r="H1169" s="5"/>
+      <c r="G1169" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1169" s="5">
+        <v>43255</v>
+      </c>
       <c r="I1169" s="3"/>
       <c r="J1169" s="3"/>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1170" s="3"/>
-      <c r="B1170" s="29"/>
-      <c r="C1170" s="3"/>
-      <c r="D1170" s="3"/>
-      <c r="E1170" s="3"/>
-      <c r="F1170" s="3"/>
-      <c r="G1170" s="3"/>
-      <c r="H1170" s="5"/>
+      <c r="A1170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1170" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1170" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1170" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1170" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1170" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1170" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1170" s="3"/>
       <c r="J1170" s="3"/>
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1171" s="3"/>
-      <c r="B1171" s="29"/>
-      <c r="C1171" s="3"/>
-      <c r="D1171" s="3"/>
-      <c r="E1171" s="3"/>
-      <c r="F1171" s="3"/>
-      <c r="G1171" s="3"/>
-      <c r="H1171" s="5"/>
+      <c r="A1171" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1171" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1171" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1171" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1171" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1171" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1171" s="3"/>
       <c r="J1171" s="3"/>
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1172" s="3"/>
-      <c r="B1172" s="29"/>
-      <c r="C1172" s="3"/>
-      <c r="D1172" s="3"/>
-      <c r="E1172" s="3"/>
-      <c r="F1172" s="3"/>
-      <c r="G1172" s="3"/>
-      <c r="H1172" s="5"/>
+      <c r="A1172" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1172" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1172" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1172" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="G1172" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1172" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1172" s="3"/>
       <c r="J1172" s="3"/>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1173" s="3"/>
-      <c r="B1173" s="29"/>
-      <c r="C1173" s="3"/>
-      <c r="D1173" s="3"/>
-      <c r="E1173" s="3"/>
-      <c r="F1173" s="3"/>
-      <c r="G1173" s="3"/>
-      <c r="H1173" s="5"/>
+      <c r="A1173" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1173" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1173" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1173" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1173" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1173" s="5">
+        <v>43256</v>
+      </c>
       <c r="I1173" s="3"/>
       <c r="J1173" s="3"/>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1174" s="3"/>
-      <c r="B1174" s="29"/>
-      <c r="C1174" s="3"/>
-      <c r="D1174" s="3"/>
-      <c r="E1174" s="3"/>
-      <c r="F1174" s="3"/>
-      <c r="G1174" s="3"/>
-      <c r="H1174" s="5"/>
+      <c r="A1174" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1174" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1174" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1174" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1174" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1174" s="5">
+        <v>43258</v>
+      </c>
       <c r="I1174" s="3"/>
       <c r="J1174" s="3"/>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1175" s="3"/>
-      <c r="B1175" s="29"/>
-      <c r="C1175" s="3"/>
-      <c r="D1175" s="3"/>
-      <c r="E1175" s="3"/>
-      <c r="F1175" s="3"/>
-      <c r="G1175" s="3"/>
-      <c r="H1175" s="5"/>
+      <c r="A1175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1175" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1175" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1175" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1175" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1175" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1175" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1175" s="5">
+        <v>43257</v>
+      </c>
       <c r="I1175" s="3"/>
       <c r="J1175" s="3"/>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1176" s="3"/>
-      <c r="B1176" s="29"/>
-      <c r="C1176" s="3"/>
-      <c r="D1176" s="3"/>
-      <c r="E1176" s="3"/>
-      <c r="F1176" s="3"/>
-      <c r="G1176" s="3"/>
-      <c r="H1176" s="5"/>
+      <c r="A1176" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1176" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1176" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1176" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1176" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1176" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1176" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1176" s="5">
+        <v>43258</v>
+      </c>
       <c r="I1176" s="3"/>
       <c r="J1176" s="3"/>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1177" s="3"/>
-      <c r="B1177" s="29"/>
-      <c r="C1177" s="3"/>
-      <c r="D1177" s="3"/>
-      <c r="E1177" s="3"/>
-      <c r="F1177" s="3"/>
-      <c r="G1177" s="3"/>
-      <c r="H1177" s="5"/>
+      <c r="A1177" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1177" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1177" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1177" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1177" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1177" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1177" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1177" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1177" s="3"/>
       <c r="J1177" s="3"/>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1178" s="3"/>
-      <c r="B1178" s="29"/>
-      <c r="C1178" s="3"/>
-      <c r="D1178" s="3"/>
-      <c r="E1178" s="3"/>
-      <c r="F1178" s="3"/>
-      <c r="G1178" s="3"/>
-      <c r="H1178" s="5"/>
+      <c r="A1178" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1178" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1178" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1178" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1178" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G1178" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1178" s="5">
+        <v>43259</v>
+      </c>
       <c r="I1178" s="3"/>
       <c r="J1178" s="3"/>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1179" s="3"/>
-      <c r="B1179" s="29"/>
-      <c r="C1179" s="3"/>
-      <c r="D1179" s="3"/>
-      <c r="E1179" s="3"/>
-      <c r="F1179" s="3"/>
-      <c r="G1179" s="3"/>
-      <c r="H1179" s="5"/>
-      <c r="I1179" s="3"/>
+      <c r="A1179" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1179" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1179" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1179" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G1179" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1179" s="5">
+        <v>43262</v>
+      </c>
+      <c r="I1179" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1179" s="3"/>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1180" s="3"/>
-      <c r="B1180" s="29"/>
-      <c r="C1180" s="3"/>
-      <c r="D1180" s="3"/>
-      <c r="E1180" s="3"/>
-      <c r="F1180" s="3"/>
-      <c r="G1180" s="3"/>
-      <c r="H1180" s="5"/>
+      <c r="A1180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1180" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1180" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1180" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="G1180" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1180" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1180" s="3"/>
       <c r="J1180" s="3"/>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1181" s="3"/>
-      <c r="B1181" s="29"/>
-      <c r="C1181" s="3"/>
-      <c r="D1181" s="3"/>
-      <c r="E1181" s="3"/>
-      <c r="F1181" s="3"/>
-      <c r="G1181" s="3"/>
-      <c r="H1181" s="5"/>
+      <c r="A1181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1181" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1181" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1181" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1181" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G1181" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1181" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1181" s="3"/>
       <c r="J1181" s="3"/>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1182" s="3"/>
-      <c r="B1182" s="29"/>
-      <c r="C1182" s="3"/>
-      <c r="D1182" s="3"/>
-      <c r="E1182" s="3"/>
-      <c r="F1182" s="3"/>
-      <c r="G1182" s="3"/>
-      <c r="H1182" s="5"/>
+      <c r="A1182" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1182" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1182" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1182" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1182" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1182" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1182" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1182" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1182" s="3"/>
       <c r="J1182" s="3"/>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1183" s="3"/>
-      <c r="B1183" s="29"/>
-      <c r="C1183" s="3"/>
-      <c r="D1183" s="3"/>
-      <c r="E1183" s="3"/>
-      <c r="F1183" s="3"/>
-      <c r="G1183" s="3"/>
-      <c r="H1183" s="5"/>
+      <c r="A1183" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1183" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1183" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1183" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1183" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1183" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1183" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1183" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1183" s="3"/>
       <c r="J1183" s="3"/>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1184" s="3"/>
-      <c r="B1184" s="29"/>
-      <c r="C1184" s="3"/>
-      <c r="D1184" s="3"/>
-      <c r="E1184" s="3"/>
-      <c r="F1184" s="3"/>
-      <c r="G1184" s="3"/>
-      <c r="H1184" s="5"/>
+      <c r="A1184" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1184" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1184" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1184" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1184" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="G1184" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1184" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1184" s="3"/>
       <c r="J1184" s="3"/>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1185" s="3"/>
-      <c r="B1185" s="29"/>
-      <c r="C1185" s="3"/>
-      <c r="D1185" s="3"/>
-      <c r="E1185" s="3"/>
-      <c r="F1185" s="3"/>
-      <c r="G1185" s="3"/>
-      <c r="H1185" s="5"/>
+      <c r="A1185" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1185" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1185" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1185" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1185" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1185" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1185" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1185" s="3"/>
       <c r="J1185" s="3"/>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1186" s="3"/>
-      <c r="B1186" s="29"/>
-      <c r="C1186" s="3"/>
-      <c r="D1186" s="3"/>
-      <c r="E1186" s="3"/>
-      <c r="F1186" s="3"/>
-      <c r="G1186" s="3"/>
-      <c r="H1186" s="5"/>
+      <c r="A1186" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1186" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1186" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1186" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1186" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G1186" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1186" s="5">
+        <v>43263</v>
+      </c>
       <c r="I1186" s="3"/>
       <c r="J1186" s="3"/>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1187" s="3"/>
-      <c r="B1187" s="29"/>
-      <c r="C1187" s="3"/>
-      <c r="D1187" s="3"/>
-      <c r="E1187" s="3"/>
-      <c r="F1187" s="3"/>
-      <c r="G1187" s="3"/>
-      <c r="H1187" s="5"/>
+      <c r="A1187" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1187" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1187" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1187" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1187" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1187" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1187" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1187" s="5">
+        <v>43263</v>
+      </c>
       <c r="I1187" s="3"/>
       <c r="J1187" s="3"/>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1188" s="3"/>
-      <c r="B1188" s="29"/>
-      <c r="C1188" s="3"/>
-      <c r="D1188" s="3"/>
-      <c r="E1188" s="3"/>
-      <c r="F1188" s="3"/>
-      <c r="G1188" s="3"/>
-      <c r="H1188" s="5"/>
+      <c r="A1188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1188" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1188" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1188" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1188" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1188" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1188" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1188" s="5">
+        <v>43263</v>
+      </c>
       <c r="I1188" s="3"/>
       <c r="J1188" s="3"/>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1189" s="3"/>
-      <c r="B1189" s="29"/>
-      <c r="C1189" s="3"/>
-      <c r="D1189" s="3"/>
-      <c r="E1189" s="3"/>
-      <c r="F1189" s="3"/>
-      <c r="G1189" s="3"/>
-      <c r="H1189" s="5"/>
+      <c r="A1189" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1189" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1189" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1189" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1189" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1189" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1189" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1189" s="5">
+        <v>43264</v>
+      </c>
       <c r="I1189" s="3"/>
       <c r="J1189" s="3"/>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1190" s="3"/>
-      <c r="B1190" s="29"/>
-      <c r="C1190" s="3"/>
-      <c r="D1190" s="3"/>
-      <c r="E1190" s="3"/>
-      <c r="F1190" s="3"/>
-      <c r="G1190" s="3"/>
-      <c r="H1190" s="5"/>
+      <c r="A1190" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1190" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1190" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1190" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1190" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1190" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1190" s="5">
+        <v>43264</v>
+      </c>
       <c r="I1190" s="3"/>
       <c r="J1190" s="3"/>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1191" s="3"/>
-      <c r="B1191" s="29"/>
-      <c r="C1191" s="3"/>
-      <c r="D1191" s="3"/>
-      <c r="E1191" s="3"/>
-      <c r="F1191" s="3"/>
-      <c r="G1191" s="3"/>
-      <c r="H1191" s="5"/>
+      <c r="A1191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1191" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1191" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1191" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1191" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1191" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1191" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1191" s="5">
+        <v>43264</v>
+      </c>
       <c r="I1191" s="3"/>
       <c r="J1191" s="3"/>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1192" s="3"/>
-      <c r="B1192" s="29"/>
-      <c r="C1192" s="3"/>
-      <c r="D1192" s="3"/>
-      <c r="E1192" s="3"/>
-      <c r="F1192" s="3"/>
-      <c r="G1192" s="3"/>
-      <c r="H1192" s="5"/>
+      <c r="A1192" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1192" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1192" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1192" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1192" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1192" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1192" s="5">
+        <v>43264</v>
+      </c>
       <c r="I1192" s="3"/>
       <c r="J1192" s="3"/>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1193" s="3"/>
-      <c r="B1193" s="29"/>
-      <c r="C1193" s="3"/>
-      <c r="D1193" s="3"/>
-      <c r="E1193" s="3"/>
-      <c r="F1193" s="3"/>
-      <c r="G1193" s="3"/>
-      <c r="H1193" s="5"/>
+      <c r="A1193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1193" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1193" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1193" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1193" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1193" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1193" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1193" s="5">
+        <v>43264</v>
+      </c>
       <c r="I1193" s="3"/>
       <c r="J1193" s="3"/>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1194" s="3"/>
-      <c r="B1194" s="29"/>
-      <c r="C1194" s="3"/>
-      <c r="D1194" s="3"/>
-      <c r="E1194" s="3"/>
-      <c r="F1194" s="3"/>
-      <c r="G1194" s="3"/>
-      <c r="H1194" s="5"/>
+      <c r="A1194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1194" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1194" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1194" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1194" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1194" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1194" s="5">
+        <v>43265</v>
+      </c>
       <c r="I1194" s="3"/>
       <c r="J1194" s="3"/>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1195" s="3"/>
-      <c r="B1195" s="29"/>
-      <c r="C1195" s="3"/>
-      <c r="D1195" s="3"/>
-      <c r="E1195" s="3"/>
-      <c r="F1195" s="3"/>
-      <c r="G1195" s="3"/>
-      <c r="H1195" s="5"/>
+      <c r="A1195" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1195" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1195" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1195" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1195" s="3">
+        <v>25</v>
+      </c>
+      <c r="F1195" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1195" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1195" s="5">
+        <v>43265</v>
+      </c>
       <c r="I1195" s="3"/>
       <c r="J1195" s="3"/>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1196" s="3"/>
-      <c r="B1196" s="29"/>
-      <c r="C1196" s="3"/>
-      <c r="D1196" s="3"/>
-      <c r="E1196" s="3"/>
-      <c r="F1196" s="3"/>
-      <c r="G1196" s="3"/>
-      <c r="H1196" s="5"/>
+      <c r="A1196" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1196" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1196" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1196" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1196" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1196" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1196" s="5">
+        <v>43265</v>
+      </c>
       <c r="I1196" s="3"/>
       <c r="J1196" s="3"/>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1197" s="3"/>
-      <c r="B1197" s="29"/>
-      <c r="C1197" s="3"/>
-      <c r="D1197" s="3"/>
-      <c r="E1197" s="3"/>
-      <c r="F1197" s="3"/>
-      <c r="G1197" s="3"/>
-      <c r="H1197" s="5"/>
+      <c r="A1197" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1197" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1197" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1197" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1197" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1197" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1197" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1197" s="5">
+        <v>43265</v>
+      </c>
       <c r="I1197" s="3"/>
       <c r="J1197" s="3"/>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1198" s="3"/>
-      <c r="B1198" s="29"/>
-      <c r="C1198" s="3"/>
-      <c r="D1198" s="3"/>
-      <c r="E1198" s="3"/>
-      <c r="F1198" s="3"/>
-      <c r="G1198" s="3"/>
-      <c r="H1198" s="5"/>
-      <c r="I1198" s="3"/>
+      <c r="A1198" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1198" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1198" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1198" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1198" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1198" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1198" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1198" s="5">
+        <v>43262</v>
+      </c>
+      <c r="I1198" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1198" s="3"/>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1199" s="3"/>
-      <c r="B1199" s="29"/>
-      <c r="C1199" s="3"/>
-      <c r="D1199" s="3"/>
-      <c r="E1199" s="3"/>
-      <c r="F1199" s="3"/>
-      <c r="G1199" s="3"/>
-      <c r="H1199" s="5"/>
+      <c r="A1199" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1199" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1199" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1199" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1199" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1199" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1199" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1199" s="3"/>
       <c r="J1199" s="3"/>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1200" s="3"/>
-      <c r="B1200" s="29"/>
-      <c r="C1200" s="3"/>
-      <c r="D1200" s="3"/>
-      <c r="E1200" s="3"/>
-      <c r="F1200" s="3"/>
-      <c r="G1200" s="3"/>
-      <c r="H1200" s="5"/>
+      <c r="A1200" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1200" s="29">
+        <v>500.06</v>
+      </c>
+      <c r="C1200" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1200" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1200" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1200" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1200" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1200" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1200" s="3"/>
       <c r="J1200" s="3"/>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1201" s="3"/>
-      <c r="B1201" s="29"/>
-      <c r="C1201" s="3"/>
-      <c r="D1201" s="3"/>
-      <c r="E1201" s="3"/>
-      <c r="F1201" s="3"/>
-      <c r="G1201" s="3"/>
-      <c r="H1201" s="5"/>
-      <c r="I1201" s="3"/>
+      <c r="A1201" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1201" s="29">
+        <v>588</v>
+      </c>
+      <c r="C1201" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1201" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1201" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1201" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1201" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1201" s="5">
+        <v>43262</v>
+      </c>
+      <c r="I1201" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J1201" s="3"/>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1202" s="3"/>
-      <c r="B1202" s="29"/>
-      <c r="C1202" s="3"/>
-      <c r="D1202" s="3"/>
-      <c r="E1202" s="3"/>
-      <c r="F1202" s="3"/>
-      <c r="G1202" s="3"/>
-      <c r="H1202" s="5"/>
+      <c r="A1202" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1202" s="29">
+        <v>588</v>
+      </c>
+      <c r="C1202" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1202" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1202" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1202" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1202" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1202" s="5">
+        <v>43262</v>
+      </c>
       <c r="I1202" s="3"/>
       <c r="J1202" s="3"/>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1203" s="3"/>
-      <c r="B1203" s="29"/>
-      <c r="C1203" s="3"/>
-      <c r="D1203" s="3"/>
-      <c r="E1203" s="3"/>
+      <c r="A1203" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1203" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1203" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1203" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1203" s="3">
+        <v>1</v>
+      </c>
       <c r="F1203" s="3"/>
-      <c r="G1203" s="3"/>
-      <c r="H1203" s="5"/>
+      <c r="G1203" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1203" s="5">
+        <v>43263</v>
+      </c>
       <c r="I1203" s="3"/>
       <c r="J1203" s="3"/>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1204" s="3"/>
-      <c r="B1204" s="29"/>
-      <c r="C1204" s="3"/>
-      <c r="D1204" s="3"/>
-      <c r="E1204" s="3"/>
-      <c r="F1204" s="3"/>
-      <c r="G1204" s="3"/>
-      <c r="H1204" s="5"/>
-      <c r="I1204" s="3"/>
+      <c r="A1204" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1204" s="29">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1204" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1204" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1204" s="5">
+        <v>43265</v>
+      </c>
+      <c r="I1204" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1204" s="3"/>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1205" s="3"/>
-      <c r="B1205" s="29"/>
-      <c r="C1205" s="3"/>
-      <c r="D1205" s="3"/>
-      <c r="E1205" s="3"/>
-      <c r="F1205" s="3"/>
-      <c r="G1205" s="3"/>
-      <c r="H1205" s="5"/>
-      <c r="I1205" s="3"/>
-      <c r="J1205" s="3"/>
+      <c r="A1205" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1205" s="29">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1205" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1205" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1205" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1205" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1205" s="5">
+        <v>43265</v>
+      </c>
+      <c r="I1205" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1205" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1206" s="3"/>
-      <c r="B1206" s="29"/>
-      <c r="C1206" s="3"/>
-      <c r="D1206" s="3"/>
-      <c r="E1206" s="3"/>
-      <c r="F1206" s="3"/>
-      <c r="G1206" s="3"/>
-      <c r="H1206" s="5"/>
+      <c r="A1206" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1206" s="29">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1206" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1206" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1206" s="5">
+        <v>43265</v>
+      </c>
       <c r="I1206" s="3"/>
       <c r="J1206" s="3"/>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1207" s="3"/>
-      <c r="B1207" s="29"/>
-      <c r="C1207" s="3"/>
-      <c r="D1207" s="3"/>
-      <c r="E1207" s="3"/>
-      <c r="F1207" s="3"/>
-      <c r="G1207" s="3"/>
-      <c r="H1207" s="5"/>
-      <c r="I1207" s="3"/>
-      <c r="J1207" s="3"/>
+      <c r="A1207" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1207" s="29">
+        <v>1125</v>
+      </c>
+      <c r="C1207" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1207" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1207" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1207" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1207" s="5">
+        <v>43266</v>
+      </c>
+      <c r="I1207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1207" s="3" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1208" s="3"/>
-      <c r="B1208" s="29"/>
-      <c r="C1208" s="3"/>
-      <c r="D1208" s="3"/>
-      <c r="E1208" s="3"/>
-      <c r="F1208" s="3"/>
-      <c r="G1208" s="3"/>
-      <c r="H1208" s="5"/>
+      <c r="A1208" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1208" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1208" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1208" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1208" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1208" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1208" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1208" s="3"/>
       <c r="J1208" s="3"/>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1209" s="3"/>
-      <c r="B1209" s="29"/>
-      <c r="C1209" s="3"/>
-      <c r="D1209" s="3"/>
-      <c r="E1209" s="3"/>
-      <c r="F1209" s="3"/>
-      <c r="G1209" s="3"/>
-      <c r="H1209" s="5"/>
+      <c r="A1209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1209" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1209" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1209" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1209" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1209" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1209" s="5">
+        <v>43271</v>
+      </c>
       <c r="I1209" s="3"/>
-      <c r="J1209" s="3"/>
+      <c r="J1209" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1210" s="3"/>
-      <c r="B1210" s="29"/>
-      <c r="C1210" s="3"/>
-      <c r="D1210" s="3"/>
-      <c r="E1210" s="3"/>
-      <c r="F1210" s="3"/>
-      <c r="G1210" s="3"/>
-      <c r="H1210" s="5"/>
+      <c r="A1210" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1210" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1210" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1210" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1210" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1210" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1210" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1210" s="3"/>
       <c r="J1210" s="3"/>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1211" s="3"/>
-      <c r="B1211" s="29"/>
-      <c r="C1211" s="3"/>
-      <c r="D1211" s="3"/>
-      <c r="E1211" s="3"/>
-      <c r="F1211" s="3"/>
-      <c r="G1211" s="3"/>
-      <c r="H1211" s="5"/>
+      <c r="A1211" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1211" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1211" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1211" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1211" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1211" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1211" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1211" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1211" s="3"/>
-      <c r="J1211" s="3"/>
+      <c r="J1211" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1212" s="3"/>
-      <c r="B1212" s="29"/>
-      <c r="C1212" s="3"/>
-      <c r="D1212" s="3"/>
-      <c r="E1212" s="3"/>
-      <c r="F1212" s="3"/>
-      <c r="G1212" s="3"/>
-      <c r="H1212" s="5"/>
+      <c r="A1212" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1212" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1212" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1212" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1212" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1212" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1212" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1212" s="3"/>
       <c r="J1212" s="3"/>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1213" s="3"/>
-      <c r="B1213" s="29"/>
-      <c r="C1213" s="3"/>
-      <c r="D1213" s="3"/>
-      <c r="E1213" s="3"/>
-      <c r="F1213" s="3"/>
-      <c r="G1213" s="3"/>
-      <c r="H1213" s="5"/>
+      <c r="A1213" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1213" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1213" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1213" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1213" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1213" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1213" s="5">
+        <v>43271</v>
+      </c>
       <c r="I1213" s="3"/>
-      <c r="J1213" s="3"/>
+      <c r="J1213" s="3" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1214" s="3"/>
-      <c r="B1214" s="29"/>
-      <c r="C1214" s="3"/>
-      <c r="D1214" s="3"/>
-      <c r="E1214" s="3"/>
-      <c r="F1214" s="3"/>
-      <c r="G1214" s="3"/>
-      <c r="H1214" s="5"/>
+      <c r="A1214" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1214" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1214" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1214" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1214" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1214" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1214" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1214" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1214" s="3"/>
       <c r="J1214" s="3"/>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1215" s="3"/>
-      <c r="B1215" s="29"/>
-      <c r="C1215" s="3"/>
-      <c r="D1215" s="3"/>
-      <c r="E1215" s="3"/>
-      <c r="F1215" s="3"/>
-      <c r="G1215" s="3"/>
-      <c r="H1215" s="5"/>
+      <c r="A1215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1215" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1215" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1215" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1215" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G1215" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1215" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1215" s="3"/>
       <c r="J1215" s="3"/>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1216" s="3"/>
-      <c r="B1216" s="29"/>
-      <c r="C1216" s="3"/>
-      <c r="D1216" s="3"/>
-      <c r="E1216" s="3"/>
-      <c r="F1216" s="3"/>
-      <c r="G1216" s="3"/>
-      <c r="H1216" s="5"/>
-      <c r="I1216" s="3"/>
+      <c r="A1216" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1216" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1216" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1216" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G1216" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1216" s="5">
+        <v>43270</v>
+      </c>
+      <c r="I1216" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1216" s="3"/>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1217" s="3"/>
-      <c r="B1217" s="29"/>
-      <c r="C1217" s="3"/>
-      <c r="D1217" s="3"/>
-      <c r="E1217" s="3"/>
-      <c r="F1217" s="3"/>
-      <c r="G1217" s="3"/>
-      <c r="H1217" s="5"/>
+      <c r="A1217" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1217" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1217" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1217" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1217" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G1217" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1217" s="5">
+        <v>43270</v>
+      </c>
       <c r="I1217" s="3"/>
       <c r="J1217" s="3"/>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1218" s="3"/>
-      <c r="B1218" s="29"/>
-      <c r="C1218" s="3"/>
-      <c r="D1218" s="3"/>
-      <c r="E1218" s="3"/>
-      <c r="F1218" s="3"/>
-      <c r="G1218" s="3"/>
-      <c r="H1218" s="5"/>
+      <c r="A1218" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1218" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1218" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1218" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1218" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1218" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1218" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1218" s="5">
+        <v>43270</v>
+      </c>
       <c r="I1218" s="3"/>
       <c r="J1218" s="3"/>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1219" s="3"/>
-      <c r="B1219" s="29"/>
-      <c r="C1219" s="3"/>
-      <c r="D1219" s="3"/>
-      <c r="E1219" s="3"/>
-      <c r="F1219" s="3"/>
-      <c r="G1219" s="3"/>
-      <c r="H1219" s="5"/>
+      <c r="A1219" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1219" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1219" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1219" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1219" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1219" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1219" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1219" s="3"/>
-      <c r="J1219" s="3"/>
+      <c r="J1219" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1220" s="3"/>
-      <c r="B1220" s="29"/>
-      <c r="C1220" s="3"/>
-      <c r="D1220" s="3"/>
-      <c r="E1220" s="3"/>
-      <c r="F1220" s="3"/>
-      <c r="G1220" s="3"/>
-      <c r="H1220" s="5"/>
+      <c r="A1220" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1220" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1220" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1220" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1220" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G1220" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1220" s="5">
+        <v>43271</v>
+      </c>
       <c r="I1220" s="3"/>
-      <c r="J1220" s="3"/>
+      <c r="J1220" s="3" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1221" s="3"/>
-      <c r="B1221" s="29"/>
-      <c r="C1221" s="3"/>
-      <c r="D1221" s="3"/>
-      <c r="E1221" s="3"/>
-      <c r="F1221" s="3"/>
-      <c r="G1221" s="3"/>
-      <c r="H1221" s="5"/>
+      <c r="A1221" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1221" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1221" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1221" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1221" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1221" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G1221" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1221" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1221" s="3"/>
-      <c r="J1221" s="3"/>
+      <c r="J1221" s="3" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1222" s="3"/>
-      <c r="B1222" s="29"/>
-      <c r="C1222" s="3"/>
-      <c r="D1222" s="3"/>
-      <c r="E1222" s="3"/>
-      <c r="F1222" s="3"/>
-      <c r="G1222" s="3"/>
-      <c r="H1222" s="5"/>
+      <c r="A1222" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1222" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1222" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1222" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1222" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1222" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1222" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1222" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1222" s="3"/>
-      <c r="J1222" s="3"/>
+      <c r="J1222" s="3" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1223" s="3"/>
-      <c r="B1223" s="29"/>
-      <c r="C1223" s="3"/>
-      <c r="D1223" s="3"/>
-      <c r="E1223" s="3"/>
-      <c r="F1223" s="3"/>
-      <c r="G1223" s="3"/>
-      <c r="H1223" s="5"/>
+      <c r="A1223" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1223" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1223" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1223" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1223" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1223" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1223" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1223" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1223" s="3"/>
-      <c r="J1223" s="3"/>
+      <c r="J1223" s="3" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1224" s="3"/>
-      <c r="B1224" s="29"/>
-      <c r="C1224" s="3"/>
-      <c r="D1224" s="3"/>
-      <c r="E1224" s="3"/>
+      <c r="A1224" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1224" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1224" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1224" s="3">
+        <v>2</v>
+      </c>
       <c r="F1224" s="3"/>
-      <c r="G1224" s="3"/>
-      <c r="H1224" s="5"/>
-      <c r="I1224" s="3"/>
+      <c r="G1224" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1224" s="5">
+        <v>43272</v>
+      </c>
+      <c r="I1224" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1224" s="3"/>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1225" s="3"/>
-      <c r="B1225" s="29"/>
-      <c r="C1225" s="3"/>
-      <c r="D1225" s="3"/>
-      <c r="E1225" s="3"/>
+      <c r="A1225" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1225" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1225" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1225" s="3">
+        <v>2</v>
+      </c>
       <c r="F1225" s="3"/>
-      <c r="G1225" s="3"/>
-      <c r="H1225" s="5"/>
+      <c r="G1225" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1225" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1225" s="3"/>
       <c r="J1225" s="3"/>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1226" s="3"/>
-      <c r="B1226" s="29"/>
-      <c r="C1226" s="3"/>
-      <c r="D1226" s="3"/>
-      <c r="E1226" s="3"/>
-      <c r="F1226" s="3"/>
-      <c r="G1226" s="3"/>
-      <c r="H1226" s="5"/>
+      <c r="A1226" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1226" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1226" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1226" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1226" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="G1226" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1226" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1226" s="3"/>
-      <c r="J1226" s="3"/>
+      <c r="J1226" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1227" s="3"/>
-      <c r="B1227" s="29"/>
-      <c r="C1227" s="3"/>
-      <c r="D1227" s="3"/>
-      <c r="E1227" s="3"/>
-      <c r="F1227" s="3"/>
-      <c r="G1227" s="3"/>
-      <c r="H1227" s="5"/>
+      <c r="A1227" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1227" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1227" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1227" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1227" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="G1227" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1227" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1227" s="3"/>
-      <c r="J1227" s="3"/>
+      <c r="J1227" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1228" s="3"/>
-      <c r="B1228" s="29"/>
-      <c r="C1228" s="3"/>
-      <c r="D1228" s="3"/>
-      <c r="E1228" s="3"/>
-      <c r="F1228" s="3"/>
-      <c r="G1228" s="3"/>
-      <c r="H1228" s="5"/>
-      <c r="I1228" s="3"/>
-      <c r="J1228" s="3"/>
+      <c r="A1228" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1228" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1228" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1228" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1228" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1228" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1228" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1228" s="5">
+        <v>43272</v>
+      </c>
+      <c r="I1228" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1228" s="3" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1229" s="3"/>
-      <c r="B1229" s="29"/>
-      <c r="C1229" s="3"/>
-      <c r="D1229" s="3"/>
-      <c r="E1229" s="3"/>
-      <c r="F1229" s="3"/>
-      <c r="G1229" s="3"/>
-      <c r="H1229" s="5"/>
-      <c r="I1229" s="3"/>
-      <c r="J1229" s="3"/>
+      <c r="A1229" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1229" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1229" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1229" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1229" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1229" s="5">
+        <v>43272</v>
+      </c>
+      <c r="I1229" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1229" s="3" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1230" s="3"/>
-      <c r="B1230" s="29"/>
-      <c r="C1230" s="3"/>
-      <c r="D1230" s="3"/>
-      <c r="E1230" s="3"/>
-      <c r="F1230" s="3"/>
-      <c r="G1230" s="3"/>
-      <c r="H1230" s="5"/>
+      <c r="A1230" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1230" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1230" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1230" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1230" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G1230" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1230" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1230" s="3"/>
       <c r="J1230" s="3"/>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1231" s="3"/>
-      <c r="B1231" s="29"/>
-      <c r="C1231" s="3"/>
-      <c r="D1231" s="3"/>
-      <c r="E1231" s="3"/>
-      <c r="F1231" s="3"/>
-      <c r="G1231" s="3"/>
-      <c r="H1231" s="5"/>
+      <c r="A1231" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1231" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1231" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1231" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1231" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G1231" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1231" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1231" s="3"/>
       <c r="J1231" s="3"/>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1232" s="3"/>
-      <c r="B1232" s="29"/>
-      <c r="C1232" s="3"/>
-      <c r="D1232" s="3"/>
-      <c r="E1232" s="3"/>
-      <c r="F1232" s="3"/>
-      <c r="G1232" s="3"/>
-      <c r="H1232" s="5"/>
+      <c r="A1232" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1232" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1232" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1232" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1232" s="3">
+        <v>25</v>
+      </c>
+      <c r="F1232" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G1232" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1232" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1232" s="3"/>
       <c r="J1232" s="3"/>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1233" s="3"/>
-      <c r="B1233" s="29"/>
-      <c r="C1233" s="3"/>
-      <c r="D1233" s="3"/>
-      <c r="E1233" s="3"/>
-      <c r="F1233" s="3"/>
-      <c r="G1233" s="3"/>
-      <c r="H1233" s="5"/>
+      <c r="A1233" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1233" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1233" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1233" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1233" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1233" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1233" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1233" s="3"/>
       <c r="J1233" s="3"/>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1234" s="3"/>
-      <c r="B1234" s="29"/>
-      <c r="C1234" s="3"/>
-      <c r="D1234" s="3"/>
-      <c r="E1234" s="3"/>
-      <c r="F1234" s="3"/>
-      <c r="G1234" s="3"/>
-      <c r="H1234" s="5"/>
+      <c r="A1234" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1234" s="29">
+        <v>1125</v>
+      </c>
+      <c r="C1234" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1234" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1234" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1234" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1234" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1234" s="3"/>
       <c r="J1234" s="3"/>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1235" s="3"/>
-      <c r="B1235" s="29"/>
-      <c r="C1235" s="3"/>
-      <c r="D1235" s="3"/>
-      <c r="E1235" s="3"/>
-      <c r="F1235" s="3"/>
-      <c r="G1235" s="3"/>
-      <c r="H1235" s="5"/>
+      <c r="A1235" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1235" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C1235" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1235" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1235" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1235" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1235" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1235" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1235" s="3"/>
       <c r="J1235" s="3"/>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1236" s="3"/>
-      <c r="B1236" s="29"/>
-      <c r="C1236" s="3"/>
-      <c r="D1236" s="3"/>
-      <c r="E1236" s="3"/>
-      <c r="F1236" s="3"/>
-      <c r="G1236" s="3"/>
-      <c r="H1236" s="5"/>
+      <c r="A1236" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1236" s="29">
+        <v>1128</v>
+      </c>
+      <c r="C1236" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1236" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1236" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1236" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1236" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1236" s="5">
+        <v>43269</v>
+      </c>
       <c r="I1236" s="3"/>
       <c r="J1236" s="3"/>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1237" s="3"/>
-      <c r="B1237" s="29"/>
-      <c r="C1237" s="3"/>
-      <c r="D1237" s="3"/>
-      <c r="E1237" s="3"/>
-      <c r="F1237" s="3"/>
-      <c r="G1237" s="3"/>
-      <c r="H1237" s="5"/>
+      <c r="A1237" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1237" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1237" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1237" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1237" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1237" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1237" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1237" s="5">
+        <v>43270</v>
+      </c>
       <c r="I1237" s="3"/>
       <c r="J1237" s="3"/>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1238" s="3"/>
-      <c r="B1238" s="29"/>
-      <c r="C1238" s="3"/>
-      <c r="D1238" s="3"/>
-      <c r="E1238" s="3"/>
-      <c r="F1238" s="3"/>
-      <c r="G1238" s="3"/>
-      <c r="H1238" s="5"/>
-      <c r="I1238" s="3"/>
-      <c r="J1238" s="3"/>
+      <c r="A1238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1238" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1238" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1238" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1238" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1238" s="5">
+        <v>43270</v>
+      </c>
+      <c r="I1238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1238" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1239" s="3"/>
-      <c r="B1239" s="29"/>
-      <c r="C1239" s="3"/>
-      <c r="D1239" s="3"/>
-      <c r="E1239" s="3"/>
-      <c r="F1239" s="3"/>
-      <c r="G1239" s="3"/>
-      <c r="H1239" s="5"/>
+      <c r="A1239" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1239" s="29">
+        <v>1115</v>
+      </c>
+      <c r="C1239" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1239" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1239" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1239" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1239" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1239" s="5">
+        <v>43271</v>
+      </c>
       <c r="I1239" s="3"/>
       <c r="J1239" s="3"/>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1240" s="3"/>
-      <c r="B1240" s="29"/>
-      <c r="C1240" s="3"/>
-      <c r="D1240" s="3"/>
-      <c r="E1240" s="3"/>
-      <c r="F1240" s="3"/>
-      <c r="G1240" s="3"/>
-      <c r="H1240" s="5"/>
-      <c r="I1240" s="3"/>
-      <c r="J1240" s="3"/>
+      <c r="A1240" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1240" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1240" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1240" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1240" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1240" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1240" s="5">
+        <v>43271</v>
+      </c>
+      <c r="I1240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1240" s="3" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1241" s="3"/>
-      <c r="B1241" s="29"/>
-      <c r="C1241" s="3"/>
-      <c r="D1241" s="3"/>
-      <c r="E1241" s="3"/>
-      <c r="F1241" s="3"/>
-      <c r="G1241" s="3"/>
-      <c r="H1241" s="5"/>
+      <c r="A1241" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1241" s="29">
+        <v>1115</v>
+      </c>
+      <c r="C1241" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1241" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1241" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1241" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1241" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1241" s="5">
+        <v>43271</v>
+      </c>
       <c r="I1241" s="3"/>
       <c r="J1241" s="3"/>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1242" s="3"/>
-      <c r="B1242" s="29"/>
-      <c r="C1242" s="3"/>
-      <c r="D1242" s="3"/>
-      <c r="E1242" s="3"/>
-      <c r="F1242" s="3"/>
-      <c r="G1242" s="3"/>
-      <c r="H1242" s="5"/>
+      <c r="A1242" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1242" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1242" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1242" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1242" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1242" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1242" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1242" s="5">
+        <v>43271</v>
+      </c>
       <c r="I1242" s="3"/>
       <c r="J1242" s="3"/>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1243" s="3"/>
-      <c r="B1243" s="29"/>
-      <c r="C1243" s="3"/>
-      <c r="D1243" s="3"/>
-      <c r="E1243" s="3"/>
-      <c r="F1243" s="3"/>
-      <c r="G1243" s="3"/>
-      <c r="H1243" s="5"/>
-      <c r="I1243" s="3"/>
-      <c r="J1243" s="3"/>
+      <c r="A1243" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1243" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1243" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1243" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1243" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1243" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1243" s="5">
+        <v>43271</v>
+      </c>
+      <c r="I1243" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1243" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1244" s="3"/>
-      <c r="B1244" s="29"/>
-      <c r="C1244" s="3"/>
-      <c r="D1244" s="3"/>
-      <c r="E1244" s="3"/>
-      <c r="F1244" s="3"/>
-      <c r="G1244" s="3"/>
-      <c r="H1244" s="5"/>
+      <c r="A1244" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1244" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1244" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1244" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1244" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1244" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1244" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1244" s="3"/>
       <c r="J1244" s="3"/>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1245" s="3"/>
-      <c r="B1245" s="29"/>
-      <c r="C1245" s="3"/>
-      <c r="D1245" s="3"/>
-      <c r="E1245" s="3"/>
-      <c r="F1245" s="3"/>
-      <c r="G1245" s="3"/>
-      <c r="H1245" s="5"/>
-      <c r="I1245" s="3"/>
-      <c r="J1245" s="3"/>
+      <c r="A1245" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1245" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1245" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1245" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1245" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1245" s="5">
+        <v>43272</v>
+      </c>
+      <c r="I1245" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1245" s="3" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1246" s="3"/>
-      <c r="B1246" s="29"/>
-      <c r="C1246" s="3"/>
-      <c r="D1246" s="3"/>
-      <c r="E1246" s="3"/>
-      <c r="F1246" s="3"/>
-      <c r="G1246" s="3"/>
-      <c r="H1246" s="5"/>
+      <c r="A1246" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1246" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1246" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1246" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1246" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1246" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1246" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1246" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1246" s="3"/>
       <c r="J1246" s="3"/>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1247" s="3"/>
-      <c r="B1247" s="29"/>
-      <c r="C1247" s="3"/>
-      <c r="D1247" s="3"/>
-      <c r="E1247" s="3"/>
-      <c r="F1247" s="3"/>
-      <c r="G1247" s="3"/>
-      <c r="H1247" s="5"/>
-      <c r="I1247" s="3"/>
-      <c r="J1247" s="3"/>
+      <c r="A1247" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1247" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C1247" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1247" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1247" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1247" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1247" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1247" s="5">
+        <v>43272</v>
+      </c>
+      <c r="I1247" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1247" s="3" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1248" s="3"/>
-      <c r="B1248" s="29"/>
-      <c r="C1248" s="3"/>
-      <c r="D1248" s="3"/>
-      <c r="E1248" s="3"/>
-      <c r="F1248" s="3"/>
-      <c r="G1248" s="3"/>
-      <c r="H1248" s="5"/>
+      <c r="A1248" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1248" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1248" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1248" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1248" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1248" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1248" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1248" s="3"/>
       <c r="J1248" s="3"/>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1249" s="3"/>
-      <c r="B1249" s="29"/>
-      <c r="C1249" s="3"/>
-      <c r="D1249" s="3"/>
-      <c r="E1249" s="3"/>
-      <c r="F1249" s="3"/>
-      <c r="G1249" s="3"/>
-      <c r="H1249" s="5"/>
-      <c r="I1249" s="3"/>
+      <c r="A1249" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1249" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1249" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1249" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1249" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1249" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1249" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1249" s="5">
+        <v>43272</v>
+      </c>
+      <c r="I1249" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1249" s="3"/>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1250" s="3"/>
-      <c r="B1250" s="29"/>
-      <c r="C1250" s="3"/>
-      <c r="D1250" s="3"/>
-      <c r="E1250" s="3"/>
-      <c r="F1250" s="3"/>
-      <c r="G1250" s="3"/>
-      <c r="H1250" s="5"/>
+      <c r="A1250" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1250" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1250" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1250" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1250" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1250" s="5">
+        <v>43272</v>
+      </c>
       <c r="I1250" s="3"/>
       <c r="J1250" s="3"/>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1251" s="3"/>
-      <c r="B1251" s="29"/>
-      <c r="C1251" s="3"/>
-      <c r="D1251" s="3"/>
-      <c r="E1251" s="3"/>
-      <c r="F1251" s="3"/>
-      <c r="G1251" s="3"/>
-      <c r="H1251" s="5"/>
+      <c r="A1251" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1251" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1251" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1251" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1251" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1251" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1251" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1251" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1251" s="3"/>
       <c r="J1251" s="3"/>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1252" s="3"/>
-      <c r="B1252" s="29"/>
-      <c r="C1252" s="3"/>
-      <c r="D1252" s="3"/>
-      <c r="E1252" s="3"/>
-      <c r="F1252" s="3"/>
-      <c r="G1252" s="3"/>
-      <c r="H1252" s="5"/>
+      <c r="A1252" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1252" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1252" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1252" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1252" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1252" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1252" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1252" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1252" s="3"/>
       <c r="J1252" s="3"/>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1253" s="3"/>
-      <c r="B1253" s="29"/>
-      <c r="C1253" s="3"/>
-      <c r="D1253" s="3"/>
-      <c r="E1253" s="3"/>
-      <c r="F1253" s="3"/>
-      <c r="G1253" s="3"/>
-      <c r="H1253" s="5"/>
-      <c r="I1253" s="3"/>
-      <c r="J1253" s="3"/>
+      <c r="A1253" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1253" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1253" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1253" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1253" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1253" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1253" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1253" s="5">
+        <v>43273</v>
+      </c>
+      <c r="I1253" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1253" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1254" s="3"/>
-      <c r="B1254" s="29"/>
-      <c r="C1254" s="3"/>
-      <c r="D1254" s="3"/>
-      <c r="E1254" s="3"/>
-      <c r="F1254" s="3"/>
-      <c r="G1254" s="3"/>
-      <c r="H1254" s="5"/>
+      <c r="A1254" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1254" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1254" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1254" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1254" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1254" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1254" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1254" s="3"/>
       <c r="J1254" s="3"/>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1255" s="3"/>
-      <c r="B1255" s="29"/>
-      <c r="C1255" s="3"/>
-      <c r="D1255" s="3"/>
-      <c r="E1255" s="3"/>
-      <c r="F1255" s="3"/>
-      <c r="G1255" s="3"/>
-      <c r="H1255" s="5"/>
-      <c r="I1255" s="3"/>
+      <c r="A1255" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1255" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1255" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1255" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1255" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1255" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1255" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1255" s="5">
+        <v>43273</v>
+      </c>
+      <c r="I1255" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J1255" s="3"/>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1256" s="3"/>
-      <c r="B1256" s="29"/>
-      <c r="C1256" s="3"/>
-      <c r="D1256" s="3"/>
-      <c r="E1256" s="3"/>
-      <c r="F1256" s="3"/>
-      <c r="G1256" s="3"/>
-      <c r="H1256" s="5"/>
+      <c r="A1256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1256" s="29">
+        <v>1115</v>
+      </c>
+      <c r="C1256" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1256" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1256" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1256" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1256" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1256" s="3"/>
       <c r="J1256" s="3"/>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1257" s="3"/>
-      <c r="B1257" s="29"/>
-      <c r="C1257" s="3"/>
-      <c r="D1257" s="3"/>
-      <c r="E1257" s="3"/>
-      <c r="F1257" s="3"/>
-      <c r="G1257" s="3"/>
-      <c r="H1257" s="5"/>
+      <c r="A1257" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1257" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1257" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1257" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1257" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1257" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1257" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1257" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1257" s="3"/>
       <c r="J1257" s="3"/>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1258" s="3"/>
-      <c r="B1258" s="29"/>
-      <c r="C1258" s="3"/>
-      <c r="D1258" s="3"/>
-      <c r="E1258" s="3"/>
-      <c r="F1258" s="3"/>
-      <c r="G1258" s="3"/>
-      <c r="H1258" s="5"/>
-      <c r="I1258" s="3"/>
-      <c r="J1258" s="3"/>
+      <c r="A1258" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1258" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1258" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1258" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1258" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1258" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1258" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1258" s="5">
+        <v>43273</v>
+      </c>
+      <c r="I1258" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1258" s="3" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1259" s="3"/>
-      <c r="B1259" s="29"/>
-      <c r="C1259" s="3"/>
-      <c r="D1259" s="3"/>
-      <c r="E1259" s="3"/>
-      <c r="F1259" s="3"/>
-      <c r="G1259" s="3"/>
-      <c r="H1259" s="5"/>
-      <c r="I1259" s="3"/>
+      <c r="A1259" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1259" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1259" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1259" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1259" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1259" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1259" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1259" s="5">
+        <v>43273</v>
+      </c>
+      <c r="I1259" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="J1259" s="3"/>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1260" s="3"/>
-      <c r="B1260" s="29"/>
-      <c r="C1260" s="3"/>
-      <c r="D1260" s="3"/>
-      <c r="E1260" s="3"/>
-      <c r="F1260" s="3"/>
-      <c r="G1260" s="3"/>
-      <c r="H1260" s="5"/>
-      <c r="I1260" s="3"/>
-      <c r="J1260" s="3"/>
+      <c r="A1260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1260" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1260" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1260" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1260" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1260" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1260" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1260" s="5">
+        <v>43273</v>
+      </c>
+      <c r="I1260" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1260" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1261" s="3"/>
-      <c r="B1261" s="29"/>
-      <c r="C1261" s="3"/>
-      <c r="D1261" s="3"/>
-      <c r="E1261" s="3"/>
-      <c r="F1261" s="3"/>
-      <c r="G1261" s="3"/>
-      <c r="H1261" s="5"/>
+      <c r="A1261" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1261" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1261" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1261" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1261" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1261" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1261" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1261" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1261" s="3"/>
       <c r="J1261" s="3"/>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1262" s="3"/>
-      <c r="B1262" s="29"/>
-      <c r="C1262" s="3"/>
-      <c r="D1262" s="3"/>
-      <c r="E1262" s="3"/>
-      <c r="F1262" s="3"/>
-      <c r="G1262" s="3"/>
-      <c r="H1262" s="5"/>
+      <c r="A1262" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1262" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1262" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1262" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1262" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1262" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1262" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1262" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1262" s="3"/>
       <c r="J1262" s="3"/>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1263" s="3"/>
-      <c r="B1263" s="29"/>
-      <c r="C1263" s="3"/>
-      <c r="D1263" s="3"/>
-      <c r="E1263" s="3"/>
-      <c r="F1263" s="3"/>
-      <c r="G1263" s="3"/>
-      <c r="H1263" s="5"/>
-      <c r="I1263" s="3"/>
-      <c r="J1263" s="3"/>
+      <c r="A1263" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1263" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1263" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1263" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1263" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1263" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1263" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1263" s="5">
+        <v>43273</v>
+      </c>
+      <c r="I1263" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1263" s="3" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1264" s="3"/>
-      <c r="B1264" s="29"/>
-      <c r="C1264" s="3"/>
-      <c r="D1264" s="3"/>
-      <c r="E1264" s="3"/>
-      <c r="F1264" s="3"/>
-      <c r="G1264" s="3"/>
-      <c r="H1264" s="5"/>
+      <c r="A1264" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1264" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1264" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1264" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1264" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1264" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1264" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1264" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1264" s="3"/>
       <c r="J1264" s="3"/>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1265" s="3"/>
-      <c r="B1265" s="29"/>
-      <c r="C1265" s="3"/>
-      <c r="D1265" s="3"/>
-      <c r="E1265" s="3"/>
-      <c r="F1265" s="3"/>
-      <c r="G1265" s="3"/>
-      <c r="H1265" s="5"/>
+      <c r="A1265" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1265" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1265" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1265" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1265" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1265" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1265" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1265" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1265" s="3"/>
       <c r="J1265" s="3"/>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1266" s="3"/>
-      <c r="B1266" s="29"/>
-      <c r="C1266" s="3"/>
-      <c r="D1266" s="3"/>
-      <c r="E1266" s="3"/>
-      <c r="F1266" s="3"/>
-      <c r="G1266" s="3"/>
-      <c r="H1266" s="5"/>
+      <c r="A1266" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1266" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1266" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1266" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1266" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1266" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G1266" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1266" s="5">
+        <v>43273</v>
+      </c>
       <c r="I1266" s="3"/>
       <c r="J1266" s="3"/>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1267" s="3"/>
-      <c r="B1267" s="29"/>
-      <c r="C1267" s="3"/>
-      <c r="D1267" s="3"/>
-      <c r="E1267" s="3"/>
-      <c r="F1267" s="3"/>
-      <c r="G1267" s="3"/>
-      <c r="H1267" s="5"/>
+      <c r="A1267" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1267" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1267" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1267" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1267" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="G1267" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1267" s="5">
+        <v>43276</v>
+      </c>
       <c r="I1267" s="3"/>
-      <c r="J1267" s="3"/>
+      <c r="J1267" s="3" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1268" s="3"/>
-      <c r="B1268" s="29"/>
-      <c r="C1268" s="3"/>
-      <c r="D1268" s="3"/>
-      <c r="E1268" s="3"/>
-      <c r="F1268" s="3"/>
-      <c r="G1268" s="3"/>
-      <c r="H1268" s="5"/>
-      <c r="I1268" s="3"/>
+      <c r="A1268" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1268" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1268" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1268" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1268" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G1268" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1268" s="5">
+        <v>43276</v>
+      </c>
+      <c r="I1268" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1268" s="3"/>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1269" s="3"/>
-      <c r="B1269" s="29"/>
-      <c r="C1269" s="3"/>
-      <c r="D1269" s="3"/>
-      <c r="E1269" s="3"/>
-      <c r="F1269" s="3"/>
-      <c r="G1269" s="3"/>
-      <c r="H1269" s="5"/>
+      <c r="B1269" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1269" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1269" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1269" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G1269" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1269" s="5">
+        <v>43278</v>
+      </c>
       <c r="I1269" s="3"/>
       <c r="J1269" s="3"/>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1270" s="3"/>
-      <c r="B1270" s="29"/>
-      <c r="C1270" s="3"/>
-      <c r="D1270" s="3"/>
-      <c r="E1270" s="3"/>
-      <c r="F1270" s="3"/>
-      <c r="G1270" s="3"/>
-      <c r="H1270" s="5"/>
-      <c r="I1270" s="3"/>
+      <c r="A1270" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1270" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1270" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1270" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1270" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1270" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G1270" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1270" s="5">
+        <v>43276</v>
+      </c>
+      <c r="I1270" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1270" s="3"/>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1271" s="3"/>
-      <c r="B1271" s="29"/>
-      <c r="C1271" s="3"/>
-      <c r="D1271" s="3"/>
-      <c r="E1271" s="3"/>
-      <c r="F1271" s="3"/>
-      <c r="G1271" s="3"/>
-      <c r="H1271" s="5"/>
+      <c r="A1271" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1271" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1271" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1271" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1271" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1271" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G1271" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1271" s="5">
+        <v>43278</v>
+      </c>
       <c r="I1271" s="3"/>
       <c r="J1271" s="3"/>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1272" s="3"/>
-      <c r="B1272" s="29"/>
-      <c r="C1272" s="3"/>
-      <c r="D1272" s="3"/>
-      <c r="E1272" s="3"/>
-      <c r="F1272" s="3"/>
-      <c r="G1272" s="3"/>
-      <c r="H1272" s="5"/>
+      <c r="A1272" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1272" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1272" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1272" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1272" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1272" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1272" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1272" s="5">
+        <v>43276</v>
+      </c>
       <c r="I1272" s="3"/>
-      <c r="J1272" s="3"/>
+      <c r="J1272" s="3" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1273" s="3"/>
-      <c r="B1273" s="29"/>
-      <c r="C1273" s="3"/>
-      <c r="D1273" s="3"/>
-      <c r="E1273" s="3"/>
-      <c r="F1273" s="3"/>
-      <c r="G1273" s="3"/>
-      <c r="H1273" s="5"/>
+      <c r="A1273" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1273" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1273" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1273" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1273" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1273" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1273" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1273" s="5">
+        <v>43277</v>
+      </c>
       <c r="I1273" s="3"/>
-      <c r="J1273" s="3"/>
+      <c r="J1273" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1274" s="3"/>
-      <c r="B1274" s="29"/>
-      <c r="C1274" s="3"/>
-      <c r="D1274" s="3"/>
-      <c r="E1274" s="3"/>
-      <c r="F1274" s="3"/>
-      <c r="G1274" s="3"/>
-      <c r="H1274" s="5"/>
+      <c r="A1274" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1274" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1274" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1274" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1274" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1274" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1274" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1274" s="5">
+        <v>43277</v>
+      </c>
       <c r="I1274" s="3"/>
-      <c r="J1274" s="3"/>
+      <c r="J1274" s="3" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1275" s="3"/>
-      <c r="B1275" s="29"/>
-      <c r="C1275" s="3"/>
-      <c r="D1275" s="3"/>
-      <c r="E1275" s="3"/>
-      <c r="F1275" s="3"/>
-      <c r="G1275" s="3"/>
-      <c r="H1275" s="5"/>
+      <c r="A1275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1275" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1275" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1275" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1275" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1275" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1275" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1275" s="5">
+        <v>43277</v>
+      </c>
       <c r="I1275" s="3"/>
-      <c r="J1275" s="3"/>
+      <c r="J1275" s="3" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1276" s="3"/>
-      <c r="B1276" s="29"/>
-      <c r="C1276" s="3"/>
-      <c r="D1276" s="3"/>
-      <c r="E1276" s="3"/>
-      <c r="F1276" s="3"/>
-      <c r="G1276" s="3"/>
-      <c r="H1276" s="5"/>
+      <c r="A1276" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1276" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1276" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1276" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1276" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1276" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1276" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1276" s="5">
+        <v>43277</v>
+      </c>
       <c r="I1276" s="3"/>
-      <c r="J1276" s="3"/>
+      <c r="J1276" s="3" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1277" s="3"/>
-      <c r="B1277" s="29"/>
-      <c r="C1277" s="3"/>
-      <c r="D1277" s="3"/>
-      <c r="E1277" s="3"/>
-      <c r="F1277" s="3"/>
-      <c r="G1277" s="3"/>
-      <c r="H1277" s="5"/>
+      <c r="A1277" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1277" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1277" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1277" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1277" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1277" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="G1277" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1277" s="5">
+        <v>43278</v>
+      </c>
       <c r="I1277" s="3"/>
       <c r="J1277" s="3"/>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1278" s="3"/>
-      <c r="B1278" s="29"/>
-      <c r="C1278" s="3"/>
-      <c r="D1278" s="3"/>
-      <c r="E1278" s="3"/>
-      <c r="F1278" s="3"/>
-      <c r="G1278" s="3"/>
-      <c r="H1278" s="5"/>
-      <c r="I1278" s="3"/>
+      <c r="A1278" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1278" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1278" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1278" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G1278" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1278" s="5">
+        <v>43278</v>
+      </c>
+      <c r="I1278" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1278" s="3"/>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1279" s="3"/>
-      <c r="B1279" s="29"/>
-      <c r="C1279" s="3"/>
-      <c r="D1279" s="3"/>
-      <c r="E1279" s="3"/>
-      <c r="F1279" s="3"/>
-      <c r="G1279" s="3"/>
-      <c r="H1279" s="5"/>
+      <c r="A1279" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1279" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1279" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1279" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1279" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1279" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1279" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1279" s="5">
+        <v>43279</v>
+      </c>
       <c r="I1279" s="3"/>
       <c r="J1279" s="3"/>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1280" s="3"/>
-      <c r="B1280" s="29"/>
-      <c r="C1280" s="3"/>
-      <c r="D1280" s="3"/>
-      <c r="E1280" s="3"/>
-      <c r="F1280" s="3"/>
-      <c r="G1280" s="3"/>
-      <c r="H1280" s="5"/>
+      <c r="A1280" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1280" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1280" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1280" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1280" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1280" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1280" s="5">
+        <v>43276</v>
+      </c>
       <c r="I1280" s="3"/>
       <c r="J1280" s="3"/>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1281" s="3"/>
-      <c r="B1281" s="29"/>
-      <c r="C1281" s="3"/>
-      <c r="D1281" s="3"/>
-      <c r="E1281" s="3"/>
-      <c r="F1281" s="3"/>
-      <c r="G1281" s="3"/>
-      <c r="H1281" s="5"/>
+      <c r="A1281" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1281" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1281" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1281" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1281" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1281" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1281" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1281" s="5">
+        <v>43276</v>
+      </c>
       <c r="I1281" s="3"/>
       <c r="J1281" s="3"/>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1282" s="3"/>
-      <c r="B1282" s="29"/>
-      <c r="C1282" s="3"/>
-      <c r="D1282" s="3"/>
-      <c r="E1282" s="3"/>
-      <c r="F1282" s="3"/>
-      <c r="G1282" s="3"/>
-      <c r="H1282" s="5"/>
+      <c r="A1282" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1282" s="29">
+        <v>500.06099999999998</v>
+      </c>
+      <c r="C1282" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1282" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1282" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1282" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1282" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1282" s="5">
+        <v>43276</v>
+      </c>
       <c r="I1282" s="3"/>
       <c r="J1282" s="3"/>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1283" s="3"/>
-      <c r="B1283" s="29"/>
-      <c r="C1283" s="3"/>
-      <c r="D1283" s="3"/>
-      <c r="E1283" s="3"/>
-      <c r="F1283" s="3"/>
-      <c r="G1283" s="3"/>
-      <c r="H1283" s="5"/>
+      <c r="A1283" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1283" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1283" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1283" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1283" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1283" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1283" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1283" s="5">
+        <v>43276</v>
+      </c>
       <c r="I1283" s="3"/>
       <c r="J1283" s="3"/>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1284" s="3"/>
-      <c r="B1284" s="29"/>
-      <c r="C1284" s="3"/>
-      <c r="D1284" s="3"/>
-      <c r="E1284" s="3"/>
-      <c r="F1284" s="3"/>
-      <c r="G1284" s="3"/>
-      <c r="H1284" s="5"/>
+      <c r="A1284" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1284" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1284" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1284" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1284" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1284" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1284" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1284" s="5">
+        <v>43277</v>
+      </c>
       <c r="I1284" s="3"/>
       <c r="J1284" s="3"/>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1285" s="3"/>
-      <c r="B1285" s="29"/>
-      <c r="C1285" s="3"/>
-      <c r="D1285" s="3"/>
-      <c r="E1285" s="3"/>
-      <c r="F1285" s="3"/>
-      <c r="G1285" s="3"/>
-      <c r="H1285" s="5"/>
+      <c r="A1285" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1285" s="29">
+        <v>771.00900000000001</v>
+      </c>
+      <c r="C1285" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1285" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1285" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1285" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1285" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1285" s="5">
+        <v>43278</v>
+      </c>
       <c r="I1285" s="3"/>
       <c r="J1285" s="3"/>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1286" s="3"/>
-      <c r="B1286" s="29"/>
-      <c r="C1286" s="3"/>
-      <c r="D1286" s="3"/>
-      <c r="E1286" s="3"/>
-      <c r="F1286" s="3"/>
-      <c r="G1286" s="3"/>
-      <c r="H1286" s="5"/>
-      <c r="I1286" s="3"/>
-      <c r="J1286" s="3"/>
+      <c r="A1286" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1286" s="29">
+        <v>1125</v>
+      </c>
+      <c r="C1286" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1286" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1286" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1286" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1286" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1286" s="5">
+        <v>43278</v>
+      </c>
+      <c r="I1286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1286" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1287" s="3"/>
-      <c r="B1287" s="29"/>
-      <c r="C1287" s="3"/>
-      <c r="D1287" s="3"/>
-      <c r="E1287" s="3"/>
-      <c r="F1287" s="3"/>
-      <c r="G1287" s="3"/>
-      <c r="H1287" s="5"/>
+      <c r="A1287" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1287" s="29">
+        <v>655</v>
+      </c>
+      <c r="C1287" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1287" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1287" s="3">
+        <v>28</v>
+      </c>
+      <c r="F1287" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1287" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1287" s="5">
+        <v>43280</v>
+      </c>
       <c r="I1287" s="3"/>
       <c r="J1287" s="3"/>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1288" s="3"/>
-      <c r="B1288" s="29"/>
-      <c r="C1288" s="3"/>
-      <c r="D1288" s="3"/>
-      <c r="E1288" s="3"/>
-      <c r="F1288" s="3"/>
-      <c r="G1288" s="3"/>
-      <c r="H1288" s="5"/>
-      <c r="I1288" s="3"/>
+      <c r="A1288" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1288" s="29">
+        <v>55.040999999999997</v>
+      </c>
+      <c r="C1288" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1288" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1288" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1288" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1288" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1288" s="5">
+        <v>43280</v>
+      </c>
+      <c r="I1288" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J1288" s="3"/>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1289" s="3"/>
-      <c r="B1289" s="29"/>
-      <c r="C1289" s="3"/>
-      <c r="D1289" s="3"/>
-      <c r="E1289" s="3"/>
-      <c r="F1289" s="3"/>
-      <c r="G1289" s="3"/>
-      <c r="H1289" s="5"/>
-      <c r="I1289" s="3"/>
-      <c r="J1289" s="3"/>
+      <c r="A1289" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1289" s="29">
+        <v>1125</v>
+      </c>
+      <c r="C1289" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1289" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1289" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1289" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1289" s="5">
+        <v>43278</v>
+      </c>
+      <c r="I1289" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1289" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1290" s="3"/>
-      <c r="B1290" s="29"/>
-      <c r="C1290" s="3"/>
-      <c r="D1290" s="3"/>
-      <c r="E1290" s="3"/>
-      <c r="F1290" s="3"/>
-      <c r="G1290" s="3"/>
-      <c r="H1290" s="5"/>
+      <c r="A1290" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1290" s="29">
+        <v>55.040999999999997</v>
+      </c>
+      <c r="C1290" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1290" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1290" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1290" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1290" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1290" s="5">
+        <v>43280</v>
+      </c>
       <c r="I1290" s="3"/>
       <c r="J1290" s="3"/>
     </row>
@@ -37656,12 +40644,12 @@
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G315 G317:G661 G671:G924 G926:G1048576</xm:sqref>
+          <xm:sqref>G2:G315 G317:G661 G671:G924 G926:G1197 G1208:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -37673,13 +40661,13 @@
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A661 A671:A924 A926:A1048576</xm:sqref>
+          <xm:sqref>A1:A661 A671:A924 A926:A1197 A1208:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I661 I671:I1048576</xm:sqref>
+          <xm:sqref>I1:I661 I671:I1197 I1208:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -37691,7 +40679,7 @@
           <x14:formula1>
             <xm:f>'Deliverable Types'!$A$1:$A$31</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D661 D671:D924 D926:D1048576</xm:sqref>
+          <xm:sqref>D2:D661 D671:D924 D926:D1197 D1208:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -37703,7 +40691,7 @@
           <x14:formula1>
             <xm:f>Application!$A$2:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C924 C926:C1362</xm:sqref>
+          <xm:sqref>C2:C924 C926:C1197 C1208:C1362</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -37747,6 +40735,36 @@
           </x14:formula1>
           <xm:sqref>A925</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]Deliverable Types'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1198:D1207</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]Application'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1198:C1207</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]A or D'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1198:G1207</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]Reasons for Disapproval'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1198:I1207</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Nick First Pass Acceptance.xlsx]SQA'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1198:A1207</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -38079,8 +41097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:A31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8112" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8756" uniqueCount="889">
   <si>
     <t>Project ID</t>
   </si>
@@ -2537,6 +2537,182 @@
   </si>
   <si>
     <t>1 win 7 LC77430</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
+  <si>
+    <t>URS/FRS to Test Protocol Trace - v16</t>
+  </si>
+  <si>
+    <t>parent 00061.000</t>
+  </si>
+  <si>
+    <t>WWLIMS WorkStation v9.32a ADDULCD773400</t>
+  </si>
+  <si>
+    <t>WWLIMS WorkStation v9.32 - Validation ADDULCD893694</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task Items v9.32 - Validation ADDAPA3290</t>
+  </si>
+  <si>
+    <t>Val Results 8838ce6</t>
+  </si>
+  <si>
+    <t>01033.018</t>
+  </si>
+  <si>
+    <t>Product Requirements_v4_Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TCLNLO_01_Result</t>
+  </si>
+  <si>
+    <t>Test Protocol - TCTM_02_Result: ADDULCD893694</t>
+  </si>
+  <si>
+    <t>Parent in 00067.000</t>
+  </si>
+  <si>
+    <t>Test Protocol - TCTM_03_Result: ADDULCD893694</t>
+  </si>
+  <si>
+    <t>Production: 3385873</t>
+  </si>
+  <si>
+    <t>Test Protocol - TC_IPDR_ADDWWLIMS08902_Result: ADDULCD773400</t>
+  </si>
+  <si>
+    <t>Test Protocol - TCTCPSR_01_Result: ADDULCD771510T</t>
+  </si>
+  <si>
+    <t>parent 00054.000</t>
+  </si>
+  <si>
+    <t>TP Task Manager</t>
+  </si>
+  <si>
+    <t>Workstation v9.32</t>
+  </si>
+  <si>
+    <t>Supplemental Items - v9.32</t>
+  </si>
+  <si>
+    <t>this was correct from  the above two lines</t>
+  </si>
+  <si>
+    <t>WWLIMS WorkStation v9.32 - Final Build - Val: ADDULCD893694</t>
+  </si>
+  <si>
+    <t>00332.020</t>
+  </si>
+  <si>
+    <t>Link to 00332.019</t>
+  </si>
+  <si>
+    <t>Supplemental Items v9.32 - Final Build - Val: ADDULCD878490T</t>
+  </si>
+  <si>
+    <t>Test Protocol_01_DFCS_Fedex Domestic Air Shipments</t>
+  </si>
+  <si>
+    <t>Test Protocol_04_DFCS_FedEx Domestic Ground Shipments</t>
+  </si>
+  <si>
+    <t>Test Protocol_02_DFCS_Other label International Shipments</t>
+  </si>
+  <si>
+    <t>ePAS 18-5565 v2</t>
+  </si>
+  <si>
+    <t>ePAS 11-6695 v*</t>
+  </si>
+  <si>
+    <t>Via email</t>
+  </si>
+  <si>
+    <t>ePAS 11-48338 V6</t>
+  </si>
+  <si>
+    <t>ePAS 18-22833 V2</t>
+  </si>
+  <si>
+    <t>Test Protocol - TCINT_05_Result: ADDULCD893694</t>
+  </si>
+  <si>
+    <t>Parent in 00049.000</t>
+  </si>
+  <si>
+    <t>Test Protocol_03_DFCS_Replenishment</t>
+  </si>
+  <si>
+    <t>link to 00109.003</t>
+  </si>
+  <si>
+    <t>WWLIMS WorkStation v9.32 - UAT AMDUDPD380500
+AMDUDPD380518
+AMDUDPD380524</t>
+  </si>
+  <si>
+    <t>URS to FRS to test protocol Trace</t>
+  </si>
+  <si>
+    <t>Test Protocol-Print Functionality</t>
+  </si>
+  <si>
+    <t>Test Protocol 2.1.2 Enhancements</t>
+  </si>
+  <si>
+    <t>ePAS 18-6950 V2</t>
+  </si>
+  <si>
+    <t>ePAS 11-39647 V3</t>
+  </si>
+  <si>
+    <t>ePAS 18-26674 v1</t>
+  </si>
+  <si>
+    <t>User Acceptance Protocol - Protocol 1 - Result: AMDUDPD380500</t>
+  </si>
+  <si>
+    <t>ADDEMASEDMSD3/RunLogVal</t>
+  </si>
+  <si>
+    <t>00303.103</t>
+  </si>
+  <si>
+    <t>Link to previous</t>
+  </si>
+  <si>
+    <t>Print Functionality</t>
+  </si>
+  <si>
+    <t>2.1.2 Enhancements</t>
+  </si>
+  <si>
+    <t>Test Protocol_01_DFCS_Fedex Domestic Air Shipments_Results</t>
+  </si>
+  <si>
+    <t>Test Protocol_04_DFCS_FedEx Domestic Ground Shipments_Results</t>
+  </si>
+  <si>
+    <t>WWLIMS WorkStation v9.32 - Production</t>
+  </si>
+  <si>
+    <t>WWLIMS WorkStation v9.32 - Production: first installation</t>
+  </si>
+  <si>
+    <t>Task Items v9.32 - Production</t>
+  </si>
+  <si>
+    <t>Supplemental Items v9.32 - Production</t>
+  </si>
+  <si>
+    <t>Test Protocol_03_DFCS_Replenishment_Results</t>
+  </si>
+  <si>
+    <t>ePAS 16-33266 V16</t>
   </si>
 </sst>
 </file>
@@ -3154,8 +3330,8 @@
   <dimension ref="A1:J2812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1431" sqref="B1431"/>
+      <pane ySplit="1" topLeftCell="A1527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1540" sqref="A1540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43420,7 +43596,7 @@
         <v>37</v>
       </c>
       <c r="B1414" s="29" t="s">
-        <v>746</v>
+        <v>813</v>
       </c>
       <c r="C1414" s="3" t="s">
         <v>42</v>
@@ -43564,7 +43740,7 @@
         <v>37</v>
       </c>
       <c r="B1419" s="29" t="s">
-        <v>746</v>
+        <v>813</v>
       </c>
       <c r="C1419" s="3" t="s">
         <v>42</v>
@@ -43736,7 +43912,7 @@
         <v>37</v>
       </c>
       <c r="B1425" s="29" t="s">
-        <v>746</v>
+        <v>813</v>
       </c>
       <c r="C1425" s="3" t="s">
         <v>42</v>
@@ -43844,1334 +44020,3152 @@
       <c r="J1428" s="3"/>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1429" s="3"/>
-      <c r="B1429" s="29"/>
-      <c r="C1429" s="3"/>
-      <c r="D1429" s="3"/>
-      <c r="E1429" s="3"/>
+      <c r="A1429" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1429" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1429" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1429" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1429" s="3">
+        <v>1</v>
+      </c>
       <c r="F1429" s="3"/>
-      <c r="G1429" s="3"/>
-      <c r="H1429" s="5"/>
+      <c r="G1429" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1429" s="5">
+        <v>43313</v>
+      </c>
       <c r="I1429" s="3"/>
       <c r="J1429" s="3"/>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1430" s="3"/>
-      <c r="B1430" s="29"/>
-      <c r="C1430" s="3"/>
-      <c r="D1430" s="3"/>
-      <c r="E1430" s="3"/>
-      <c r="F1430" s="3"/>
-      <c r="G1430" s="3"/>
-      <c r="H1430" s="5"/>
+      <c r="A1430" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1430" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1430" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1430" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1430" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1430" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="G1430" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1430" s="5">
+        <v>43313</v>
+      </c>
       <c r="I1430" s="3"/>
       <c r="J1430" s="3"/>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1431" s="3"/>
-      <c r="B1431" s="29"/>
-      <c r="C1431" s="3"/>
-      <c r="D1431" s="3"/>
-      <c r="E1431" s="3"/>
-      <c r="F1431" s="3"/>
-      <c r="G1431" s="3"/>
-      <c r="H1431" s="5"/>
+      <c r="A1431" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1431" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1431" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1431" s="3">
+        <v>16</v>
+      </c>
+      <c r="F1431" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="G1431" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1431" s="5">
+        <v>43313</v>
+      </c>
       <c r="I1431" s="3"/>
       <c r="J1431" s="3"/>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1432" s="3"/>
-      <c r="B1432" s="29"/>
-      <c r="C1432" s="3"/>
-      <c r="D1432" s="3"/>
-      <c r="E1432" s="3"/>
+      <c r="A1432" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1432" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1432" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1432" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1432" s="3">
+        <v>3</v>
+      </c>
       <c r="F1432" s="3"/>
-      <c r="G1432" s="3"/>
-      <c r="H1432" s="5"/>
-      <c r="I1432" s="3"/>
-      <c r="J1432" s="3"/>
+      <c r="G1432" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1432" s="5">
+        <v>43313</v>
+      </c>
+      <c r="I1432" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1432" s="3" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1433" s="3"/>
-      <c r="B1433" s="29"/>
-      <c r="C1433" s="3"/>
-      <c r="D1433" s="3"/>
-      <c r="E1433" s="3"/>
+      <c r="A1433" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1433" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1433" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1433" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1433" s="3">
+        <v>3</v>
+      </c>
       <c r="F1433" s="3"/>
-      <c r="G1433" s="3"/>
-      <c r="H1433" s="5"/>
-      <c r="I1433" s="3"/>
-      <c r="J1433" s="3"/>
+      <c r="G1433" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1433" s="5">
+        <v>43313</v>
+      </c>
+      <c r="I1433" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1433" s="3" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1434" s="3"/>
-      <c r="B1434" s="29"/>
-      <c r="C1434" s="3"/>
-      <c r="D1434" s="3"/>
-      <c r="E1434" s="3"/>
-      <c r="F1434" s="3"/>
-      <c r="G1434" s="3"/>
-      <c r="H1434" s="5"/>
+      <c r="A1434" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1434" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1434" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1434" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1434" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1434" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="G1434" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1434" s="5">
+        <v>43313</v>
+      </c>
       <c r="I1434" s="3"/>
       <c r="J1434" s="3"/>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1435" s="3"/>
-      <c r="B1435" s="29"/>
-      <c r="C1435" s="3"/>
-      <c r="D1435" s="3"/>
-      <c r="E1435" s="3"/>
-      <c r="F1435" s="3"/>
-      <c r="G1435" s="3"/>
-      <c r="H1435" s="5"/>
+      <c r="A1435" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1435" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1435" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1435" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1435" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1435" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1435" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1435" s="5">
+        <v>43313</v>
+      </c>
       <c r="I1435" s="3"/>
       <c r="J1435" s="3"/>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1436" s="3"/>
-      <c r="B1436" s="29"/>
-      <c r="C1436" s="3"/>
-      <c r="D1436" s="3"/>
-      <c r="E1436" s="3"/>
-      <c r="F1436" s="3"/>
-      <c r="G1436" s="3"/>
-      <c r="H1436" s="5"/>
+      <c r="A1436" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1436" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1436" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1436" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1436" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1436" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="G1436" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1436" s="5">
+        <v>43313</v>
+      </c>
       <c r="I1436" s="3"/>
       <c r="J1436" s="3"/>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1437" s="3"/>
-      <c r="B1437" s="29"/>
-      <c r="C1437" s="3"/>
-      <c r="D1437" s="3"/>
-      <c r="E1437" s="3"/>
-      <c r="F1437" s="3"/>
-      <c r="G1437" s="3"/>
-      <c r="H1437" s="5"/>
-      <c r="I1437" s="3"/>
+      <c r="A1437" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1437" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1437" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1437" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1437" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1437" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1437" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1437" s="5">
+        <v>43314</v>
+      </c>
+      <c r="I1437" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1437" s="3"/>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1438" s="3"/>
-      <c r="B1438" s="29"/>
-      <c r="C1438" s="3"/>
-      <c r="D1438" s="3"/>
-      <c r="E1438" s="3"/>
-      <c r="F1438" s="3"/>
-      <c r="G1438" s="3"/>
-      <c r="H1438" s="5"/>
+      <c r="A1438" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1438" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1438" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1438" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1438" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1438" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="G1438" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1438" s="5">
+        <v>43314</v>
+      </c>
       <c r="I1438" s="3"/>
       <c r="J1438" s="3"/>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1439" s="3"/>
-      <c r="B1439" s="29"/>
-      <c r="C1439" s="3"/>
-      <c r="D1439" s="3"/>
-      <c r="E1439" s="3"/>
+      <c r="A1439" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1439" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1439" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1439" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1439" s="3">
+        <v>6</v>
+      </c>
       <c r="F1439" s="3"/>
-      <c r="G1439" s="3"/>
-      <c r="H1439" s="5"/>
+      <c r="G1439" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1439" s="5">
+        <v>43314</v>
+      </c>
       <c r="I1439" s="3"/>
       <c r="J1439" s="3"/>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1440" s="3"/>
-      <c r="B1440" s="29"/>
-      <c r="C1440" s="3"/>
-      <c r="D1440" s="3"/>
-      <c r="E1440" s="3"/>
-      <c r="F1440" s="3"/>
-      <c r="G1440" s="3"/>
-      <c r="H1440" s="5"/>
-      <c r="I1440" s="3"/>
+      <c r="A1440" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1440" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1440" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1440" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1440" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1440" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G1440" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1440" s="5">
+        <v>43314</v>
+      </c>
+      <c r="I1440" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1440" s="3"/>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1441" s="3"/>
-      <c r="B1441" s="29"/>
-      <c r="C1441" s="3"/>
-      <c r="D1441" s="3"/>
-      <c r="E1441" s="3"/>
-      <c r="F1441" s="3"/>
-      <c r="G1441" s="3"/>
-      <c r="H1441" s="5"/>
+      <c r="A1441" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1441" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1441" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1441" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1441" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G1441" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1441" s="5">
+        <v>43314</v>
+      </c>
       <c r="I1441" s="3"/>
       <c r="J1441" s="3"/>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1442" s="3"/>
-      <c r="B1442" s="29"/>
-      <c r="C1442" s="3"/>
-      <c r="D1442" s="3"/>
-      <c r="E1442" s="3"/>
+      <c r="A1442" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1442" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1442" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1442" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1442" s="3">
+        <v>1</v>
+      </c>
       <c r="F1442" s="3"/>
-      <c r="G1442" s="3"/>
-      <c r="H1442" s="5"/>
-      <c r="I1442" s="3"/>
-      <c r="J1442" s="3"/>
+      <c r="G1442" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1442" s="5">
+        <v>43314</v>
+      </c>
+      <c r="I1442" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1442" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1443" s="3"/>
-      <c r="B1443" s="29"/>
-      <c r="C1443" s="3"/>
-      <c r="D1443" s="3"/>
-      <c r="E1443" s="3"/>
+      <c r="A1443" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1443" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1443" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1443" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1443" s="3">
+        <v>1</v>
+      </c>
       <c r="F1443" s="3"/>
-      <c r="G1443" s="3"/>
-      <c r="H1443" s="5"/>
+      <c r="G1443" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1443" s="5">
+        <v>43315</v>
+      </c>
       <c r="I1443" s="3"/>
       <c r="J1443" s="3"/>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1444" s="3"/>
-      <c r="B1444" s="29"/>
-      <c r="C1444" s="3"/>
-      <c r="D1444" s="3"/>
-      <c r="E1444" s="3"/>
-      <c r="F1444" s="3"/>
-      <c r="G1444" s="3"/>
-      <c r="H1444" s="5"/>
+      <c r="A1444" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1444" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1444" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1444" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1444" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1444" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1444" s="5">
+        <v>43315</v>
+      </c>
       <c r="I1444" s="3"/>
       <c r="J1444" s="3"/>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1445" s="3"/>
-      <c r="B1445" s="29"/>
-      <c r="C1445" s="3"/>
-      <c r="D1445" s="3"/>
-      <c r="E1445" s="3"/>
-      <c r="F1445" s="3"/>
-      <c r="G1445" s="3"/>
-      <c r="H1445" s="5"/>
+      <c r="A1445" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1445" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1445" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1445" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1445" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1445" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1445" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1445" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1445" s="3"/>
-      <c r="J1445" s="3"/>
+      <c r="J1445" s="3" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1446" s="3"/>
-      <c r="B1446" s="29"/>
-      <c r="C1446" s="3"/>
-      <c r="D1446" s="3"/>
-      <c r="E1446" s="3"/>
-      <c r="F1446" s="3"/>
-      <c r="G1446" s="3"/>
-      <c r="H1446" s="5"/>
+      <c r="A1446" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1446" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1446" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1446" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1446" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1446" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1446" s="5">
+        <v>43319</v>
+      </c>
       <c r="I1446" s="3"/>
-      <c r="J1446" s="3"/>
+      <c r="J1446" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1447" s="3"/>
-      <c r="B1447" s="29"/>
-      <c r="C1447" s="3"/>
-      <c r="D1447" s="3"/>
-      <c r="E1447" s="3"/>
-      <c r="F1447" s="3"/>
-      <c r="G1447" s="3"/>
-      <c r="H1447" s="5"/>
+      <c r="A1447" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1447" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1447" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1447" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1447" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1447" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G1447" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1447" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1447" s="3"/>
-      <c r="J1447" s="3"/>
+      <c r="J1447" s="3" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1448" s="3"/>
-      <c r="B1448" s="29"/>
-      <c r="C1448" s="3"/>
-      <c r="D1448" s="3"/>
-      <c r="E1448" s="3"/>
-      <c r="F1448" s="3"/>
-      <c r="G1448" s="3"/>
-      <c r="H1448" s="5"/>
+      <c r="A1448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1448" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1448" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1448" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1448" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1448" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G1448" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1448" s="5">
+        <v>43319</v>
+      </c>
       <c r="I1448" s="3"/>
-      <c r="J1448" s="3"/>
+      <c r="J1448" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1449" s="3"/>
-      <c r="B1449" s="29"/>
-      <c r="C1449" s="3"/>
-      <c r="D1449" s="3"/>
-      <c r="E1449" s="3"/>
-      <c r="F1449" s="3"/>
-      <c r="G1449" s="3"/>
-      <c r="H1449" s="5"/>
+      <c r="A1449" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1449" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1449" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1449" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1449" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1449" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="G1449" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1449" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1449" s="3"/>
       <c r="J1449" s="3"/>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1450" s="3"/>
-      <c r="B1450" s="29"/>
-      <c r="C1450" s="3"/>
-      <c r="D1450" s="3"/>
-      <c r="E1450" s="3"/>
+      <c r="A1450" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1450" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1450" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1450" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1450" s="3">
+        <v>3</v>
+      </c>
       <c r="F1450" s="3"/>
-      <c r="G1450" s="3"/>
-      <c r="H1450" s="5"/>
+      <c r="G1450" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1450" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1450" s="3"/>
       <c r="J1450" s="3"/>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1451" s="3"/>
-      <c r="B1451" s="29"/>
-      <c r="C1451" s="3"/>
-      <c r="D1451" s="3"/>
-      <c r="E1451" s="3"/>
+      <c r="A1451" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1451" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1451" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1451" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1451" s="3">
+        <v>3</v>
+      </c>
       <c r="F1451" s="3"/>
-      <c r="G1451" s="3"/>
-      <c r="H1451" s="5"/>
+      <c r="G1451" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1451" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1451" s="3"/>
-      <c r="J1451" s="3"/>
+      <c r="J1451" s="3" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1452" s="3"/>
-      <c r="B1452" s="29"/>
-      <c r="C1452" s="3"/>
-      <c r="D1452" s="3"/>
-      <c r="E1452" s="3"/>
-      <c r="F1452" s="3"/>
-      <c r="G1452" s="3"/>
-      <c r="H1452" s="5"/>
+      <c r="A1452" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1452" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1452" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1452" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1452" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1452" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G1452" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1452" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1452" s="3"/>
       <c r="J1452" s="3"/>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1453" s="3"/>
-      <c r="B1453" s="29"/>
-      <c r="C1453" s="3"/>
-      <c r="D1453" s="3"/>
-      <c r="E1453" s="3"/>
-      <c r="F1453" s="3"/>
-      <c r="G1453" s="3"/>
-      <c r="H1453" s="5"/>
+      <c r="A1453" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1453" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1453" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1453" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1453" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1453" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1453" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1453" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1453" s="3"/>
       <c r="J1453" s="3"/>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1454" s="3"/>
-      <c r="B1454" s="29"/>
-      <c r="C1454" s="3"/>
-      <c r="D1454" s="3"/>
-      <c r="E1454" s="3"/>
-      <c r="F1454" s="3"/>
-      <c r="G1454" s="3"/>
-      <c r="H1454" s="5"/>
+      <c r="A1454" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1454" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1454" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1454" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1454" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="G1454" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1454" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1454" s="3"/>
-      <c r="J1454" s="3"/>
+      <c r="J1454" s="3" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1455" s="3"/>
-      <c r="B1455" s="29"/>
-      <c r="C1455" s="3"/>
-      <c r="D1455" s="3"/>
-      <c r="E1455" s="3"/>
+      <c r="A1455" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1455" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1455" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1455" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1455" s="3">
+        <v>9</v>
+      </c>
       <c r="F1455" s="3"/>
-      <c r="G1455" s="3"/>
-      <c r="H1455" s="5"/>
+      <c r="G1455" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1455" s="5">
+        <v>43318</v>
+      </c>
       <c r="I1455" s="3"/>
-      <c r="J1455" s="3"/>
+      <c r="J1455" s="3" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1456" s="3"/>
-      <c r="B1456" s="29"/>
-      <c r="C1456" s="3"/>
-      <c r="D1456" s="3"/>
-      <c r="E1456" s="3"/>
-      <c r="F1456" s="3"/>
-      <c r="G1456" s="3"/>
-      <c r="H1456" s="5"/>
+      <c r="A1456" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1456" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1456" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1456" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1456" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1456" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G1456" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1456" s="5">
+        <v>43319</v>
+      </c>
       <c r="I1456" s="3"/>
-      <c r="J1456" s="3"/>
+      <c r="J1456" s="3" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1457" s="3"/>
-      <c r="B1457" s="29"/>
-      <c r="C1457" s="3"/>
-      <c r="D1457" s="3"/>
-      <c r="E1457" s="3"/>
-      <c r="F1457" s="3"/>
-      <c r="G1457" s="3"/>
-      <c r="H1457" s="5"/>
+      <c r="A1457" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1457" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1457" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1457" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1457" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1457" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1457" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1457" s="5">
+        <v>43320</v>
+      </c>
       <c r="I1457" s="3"/>
       <c r="J1457" s="3"/>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1458" s="3"/>
-      <c r="B1458" s="29"/>
-      <c r="C1458" s="3"/>
-      <c r="D1458" s="3"/>
-      <c r="E1458" s="3"/>
-      <c r="F1458" s="3"/>
-      <c r="G1458" s="3"/>
-      <c r="H1458" s="5"/>
+      <c r="A1458" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1458" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1458" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1458" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1458" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1458" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="G1458" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1458" s="5">
+        <v>43320</v>
+      </c>
       <c r="I1458" s="3"/>
       <c r="J1458" s="3"/>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1459" s="3"/>
-      <c r="B1459" s="29"/>
-      <c r="C1459" s="3"/>
-      <c r="D1459" s="3"/>
-      <c r="E1459" s="3"/>
+      <c r="A1459" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1459" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1459" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1459" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1459" s="3">
+        <v>2</v>
+      </c>
       <c r="F1459" s="3"/>
-      <c r="G1459" s="3"/>
-      <c r="H1459" s="5"/>
-      <c r="I1459" s="3"/>
+      <c r="G1459" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1459" s="5">
+        <v>43321</v>
+      </c>
+      <c r="I1459" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1459" s="3"/>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1460" s="3"/>
-      <c r="B1460" s="29"/>
-      <c r="C1460" s="3"/>
-      <c r="D1460" s="3"/>
-      <c r="E1460" s="3"/>
+      <c r="A1460" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1460" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1460" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1460" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1460" s="3">
+        <v>2</v>
+      </c>
       <c r="F1460" s="3"/>
-      <c r="G1460" s="3"/>
-      <c r="H1460" s="5"/>
-      <c r="I1460" s="3"/>
+      <c r="G1460" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1460" s="5">
+        <v>43321</v>
+      </c>
+      <c r="I1460" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1460" s="3"/>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1461" s="3"/>
-      <c r="B1461" s="29"/>
-      <c r="C1461" s="3"/>
-      <c r="D1461" s="3"/>
-      <c r="E1461" s="3"/>
+      <c r="A1461" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1461" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1461" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1461" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1461" s="3">
+        <v>1</v>
+      </c>
       <c r="F1461" s="3"/>
-      <c r="G1461" s="3"/>
-      <c r="H1461" s="5"/>
+      <c r="G1461" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1461" s="5">
+        <v>43321</v>
+      </c>
       <c r="I1461" s="3"/>
-      <c r="J1461" s="3"/>
+      <c r="J1461" s="3" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1462" s="3"/>
-      <c r="B1462" s="29"/>
-      <c r="C1462" s="3"/>
-      <c r="D1462" s="3"/>
-      <c r="E1462" s="3"/>
-      <c r="F1462" s="3"/>
-      <c r="G1462" s="3"/>
-      <c r="H1462" s="5"/>
+      <c r="A1462" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1462" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1462" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1462" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1462" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1462" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="G1462" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1462" s="5">
+        <v>43321</v>
+      </c>
       <c r="I1462" s="3"/>
       <c r="J1462" s="3"/>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1463" s="3"/>
-      <c r="B1463" s="29"/>
-      <c r="C1463" s="3"/>
-      <c r="D1463" s="3"/>
-      <c r="E1463" s="3"/>
+      <c r="A1463" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1463" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1463" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1463" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1463" s="3">
+        <v>1</v>
+      </c>
       <c r="F1463" s="3"/>
-      <c r="G1463" s="3"/>
-      <c r="H1463" s="5"/>
+      <c r="G1463" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1463" s="5">
+        <v>43321</v>
+      </c>
       <c r="I1463" s="3"/>
-      <c r="J1463" s="3"/>
+      <c r="J1463" s="3" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1464" s="3"/>
-      <c r="B1464" s="29"/>
-      <c r="C1464" s="3"/>
-      <c r="D1464" s="3"/>
-      <c r="E1464" s="3"/>
+      <c r="A1464" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1464" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1464" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1464" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1464" s="3">
+        <v>1</v>
+      </c>
       <c r="F1464" s="3"/>
-      <c r="G1464" s="3"/>
-      <c r="H1464" s="5"/>
+      <c r="G1464" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1464" s="5">
+        <v>43321</v>
+      </c>
       <c r="I1464" s="3"/>
       <c r="J1464" s="3"/>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1465" s="3"/>
-      <c r="B1465" s="29"/>
-      <c r="C1465" s="3"/>
-      <c r="D1465" s="3"/>
-      <c r="E1465" s="3"/>
-      <c r="F1465" s="3"/>
-      <c r="G1465" s="3"/>
-      <c r="H1465" s="5"/>
+      <c r="A1465" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1465" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1465" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1465" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1465" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1465" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="G1465" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1465" s="5">
+        <v>43321</v>
+      </c>
       <c r="I1465" s="3"/>
       <c r="J1465" s="3"/>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1466" s="3"/>
-      <c r="B1466" s="29"/>
-      <c r="C1466" s="3"/>
-      <c r="D1466" s="3"/>
-      <c r="E1466" s="3"/>
-      <c r="F1466" s="3"/>
-      <c r="G1466" s="3"/>
-      <c r="H1466" s="5"/>
+      <c r="A1466" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1466" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1466" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1466" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1466" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1466" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1466" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1466" s="5">
+        <v>43321</v>
+      </c>
       <c r="I1466" s="3"/>
       <c r="J1466" s="3"/>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1467" s="3"/>
-      <c r="B1467" s="29"/>
-      <c r="C1467" s="3"/>
-      <c r="D1467" s="3"/>
-      <c r="E1467" s="3"/>
+      <c r="A1467" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1467" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1467" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1467" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1467" s="3">
+        <v>1</v>
+      </c>
       <c r="F1467" s="3"/>
-      <c r="G1467" s="3"/>
-      <c r="H1467" s="5"/>
+      <c r="G1467" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1467" s="5">
+        <v>43322</v>
+      </c>
       <c r="I1467" s="3"/>
       <c r="J1467" s="3"/>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1468" s="3"/>
-      <c r="B1468" s="29"/>
-      <c r="C1468" s="3"/>
-      <c r="D1468" s="3"/>
-      <c r="E1468" s="3"/>
+      <c r="A1468" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1468" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1468" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1468" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1468" s="3">
+        <v>1</v>
+      </c>
       <c r="F1468" s="3"/>
-      <c r="G1468" s="3"/>
-      <c r="H1468" s="5"/>
+      <c r="G1468" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1468" s="5">
+        <v>43322</v>
+      </c>
       <c r="I1468" s="3"/>
       <c r="J1468" s="3"/>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1469" s="3"/>
-      <c r="B1469" s="29"/>
-      <c r="C1469" s="3"/>
-      <c r="D1469" s="3"/>
-      <c r="E1469" s="3"/>
-      <c r="F1469" s="3"/>
-      <c r="G1469" s="3"/>
-      <c r="H1469" s="5"/>
+      <c r="A1469" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1469" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1469" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1469" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1469" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1469" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1469" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1469" s="5">
+        <v>43322</v>
+      </c>
       <c r="I1469" s="3"/>
       <c r="J1469" s="3"/>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1470" s="3"/>
-      <c r="B1470" s="29"/>
-      <c r="C1470" s="3"/>
-      <c r="D1470" s="3"/>
-      <c r="E1470" s="3"/>
-      <c r="F1470" s="3"/>
-      <c r="G1470" s="3"/>
-      <c r="H1470" s="5"/>
+      <c r="A1470" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1470" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1470" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1470" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1470" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1470" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1470" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1470" s="5">
+        <v>43322</v>
+      </c>
       <c r="I1470" s="3"/>
       <c r="J1470" s="3"/>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1471" s="3"/>
-      <c r="B1471" s="29"/>
-      <c r="C1471" s="3"/>
-      <c r="D1471" s="3"/>
-      <c r="E1471" s="3"/>
-      <c r="F1471" s="3"/>
-      <c r="G1471" s="3"/>
-      <c r="H1471" s="5"/>
+      <c r="A1471" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1471" s="29">
+        <v>1115</v>
+      </c>
+      <c r="C1471" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1471" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1471" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1471" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1471" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1471" s="5">
+        <v>43314</v>
+      </c>
       <c r="I1471" s="3"/>
       <c r="J1471" s="3"/>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1472" s="3"/>
-      <c r="B1472" s="29"/>
-      <c r="C1472" s="3"/>
-      <c r="D1472" s="3"/>
-      <c r="E1472" s="3"/>
-      <c r="F1472" s="3"/>
-      <c r="G1472" s="3"/>
-      <c r="H1472" s="5"/>
+      <c r="A1472" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1472" s="29">
+        <v>1108</v>
+      </c>
+      <c r="C1472" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1472" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1472" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1472" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1472" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1472" s="5">
+        <v>43313</v>
+      </c>
       <c r="I1472" s="3"/>
       <c r="J1472" s="3"/>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1473" s="3"/>
-      <c r="B1473" s="29"/>
-      <c r="C1473" s="3"/>
-      <c r="D1473" s="3"/>
-      <c r="E1473" s="3"/>
-      <c r="F1473" s="3"/>
-      <c r="G1473" s="3"/>
-      <c r="H1473" s="5"/>
+      <c r="A1473" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1473" s="29" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1473" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1473" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1473" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1473" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1473" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1473" s="5">
+        <v>43314</v>
+      </c>
       <c r="I1473" s="3"/>
       <c r="J1473" s="3"/>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1474" s="3"/>
-      <c r="B1474" s="29"/>
-      <c r="C1474" s="3"/>
-      <c r="D1474" s="3"/>
-      <c r="E1474" s="3"/>
-      <c r="F1474" s="3"/>
-      <c r="G1474" s="3"/>
-      <c r="H1474" s="5"/>
+      <c r="A1474" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1474" s="29" t="s">
+        <v>860</v>
+      </c>
+      <c r="C1474" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1474" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1474" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1474" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1474" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1474" s="5">
+        <v>43321</v>
+      </c>
       <c r="I1474" s="3"/>
       <c r="J1474" s="3"/>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1475" s="3"/>
-      <c r="B1475" s="29"/>
-      <c r="C1475" s="3"/>
-      <c r="D1475" s="3"/>
-      <c r="E1475" s="3"/>
-      <c r="F1475" s="3"/>
-      <c r="G1475" s="3"/>
-      <c r="H1475" s="5"/>
-      <c r="I1475" s="3"/>
-      <c r="J1475" s="3"/>
+      <c r="A1475" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1475" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1475" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1475" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1475" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1475" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1475" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1475" s="5">
+        <v>43321</v>
+      </c>
+      <c r="I1475" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1475" s="3" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1476" s="3"/>
-      <c r="B1476" s="29"/>
-      <c r="C1476" s="3"/>
-      <c r="D1476" s="3"/>
-      <c r="E1476" s="3"/>
-      <c r="F1476" s="3"/>
-      <c r="G1476" s="3"/>
-      <c r="H1476" s="5"/>
+      <c r="A1476" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1476" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1476" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1476" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1476" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1476" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1476" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1476" s="5">
+        <v>43322</v>
+      </c>
       <c r="I1476" s="3"/>
       <c r="J1476" s="3"/>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1477" s="3"/>
-      <c r="B1477" s="29"/>
-      <c r="C1477" s="3"/>
-      <c r="D1477" s="3"/>
-      <c r="E1477" s="3"/>
-      <c r="F1477" s="3"/>
-      <c r="G1477" s="3"/>
-      <c r="H1477" s="5"/>
+      <c r="A1477" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1477" s="29" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1477" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1477" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1477" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1477" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1477" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1477" s="5">
+        <v>43325</v>
+      </c>
       <c r="I1477" s="3"/>
       <c r="J1477" s="3"/>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1478" s="3"/>
-      <c r="B1478" s="29"/>
-      <c r="C1478" s="3"/>
-      <c r="D1478" s="3"/>
-      <c r="E1478" s="3"/>
-      <c r="F1478" s="3"/>
-      <c r="G1478" s="3"/>
-      <c r="H1478" s="5"/>
+      <c r="A1478" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1478" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1478" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1478" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1478" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1478" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1478" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1478" s="5">
+        <v>43325</v>
+      </c>
       <c r="I1478" s="3"/>
-      <c r="J1478" s="3"/>
+      <c r="J1478" s="3" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1479" s="3"/>
-      <c r="B1479" s="29"/>
-      <c r="C1479" s="3"/>
-      <c r="D1479" s="3"/>
-      <c r="E1479" s="3"/>
-      <c r="F1479" s="3"/>
-      <c r="G1479" s="3"/>
-      <c r="H1479" s="5"/>
+      <c r="A1479" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1479" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1479" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1479" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1479" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1479" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1479" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1479" s="5">
+        <v>43325</v>
+      </c>
       <c r="I1479" s="3"/>
-      <c r="J1479" s="3"/>
+      <c r="J1479" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1480" s="3"/>
-      <c r="B1480" s="29"/>
-      <c r="C1480" s="3"/>
-      <c r="D1480" s="3"/>
-      <c r="E1480" s="3"/>
-      <c r="F1480" s="3"/>
-      <c r="G1480" s="3"/>
-      <c r="H1480" s="5"/>
+      <c r="A1480" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1480" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1480" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1480" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1480" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1480" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1480" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1480" s="5">
+        <v>43325</v>
+      </c>
       <c r="I1480" s="3"/>
       <c r="J1480" s="3"/>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1481" s="3"/>
-      <c r="B1481" s="29"/>
-      <c r="C1481" s="3"/>
-      <c r="D1481" s="3"/>
-      <c r="E1481" s="3"/>
-      <c r="F1481" s="3"/>
-      <c r="G1481" s="3"/>
-      <c r="H1481" s="5"/>
+      <c r="A1481" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1481" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1481" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1481" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1481" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1481" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1481" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1481" s="5">
+        <v>43329</v>
+      </c>
       <c r="I1481" s="3"/>
-      <c r="J1481" s="3"/>
+      <c r="J1481" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1482" s="3"/>
-      <c r="B1482" s="29"/>
-      <c r="C1482" s="3"/>
-      <c r="D1482" s="3"/>
-      <c r="E1482" s="3"/>
+      <c r="A1482" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1482" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1482" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1482" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1482" s="3">
+        <v>2</v>
+      </c>
       <c r="F1482" s="3"/>
-      <c r="G1482" s="3"/>
-      <c r="H1482" s="5"/>
+      <c r="G1482" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1482" s="5">
+        <v>43325</v>
+      </c>
       <c r="I1482" s="3"/>
-      <c r="J1482" s="3"/>
+      <c r="J1482" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1483" s="3"/>
-      <c r="B1483" s="29"/>
-      <c r="C1483" s="3"/>
-      <c r="D1483" s="3"/>
-      <c r="E1483" s="3"/>
+      <c r="A1483" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1483" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1483" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1483" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1483" s="3">
+        <v>5</v>
+      </c>
       <c r="F1483" s="3"/>
-      <c r="G1483" s="3"/>
-      <c r="H1483" s="5"/>
+      <c r="G1483" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1483" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1483" s="3"/>
       <c r="J1483" s="3"/>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1484" s="3"/>
-      <c r="B1484" s="29"/>
-      <c r="C1484" s="3"/>
-      <c r="D1484" s="3"/>
-      <c r="E1484" s="3"/>
+      <c r="A1484" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1484" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1484" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1484" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1484" s="3">
+        <v>4</v>
+      </c>
       <c r="F1484" s="3"/>
-      <c r="G1484" s="3"/>
-      <c r="H1484" s="5"/>
+      <c r="G1484" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1484" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1484" s="3"/>
       <c r="J1484" s="3"/>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1485" s="3"/>
-      <c r="B1485" s="29"/>
-      <c r="C1485" s="3"/>
-      <c r="D1485" s="3"/>
-      <c r="E1485" s="3"/>
-      <c r="F1485" s="3"/>
-      <c r="G1485" s="3"/>
-      <c r="H1485" s="5"/>
+      <c r="A1485" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1485" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1485" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1485" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1485" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1485" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1485" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1485" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1485" s="3"/>
-      <c r="J1485" s="3"/>
+      <c r="J1485" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1486" s="3"/>
-      <c r="B1486" s="29"/>
-      <c r="C1486" s="3"/>
-      <c r="D1486" s="3"/>
-      <c r="E1486" s="3"/>
-      <c r="F1486" s="3"/>
-      <c r="G1486" s="3"/>
-      <c r="H1486" s="5"/>
+      <c r="A1486" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1486" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1486" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1486" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1486" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1486" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1486" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1486" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1486" s="3"/>
-      <c r="J1486" s="3"/>
+      <c r="J1486" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1487" s="3"/>
-      <c r="B1487" s="29"/>
-      <c r="C1487" s="3"/>
-      <c r="D1487" s="3"/>
-      <c r="E1487" s="3"/>
+      <c r="A1487" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1487" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1487" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1487" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1487" s="3">
+        <v>1</v>
+      </c>
       <c r="F1487" s="3"/>
-      <c r="G1487" s="3"/>
-      <c r="H1487" s="5"/>
+      <c r="G1487" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1487" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1487" s="3"/>
-      <c r="J1487" s="3"/>
+      <c r="J1487" s="3" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1488" s="3"/>
-      <c r="B1488" s="29"/>
-      <c r="C1488" s="3"/>
-      <c r="D1488" s="3"/>
-      <c r="E1488" s="3"/>
-      <c r="F1488" s="3"/>
-      <c r="G1488" s="3"/>
-      <c r="H1488" s="5"/>
+      <c r="A1488" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1488" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1488" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1488" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1488" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1488" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="G1488" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1488" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1488" s="3"/>
       <c r="J1488" s="3"/>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1489" s="3"/>
-      <c r="B1489" s="29"/>
-      <c r="C1489" s="3"/>
-      <c r="D1489" s="3"/>
-      <c r="E1489" s="3"/>
+      <c r="A1489" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1489" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1489" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1489" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1489" s="3">
+        <v>1</v>
+      </c>
       <c r="F1489" s="3"/>
-      <c r="G1489" s="3"/>
-      <c r="H1489" s="5"/>
+      <c r="G1489" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1489" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1489" s="3"/>
-      <c r="J1489" s="3"/>
+      <c r="J1489" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1490" s="3"/>
-      <c r="B1490" s="29"/>
-      <c r="C1490" s="3"/>
-      <c r="D1490" s="3"/>
-      <c r="E1490" s="3"/>
+      <c r="A1490" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1490" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1490" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1490" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1490" s="3">
+        <v>1</v>
+      </c>
       <c r="F1490" s="3"/>
-      <c r="G1490" s="3"/>
-      <c r="H1490" s="5"/>
+      <c r="G1490" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1490" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1490" s="3"/>
-      <c r="J1490" s="3"/>
+      <c r="J1490" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1491" s="3"/>
-      <c r="B1491" s="29"/>
-      <c r="C1491" s="3"/>
-      <c r="D1491" s="3"/>
-      <c r="E1491" s="3"/>
-      <c r="F1491" s="3"/>
-      <c r="G1491" s="3"/>
-      <c r="H1491" s="5"/>
+      <c r="A1491" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1491" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1491" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1491" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1491" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1491" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1491" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1491" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1491" s="3"/>
       <c r="J1491" s="3"/>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1492" s="3"/>
-      <c r="B1492" s="29"/>
-      <c r="C1492" s="3"/>
-      <c r="D1492" s="3"/>
-      <c r="E1492" s="3"/>
-      <c r="F1492" s="3"/>
-      <c r="G1492" s="3"/>
-      <c r="H1492" s="5"/>
-      <c r="I1492" s="3"/>
-      <c r="J1492" s="3"/>
+      <c r="A1492" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1492" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1492" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1492" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1492" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1492" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1492" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1492" s="5">
+        <v>43327</v>
+      </c>
+      <c r="I1492" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1492" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1493" s="3"/>
-      <c r="B1493" s="29"/>
-      <c r="C1493" s="3"/>
-      <c r="D1493" s="3"/>
-      <c r="E1493" s="3"/>
-      <c r="F1493" s="3"/>
-      <c r="G1493" s="3"/>
-      <c r="H1493" s="5"/>
-      <c r="I1493" s="3"/>
+      <c r="A1493" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1493" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1493" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1493" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1493" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1493" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1493" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1493" s="5">
+        <v>43327</v>
+      </c>
+      <c r="I1493" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1493" s="3"/>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1494" s="3"/>
-      <c r="B1494" s="29"/>
-      <c r="C1494" s="3"/>
-      <c r="D1494" s="3"/>
-      <c r="E1494" s="3"/>
-      <c r="F1494" s="3"/>
-      <c r="G1494" s="3"/>
-      <c r="H1494" s="5"/>
+      <c r="A1494" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1494" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1494" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1494" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1494" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1494" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1494" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1494" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1494" s="3"/>
       <c r="J1494" s="3"/>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1495" s="3"/>
-      <c r="B1495" s="29"/>
-      <c r="C1495" s="3"/>
-      <c r="D1495" s="3"/>
-      <c r="E1495" s="3"/>
+      <c r="A1495" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1495" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1495" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1495" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1495" s="3">
+        <v>1</v>
+      </c>
       <c r="F1495" s="3"/>
-      <c r="G1495" s="3"/>
-      <c r="H1495" s="5"/>
+      <c r="G1495" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1495" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1495" s="3"/>
-      <c r="J1495" s="3"/>
+      <c r="J1495" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1496" s="3"/>
-      <c r="B1496" s="29"/>
-      <c r="C1496" s="3"/>
-      <c r="D1496" s="3"/>
-      <c r="E1496" s="3"/>
-      <c r="F1496" s="3"/>
-      <c r="G1496" s="3"/>
-      <c r="H1496" s="5"/>
+      <c r="A1496" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1496" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1496" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1496" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1496" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1496" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1496" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1496" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1496" s="3"/>
       <c r="J1496" s="3"/>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1497" s="3"/>
-      <c r="B1497" s="29"/>
-      <c r="C1497" s="3"/>
-      <c r="D1497" s="3"/>
-      <c r="E1497" s="3"/>
-      <c r="F1497" s="3"/>
-      <c r="G1497" s="3"/>
-      <c r="H1497" s="5"/>
+      <c r="A1497" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1497" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1497" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1497" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1497" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1497" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="G1497" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1497" s="5">
+        <v>43327</v>
+      </c>
       <c r="I1497" s="3"/>
       <c r="J1497" s="3"/>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1498" s="3"/>
-      <c r="B1498" s="29"/>
-      <c r="C1498" s="3"/>
-      <c r="D1498" s="3"/>
-      <c r="E1498" s="3"/>
+      <c r="A1498" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1498" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1498" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1498" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1498" s="3">
+        <v>1</v>
+      </c>
       <c r="F1498" s="3"/>
-      <c r="G1498" s="3"/>
-      <c r="H1498" s="5"/>
+      <c r="G1498" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1498" s="5">
+        <v>43329</v>
+      </c>
       <c r="I1498" s="3"/>
       <c r="J1498" s="3"/>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1499" s="3"/>
-      <c r="B1499" s="29"/>
-      <c r="C1499" s="3"/>
-      <c r="D1499" s="3"/>
-      <c r="E1499" s="3"/>
-      <c r="F1499" s="3"/>
-      <c r="G1499" s="3"/>
-      <c r="H1499" s="5"/>
+      <c r="A1499" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1499" s="29" t="s">
+        <v>872</v>
+      </c>
+      <c r="C1499" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1499" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1499" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1499" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1499" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1499" s="5">
+        <v>43328</v>
+      </c>
       <c r="I1499" s="3"/>
       <c r="J1499" s="3"/>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1500" s="3"/>
-      <c r="B1500" s="29"/>
-      <c r="C1500" s="3"/>
-      <c r="D1500" s="3"/>
-      <c r="E1500" s="3"/>
-      <c r="F1500" s="3"/>
-      <c r="G1500" s="3"/>
-      <c r="H1500" s="5"/>
+      <c r="A1500" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1500" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="C1500" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1500" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1500" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1500" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1500" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1500" s="5">
+        <v>43328</v>
+      </c>
       <c r="I1500" s="3"/>
       <c r="J1500" s="3"/>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1501" s="3"/>
-      <c r="B1501" s="29"/>
-      <c r="C1501" s="3"/>
-      <c r="D1501" s="3"/>
-      <c r="E1501" s="3"/>
-      <c r="F1501" s="3"/>
-      <c r="G1501" s="3"/>
-      <c r="H1501" s="5"/>
+      <c r="A1501" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1501" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1501" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1501" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1501" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1501" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1501" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1501" s="5">
+        <v>43328</v>
+      </c>
       <c r="I1501" s="3"/>
       <c r="J1501" s="3"/>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1502" s="3"/>
-      <c r="B1502" s="29"/>
-      <c r="C1502" s="3"/>
-      <c r="D1502" s="3"/>
-      <c r="E1502" s="3"/>
-      <c r="F1502" s="3"/>
-      <c r="G1502" s="3"/>
-      <c r="H1502" s="5"/>
-      <c r="I1502" s="3"/>
+      <c r="A1502" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1502" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1502" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1502" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1502" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1502" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1502" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1502" s="5">
+        <v>43329</v>
+      </c>
+      <c r="I1502" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1502" s="3"/>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1503" s="3"/>
-      <c r="B1503" s="29"/>
-      <c r="C1503" s="3"/>
-      <c r="D1503" s="3"/>
-      <c r="E1503" s="3"/>
-      <c r="F1503" s="3"/>
-      <c r="G1503" s="3"/>
-      <c r="H1503" s="5"/>
-      <c r="I1503" s="3"/>
+      <c r="A1503" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1503" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1503" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1503" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1503" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1503" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1503" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1503" s="5">
+        <v>43329</v>
+      </c>
+      <c r="I1503" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1503" s="3"/>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1504" s="3"/>
-      <c r="B1504" s="29"/>
-      <c r="C1504" s="3"/>
-      <c r="D1504" s="3"/>
-      <c r="E1504" s="3"/>
-      <c r="F1504" s="3"/>
-      <c r="G1504" s="3"/>
-      <c r="H1504" s="5"/>
+      <c r="A1504" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1504" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1504" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1504" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1504" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1504" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1504" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1504" s="5">
+        <v>43332</v>
+      </c>
       <c r="I1504" s="3"/>
       <c r="J1504" s="3"/>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1505" s="3"/>
-      <c r="B1505" s="29"/>
-      <c r="C1505" s="3"/>
-      <c r="D1505" s="3"/>
-      <c r="E1505" s="3"/>
-      <c r="F1505" s="3"/>
-      <c r="G1505" s="3"/>
-      <c r="H1505" s="5"/>
+      <c r="A1505" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1505" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1505" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1505" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1505" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1505" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1505" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1505" s="5">
+        <v>43332</v>
+      </c>
       <c r="I1505" s="3"/>
       <c r="J1505" s="3"/>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1506" s="3"/>
-      <c r="B1506" s="29"/>
-      <c r="C1506" s="3"/>
-      <c r="D1506" s="3"/>
-      <c r="E1506" s="3"/>
+      <c r="A1506" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1506" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1506" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1506" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1506" s="3">
+        <v>1</v>
+      </c>
       <c r="F1506" s="3"/>
-      <c r="G1506" s="3"/>
-      <c r="H1506" s="5"/>
+      <c r="G1506" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1506" s="5">
+        <v>43334</v>
+      </c>
       <c r="I1506" s="3"/>
       <c r="J1506" s="3"/>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1507" s="3"/>
-      <c r="B1507" s="29"/>
-      <c r="C1507" s="3"/>
-      <c r="D1507" s="3"/>
-      <c r="E1507" s="3"/>
+      <c r="A1507" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1507" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1507" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1507" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1507" s="3">
+        <v>1</v>
+      </c>
       <c r="F1507" s="3"/>
-      <c r="G1507" s="3"/>
-      <c r="H1507" s="5"/>
+      <c r="G1507" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1507" s="5">
+        <v>43334</v>
+      </c>
       <c r="I1507" s="3"/>
       <c r="J1507" s="3"/>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1508" s="3"/>
-      <c r="B1508" s="29"/>
-      <c r="C1508" s="3"/>
-      <c r="D1508" s="3"/>
-      <c r="E1508" s="3"/>
-      <c r="F1508" s="3"/>
-      <c r="G1508" s="3"/>
-      <c r="H1508" s="5"/>
+      <c r="A1508" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1508" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1508" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1508" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1508" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1508" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="G1508" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1508" s="5">
+        <v>43339</v>
+      </c>
       <c r="I1508" s="3"/>
       <c r="J1508" s="3"/>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1509" s="3"/>
-      <c r="B1509" s="29"/>
-      <c r="C1509" s="3"/>
-      <c r="D1509" s="3"/>
-      <c r="E1509" s="3"/>
-      <c r="F1509" s="3"/>
-      <c r="G1509" s="3"/>
-      <c r="H1509" s="5"/>
+      <c r="A1509" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1509" s="29" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1509" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1509" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1509" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1509" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="G1509" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1509" s="5">
+        <v>43339</v>
+      </c>
       <c r="I1509" s="3"/>
-      <c r="J1509" s="3"/>
+      <c r="J1509" s="3">
+        <v>303.09199999999998</v>
+      </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1510" s="3"/>
-      <c r="B1510" s="29"/>
-      <c r="C1510" s="3"/>
-      <c r="D1510" s="3"/>
-      <c r="E1510" s="3"/>
+      <c r="A1510" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1510" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1510" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1510" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1510" s="3">
+        <v>1</v>
+      </c>
       <c r="F1510" s="3"/>
-      <c r="G1510" s="3"/>
-      <c r="H1510" s="5"/>
-      <c r="I1510" s="3"/>
+      <c r="G1510" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1510" s="5">
+        <v>43340</v>
+      </c>
+      <c r="I1510" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1510" s="3"/>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1511" s="3"/>
-      <c r="B1511" s="29"/>
-      <c r="C1511" s="3"/>
-      <c r="D1511" s="3"/>
-      <c r="E1511" s="3"/>
+      <c r="A1511" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1511" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1511" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1511" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1511" s="3">
+        <v>1</v>
+      </c>
       <c r="F1511" s="3"/>
-      <c r="G1511" s="3"/>
-      <c r="H1511" s="5"/>
+      <c r="G1511" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1511" s="5">
+        <v>43341</v>
+      </c>
       <c r="I1511" s="3"/>
       <c r="J1511" s="3"/>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1512" s="3"/>
-      <c r="B1512" s="29"/>
-      <c r="C1512" s="3"/>
-      <c r="D1512" s="3"/>
-      <c r="E1512" s="3"/>
-      <c r="F1512" s="3"/>
-      <c r="G1512" s="3"/>
-      <c r="H1512" s="5"/>
-      <c r="I1512" s="3"/>
+      <c r="A1512" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1512" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1512" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1512" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1512" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1512" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="G1512" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1512" s="5">
+        <v>43340</v>
+      </c>
+      <c r="I1512" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1512" s="3"/>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1513" s="3"/>
-      <c r="B1513" s="29"/>
-      <c r="C1513" s="3"/>
-      <c r="D1513" s="3"/>
-      <c r="E1513" s="3"/>
-      <c r="F1513" s="3"/>
-      <c r="G1513" s="3"/>
-      <c r="H1513" s="5"/>
+      <c r="A1513" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1513" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1513" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1513" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1513" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1513" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="G1513" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1513" s="5">
+        <v>43340</v>
+      </c>
       <c r="I1513" s="3"/>
       <c r="J1513" s="3"/>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1514" s="3"/>
-      <c r="B1514" s="29"/>
-      <c r="C1514" s="3"/>
-      <c r="D1514" s="3"/>
-      <c r="E1514" s="3"/>
-      <c r="F1514" s="3"/>
-      <c r="G1514" s="3"/>
-      <c r="H1514" s="5"/>
-      <c r="I1514" s="3"/>
+      <c r="A1514" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1514" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1514" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1514" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1514" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1514" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1514" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1514" s="5">
+        <v>43341</v>
+      </c>
+      <c r="I1514" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1514" s="3"/>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1515" s="3"/>
-      <c r="B1515" s="29"/>
-      <c r="C1515" s="3"/>
-      <c r="D1515" s="3"/>
-      <c r="E1515" s="3"/>
-      <c r="F1515" s="3"/>
-      <c r="G1515" s="3"/>
-      <c r="H1515" s="5"/>
+      <c r="A1515" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1515" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1515" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1515" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1515" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1515" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1515" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1515" s="5">
+        <v>43341</v>
+      </c>
       <c r="I1515" s="3"/>
       <c r="J1515" s="3"/>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1516" s="3"/>
-      <c r="B1516" s="29"/>
-      <c r="C1516" s="3"/>
-      <c r="D1516" s="3"/>
-      <c r="E1516" s="3"/>
-      <c r="F1516" s="3"/>
-      <c r="G1516" s="3"/>
-      <c r="H1516" s="5"/>
+      <c r="A1516" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1516" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1516" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1516" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1516" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1516" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="G1516" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1516" s="5">
+        <v>43341</v>
+      </c>
       <c r="I1516" s="3"/>
       <c r="J1516" s="3"/>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1517" s="3"/>
-      <c r="B1517" s="29"/>
-      <c r="C1517" s="3"/>
-      <c r="D1517" s="3"/>
-      <c r="E1517" s="3"/>
-      <c r="F1517" s="3"/>
-      <c r="G1517" s="3"/>
-      <c r="H1517" s="5"/>
+      <c r="A1517" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1517" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1517" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1517" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1517" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1517" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1517" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1517" s="5">
+        <v>43341</v>
+      </c>
       <c r="I1517" s="3"/>
       <c r="J1517" s="3"/>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1518" s="3"/>
-      <c r="B1518" s="29"/>
-      <c r="C1518" s="3"/>
-      <c r="D1518" s="3"/>
-      <c r="E1518" s="3"/>
-      <c r="F1518" s="3"/>
-      <c r="G1518" s="3"/>
-      <c r="H1518" s="5"/>
+      <c r="A1518" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1518" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1518" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1518" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1518" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1518" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="G1518" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1518" s="5">
+        <v>43341</v>
+      </c>
       <c r="I1518" s="3"/>
       <c r="J1518" s="3"/>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1519" s="3"/>
-      <c r="B1519" s="29"/>
-      <c r="C1519" s="3"/>
-      <c r="D1519" s="3"/>
-      <c r="E1519" s="3"/>
-      <c r="F1519" s="3"/>
-      <c r="G1519" s="3"/>
-      <c r="H1519" s="5"/>
+      <c r="A1519" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1519" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1519" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1519" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1519" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1519" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="G1519" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1519" s="5">
+        <v>43341</v>
+      </c>
       <c r="I1519" s="3"/>
       <c r="J1519" s="3"/>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1520" s="3"/>
-      <c r="B1520" s="29"/>
-      <c r="C1520" s="3"/>
-      <c r="D1520" s="3"/>
-      <c r="E1520" s="3"/>
-      <c r="F1520" s="3"/>
-      <c r="G1520" s="3"/>
-      <c r="H1520" s="5"/>
+      <c r="A1520" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1520" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1520" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1520" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1520" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1520" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1520" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1520" s="5">
+        <v>43341</v>
+      </c>
       <c r="I1520" s="3"/>
       <c r="J1520" s="3"/>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1521" s="3"/>
-      <c r="B1521" s="29"/>
-      <c r="C1521" s="3"/>
-      <c r="D1521" s="3"/>
-      <c r="E1521" s="3"/>
-      <c r="F1521" s="3"/>
-      <c r="G1521" s="3"/>
-      <c r="H1521" s="5"/>
-      <c r="I1521" s="3"/>
+      <c r="A1521" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1521" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1521" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1521" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1521" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1521" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="G1521" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1521" s="5">
+        <v>43342</v>
+      </c>
+      <c r="I1521" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1521" s="3"/>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1522" s="3"/>
-      <c r="B1522" s="29"/>
-      <c r="C1522" s="3"/>
-      <c r="D1522" s="3"/>
-      <c r="E1522" s="3"/>
-      <c r="F1522" s="3"/>
-      <c r="G1522" s="3"/>
-      <c r="H1522" s="5"/>
+      <c r="A1522" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1522" s="29" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1522" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1522" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1522" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1522" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="G1522" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1522" s="5">
+        <v>43342</v>
+      </c>
       <c r="I1522" s="3"/>
       <c r="J1522" s="3"/>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1523" s="3"/>
-      <c r="B1523" s="29"/>
-      <c r="C1523" s="3"/>
-      <c r="D1523" s="3"/>
-      <c r="E1523" s="3"/>
-      <c r="F1523" s="3"/>
-      <c r="G1523" s="3"/>
-      <c r="H1523" s="5"/>
-      <c r="I1523" s="3"/>
+      <c r="A1523" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1523" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1523" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1523" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1523" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1523" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1523" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1523" s="5">
+        <v>43342</v>
+      </c>
+      <c r="I1523" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1523" s="3"/>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1524" s="3"/>
-      <c r="B1524" s="29"/>
-      <c r="C1524" s="3"/>
-      <c r="D1524" s="3"/>
-      <c r="E1524" s="3"/>
-      <c r="F1524" s="3"/>
-      <c r="G1524" s="3"/>
-      <c r="H1524" s="5"/>
+      <c r="A1524" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1524" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1524" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1524" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1524" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1524" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1524" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1524" s="5">
+        <v>43343</v>
+      </c>
       <c r="I1524" s="3"/>
       <c r="J1524" s="3"/>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1525" s="3"/>
-      <c r="B1525" s="29"/>
-      <c r="C1525" s="3"/>
-      <c r="D1525" s="3"/>
-      <c r="E1525" s="3"/>
+      <c r="A1525" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1525" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1525" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1525" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1525" s="3">
+        <v>1</v>
+      </c>
       <c r="F1525" s="3"/>
-      <c r="G1525" s="3"/>
-      <c r="H1525" s="5"/>
-      <c r="I1525" s="3"/>
+      <c r="G1525" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1525" s="5">
+        <v>43343</v>
+      </c>
+      <c r="I1525" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1525" s="3"/>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1526" s="3"/>
-      <c r="B1526" s="29"/>
-      <c r="C1526" s="3"/>
-      <c r="D1526" s="3"/>
-      <c r="E1526" s="3"/>
+      <c r="A1526" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1526" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1526" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1526" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1526" s="3">
+        <v>1</v>
+      </c>
       <c r="F1526" s="3"/>
-      <c r="G1526" s="3"/>
-      <c r="H1526" s="5"/>
+      <c r="G1526" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1526" s="5">
+        <v>43343</v>
+      </c>
       <c r="I1526" s="3"/>
       <c r="J1526" s="3"/>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1527" s="3"/>
-      <c r="B1527" s="29"/>
-      <c r="C1527" s="3"/>
-      <c r="D1527" s="3"/>
-      <c r="E1527" s="3"/>
-      <c r="F1527" s="3"/>
-      <c r="G1527" s="3"/>
-      <c r="H1527" s="5"/>
-      <c r="I1527" s="3"/>
+      <c r="A1527" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1527" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1527" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1527" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1527" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1527" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1527" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1527" s="5">
+        <v>43332</v>
+      </c>
+      <c r="I1527" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1527" s="3"/>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1528" s="3"/>
-      <c r="B1528" s="29"/>
-      <c r="C1528" s="3"/>
-      <c r="D1528" s="3"/>
-      <c r="E1528" s="3"/>
-      <c r="F1528" s="3"/>
-      <c r="G1528" s="3"/>
-      <c r="H1528" s="5"/>
+      <c r="A1528" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1528" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1528" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1528" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1528" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1528" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1528" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1528" s="5">
+        <v>43334</v>
+      </c>
       <c r="I1528" s="3"/>
       <c r="J1528" s="3"/>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1529" s="3"/>
-      <c r="B1529" s="29"/>
-      <c r="C1529" s="3"/>
-      <c r="D1529" s="3"/>
-      <c r="E1529" s="3"/>
-      <c r="F1529" s="3"/>
-      <c r="G1529" s="3"/>
-      <c r="H1529" s="5"/>
+      <c r="A1529" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1529" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1529" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1529" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1529" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1529" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1529" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1529" s="5">
+        <v>43334</v>
+      </c>
       <c r="I1529" s="3"/>
       <c r="J1529" s="3"/>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1530" s="3"/>
-      <c r="B1530" s="29"/>
-      <c r="C1530" s="3"/>
-      <c r="D1530" s="3"/>
-      <c r="E1530" s="3"/>
-      <c r="F1530" s="3"/>
-      <c r="G1530" s="3"/>
-      <c r="H1530" s="5"/>
-      <c r="I1530" s="3"/>
-      <c r="J1530" s="3"/>
+      <c r="A1530" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1530" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1530" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1530" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1530" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1530" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1530" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1530" s="5">
+        <v>43334</v>
+      </c>
+      <c r="I1530" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1530" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1531" s="3"/>
-      <c r="B1531" s="29"/>
-      <c r="C1531" s="3"/>
-      <c r="D1531" s="3"/>
-      <c r="E1531" s="3"/>
-      <c r="F1531" s="3"/>
-      <c r="G1531" s="3"/>
-      <c r="H1531" s="5"/>
-      <c r="I1531" s="3"/>
+      <c r="A1531" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1531" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1531" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1531" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1531" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1531" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1531" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1531" s="5">
+        <v>43334</v>
+      </c>
+      <c r="I1531" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1531" s="3"/>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1532" s="3"/>
-      <c r="B1532" s="29"/>
-      <c r="C1532" s="3"/>
-      <c r="D1532" s="3"/>
-      <c r="E1532" s="3"/>
-      <c r="F1532" s="3"/>
-      <c r="G1532" s="3"/>
-      <c r="H1532" s="5"/>
+      <c r="A1532" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1532" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1532" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1532" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1532" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1532" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1532" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1532" s="5">
+        <v>43334</v>
+      </c>
       <c r="I1532" s="3"/>
       <c r="J1532" s="3"/>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1533" s="3"/>
-      <c r="B1533" s="29"/>
-      <c r="C1533" s="3"/>
-      <c r="D1533" s="3"/>
-      <c r="E1533" s="3"/>
-      <c r="F1533" s="3"/>
-      <c r="G1533" s="3"/>
-      <c r="H1533" s="5"/>
+      <c r="A1533" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1533" s="29">
+        <v>936</v>
+      </c>
+      <c r="C1533" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1533" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1533" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1533" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1533" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1533" s="5">
+        <v>43334</v>
+      </c>
       <c r="I1533" s="3"/>
       <c r="J1533" s="3"/>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1534" s="3"/>
-      <c r="B1534" s="29"/>
-      <c r="C1534" s="3"/>
-      <c r="D1534" s="3"/>
-      <c r="E1534" s="3"/>
-      <c r="F1534" s="3"/>
-      <c r="G1534" s="3"/>
-      <c r="H1534" s="5"/>
+      <c r="A1534" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1534" s="29">
+        <v>655</v>
+      </c>
+      <c r="C1534" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1534" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1534" s="3">
+        <v>29</v>
+      </c>
+      <c r="F1534" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1534" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1534" s="5">
+        <v>43336</v>
+      </c>
       <c r="I1534" s="3"/>
       <c r="J1534" s="3"/>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1535" s="3"/>
-      <c r="B1535" s="29"/>
-      <c r="C1535" s="3"/>
-      <c r="D1535" s="3"/>
-      <c r="E1535" s="3"/>
-      <c r="F1535" s="3"/>
-      <c r="G1535" s="3"/>
-      <c r="H1535" s="5"/>
+      <c r="A1535" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1535" s="29">
+        <v>655</v>
+      </c>
+      <c r="C1535" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1535" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1535" s="3">
+        <v>29</v>
+      </c>
+      <c r="F1535" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1535" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1535" s="5">
+        <v>43342</v>
+      </c>
       <c r="I1535" s="3"/>
       <c r="J1535" s="3"/>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1536" s="3"/>
-      <c r="B1536" s="29"/>
-      <c r="C1536" s="3"/>
-      <c r="D1536" s="3"/>
-      <c r="E1536" s="3"/>
-      <c r="F1536" s="3"/>
-      <c r="G1536" s="3"/>
-      <c r="H1536" s="5"/>
-      <c r="I1536" s="3"/>
+      <c r="A1536" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1536" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1536" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1536" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1536" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1536" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1536" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1536" s="5">
+        <v>43342</v>
+      </c>
+      <c r="I1536" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1536" s="3"/>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1537" s="3"/>
-      <c r="B1537" s="29"/>
-      <c r="C1537" s="3"/>
-      <c r="D1537" s="3"/>
-      <c r="E1537" s="3"/>
-      <c r="F1537" s="3"/>
-      <c r="G1537" s="3"/>
-      <c r="H1537" s="5"/>
-      <c r="I1537" s="3"/>
+      <c r="A1537" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1537" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1537" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1537" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1537" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1537" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1537" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1537" s="5">
+        <v>43343</v>
+      </c>
+      <c r="I1537" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1537" s="3"/>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1538" s="3"/>
-      <c r="B1538" s="29"/>
-      <c r="C1538" s="3"/>
-      <c r="D1538" s="3"/>
-      <c r="E1538" s="3"/>
-      <c r="F1538" s="3"/>
-      <c r="G1538" s="3"/>
-      <c r="H1538" s="5"/>
-      <c r="I1538" s="3"/>
+      <c r="A1538" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1538" s="29">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1538" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1538" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1538" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1538" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1538" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1538" s="5">
+        <v>43343</v>
+      </c>
+      <c r="I1538" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J1538" s="3"/>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1539" s="3"/>
-      <c r="B1539" s="29"/>
-      <c r="C1539" s="3"/>
-      <c r="D1539" s="3"/>
-      <c r="E1539" s="3"/>
-      <c r="F1539" s="3"/>
-      <c r="G1539" s="3"/>
-      <c r="H1539" s="5"/>
+      <c r="A1539" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1539" s="29" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1539" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1539" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1539" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1539" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1539" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1539" s="5">
+        <v>43347</v>
+      </c>
       <c r="I1539" s="3"/>
       <c r="J1539" s="3"/>
     </row>

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\D09HD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,10 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Application!$A$1:$A$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Application!$A$1:$A$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FPA!$A$1:$J$1385</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9947" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11387" uniqueCount="1025">
   <si>
     <t>Project ID</t>
   </si>
@@ -2936,6 +2937,192 @@
   </si>
   <si>
     <t>Parent 01094.000: through email</t>
+  </si>
+  <si>
+    <t>Clinical Chemistry Excel Spreadsheet for Digital Printing</t>
+  </si>
+  <si>
+    <t>Acceptance Sampling Plan Generator (ASPG)</t>
+  </si>
+  <si>
+    <t>URS/FRS Trace</t>
+  </si>
+  <si>
+    <t>00125.010</t>
+  </si>
+  <si>
+    <t>Failed test results; will be reexecuted</t>
+  </si>
+  <si>
+    <t>01132.000</t>
+  </si>
+  <si>
+    <t>ASPG</t>
+  </si>
+  <si>
+    <t>fedEx Ship Manager</t>
+  </si>
+  <si>
+    <t>Diagnostics Library_v6</t>
+  </si>
+  <si>
+    <t>Test Protocol_05_DFCS_FedEx Domestic Air Labels</t>
+  </si>
+  <si>
+    <t>CHaRM</t>
+  </si>
+  <si>
+    <t>Test Protocol_05_DFCS_FedEx Domestic Air Labels_Results</t>
+  </si>
+  <si>
+    <t>updating protocol error</t>
+  </si>
+  <si>
+    <t>01133.000</t>
+  </si>
+  <si>
+    <t>UAT 01_International_Country Code_Results</t>
+  </si>
+  <si>
+    <t>UAT 02_Domestic_FedexLabels_Results</t>
+  </si>
+  <si>
+    <t>UAT 03_MD_LC08569_Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resubmitted </t>
+  </si>
+  <si>
+    <t>URS to FRS Trace-01 Version-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Red-Line document - NPV Space issues </t>
+  </si>
+  <si>
+    <t>Missing Data integrity information</t>
+  </si>
+  <si>
+    <t>18_Oct-2018</t>
+  </si>
+  <si>
+    <t>Unit test results</t>
+  </si>
+  <si>
+    <t>IPDR 08983</t>
+  </si>
+  <si>
+    <t>00303.104</t>
+  </si>
+  <si>
+    <t>No link back to the original SCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Protocol_01_DFCS_FedEx Air Tracking Number</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>R&amp;D Data Management Dashboard</t>
+  </si>
+  <si>
+    <t>TEST PROTOCOL-08 Version-01</t>
+  </si>
+  <si>
+    <t>URS/FRS TO TEST PROTOCOL TRACE-01 Version-06</t>
+  </si>
+  <si>
+    <t>TEST PROTOCOL-01 Version-01</t>
+  </si>
+  <si>
+    <t>To the table in section 1 please add a note with the dates that they are Indian time. This is important to prevent confusion with future reviewer to prevent confusion with having the protocol appearing to be submitted in NPV before protocol was completed.</t>
+  </si>
+  <si>
+    <t>ePAS 16-33266 V17</t>
+  </si>
+  <si>
+    <t>User Acceptance memo</t>
+  </si>
+  <si>
+    <t>ePAS 17-4771 v16</t>
+  </si>
+  <si>
+    <t>Ramana notified second rejection</t>
+  </si>
+  <si>
+    <t>Doc links for add sign items</t>
+  </si>
+  <si>
+    <t>ePAS 18-7778 v2</t>
+  </si>
+  <si>
+    <t>ePAS 18-5706 v3</t>
+  </si>
+  <si>
+    <t>ePAS 18-32569</t>
+  </si>
+  <si>
+    <t>ePAS 16-26283 V20</t>
+  </si>
+  <si>
+    <t>ePAS 18-7782 V2</t>
+  </si>
+  <si>
+    <t>ePAS 18-33111</t>
+  </si>
+  <si>
+    <t>ePAS 17-4072 v19</t>
+  </si>
+  <si>
+    <t>3 fail and retest</t>
+  </si>
+  <si>
+    <t>ePAS 18-5711 V3</t>
+  </si>
+  <si>
+    <t>3 fail</t>
+  </si>
+  <si>
+    <t>3 retest</t>
+  </si>
+  <si>
+    <t>1 production</t>
+  </si>
+  <si>
+    <t>multiple issues.</t>
+  </si>
+  <si>
+    <t>ePAS 18-30503 V1</t>
+  </si>
+  <si>
+    <t>Changed page formating hiding information</t>
+  </si>
+  <si>
+    <t>01136.000</t>
+  </si>
+  <si>
+    <t>Alinity-c Assay Details</t>
+  </si>
+  <si>
+    <t>parent 00085.000</t>
+  </si>
+  <si>
+    <t>ePAS 19-28491 V 35</t>
+  </si>
+  <si>
+    <t>ePAS 16-37034 V8</t>
+  </si>
+  <si>
+    <t>ePAS 18-33216 v1</t>
+  </si>
+  <si>
+    <t>ePAS 18-7778 v3</t>
+  </si>
+  <si>
+    <t>Alinity C detail</t>
+  </si>
+  <si>
+    <t>through email; parent 00085.000</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +3133,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2992,6 +3179,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3098,7 +3291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3201,6 +3394,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3263,6 +3461,27 @@
       <sheetName val="A or D"/>
       <sheetName val="Reasons for Disapproval"/>
       <sheetName val="SQA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Application"/>
+      <sheetName val="Deliverable Types"/>
+      <sheetName val="Reasons for Disapproval"/>
+      <sheetName val="SQA"/>
+      <sheetName val="A or D"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -3572,11 +3791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1764"/>
+  <dimension ref="A1:J2047"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1736" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1765" sqref="A1765"/>
+      <pane ySplit="1" topLeftCell="A2035" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2033" sqref="A2033:J2047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,7 +3961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -3772,7 +3991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -3802,7 +4021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -3888,7 +4107,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
@@ -3916,7 +4135,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -3944,7 +4163,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
@@ -4030,7 +4249,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
@@ -4084,7 +4303,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
@@ -4112,7 +4331,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -4140,7 +4359,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -4168,7 +4387,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -4196,7 +4415,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
@@ -4224,7 +4443,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
@@ -4252,7 +4471,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
@@ -4280,7 +4499,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
@@ -4448,7 +4667,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +4697,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -4506,7 +4725,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -4534,7 +4753,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>37</v>
       </c>
@@ -4616,7 +4835,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
@@ -4644,7 +4863,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>37</v>
       </c>
@@ -4700,7 +4919,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
@@ -4730,7 +4949,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>37</v>
       </c>
@@ -4760,7 +4979,7 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
@@ -8932,7 +9151,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
     </row>
-    <row r="186" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>37</v>
       </c>
@@ -8964,7 +9183,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>37</v>
       </c>
@@ -8992,7 +9211,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="8"/>
     </row>
-    <row r="188" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>37</v>
       </c>
@@ -9020,7 +9239,7 @@
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
     </row>
-    <row r="189" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>37</v>
       </c>
@@ -9052,7 +9271,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>37</v>
       </c>
@@ -9080,7 +9299,7 @@
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
     </row>
-    <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>37</v>
       </c>
@@ -9136,7 +9355,7 @@
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
     </row>
-    <row r="193" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>37</v>
       </c>
@@ -9164,7 +9383,7 @@
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
     </row>
-    <row r="194" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>37</v>
       </c>
@@ -9192,7 +9411,7 @@
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
     </row>
-    <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>37</v>
       </c>
@@ -9222,7 +9441,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>37</v>
       </c>
@@ -9250,7 +9469,7 @@
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
     </row>
-    <row r="197" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>37</v>
       </c>
@@ -9278,7 +9497,7 @@
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
     </row>
-    <row r="198" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>37</v>
       </c>
@@ -9306,7 +9525,7 @@
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
     </row>
-    <row r="199" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>37</v>
       </c>
@@ -9334,7 +9553,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
     </row>
-    <row r="200" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>37</v>
       </c>
@@ -9364,7 +9583,7 @@
       </c>
       <c r="J200" s="8"/>
     </row>
-    <row r="201" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>37</v>
       </c>
@@ -9394,7 +9613,7 @@
       </c>
       <c r="J201" s="8"/>
     </row>
-    <row r="202" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>37</v>
       </c>
@@ -9422,7 +9641,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="8"/>
     </row>
-    <row r="203" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>37</v>
       </c>
@@ -9452,7 +9671,7 @@
       </c>
       <c r="J203" s="8"/>
     </row>
-    <row r="204" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>37</v>
       </c>
@@ -9482,7 +9701,7 @@
       </c>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>37</v>
       </c>
@@ -9510,7 +9729,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>37</v>
       </c>
@@ -9538,7 +9757,7 @@
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>37</v>
       </c>
@@ -9566,7 +9785,7 @@
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>37</v>
       </c>
@@ -9594,7 +9813,7 @@
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
     </row>
-    <row r="209" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>37</v>
       </c>
@@ -9680,7 +9899,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="8"/>
     </row>
-    <row r="212" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>37</v>
       </c>
@@ -9708,7 +9927,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="8"/>
     </row>
-    <row r="213" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>37</v>
       </c>
@@ -9736,7 +9955,7 @@
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
     </row>
-    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>37</v>
       </c>
@@ -9766,7 +9985,7 @@
       </c>
       <c r="J214" s="8"/>
     </row>
-    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>37</v>
       </c>
@@ -9794,7 +10013,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="8"/>
     </row>
-    <row r="216" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>37</v>
       </c>
@@ -9852,7 +10071,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>37</v>
       </c>
@@ -9882,7 +10101,7 @@
       </c>
       <c r="J218" s="8"/>
     </row>
-    <row r="219" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>37</v>
       </c>
@@ -9912,7 +10131,7 @@
       </c>
       <c r="J219" s="8"/>
     </row>
-    <row r="220" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>37</v>
       </c>
@@ -9940,7 +10159,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="8"/>
     </row>
-    <row r="221" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>37</v>
       </c>
@@ -9968,7 +10187,7 @@
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
     </row>
-    <row r="222" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>37</v>
       </c>
@@ -10028,7 +10247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>37</v>
       </c>
@@ -10056,7 +10275,7 @@
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
     </row>
-    <row r="225" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>37</v>
       </c>
@@ -10088,7 +10307,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>37</v>
       </c>
@@ -10118,7 +10337,7 @@
       </c>
       <c r="J226" s="8"/>
     </row>
-    <row r="227" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>37</v>
       </c>
@@ -10146,7 +10365,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="8"/>
     </row>
-    <row r="228" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>37</v>
       </c>
@@ -10174,7 +10393,7 @@
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
     </row>
-    <row r="229" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>37</v>
       </c>
@@ -10202,7 +10421,7 @@
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
     </row>
-    <row r="230" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>37</v>
       </c>
@@ -10312,7 +10531,7 @@
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
     </row>
-    <row r="234" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>37</v>
       </c>
@@ -10340,7 +10559,7 @@
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
     </row>
-    <row r="235" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>37</v>
       </c>
@@ -11366,7 +11585,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
     </row>
-    <row r="271" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>37</v>
       </c>
@@ -11394,7 +11613,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
     </row>
-    <row r="272" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>37</v>
       </c>
@@ -11422,7 +11641,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
     </row>
-    <row r="273" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>37</v>
       </c>
@@ -11450,7 +11669,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
     </row>
-    <row r="274" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>37</v>
       </c>
@@ -11480,7 +11699,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>37</v>
       </c>
@@ -11508,7 +11727,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>37</v>
       </c>
@@ -11538,7 +11757,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>37</v>
       </c>
@@ -11596,7 +11815,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>37</v>
       </c>
@@ -11624,7 +11843,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="8"/>
     </row>
-    <row r="280" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>37</v>
       </c>
@@ -11652,7 +11871,7 @@
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
     </row>
-    <row r="281" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>37</v>
       </c>
@@ -11682,7 +11901,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>37</v>
       </c>
@@ -11710,7 +11929,7 @@
       <c r="I282" s="3"/>
       <c r="J282" s="8"/>
     </row>
-    <row r="283" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>37</v>
       </c>
@@ -11740,7 +11959,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>37</v>
       </c>
@@ -11768,7 +11987,7 @@
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
     </row>
-    <row r="285" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>37</v>
       </c>
@@ -11796,7 +12015,7 @@
       <c r="I285" s="8"/>
       <c r="J285" s="11"/>
     </row>
-    <row r="286" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>37</v>
       </c>
@@ -11824,7 +12043,7 @@
       <c r="I286" s="8"/>
       <c r="J286" s="8"/>
     </row>
-    <row r="287" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>37</v>
       </c>
@@ -11856,7 +12075,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>37</v>
       </c>
@@ -12000,7 +12219,7 @@
       <c r="I292" s="3"/>
       <c r="J292" s="8"/>
     </row>
-    <row r="293" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>37</v>
       </c>
@@ -12080,7 +12299,7 @@
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
     </row>
-    <row r="296" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>37</v>
       </c>
@@ -12108,7 +12327,7 @@
       <c r="I296" s="3"/>
       <c r="J296" s="8"/>
     </row>
-    <row r="297" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>37</v>
       </c>
@@ -12136,7 +12355,7 @@
       <c r="I297" s="3"/>
       <c r="J297" s="8"/>
     </row>
-    <row r="298" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>37</v>
       </c>
@@ -12192,7 +12411,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>37</v>
       </c>
@@ -12220,7 +12439,7 @@
       <c r="I300" s="3"/>
       <c r="J300" s="8"/>
     </row>
-    <row r="301" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>37</v>
       </c>
@@ -12248,7 +12467,7 @@
       <c r="I301" s="3"/>
       <c r="J301" s="8"/>
     </row>
-    <row r="302" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>37</v>
       </c>
@@ -12276,7 +12495,7 @@
       <c r="I302" s="3"/>
       <c r="J302" s="8"/>
     </row>
-    <row r="303" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>37</v>
       </c>
@@ -12304,7 +12523,7 @@
       <c r="I303" s="3"/>
       <c r="J303" s="8"/>
     </row>
-    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>37</v>
       </c>
@@ -12334,7 +12553,7 @@
       </c>
       <c r="J304" s="8"/>
     </row>
-    <row r="305" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>37</v>
       </c>
@@ -12362,7 +12581,7 @@
       <c r="I305" s="3"/>
       <c r="J305" s="8"/>
     </row>
-    <row r="306" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>37</v>
       </c>
@@ -12392,7 +12611,7 @@
       </c>
       <c r="J306" s="8"/>
     </row>
-    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>37</v>
       </c>
@@ -12472,7 +12691,7 @@
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
     </row>
-    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>37</v>
       </c>
@@ -12500,7 +12719,7 @@
       <c r="I310" s="12"/>
       <c r="J310" s="8"/>
     </row>
-    <row r="311" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>37</v>
       </c>
@@ -12582,7 +12801,7 @@
       <c r="I313" s="3"/>
       <c r="J313" s="8"/>
     </row>
-    <row r="314" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>37</v>
       </c>
@@ -12610,7 +12829,7 @@
       <c r="I314" s="3"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>37</v>
       </c>
@@ -12638,7 +12857,7 @@
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
     </row>
-    <row r="316" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>37</v>
       </c>
@@ -12694,7 +12913,7 @@
       <c r="I317" s="3"/>
       <c r="J317" s="8"/>
     </row>
-    <row r="318" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>37</v>
       </c>
@@ -12806,7 +13025,7 @@
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
     </row>
-    <row r="322" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>37</v>
       </c>
@@ -12890,7 +13109,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>37</v>
       </c>
@@ -53649,7 +53868,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="1761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1761" t="s">
         <v>37</v>
       </c>
@@ -53672,7 +53891,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="1762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
         <v>37</v>
       </c>
@@ -53701,7 +53920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
         <v>37</v>
       </c>
@@ -53727,7 +53946,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="1764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
         <v>37</v>
       </c>
@@ -53748,15 +53967,7546 @@
       </c>
       <c r="H1764" s="25">
         <v>43370</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1765" s="38">
+        <v>1033.018</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1765">
+        <v>2</v>
+      </c>
+      <c r="G1765" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1765" s="25">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1766" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1766" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1766" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1766" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1766" s="8">
+        <v>18</v>
+      </c>
+      <c r="F1766" s="8"/>
+      <c r="G1766" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1766" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1766" s="3"/>
+      <c r="J1766" s="3"/>
+    </row>
+    <row r="1767" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1767" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1767" s="41" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1767" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1767" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1767" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1767" s="8"/>
+      <c r="G1767" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1767" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1767" s="3"/>
+      <c r="J1767" s="3"/>
+    </row>
+    <row r="1768" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1768" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1768" s="41" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1768" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1768" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1768" s="8">
+        <v>12</v>
+      </c>
+      <c r="F1768" s="8"/>
+      <c r="G1768" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1768" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1768" s="3"/>
+      <c r="J1768" s="3"/>
+    </row>
+    <row r="1769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1769" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1769" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1769" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1769" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1769" s="8">
+        <v>11</v>
+      </c>
+      <c r="F1769" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1769" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1769" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1769" s="3"/>
+      <c r="J1769" s="3"/>
+    </row>
+    <row r="1770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1770" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1770" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1770" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1770" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1770" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1770" s="8"/>
+      <c r="G1770" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1770" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1770" s="3"/>
+      <c r="J1770" s="3"/>
+    </row>
+    <row r="1771" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1771" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1771" s="41" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1771" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1771" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1771" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1771" s="3"/>
+      <c r="G1771" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1771" s="5">
+        <v>43350</v>
+      </c>
+      <c r="I1771" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1771" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1772" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1772" s="41" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1772" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1772" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1772" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1772" s="3"/>
+      <c r="G1772" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1772" s="5">
+        <v>43357</v>
+      </c>
+      <c r="I1772" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1772" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1773" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1773" s="41" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1773" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1773" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1773" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1773" s="3"/>
+      <c r="G1773" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1773" s="5">
+        <v>43360</v>
+      </c>
+      <c r="I1773" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1773" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1774" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1774" s="41" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1774" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1774" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1774" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1774" s="3"/>
+      <c r="G1774" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1774" s="5">
+        <v>43361</v>
+      </c>
+      <c r="I1774" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1774" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1775" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1775" s="41" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1775" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1775" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1775" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1775" s="3"/>
+      <c r="G1775" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1775" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1775" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1775" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1776" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1776" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1776" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1776" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1776" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1776" s="3"/>
+      <c r="G1776" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1776" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1776" s="3"/>
+      <c r="J1776" s="3"/>
+    </row>
+    <row r="1777" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1777" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1777" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1777" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1777" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1777" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1777" s="3"/>
+      <c r="G1777" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1777" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1777" s="3"/>
+      <c r="J1777" s="3"/>
+    </row>
+    <row r="1778" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1778" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1778" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1778" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1778" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1778" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1778" s="8"/>
+      <c r="G1778" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1778" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1778" s="8"/>
+      <c r="J1778" s="8" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1779" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1779" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1779" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1779" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1779" s="8">
+        <v>18</v>
+      </c>
+      <c r="F1779" s="8"/>
+      <c r="G1779" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1779" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1779" s="8"/>
+      <c r="J1779" s="8"/>
+    </row>
+    <row r="1780" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1780" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1780" s="41" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1780" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1780" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1780" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1780" s="8"/>
+      <c r="G1780" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1780" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1780" s="8"/>
+      <c r="J1780" s="8"/>
+    </row>
+    <row r="1781" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1781" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1781" s="41" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1781" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1781" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1781" s="8">
+        <v>12</v>
+      </c>
+      <c r="F1781" s="8"/>
+      <c r="G1781" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1781" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1781" s="8"/>
+      <c r="J1781" s="8"/>
+    </row>
+    <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1782" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1782" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1782" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1782" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1782" s="8">
+        <v>11</v>
+      </c>
+      <c r="F1782" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1782" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1782" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1782" s="8"/>
+      <c r="J1782" s="8"/>
+    </row>
+    <row r="1783" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1783" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1783" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1783" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1783" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1783" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1783" s="8"/>
+      <c r="G1783" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1783" s="5">
+        <v>43374</v>
+      </c>
+      <c r="I1783" s="8"/>
+      <c r="J1783" s="8"/>
+    </row>
+    <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1784" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1784" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1784" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1784" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1784" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1784" s="8"/>
+      <c r="G1784" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1784" s="5">
+        <v>43375</v>
+      </c>
+      <c r="I1784" s="8"/>
+      <c r="J1784" s="8"/>
+    </row>
+    <row r="1785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1785" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1785" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1785" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1785" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1785" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1785" s="8"/>
+      <c r="G1785" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1785" s="5">
+        <v>43375</v>
+      </c>
+      <c r="I1785" s="8"/>
+      <c r="J1785" s="8"/>
+    </row>
+    <row r="1786" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1786" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1786" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1786" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1786" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1786" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1786" s="8"/>
+      <c r="G1786" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1786" s="5">
+        <v>43375</v>
+      </c>
+      <c r="I1786" s="8"/>
+      <c r="J1786" s="8"/>
+    </row>
+    <row r="1787" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1787" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1787" s="41" t="s">
+        <v>968</v>
+      </c>
+      <c r="C1787" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="D1787" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1787" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1787" s="8"/>
+      <c r="G1787" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1787" s="5">
+        <v>43375</v>
+      </c>
+      <c r="I1787" s="8"/>
+      <c r="J1787" s="8"/>
+    </row>
+    <row r="1788" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1788" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1788" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1788" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1788" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1788" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1788" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="G1788" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1788" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1788" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1788" s="8"/>
+    </row>
+    <row r="1789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1789" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1789" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1789" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1789" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1789" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1789" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="G1789" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1789" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1789" s="8"/>
+      <c r="J1789" s="8"/>
+    </row>
+    <row r="1790" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1790" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1790" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1790" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1790" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1790" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1790" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="G1790" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1790" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1790" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1790" s="8"/>
+    </row>
+    <row r="1791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1791" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1791" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1791" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1791" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1791" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1791" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="G1791" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1791" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1791" s="8"/>
+      <c r="J1791" s="8"/>
+    </row>
+    <row r="1792" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1792" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1792" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1792" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1792" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1792" s="8">
+        <v>6</v>
+      </c>
+      <c r="F1792" s="45" t="s">
+        <v>971</v>
+      </c>
+      <c r="G1792" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1792" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1792" s="8"/>
+      <c r="J1792" s="8"/>
+    </row>
+    <row r="1793" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1793" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1793" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1793" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1793" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1793" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1793" s="46" t="s">
+        <v>921</v>
+      </c>
+      <c r="G1793" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1793" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1793" s="8"/>
+      <c r="J1793" s="8"/>
+    </row>
+    <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1794" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1794" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1794" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1794" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1794" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1794" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="G1794" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1794" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1794" s="8"/>
+      <c r="J1794" s="8"/>
+    </row>
+    <row r="1795" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1795" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1795" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1795" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1795" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1795" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1795" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="G1795" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1795" s="5">
+        <v>43376</v>
+      </c>
+      <c r="I1795" s="8"/>
+      <c r="J1795" s="8"/>
+    </row>
+    <row r="1796" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1796" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1796" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1796" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1796" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1796" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1796" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="G1796" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1796" s="5">
+        <v>43377</v>
+      </c>
+      <c r="I1796" s="8"/>
+      <c r="J1796" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1797" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1797" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1797" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1797" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1797" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1797" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1797" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1797" s="5">
+        <v>43377</v>
+      </c>
+      <c r="I1797" s="8"/>
+      <c r="J1797" s="8"/>
+    </row>
+    <row r="1798" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1798" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1798" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1798" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1798" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1798" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1798" s="8"/>
+      <c r="G1798" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1798" s="5">
+        <v>43377</v>
+      </c>
+      <c r="I1798" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1798" s="8"/>
+    </row>
+    <row r="1799" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1799" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1799" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1799" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1799" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1799" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1799" s="8"/>
+      <c r="G1799" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1799" s="5">
+        <v>43377</v>
+      </c>
+      <c r="I1799" s="8"/>
+      <c r="J1799" s="8"/>
+    </row>
+    <row r="1800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1800" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1800" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1800" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1800" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1800" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1800" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1800" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1800" s="5">
+        <v>43378</v>
+      </c>
+      <c r="I1800" s="8"/>
+      <c r="J1800" s="8"/>
+    </row>
+    <row r="1801" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1801" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1801" s="27">
+        <v>1</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1801" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1802" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1802" s="27">
+        <v>1</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1802" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1803" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1803">
+        <v>1</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>974</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1803" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1803" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1804" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1804">
+        <v>1</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>974</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1804" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1805" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1805">
+        <v>1</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1805" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1805" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1806" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1806">
+        <v>1</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1806" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1807" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1807">
+        <v>1</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1807" s="25">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1808" s="38" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1808">
+        <v>1</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1808" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1809" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1809">
+        <v>2</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1809" s="25">
+        <v>43382</v>
+      </c>
+      <c r="I1809" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1810" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1810">
+        <v>2</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1810" s="25">
+        <v>43383</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1811" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1811">
+        <v>2</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1811" s="25">
+        <v>43382</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1812" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1812">
+        <v>2</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1812" s="25">
+        <v>43382</v>
+      </c>
+      <c r="I1812" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1813" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1813">
+        <v>2</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1813" s="25">
+        <v>43383</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1814" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1814">
+        <v>1</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1814" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1815" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1815">
+        <v>16</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1815" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1816" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1816">
+        <v>1</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1816" s="25">
+        <v>43383</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1817" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1817">
+        <v>1</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1817" s="25">
+        <v>43384</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1818" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1818">
+        <v>1</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1818" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1819" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1819">
+        <v>1</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1819" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1820" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1820" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1820">
+        <v>2</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>978</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1820" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1821" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1821" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1821">
+        <v>1</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1821" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1822" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1822">
+        <v>1</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1822" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1823" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1823">
+        <v>1</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1823" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1824" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1824">
+        <v>1</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1824" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1825" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1825" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1825">
+        <v>1</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1825" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1826" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1826" s="38">
+        <v>1033.1089999999999</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1826">
+        <v>1</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1826" s="25">
+        <v>43389</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1827" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1827">
+        <v>1</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1827" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1828" s="38">
+        <v>1032</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1828">
+        <v>1</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1828" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1829" s="38">
+        <v>1035</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1829">
+        <v>1</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1829" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1830" s="38">
+        <v>1032</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1830">
+        <v>1</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>981</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1830" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1831" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1831">
+        <v>1</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1831" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1832" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1832">
+        <v>1</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1832" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1833" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1833">
+        <v>1</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1833" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1834" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1834" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1834">
+        <v>1</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1834" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1835" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1835" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1835">
+        <v>1</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1835" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1835" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1836" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1836" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1836">
+        <v>1</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1836" s="25">
+        <v>43390</v>
+      </c>
+      <c r="I1836" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1837" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1837" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1837">
+        <v>1</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1837" s="25">
+        <v>43391</v>
+      </c>
+      <c r="I1837" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1838" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1838" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1838">
+        <v>1</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1838" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1839" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1839" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1839">
+        <v>1</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1839" s="25">
+        <v>43391</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1840" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1840">
+        <v>1</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1840" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1841" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1841" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1841">
+        <v>1</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1841" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1842" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1842" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1842">
+        <v>1</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1842" s="25">
+        <v>43391</v>
+      </c>
+      <c r="I1842" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1843" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1843" s="38">
+        <v>1033.19</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1843">
+        <v>1</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1843" s="25">
+        <v>43391</v>
+      </c>
+      <c r="I1843" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1844" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1844" s="38">
+        <v>1033.19</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1844">
+        <v>1</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1844" s="25" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1845" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1845" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1845">
+        <v>1</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1845" s="25">
+        <v>43388</v>
+      </c>
+      <c r="I1845" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1846" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1846" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1846">
+        <v>1</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1846" s="25">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1847" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1847" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1847">
+        <v>1</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1847" s="25">
+        <v>43388</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1848" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1848" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1848">
+        <v>1</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>986</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1848" s="25">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1849" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1849" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1849">
+        <v>1</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1849" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1849" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1850" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1850">
+        <v>1</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1850" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1851" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1851">
+        <v>1</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1851" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1851" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1852" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1852">
+        <v>1</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1852" s="25">
+        <v>43389</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1853" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1853">
+        <v>1</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>989</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1853" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1853" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1854" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1854" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1854">
+        <v>1</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1854" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1854" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1855" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1855" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1855">
+        <v>1</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1855" s="25">
+        <v>43390</v>
+      </c>
+      <c r="I1855" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1856" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1856">
+        <v>1</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1856" s="25">
+        <v>43390</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1857" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1857">
+        <v>1</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1857" s="25">
+        <v>43390</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1858" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1858">
+        <v>1</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1858" s="25">
+        <v>43390</v>
+      </c>
+      <c r="I1858" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1859" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1859">
+        <v>1</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1859" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1860" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1860">
+        <v>1</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>831</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1860" s="25">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1861" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1861">
+        <v>1</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1861" s="25">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1862" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1862">
+        <v>1</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1862" s="25">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1863" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1863" s="38">
+        <v>1035</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1863">
+        <v>1</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>992</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1863" s="25">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1864" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1864" s="38">
+        <v>1035</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1864">
+        <v>1</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1864" s="25">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1865" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1865" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1865">
+        <v>1</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>994</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1865" s="25">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1866" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1866" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1866">
+        <v>1</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1866" s="25">
+        <v>43396</v>
+      </c>
+      <c r="I1866" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1867" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1867" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1867">
+        <v>1</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1867" s="25">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1868" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1868" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1868">
+        <v>1</v>
+      </c>
+      <c r="F1868">
+        <v>19</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1868" s="25">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1869" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1869">
+        <v>1</v>
+      </c>
+      <c r="F1869">
+        <v>4</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1869" s="25">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1870" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1870">
+        <v>2</v>
+      </c>
+      <c r="F1870">
+        <v>14</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1870" s="25">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1871" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1871">
+        <v>1</v>
+      </c>
+      <c r="F1871">
+        <v>1</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1871" s="25">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1872" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1872">
+        <v>2</v>
+      </c>
+      <c r="F1872">
+        <v>17</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1872" s="25">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1873" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1873" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1873">
+        <v>2</v>
+      </c>
+      <c r="F1873">
+        <v>21</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1873" s="25">
+        <v>43374</v>
+      </c>
+      <c r="I1873" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1874" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1874">
+        <v>1</v>
+      </c>
+      <c r="F1874">
+        <v>1</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1874" s="25">
+        <v>43374</v>
+      </c>
+      <c r="I1874" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1875" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1875">
+        <v>2</v>
+      </c>
+      <c r="F1875">
+        <v>20</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1875" s="25">
+        <v>43374</v>
+      </c>
+      <c r="I1875" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1876" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1876">
+        <v>2</v>
+      </c>
+      <c r="F1876">
+        <v>10</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1876" s="25">
+        <v>43374</v>
+      </c>
+      <c r="I1876" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1877" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1877">
+        <v>1</v>
+      </c>
+      <c r="F1877">
+        <v>1</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1877" s="25">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1878" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1878">
+        <v>2</v>
+      </c>
+      <c r="F1878">
+        <v>20</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1878" s="25">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1879" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1879" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1879">
+        <v>2</v>
+      </c>
+      <c r="F1879">
+        <v>10</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1879" s="25">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1880" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1880" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1880">
+        <v>2</v>
+      </c>
+      <c r="F1880">
+        <v>21</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1880" s="25">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1881" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1881">
+        <v>1</v>
+      </c>
+      <c r="F1881">
+        <v>1</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1881" s="25">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1882" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1882" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1882">
+        <v>1</v>
+      </c>
+      <c r="F1882">
+        <v>1</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1882" s="25">
+        <v>43375</v>
+      </c>
+      <c r="I1882" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1882" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1883" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1883" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1883">
+        <v>1</v>
+      </c>
+      <c r="F1883">
+        <v>1</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1883" s="25">
+        <v>43375</v>
+      </c>
+      <c r="I1883" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1883" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1884" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1884" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1884">
+        <v>1</v>
+      </c>
+      <c r="F1884">
+        <v>1</v>
+      </c>
+      <c r="G1884" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1884" s="25">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1885" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1885" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1885">
+        <v>1</v>
+      </c>
+      <c r="F1885">
+        <v>17</v>
+      </c>
+      <c r="G1885" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1885" s="25">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1886" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1886" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1886">
+        <v>1</v>
+      </c>
+      <c r="F1886">
+        <v>18</v>
+      </c>
+      <c r="G1886" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1886" s="25">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1887" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1887" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1887">
+        <v>1</v>
+      </c>
+      <c r="F1887">
+        <v>19</v>
+      </c>
+      <c r="G1887" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1887" s="25">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1888" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1888">
+        <v>1</v>
+      </c>
+      <c r="F1888">
+        <v>1</v>
+      </c>
+      <c r="G1888" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1888" s="25">
+        <v>43376</v>
+      </c>
+      <c r="I1888" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1889" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1889">
+        <v>1</v>
+      </c>
+      <c r="F1889">
+        <v>1</v>
+      </c>
+      <c r="G1889" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1889" s="25">
+        <v>43376</v>
+      </c>
+      <c r="I1889" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1889" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1890" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1890">
+        <v>1</v>
+      </c>
+      <c r="F1890">
+        <v>1</v>
+      </c>
+      <c r="G1890" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1890" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1891" s="38">
+        <v>1129</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1891">
+        <v>1</v>
+      </c>
+      <c r="F1891">
+        <v>1</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1891" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1892" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1892" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1892">
+        <v>5</v>
+      </c>
+      <c r="F1892">
+        <v>1</v>
+      </c>
+      <c r="G1892" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1892" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1893" s="38">
+        <v>1129</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1893">
+        <v>1</v>
+      </c>
+      <c r="F1893">
+        <v>1</v>
+      </c>
+      <c r="G1893" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1893" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1894" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1894">
+        <v>1</v>
+      </c>
+      <c r="F1894">
+        <v>3</v>
+      </c>
+      <c r="G1894" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1894" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1895" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1895">
+        <v>1</v>
+      </c>
+      <c r="F1895">
+        <v>1</v>
+      </c>
+      <c r="G1895" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1895" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1896" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1896">
+        <v>1</v>
+      </c>
+      <c r="F1896">
+        <v>1</v>
+      </c>
+      <c r="G1896" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1896" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1897" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1897" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1897">
+        <v>1</v>
+      </c>
+      <c r="F1897">
+        <v>1</v>
+      </c>
+      <c r="G1897" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1897" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1898" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1898" s="38">
+        <v>588</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1898">
+        <v>1</v>
+      </c>
+      <c r="F1898">
+        <v>1</v>
+      </c>
+      <c r="G1898" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1898" s="25">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1899" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1899">
+        <v>3</v>
+      </c>
+      <c r="F1899">
+        <v>1</v>
+      </c>
+      <c r="G1899" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1899" s="25">
+        <v>43377</v>
+      </c>
+      <c r="I1899" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1899" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1900" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1900">
+        <v>1</v>
+      </c>
+      <c r="F1900">
+        <v>1</v>
+      </c>
+      <c r="G1900" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1900" s="25">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1901" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1901" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1901">
+        <v>1</v>
+      </c>
+      <c r="F1901">
+        <v>1</v>
+      </c>
+      <c r="G1901" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1901" s="25">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1902" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1902" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1902">
+        <v>3</v>
+      </c>
+      <c r="F1902">
+        <v>1</v>
+      </c>
+      <c r="G1902" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1902" s="25">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1903" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1903" s="38">
+        <v>750.01199999999994</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1903">
+        <v>1</v>
+      </c>
+      <c r="F1903">
+        <v>1</v>
+      </c>
+      <c r="G1903" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1903" s="25">
+        <v>43378</v>
+      </c>
+      <c r="I1903" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1904" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1904" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1904">
+        <v>1</v>
+      </c>
+      <c r="F1904">
+        <v>4</v>
+      </c>
+      <c r="G1904" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1904" s="25">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1905" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1905" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1905">
+        <v>1</v>
+      </c>
+      <c r="F1905">
+        <v>2</v>
+      </c>
+      <c r="G1905" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1905" s="25">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1906" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1906" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1906">
+        <v>1</v>
+      </c>
+      <c r="F1906">
+        <v>3</v>
+      </c>
+      <c r="G1906" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1906" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1907" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1907" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1907">
+        <v>1</v>
+      </c>
+      <c r="F1907">
+        <v>1</v>
+      </c>
+      <c r="G1907" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1907" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1908" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1908" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1908">
+        <v>1</v>
+      </c>
+      <c r="F1908">
+        <v>4</v>
+      </c>
+      <c r="G1908" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1908" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1909" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1909">
+        <v>3</v>
+      </c>
+      <c r="F1909">
+        <v>1</v>
+      </c>
+      <c r="G1909" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1909" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1910" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1910">
+        <v>5</v>
+      </c>
+      <c r="F1910">
+        <v>1</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1910" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1910" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1911" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1911" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1911">
+        <v>3</v>
+      </c>
+      <c r="F1911">
+        <v>2</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1911" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1912" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1912" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1912">
+        <v>2</v>
+      </c>
+      <c r="F1912">
+        <v>3</v>
+      </c>
+      <c r="G1912" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1912" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1913" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1913" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1913">
+        <v>3</v>
+      </c>
+      <c r="F1913">
+        <v>4</v>
+      </c>
+      <c r="G1913" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1913" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1914" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1914" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1914">
+        <v>5</v>
+      </c>
+      <c r="F1914">
+        <v>1</v>
+      </c>
+      <c r="G1914" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1914" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1914" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1914" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1915" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1915" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1915">
+        <v>1</v>
+      </c>
+      <c r="F1915">
+        <v>2</v>
+      </c>
+      <c r="G1915" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1915" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1916" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1916">
+        <v>1</v>
+      </c>
+      <c r="F1916">
+        <v>1</v>
+      </c>
+      <c r="G1916" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1916" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1916" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1916" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1917" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1917" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1917">
+        <v>1</v>
+      </c>
+      <c r="F1917">
+        <v>4</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1917" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1917" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1917" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1918" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1918" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1918">
+        <v>5</v>
+      </c>
+      <c r="F1918">
+        <v>1</v>
+      </c>
+      <c r="G1918" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1918" s="25">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1919" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1919" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1919">
+        <v>1</v>
+      </c>
+      <c r="F1919" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1919" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1919" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1919" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1919" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1920" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1920">
+        <v>1</v>
+      </c>
+      <c r="F1920" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1920" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1920" s="25">
+        <v>43381</v>
+      </c>
+      <c r="I1920" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1920" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1921" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1921" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1921">
+        <v>1</v>
+      </c>
+      <c r="F1921" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1921" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1921" s="25">
+        <v>43382</v>
+      </c>
+      <c r="I1921" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1921" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1922" s="38">
+        <v>750.01199999999994</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1922">
+        <v>1</v>
+      </c>
+      <c r="F1922">
+        <v>1</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1922" s="25">
+        <v>43382</v>
+      </c>
+      <c r="I1922" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1922" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1923" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1923" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1923">
+        <v>1</v>
+      </c>
+      <c r="F1923" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1923" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1923" s="25">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1924" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1924" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1924">
+        <v>1</v>
+      </c>
+      <c r="F1924">
+        <v>1</v>
+      </c>
+      <c r="G1924" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1924" s="25">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1925" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1925" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1925">
+        <v>1</v>
+      </c>
+      <c r="F1925">
+        <v>1</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1925" s="25">
+        <v>43382</v>
+      </c>
+      <c r="I1925" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1926" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1926" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1926">
+        <v>1</v>
+      </c>
+      <c r="F1926">
+        <v>4</v>
+      </c>
+      <c r="G1926" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1926" s="25">
+        <v>43382</v>
+      </c>
+      <c r="I1926" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1927" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1927" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1927">
+        <v>1</v>
+      </c>
+      <c r="F1927">
+        <v>1</v>
+      </c>
+      <c r="G1927" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1927" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1928" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1928">
+        <v>1</v>
+      </c>
+      <c r="F1928">
+        <v>4</v>
+      </c>
+      <c r="G1928" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1928" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1929" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1929">
+        <v>11</v>
+      </c>
+      <c r="F1929">
+        <v>1</v>
+      </c>
+      <c r="G1929" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1929" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1930" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1930">
+        <v>1</v>
+      </c>
+      <c r="F1930">
+        <v>4</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1930" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1931" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1931">
+        <v>1</v>
+      </c>
+      <c r="F1931">
+        <v>1</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1931" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1932" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1932">
+        <v>1</v>
+      </c>
+      <c r="F1932">
+        <v>1</v>
+      </c>
+      <c r="G1932" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1932" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1933" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1933" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1933">
+        <v>1</v>
+      </c>
+      <c r="F1933">
+        <v>2</v>
+      </c>
+      <c r="G1933" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1933" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1934" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1934" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1934">
+        <v>1</v>
+      </c>
+      <c r="F1934">
+        <v>1</v>
+      </c>
+      <c r="G1934" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1934" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1935" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1935" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1935">
+        <v>1</v>
+      </c>
+      <c r="F1935">
+        <v>1</v>
+      </c>
+      <c r="G1935" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1935" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1936" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1936" s="38">
+        <v>928.00900000000001</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1936">
+        <v>1</v>
+      </c>
+      <c r="F1936">
+        <v>4</v>
+      </c>
+      <c r="G1936" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1936" s="25">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1937" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1937" s="38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1937">
+        <v>1</v>
+      </c>
+      <c r="F1937">
+        <v>1</v>
+      </c>
+      <c r="G1937" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1937" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1938" s="38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1938">
+        <v>1</v>
+      </c>
+      <c r="F1938">
+        <v>1</v>
+      </c>
+      <c r="G1938" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1938" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1939" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1939" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1939">
+        <v>1</v>
+      </c>
+      <c r="F1939">
+        <v>1</v>
+      </c>
+      <c r="G1939" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1939" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1940" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1940">
+        <v>1</v>
+      </c>
+      <c r="F1940">
+        <v>2</v>
+      </c>
+      <c r="G1940" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1940" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1941" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1941" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1941">
+        <v>1</v>
+      </c>
+      <c r="F1941">
+        <v>3</v>
+      </c>
+      <c r="G1941" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1941" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1942" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1942" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1942">
+        <v>1</v>
+      </c>
+      <c r="F1942">
+        <v>1</v>
+      </c>
+      <c r="G1942" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1942" s="25">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1943" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1943" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1943">
+        <v>1</v>
+      </c>
+      <c r="F1943">
+        <v>1</v>
+      </c>
+      <c r="G1943" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1943" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1944" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1944" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1944">
+        <v>1</v>
+      </c>
+      <c r="F1944">
+        <v>4</v>
+      </c>
+      <c r="G1944" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1944" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1945" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1945" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1945">
+        <v>1</v>
+      </c>
+      <c r="F1945" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G1945" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1945" s="25">
+        <v>43385</v>
+      </c>
+      <c r="I1945" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1946" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1946" s="38" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1946">
+        <v>1</v>
+      </c>
+      <c r="F1946">
+        <v>1</v>
+      </c>
+      <c r="G1946" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1946" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1947" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1947">
+        <v>1</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G1947" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1947" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1948" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1948" s="38">
+        <v>1003</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>973</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1948">
+        <v>2</v>
+      </c>
+      <c r="F1948">
+        <v>1</v>
+      </c>
+      <c r="G1948" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1948" s="25">
+        <v>43385</v>
+      </c>
+      <c r="I1948" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1948" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1949" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1949" s="38">
+        <v>1003</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>973</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1949">
+        <v>2</v>
+      </c>
+      <c r="F1949">
+        <v>1</v>
+      </c>
+      <c r="G1949" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1949" s="25">
+        <v>43385</v>
+      </c>
+      <c r="I1949" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1949" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1950" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1950">
+        <v>1</v>
+      </c>
+      <c r="F1950" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G1950" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1950" s="25">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1951" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1951">
+        <v>2</v>
+      </c>
+      <c r="F1951">
+        <v>1</v>
+      </c>
+      <c r="G1951" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1951" s="25">
+        <v>43388</v>
+      </c>
+      <c r="I1951" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1952" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1952" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1952">
+        <v>1</v>
+      </c>
+      <c r="F1952">
+        <v>1</v>
+      </c>
+      <c r="G1952" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1952" s="25">
+        <v>43388</v>
+      </c>
+      <c r="I1952" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1953" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1953">
+        <v>1</v>
+      </c>
+      <c r="F1953">
+        <v>1</v>
+      </c>
+      <c r="G1953" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1953" s="25">
+        <v>43388</v>
+      </c>
+      <c r="I1953" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1954" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1954">
+        <v>2</v>
+      </c>
+      <c r="F1954">
+        <v>1</v>
+      </c>
+      <c r="G1954" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1954" s="25">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1955" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1955">
+        <v>1</v>
+      </c>
+      <c r="F1955">
+        <v>1</v>
+      </c>
+      <c r="G1955" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1955" s="25">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1956" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1956">
+        <v>1</v>
+      </c>
+      <c r="F1956">
+        <v>1</v>
+      </c>
+      <c r="G1956" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1956" s="25">
+        <v>43388</v>
+      </c>
+      <c r="I1956" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1956" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1957" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1957">
+        <v>1</v>
+      </c>
+      <c r="F1957">
+        <v>5</v>
+      </c>
+      <c r="G1957" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1957" s="25">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1958" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1958">
+        <v>2</v>
+      </c>
+      <c r="F1958">
+        <v>1</v>
+      </c>
+      <c r="G1958" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1958" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1959" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1959" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1959">
+        <v>1</v>
+      </c>
+      <c r="F1959">
+        <v>2</v>
+      </c>
+      <c r="G1959" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1959" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1960" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1960" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1960">
+        <v>1</v>
+      </c>
+      <c r="F1960">
+        <v>1</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1960" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1960" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1961" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1961">
+        <v>1</v>
+      </c>
+      <c r="F1961">
+        <v>1</v>
+      </c>
+      <c r="G1961" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1961" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1962" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1962">
+        <v>2</v>
+      </c>
+      <c r="F1962">
+        <v>1</v>
+      </c>
+      <c r="G1962" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1962" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1963" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1963">
+        <v>1</v>
+      </c>
+      <c r="F1963">
+        <v>1</v>
+      </c>
+      <c r="G1963" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1963" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1964" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1964">
+        <v>1</v>
+      </c>
+      <c r="F1964">
+        <v>1</v>
+      </c>
+      <c r="G1964" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1964" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1964" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1965" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1965">
+        <v>1</v>
+      </c>
+      <c r="F1965" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1965" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1966" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1966" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1966">
+        <v>1</v>
+      </c>
+      <c r="F1966">
+        <v>1</v>
+      </c>
+      <c r="G1966" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1966" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1966" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1967" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1967">
+        <v>1</v>
+      </c>
+      <c r="F1967">
+        <v>1</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1967" s="25">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1968" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1968" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1968">
+        <v>1</v>
+      </c>
+      <c r="F1968">
+        <v>1</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1968" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1968" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1968" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1969" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1969" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1969">
+        <v>1</v>
+      </c>
+      <c r="F1969">
+        <v>1</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1969" s="25">
+        <v>43389</v>
+      </c>
+      <c r="I1969" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1969" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1970" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1970" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1970">
+        <v>1</v>
+      </c>
+      <c r="F1970">
+        <v>5</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1970" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1971" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1971" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1971">
+        <v>1</v>
+      </c>
+      <c r="F1971">
+        <v>6</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1971" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1972" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1972" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1972">
+        <v>1</v>
+      </c>
+      <c r="F1972">
+        <v>7</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1972" s="25">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1973" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1973" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1973">
+        <v>1</v>
+      </c>
+      <c r="F1973">
+        <v>1</v>
+      </c>
+      <c r="G1973" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1973" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1974" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1974" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1974">
+        <v>1</v>
+      </c>
+      <c r="F1974">
+        <v>1</v>
+      </c>
+      <c r="G1974" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1974" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1975" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1975" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1975">
+        <v>1</v>
+      </c>
+      <c r="F1975">
+        <v>4</v>
+      </c>
+      <c r="G1975" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1975" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1976" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1976" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1976">
+        <v>1</v>
+      </c>
+      <c r="F1976">
+        <v>1</v>
+      </c>
+      <c r="G1976" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1976" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1977" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1977" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1977">
+        <v>1</v>
+      </c>
+      <c r="F1977">
+        <v>5</v>
+      </c>
+      <c r="G1977" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1977" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1978" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1978" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1978">
+        <v>11</v>
+      </c>
+      <c r="F1978">
+        <v>1</v>
+      </c>
+      <c r="G1978" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1978" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1979" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1979" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1979">
+        <v>1</v>
+      </c>
+      <c r="F1979">
+        <v>1</v>
+      </c>
+      <c r="G1979" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1979" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1980" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1980" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1980">
+        <v>1</v>
+      </c>
+      <c r="F1980">
+        <v>1</v>
+      </c>
+      <c r="G1980" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1980" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1981" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1981" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1981">
+        <v>1</v>
+      </c>
+      <c r="F1981">
+        <v>1</v>
+      </c>
+      <c r="G1981" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1981" s="25">
+        <v>43390</v>
+      </c>
+      <c r="I1981" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1981" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1982" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1982" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1982">
+        <v>1</v>
+      </c>
+      <c r="F1982">
+        <v>2</v>
+      </c>
+      <c r="G1982" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1982" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1983" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1983" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1983">
+        <v>6</v>
+      </c>
+      <c r="F1983">
+        <v>1</v>
+      </c>
+      <c r="G1983" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1983" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1984" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1984" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1984">
+        <v>1</v>
+      </c>
+      <c r="F1984">
+        <v>1</v>
+      </c>
+      <c r="G1984" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1984" s="25">
+        <v>43391</v>
+      </c>
+      <c r="I1984" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1985" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1985" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1985">
+        <v>1</v>
+      </c>
+      <c r="F1985">
+        <v>1</v>
+      </c>
+      <c r="G1985" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1985" s="25">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1986" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1986" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1986">
+        <v>2</v>
+      </c>
+      <c r="F1986">
+        <v>1</v>
+      </c>
+      <c r="G1986" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1986" s="25">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1987" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1987" s="38">
+        <v>873.00099999999998</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1987">
+        <v>2</v>
+      </c>
+      <c r="F1987" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1987" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1987" s="25">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1988" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1988" s="38">
+        <v>500.06299999999999</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1988">
+        <v>1</v>
+      </c>
+      <c r="F1988" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1988" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1988" s="25">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1989" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1989" s="38">
+        <v>655</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1989">
+        <v>32</v>
+      </c>
+      <c r="F1989">
+        <v>2</v>
+      </c>
+      <c r="G1989" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1989" s="25">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1990" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1990" s="38">
+        <v>655</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1990">
+        <v>32</v>
+      </c>
+      <c r="F1990">
+        <v>2</v>
+      </c>
+      <c r="G1990" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1990" s="25">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1991" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1991" s="38" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1991">
+        <v>1</v>
+      </c>
+      <c r="F1991">
+        <v>1</v>
+      </c>
+      <c r="G1991" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1991" s="25">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1992" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1992" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1992">
+        <v>1</v>
+      </c>
+      <c r="F1992">
+        <v>1</v>
+      </c>
+      <c r="G1992" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1992" s="25">
+        <v>43397</v>
+      </c>
+      <c r="I1992" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1992" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1993" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1993" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1993">
+        <v>1</v>
+      </c>
+      <c r="F1993">
+        <v>1</v>
+      </c>
+      <c r="G1993" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1993" s="25">
+        <v>43398</v>
+      </c>
+      <c r="I1993" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1993" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1994" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1994" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1994">
+        <v>1</v>
+      </c>
+      <c r="F1994">
+        <v>1</v>
+      </c>
+      <c r="G1994" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1994" s="25">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1995" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1995" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1995">
+        <v>1</v>
+      </c>
+      <c r="F1995">
+        <v>1</v>
+      </c>
+      <c r="G1995" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1995" s="25">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1996" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1996" s="38">
+        <v>750.01199999999994</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1996">
+        <v>1</v>
+      </c>
+      <c r="F1996">
+        <v>1</v>
+      </c>
+      <c r="G1996" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1996" s="25">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1997" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1997" s="38">
+        <v>750.01199999999994</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1997">
+        <v>7</v>
+      </c>
+      <c r="F1997">
+        <v>1</v>
+      </c>
+      <c r="G1997" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1997" s="25">
+        <v>43399</v>
+      </c>
+      <c r="I1997" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1998" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1998" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1998">
+        <v>1</v>
+      </c>
+      <c r="F1998">
+        <v>1</v>
+      </c>
+      <c r="G1998" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1998" s="25">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1999" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1999" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1999">
+        <v>1</v>
+      </c>
+      <c r="G1999" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1999" s="25">
+        <v>43395</v>
+      </c>
+      <c r="I1999" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2000" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2000" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2000">
+        <v>1</v>
+      </c>
+      <c r="G2000" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2000" s="25">
+        <v>43396</v>
+      </c>
+      <c r="I2000" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2001" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2001" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2001">
+        <v>1</v>
+      </c>
+      <c r="G2001" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2001" s="25">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2002" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2002" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2002">
+        <v>2</v>
+      </c>
+      <c r="G2002" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2002" s="25">
+        <v>43395</v>
+      </c>
+      <c r="I2002" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2003" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2003" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2003">
+        <v>2</v>
+      </c>
+      <c r="G2003" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2003" s="25">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2004" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2004" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2004">
+        <v>1</v>
+      </c>
+      <c r="G2004" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2004" s="25">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2005" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2005" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2005">
+        <v>1</v>
+      </c>
+      <c r="F2005" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2005" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2005" s="25">
+        <v>43396</v>
+      </c>
+      <c r="I2005" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2006" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2006" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2006">
+        <v>1</v>
+      </c>
+      <c r="G2006" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2006" s="25">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2007" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2007" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2007">
+        <v>1</v>
+      </c>
+      <c r="F2007" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G2007" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2007" s="25">
+        <v>43398</v>
+      </c>
+      <c r="I2007" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2007" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2008" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2008" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2008">
+        <v>1</v>
+      </c>
+      <c r="G2008" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2008" s="25">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2009" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2009" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2009">
+        <v>1</v>
+      </c>
+      <c r="G2009" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2009" s="25">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2010" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2010" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2010">
+        <v>1</v>
+      </c>
+      <c r="G2010" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2010" s="25">
+        <v>43399</v>
+      </c>
+      <c r="I2010" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2011" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2011" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2011">
+        <v>1</v>
+      </c>
+      <c r="G2011" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2011" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2012" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2012" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2012">
+        <v>1</v>
+      </c>
+      <c r="G2012" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2012" s="25">
+        <v>43402</v>
+      </c>
+      <c r="I2012" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2013" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2013" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2013">
+        <v>1</v>
+      </c>
+      <c r="G2013" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2013" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2014" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2014" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2014">
+        <v>1</v>
+      </c>
+      <c r="G2014" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2014" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2015" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2015" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2015">
+        <v>1</v>
+      </c>
+      <c r="G2015" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2015" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2016" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2016" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2016">
+        <v>1</v>
+      </c>
+      <c r="G2016" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2016" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2017" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2017" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2017">
+        <v>1</v>
+      </c>
+      <c r="G2017" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2017" s="25">
+        <v>43404</v>
+      </c>
+      <c r="I2017" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2018" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2018" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2018">
+        <v>1</v>
+      </c>
+      <c r="G2018" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2018" s="25">
+        <v>43404</v>
+      </c>
+      <c r="I2018" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2019" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2019" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2019">
+        <v>1</v>
+      </c>
+      <c r="G2019" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2019" s="25">
+        <v>43403</v>
+      </c>
+      <c r="I2019" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2020" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2020" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2020">
+        <v>1</v>
+      </c>
+      <c r="G2020" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2020" s="25">
+        <v>43403</v>
+      </c>
+      <c r="I2020" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2021" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2021" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2021">
+        <v>1</v>
+      </c>
+      <c r="G2021" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2021" s="25">
+        <v>43403</v>
+      </c>
+      <c r="I2021" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2022" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2022" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2022">
+        <v>1</v>
+      </c>
+      <c r="G2022" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2022" s="25">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2023" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2023" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2023">
+        <v>1</v>
+      </c>
+      <c r="G2023" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2023" s="25">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2024" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2024" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2024">
+        <v>1</v>
+      </c>
+      <c r="G2024" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2024" s="25">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2025" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2025" s="38">
+        <v>800.00099999999998</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2025">
+        <v>1</v>
+      </c>
+      <c r="G2025" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2025" s="25">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2026" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2026" s="38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2026">
+        <v>1</v>
+      </c>
+      <c r="F2026">
+        <v>1</v>
+      </c>
+      <c r="G2026" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2026" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2027" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2027" s="38" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2027">
+        <v>1</v>
+      </c>
+      <c r="F2027">
+        <v>1</v>
+      </c>
+      <c r="G2027" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2027" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2028" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2028" s="38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2028">
+        <v>1</v>
+      </c>
+      <c r="F2028">
+        <v>1</v>
+      </c>
+      <c r="G2028" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2028" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2029" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2029" s="38">
+        <v>928.01</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2029">
+        <v>1</v>
+      </c>
+      <c r="F2029" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G2029" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2029" s="25">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2030" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2030" s="38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2030">
+        <v>1</v>
+      </c>
+      <c r="F2030">
+        <v>1</v>
+      </c>
+      <c r="G2030" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2030" s="25">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2031" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2031" s="38" t="s">
+        <v>961</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2031">
+        <v>1</v>
+      </c>
+      <c r="F2031">
+        <v>1</v>
+      </c>
+      <c r="G2031" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2031" s="25">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2032" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2032" s="38">
+        <v>1003</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>973</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2032">
+        <v>2</v>
+      </c>
+      <c r="F2032">
+        <v>1</v>
+      </c>
+      <c r="G2032" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2032" s="25">
+        <v>43404</v>
+      </c>
+      <c r="I2032" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2032" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2033" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2033" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2033">
+        <v>1</v>
+      </c>
+      <c r="G2033" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2033" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2034" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2034" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>969</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2034">
+        <v>1</v>
+      </c>
+      <c r="G2034" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2034" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2035" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2035" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2035">
+        <v>1</v>
+      </c>
+      <c r="G2035" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2035" s="25">
+        <v>43402</v>
+      </c>
+      <c r="I2035" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2036" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2036" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2036">
+        <v>1</v>
+      </c>
+      <c r="G2036" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2036" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2037" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2037" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2037">
+        <v>1</v>
+      </c>
+      <c r="F2037" t="s">
+        <v>986</v>
+      </c>
+      <c r="G2037" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2037" s="25">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2038" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2038" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2038">
+        <v>4</v>
+      </c>
+      <c r="G2038" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2038" s="25">
+        <v>43402</v>
+      </c>
+      <c r="I2038" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2039" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2039" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2039">
+        <v>4</v>
+      </c>
+      <c r="G2039" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2039" s="25">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2040" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2040" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2040">
+        <v>1</v>
+      </c>
+      <c r="G2040" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2040" s="25">
+        <v>43402</v>
+      </c>
+      <c r="J2040" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2041" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2041" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2041">
+        <v>1</v>
+      </c>
+      <c r="G2041" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2041" s="25">
+        <v>43402</v>
+      </c>
+      <c r="I2041" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2042" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2042" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2042">
+        <v>1</v>
+      </c>
+      <c r="G2042" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2042" s="25">
+        <v>43403</v>
+      </c>
+      <c r="I2042" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2042" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2043" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2043" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2043">
+        <v>1</v>
+      </c>
+      <c r="G2043" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2043" s="25">
+        <v>43403</v>
+      </c>
+      <c r="I2043" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2043" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2044" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2044" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2044">
+        <v>1</v>
+      </c>
+      <c r="G2044" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2044" s="25">
+        <v>43403</v>
+      </c>
+      <c r="I2044" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2044" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2045" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2045" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2045">
+        <v>1</v>
+      </c>
+      <c r="G2045" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2045" s="25">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2046" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2046" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>969</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2046">
+        <v>1</v>
+      </c>
+      <c r="G2046" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2046" s="25">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2047" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2047" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2047">
+        <v>1</v>
+      </c>
+      <c r="F2047" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G2047" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2047" s="25">
+        <v>43404</v>
+      </c>
+      <c r="I2047" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2047" t="s">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A793:H798">
     <sortCondition ref="H793:H798"/>
   </sortState>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1347">
       <formula1>$A$2:$A$54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1801:C1862 C2520:C1048576">
+      <formula1>$A$2:$A$61</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53766,12 +61516,12 @@
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G315 G317:G661 G671:G924 G926:G1197 G1208:G1579 G1589:G1048576</xm:sqref>
+          <xm:sqref>G2:G315 G317:G661 G671:G924 G926:G1197 G1208:G1579 G1589:G1765 G1801:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -53783,19 +61533,19 @@
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A661 A671:A924 A926:A1197 A1208:A1579 A1589:A1048576</xm:sqref>
+          <xm:sqref>A1:A661 A671:A924 A926:A1197 A1208:A1579 A1589:A1765 A1801:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:I661 I671:I1197 I1208:I1579 I1589:I1048576</xm:sqref>
+          <xm:sqref>I1:I661 I671:I1197 I1208:I1579 I1589:I1765 I1801:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Deliverable Types'!$A$1:$A$31</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D661 D671:D924 D926:D1197 D1589:D1048576 D1208:D1579</xm:sqref>
+          <xm:sqref>D2:D661 D671:D924 D926:D1197 D1208:D1579 D1589:D1765 D1801:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -53847,9 +61597,39 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Application!$A$2:$A$57</xm:f>
+            <xm:f>Application!$A$2:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C1765 C1863:C2519</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Application'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1766:C1800</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Deliverable Types'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1766:D1800</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Reasons for Disapproval'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1766:I1800</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]SQA'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1766:A1800</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]A or D'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1766:G1800</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -53894,10 +61674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53922,277 +61702,298 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>787</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>973</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>889</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>889</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>911</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>369</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>911</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>450</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>499</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>42</v>
+      <c r="A48" s="44" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>912</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>498</v>
+        <v>991</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>378</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A57">
-    <sortCondition ref="A2:A57"/>
+  <autoFilter ref="A1:A60"/>
+  <sortState ref="A2:A61">
+    <sortCondition ref="A2:A61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\D09HD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FPA" sheetId="1" r:id="rId1"/>
-    <sheet name="SQA" sheetId="4" r:id="rId2"/>
-    <sheet name="Application" sheetId="5" r:id="rId3"/>
-    <sheet name="Deliverable Types" sheetId="2" r:id="rId4"/>
-    <sheet name="Reasons for Disapproval" sheetId="3" r:id="rId5"/>
-    <sheet name="A or D" sheetId="6" r:id="rId6"/>
+    <sheet name="ACR" sheetId="7" r:id="rId1"/>
+    <sheet name="FPA" sheetId="1" r:id="rId2"/>
+    <sheet name="SQA" sheetId="4" r:id="rId3"/>
+    <sheet name="Application" sheetId="5" r:id="rId4"/>
+    <sheet name="Deliverable Types" sheetId="2" r:id="rId5"/>
+    <sheet name="Reasons for Disapproval" sheetId="3" r:id="rId6"/>
+    <sheet name="A or D" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Application!$A$1:$A$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FPA!$A$1:$J$1385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Application!$A$1:$A$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1385</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11387" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12485" uniqueCount="1176">
   <si>
     <t>Project ID</t>
   </si>
@@ -3123,15 +3125,469 @@
   </si>
   <si>
     <t>through email; parent 00085.000</t>
+  </si>
+  <si>
+    <t>TEST PROTOCOL-08 Version-04</t>
+  </si>
+  <si>
+    <t>TEST PROTOCOL-10 Version-02</t>
+  </si>
+  <si>
+    <t>TEST PROTOCOL-12 Version-02</t>
+  </si>
+  <si>
+    <t>Via meeting review &amp; email</t>
+  </si>
+  <si>
+    <t>TCP Reagent Map</t>
+  </si>
+  <si>
+    <t>parent 00076.000 (TCP)</t>
+  </si>
+  <si>
+    <t>parent 00076.000 (TCP) resubmitted</t>
+  </si>
+  <si>
+    <t>TCP Printing</t>
+  </si>
+  <si>
+    <t>Parent 00057.000 (TCP)</t>
+  </si>
+  <si>
+    <t>FRS to protocol</t>
+  </si>
+  <si>
+    <t>ACR #</t>
+  </si>
+  <si>
+    <t>Date of CR Approval or Disapproval</t>
+  </si>
+  <si>
+    <t>CR Approve or Disapprove?</t>
+  </si>
+  <si>
+    <t>ACR I&amp;E #</t>
+  </si>
+  <si>
+    <t>Date of I&amp;E Approval or Disapproval</t>
+  </si>
+  <si>
+    <t>I&amp;E Approve or Disapprove?</t>
+  </si>
+  <si>
+    <t>Incorrect Objective Evidence</t>
+  </si>
+  <si>
+    <t>Incorrect Approvers</t>
+  </si>
+  <si>
+    <t>Inadequate Description of Change</t>
+  </si>
+  <si>
+    <t>18-32638</t>
+  </si>
+  <si>
+    <t>18-32573</t>
+  </si>
+  <si>
+    <t>18-32120</t>
+  </si>
+  <si>
+    <t>18-32454</t>
+  </si>
+  <si>
+    <t>18-32453</t>
+  </si>
+  <si>
+    <t>18-32450</t>
+  </si>
+  <si>
+    <t>18-32445</t>
+  </si>
+  <si>
+    <t>18-31976</t>
+  </si>
+  <si>
+    <t>18-33882</t>
+  </si>
+  <si>
+    <t>18-34518</t>
+  </si>
+  <si>
+    <t>18-35950</t>
+  </si>
+  <si>
+    <t>18-36023</t>
+  </si>
+  <si>
+    <t>CSIT09242</t>
+  </si>
+  <si>
+    <t>18-31107</t>
+  </si>
+  <si>
+    <t>CSIT09244</t>
+  </si>
+  <si>
+    <t>CSIT08209</t>
+  </si>
+  <si>
+    <t>CSIT09227</t>
+  </si>
+  <si>
+    <t>18-28642</t>
+  </si>
+  <si>
+    <t>CSIT09095</t>
+  </si>
+  <si>
+    <t>CSIT09106</t>
+  </si>
+  <si>
+    <t>CSIT09236</t>
+  </si>
+  <si>
+    <t>18-32852</t>
+  </si>
+  <si>
+    <t>CSIT09250</t>
+  </si>
+  <si>
+    <t>CSIT08588</t>
+  </si>
+  <si>
+    <t>18-33050</t>
+  </si>
+  <si>
+    <t>18-33142</t>
+  </si>
+  <si>
+    <t>CSIT07991</t>
+  </si>
+  <si>
+    <t>CSIT0824</t>
+  </si>
+  <si>
+    <t>CSIT09217</t>
+  </si>
+  <si>
+    <t>18-33752</t>
+  </si>
+  <si>
+    <t>CSIT09285</t>
+  </si>
+  <si>
+    <t>CSIT08919</t>
+  </si>
+  <si>
+    <t>CSIT08921</t>
+  </si>
+  <si>
+    <t>CSIT08991</t>
+  </si>
+  <si>
+    <t>CSIT09107</t>
+  </si>
+  <si>
+    <t>CSIT09122</t>
+  </si>
+  <si>
+    <t>CSIT09187</t>
+  </si>
+  <si>
+    <t>CSIT09205</t>
+  </si>
+  <si>
+    <t>CSIT09208</t>
+  </si>
+  <si>
+    <t>CSIT09221</t>
+  </si>
+  <si>
+    <t>CSIT09276</t>
+  </si>
+  <si>
+    <t>CSIT09280</t>
+  </si>
+  <si>
+    <t>18-34659</t>
+  </si>
+  <si>
+    <t>CSIT09292</t>
+  </si>
+  <si>
+    <t>CSIT09131</t>
+  </si>
+  <si>
+    <t>CSIT09293</t>
+  </si>
+  <si>
+    <t>CSIT09295</t>
+  </si>
+  <si>
+    <t>CSIT09290</t>
+  </si>
+  <si>
+    <t>18-754</t>
+  </si>
+  <si>
+    <t>CSIT09299</t>
+  </si>
+  <si>
+    <t>CSIT09303</t>
+  </si>
+  <si>
+    <t>18-35915</t>
+  </si>
+  <si>
+    <t>18-35434</t>
+  </si>
+  <si>
+    <t>18-33520</t>
+  </si>
+  <si>
+    <t>18-32653</t>
+  </si>
+  <si>
+    <t>18-32650</t>
+  </si>
+  <si>
+    <t>18-32618</t>
+  </si>
+  <si>
+    <t>18-32615</t>
+  </si>
+  <si>
+    <t>18-32611</t>
+  </si>
+  <si>
+    <t>18-32608</t>
+  </si>
+  <si>
+    <t>18-33155</t>
+  </si>
+  <si>
+    <t>18-36005</t>
+  </si>
+  <si>
+    <t>18-32567</t>
+  </si>
+  <si>
+    <t>18-32797</t>
+  </si>
+  <si>
+    <t>18-34308</t>
+  </si>
+  <si>
+    <t>18-34247</t>
+  </si>
+  <si>
+    <t>18-3016</t>
+  </si>
+  <si>
+    <t>18-36081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing necessary approvers </t>
+  </si>
+  <si>
+    <t>Missing necessary approvers again</t>
+  </si>
+  <si>
+    <t>Changes needed in CMSNext for Apollo</t>
+  </si>
+  <si>
+    <t>Bad sign deligation meno and missing approver</t>
+  </si>
+  <si>
+    <t>second round approval (16 oct disapproval for privacy info included in OE)</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Parent 00076.000 Resubmitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alinity c Assay Detail </t>
+  </si>
+  <si>
+    <t>Parent 00085.000</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>18-38261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alinity c Driver </t>
+  </si>
+  <si>
+    <t>Parent 00086.000</t>
+  </si>
+  <si>
+    <t>001136.000</t>
+  </si>
+  <si>
+    <t>18-38686</t>
+  </si>
+  <si>
+    <t>18-38222</t>
+  </si>
+  <si>
+    <t>18-38060</t>
+  </si>
+  <si>
+    <t>iQ</t>
+  </si>
+  <si>
+    <t>36887-2018</t>
+  </si>
+  <si>
+    <t>00634.017</t>
+  </si>
+  <si>
+    <t>28_Nov-2018</t>
+  </si>
+  <si>
+    <t>18-37931</t>
+  </si>
+  <si>
+    <t>18-38788</t>
+  </si>
+  <si>
+    <t>18-37808</t>
+  </si>
+  <si>
+    <t>18-38583</t>
+  </si>
+  <si>
+    <t>18-38444</t>
+  </si>
+  <si>
+    <t>18-39637</t>
+  </si>
+  <si>
+    <t>18-37620</t>
+  </si>
+  <si>
+    <t>18-38571</t>
+  </si>
+  <si>
+    <t>18-37398</t>
+  </si>
+  <si>
+    <t>18-38572</t>
+  </si>
+  <si>
+    <t>18-37824</t>
+  </si>
+  <si>
+    <t>18-38587</t>
+  </si>
+  <si>
+    <t>18-37790</t>
+  </si>
+  <si>
+    <t>18-38790</t>
+  </si>
+  <si>
+    <t>18-38985</t>
+  </si>
+  <si>
+    <t>18-39673</t>
+  </si>
+  <si>
+    <t>18-39780</t>
+  </si>
+  <si>
+    <t>18-38344</t>
+  </si>
+  <si>
+    <t>18-39209</t>
+  </si>
+  <si>
+    <t>18-40047</t>
+  </si>
+  <si>
+    <t>Inspect Document</t>
+  </si>
+  <si>
+    <t>Parent 00025.000</t>
+  </si>
+  <si>
+    <t>Windows 10 testing</t>
+  </si>
+  <si>
+    <t>Alinity c Assay Detail</t>
+  </si>
+  <si>
+    <t>00332.010</t>
+  </si>
+  <si>
+    <t>ePAS 18-36820</t>
+  </si>
+  <si>
+    <t>ePAS 11-39647 V4</t>
+  </si>
+  <si>
+    <t>ePAS 18-26674 V2</t>
+  </si>
+  <si>
+    <t>ePAS 18-36663</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>multiple issues. Refered to Rebecca for how to write requirements. Via email</t>
+  </si>
+  <si>
+    <t>ePAS 18-33014</t>
+  </si>
+  <si>
+    <t>ePAS 18-32570</t>
+  </si>
+  <si>
+    <t>Step 1.6 updae to iclude source for R script/zip folder</t>
+  </si>
+  <si>
+    <t>ePAS 15-15617 V9</t>
+  </si>
+  <si>
+    <t>ePAS 16-38941 V4</t>
+  </si>
+  <si>
+    <t>ePAS 11-9948 V21</t>
+  </si>
+  <si>
+    <t>ePAS 18-39301</t>
+  </si>
+  <si>
+    <t>Helios Global Contact Center</t>
+  </si>
+  <si>
+    <t>ePAS 18-177985 V2</t>
+  </si>
+  <si>
+    <t>ePAS 18-17990 V2</t>
+  </si>
+  <si>
+    <t>ePAS 18-36666 V1</t>
+  </si>
+  <si>
+    <t>1003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -3187,7 +3643,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3197,6 +3653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3291,7 +3753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3399,6 +3861,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3442,11 +3922,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3474,6 +3954,27 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Application"/>
+      <sheetName val="Deliverable Types"/>
+      <sheetName val="Reasons for Disapproval"/>
+      <sheetName val="SQA"/>
+      <sheetName val="A or D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3791,11 +4292,1742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2047"/>
+  <dimension ref="A1:J74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="47" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D2" s="47">
+        <v>43376</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G2" s="47">
+        <v>43383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D3" s="47">
+        <v>43376</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G3" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D4" s="47">
+        <v>43376</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G4" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D5" s="47">
+        <v>43376</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G5" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D6" s="47">
+        <v>43376</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G6" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D7" s="47">
+        <v>43375</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G7" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>779</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D8" s="47">
+        <v>43375</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G8" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D9" s="47">
+        <v>43375</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G9" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D10" s="47">
+        <v>43375</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G10" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>779</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D11" s="47">
+        <v>43370</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G11" s="47">
+        <v>43381</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D12" s="47">
+        <v>43385</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G12" s="47">
+        <v>43411</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D13" s="47">
+        <v>43390</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>779</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D14" s="47">
+        <v>43403</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G14" s="47">
+        <v>43403</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D15" s="47">
+        <v>43403</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D16" s="47">
+        <v>43374</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="47">
+        <v>43363</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G17" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D18" s="47">
+        <v>43376</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G18" s="47">
+        <v>43377</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D19" s="47">
+        <v>42818</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G19" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D20" s="47">
+        <v>43369</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G20" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D21" s="47">
+        <v>43356</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G21" s="47">
+        <v>43377</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D22" s="47">
+        <v>43280</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G22" s="47">
+        <v>43377</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D23" s="47">
+        <v>43290</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G23" s="47">
+        <v>43377</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D24" s="47">
+        <v>43370</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G24" s="47">
+        <v>43377</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D25" s="47">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D26" s="47">
+        <v>43377</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G26" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D27" s="47">
+        <v>43031</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G27" s="47">
+        <v>43377</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>912</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D28" s="47">
+        <v>43378</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G28" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D29" s="47">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D30" s="47">
+        <v>42704</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G30" s="47">
+        <v>43381</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D31" s="47">
+        <v>42597</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G31" s="47">
+        <v>43381</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D32" s="47">
+        <v>43360</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G32" s="47">
+        <v>43381</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D33" s="47">
+        <v>43384</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D34" s="47">
+        <v>43385</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G34" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D35" s="47">
+        <v>43389</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G35" s="47">
+        <v>43398</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D36" s="47">
+        <v>43250</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G36" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D37" s="47">
+        <v>43223</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G37" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D38" s="47">
+        <v>43223</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G38" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D39" s="47">
+        <v>43287</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G39" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D40" s="47">
+        <v>43298</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G40" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D41" s="47">
+        <v>43339</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G41" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D42" s="47">
+        <v>43367</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G42" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D43" s="47">
+        <v>43354</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G43" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D44" s="47">
+        <v>43360</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G44" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D45" s="47">
+        <v>43363</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G45" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D46" s="47">
+        <v>43384</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G46" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D47" s="47">
+        <v>43384</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G47" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D48" s="47">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D49" s="47">
+        <v>43391</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G49" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D50" s="47">
+        <v>43301</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G50" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D51" s="47">
+        <v>43392</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G51" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D52" s="47">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D53" s="47">
+        <v>43396</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G53" s="47">
+        <v>43398</v>
+      </c>
+      <c r="H53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D54" s="47">
+        <v>43397</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G54" s="47">
+        <v>43397</v>
+      </c>
+      <c r="H54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D55" s="47">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D56" s="47">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D57" s="47">
+        <v>43403</v>
+      </c>
+      <c r="H57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D58" s="47">
+        <v>43398</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G58" s="47">
+        <v>43404</v>
+      </c>
+      <c r="H58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D59" s="47">
+        <v>43423</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D60" s="47">
+        <v>43424</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D61" s="47">
+        <v>43423</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D62" s="47">
+        <v>43420</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D63" s="47">
+        <v>43430</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>779</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D64" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G64" s="47">
+        <v>43430</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>779</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D65" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G65" s="47">
+        <v>43430</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>779</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D66" s="47">
+        <v>43430</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G66" s="47">
+        <v>43433</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>779</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D67" s="47">
+        <v>43418</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G67" s="47">
+        <v>43430</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>779</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D68" s="47">
+        <v>43417</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G68" s="47">
+        <v>43430</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>779</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D69" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G69" s="47">
+        <v>43430</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>779</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D70" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G70" s="47">
+        <v>43430</v>
+      </c>
+      <c r="H70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>779</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D71" s="47">
+        <v>43430</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G71" s="47">
+        <v>43434</v>
+      </c>
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>779</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D72" s="47">
+        <v>43430</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G72" s="47">
+        <v>43434</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>779</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D73" s="47">
+        <v>43430</v>
+      </c>
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G73" s="47">
+        <v>43433</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>779</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D74" s="47">
+        <v>43433</v>
+      </c>
+      <c r="E74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G74" s="47">
+        <v>43434</v>
+      </c>
+      <c r="H74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>SQA!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Application!$A$2:$A$62</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'A or D'!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576 H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Reasons for Disapproval'!$A$1:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2035" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2033" sqref="A2033:J2047"/>
+      <pane ySplit="1" topLeftCell="A2157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2187" sqref="A2187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61497,16 +63729,3661 @@
         <v>1024</v>
       </c>
     </row>
+    <row r="2048" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2048" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2048" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2048">
+        <v>1</v>
+      </c>
+      <c r="G2048" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2048" s="25">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2049" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2049" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2049">
+        <v>1</v>
+      </c>
+      <c r="G2049" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2049" s="25">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2050" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2050" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2050">
+        <v>1</v>
+      </c>
+      <c r="G2050" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2050" s="25">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2051" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2051" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2051">
+        <v>1</v>
+      </c>
+      <c r="G2051" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2051" s="25">
+        <v>43406</v>
+      </c>
+      <c r="I2051" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2052" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2052" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2052">
+        <v>1</v>
+      </c>
+      <c r="G2052" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2052" s="25">
+        <v>43410</v>
+      </c>
+      <c r="I2052" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2052" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2053" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2053" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2053">
+        <v>1</v>
+      </c>
+      <c r="G2053" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2053" s="25">
+        <v>43410</v>
+      </c>
+      <c r="I2053" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2054" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2054" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2054">
+        <v>1</v>
+      </c>
+      <c r="G2054" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2054" s="25">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2055" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2055" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2055">
+        <v>1</v>
+      </c>
+      <c r="F2055" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G2055" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2055" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2056" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2056" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2056">
+        <v>1</v>
+      </c>
+      <c r="F2056" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G2056" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2056" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2057" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2057" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2057">
+        <v>1</v>
+      </c>
+      <c r="F2057" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G2057" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2057" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2058" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2058" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2058">
+        <v>1</v>
+      </c>
+      <c r="G2058" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2058" s="25">
+        <v>43409</v>
+      </c>
+      <c r="I2058" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2058" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2059" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2059" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2059">
+        <v>1</v>
+      </c>
+      <c r="G2059" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2059" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2060" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2060" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2060">
+        <v>1</v>
+      </c>
+      <c r="G2060" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2060" s="25">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2061" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2061" s="38">
+        <v>1104</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2061">
+        <v>1</v>
+      </c>
+      <c r="G2061" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2061" s="25">
+        <v>43410</v>
+      </c>
+      <c r="I2061" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2061" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2062" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2062" s="38">
+        <v>1033.019</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2062">
+        <v>1</v>
+      </c>
+      <c r="G2062" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2062" s="25">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2063" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2063" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2063">
+        <v>1</v>
+      </c>
+      <c r="G2063" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2063" s="25">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2064" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2064" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2064">
+        <v>1</v>
+      </c>
+      <c r="G2064" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2064" s="25">
+        <v>43411</v>
+      </c>
+      <c r="I2064" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2065" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2065" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2065">
+        <v>1</v>
+      </c>
+      <c r="G2065" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2065" s="25">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2066" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2066" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2066">
+        <v>1</v>
+      </c>
+      <c r="G2066" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2066" s="25">
+        <v>43413</v>
+      </c>
+      <c r="I2066" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2067" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2067" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2067" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2067" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2067" s="21">
+        <v>2</v>
+      </c>
+      <c r="F2067" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G2067" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2067" s="50">
+        <v>43409</v>
+      </c>
+      <c r="I2067" s="48"/>
+      <c r="J2067" s="48" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2068" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2068" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2068" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2068" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2068" s="21">
+        <v>2</v>
+      </c>
+      <c r="F2068" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G2068" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2068" s="50">
+        <v>43412</v>
+      </c>
+      <c r="I2068" s="48"/>
+      <c r="J2068" s="48" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2069" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2069" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2069" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2069" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2069" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2069" s="21"/>
+      <c r="G2069" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2069" s="50">
+        <v>43410</v>
+      </c>
+      <c r="I2069" s="48"/>
+      <c r="J2069" s="48"/>
+    </row>
+    <row r="2070" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2070" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2070" s="49" t="s">
+        <v>934</v>
+      </c>
+      <c r="C2070" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2070" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2070" s="21">
+        <v>2</v>
+      </c>
+      <c r="F2070" s="21"/>
+      <c r="G2070" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2070" s="50">
+        <v>43411</v>
+      </c>
+      <c r="I2070" s="48"/>
+      <c r="J2070" s="48"/>
+    </row>
+    <row r="2071" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2071" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2071" s="49" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C2071" s="21" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2071" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2071" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2071" s="21"/>
+      <c r="G2071" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2071" s="50">
+        <v>43411</v>
+      </c>
+      <c r="I2071" s="48"/>
+      <c r="J2071" s="48"/>
+    </row>
+    <row r="2072" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2072" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2072" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2072" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2072" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2072" s="21">
+        <v>28</v>
+      </c>
+      <c r="F2072" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G2072" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2072" s="50">
+        <v>43411</v>
+      </c>
+      <c r="I2072" s="48"/>
+      <c r="J2072" s="48" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2073" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2073" s="49" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2073" s="48" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2073" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2073" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2073" s="21"/>
+      <c r="G2073" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2073" s="50">
+        <v>43412</v>
+      </c>
+      <c r="I2073" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2073" s="48"/>
+    </row>
+    <row r="2074" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2074" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2074" s="49" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2074" s="48" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2074" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2074" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2074" s="21"/>
+      <c r="G2074" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2074" s="50">
+        <v>43412</v>
+      </c>
+      <c r="I2074" s="48"/>
+      <c r="J2074" s="48"/>
+    </row>
+    <row r="2075" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2075" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2075" s="49" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2075" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2075" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2075" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2075" s="21"/>
+      <c r="G2075" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2075" s="50">
+        <v>43412</v>
+      </c>
+      <c r="I2075" s="48"/>
+      <c r="J2075" s="48"/>
+    </row>
+    <row r="2076" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2076" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2076" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2076" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2076" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2076" s="48">
+        <v>17</v>
+      </c>
+      <c r="F2076" s="48" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G2076" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2076" s="50">
+        <v>43413</v>
+      </c>
+      <c r="I2076" s="48"/>
+      <c r="J2076" s="48"/>
+    </row>
+    <row r="2077" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2077" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2077" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2077" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2077" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2077" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2077" s="21"/>
+      <c r="G2077" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2077" s="50">
+        <v>43413</v>
+      </c>
+      <c r="I2077" s="48"/>
+      <c r="J2077" s="48"/>
+    </row>
+    <row r="2078" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2078" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2078" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2078" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2078" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2078" s="48">
+        <v>1</v>
+      </c>
+      <c r="F2078" s="48"/>
+      <c r="G2078" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2078" s="50">
+        <v>43413</v>
+      </c>
+      <c r="I2078" s="48"/>
+      <c r="J2078" s="48"/>
+    </row>
+    <row r="2079" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2079" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2079">
+        <v>1</v>
+      </c>
+      <c r="G2079" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2079" s="25">
+        <v>43416</v>
+      </c>
+      <c r="I2079" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2079" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2080" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2080">
+        <v>1</v>
+      </c>
+      <c r="G2080" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2080" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2081" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2081">
+        <v>1</v>
+      </c>
+      <c r="G2081" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2081" s="25">
+        <v>43417</v>
+      </c>
+      <c r="I2081" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2082" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2082">
+        <v>1</v>
+      </c>
+      <c r="G2082" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2082" s="25">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2083" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2083">
+        <v>1</v>
+      </c>
+      <c r="G2083" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2083" s="25">
+        <v>43416</v>
+      </c>
+      <c r="I2083" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2083" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2084" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2084">
+        <v>1</v>
+      </c>
+      <c r="G2084" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2084" s="25">
+        <v>43417</v>
+      </c>
+      <c r="I2084" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2084" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2085" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2085">
+        <v>1</v>
+      </c>
+      <c r="G2085" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2085" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2086" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2086" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2086">
+        <v>1</v>
+      </c>
+      <c r="G2086" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2086" s="25">
+        <v>43417</v>
+      </c>
+      <c r="I2086" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2086" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2087" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2087" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2087">
+        <v>1</v>
+      </c>
+      <c r="G2087" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2087" s="25">
+        <v>43418</v>
+      </c>
+      <c r="I2087" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2087" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2088" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2088" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2088">
+        <v>1</v>
+      </c>
+      <c r="G2088" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2088" s="25">
+        <v>43419</v>
+      </c>
+      <c r="I2088" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2089" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2089" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2089">
+        <v>1</v>
+      </c>
+      <c r="G2089" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2089" s="25">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2090" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2090" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2090">
+        <v>1</v>
+      </c>
+      <c r="G2090" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2090" s="25">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2091" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2091" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2091">
+        <v>1</v>
+      </c>
+      <c r="G2091" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2091" s="25">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2092" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2092" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2092">
+        <v>1</v>
+      </c>
+      <c r="G2092" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2092" s="25">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2093" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2093" s="38">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2093">
+        <v>1</v>
+      </c>
+      <c r="G2093" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2093" s="25">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2094" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2094" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2094">
+        <v>1</v>
+      </c>
+      <c r="G2094" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2094" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2095" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2095" s="38">
+        <v>655.00300000000004</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2095">
+        <v>1</v>
+      </c>
+      <c r="G2095" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2095" s="25">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2096" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2096" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2096">
+        <v>1</v>
+      </c>
+      <c r="G2096" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2096" s="25">
+        <v>43416</v>
+      </c>
+      <c r="I2096" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2096" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2097" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2097" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2097">
+        <v>1</v>
+      </c>
+      <c r="G2097" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2097" s="25">
+        <v>43416</v>
+      </c>
+      <c r="I2097" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2097" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2098" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2098" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2098">
+        <v>2</v>
+      </c>
+      <c r="F2098" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G2098" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2098" s="25">
+        <v>43417</v>
+      </c>
+      <c r="J2098" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2099" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2099">
+        <v>1</v>
+      </c>
+      <c r="F2099" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G2099" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2099" s="25">
+        <v>43417</v>
+      </c>
+      <c r="I2099" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2099" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2100" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2100">
+        <v>1</v>
+      </c>
+      <c r="F2100" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G2100" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2100" s="25">
+        <v>43417</v>
+      </c>
+      <c r="J2100" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2101" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2101">
+        <v>1</v>
+      </c>
+      <c r="F2101" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2101" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2102" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2102">
+        <v>2</v>
+      </c>
+      <c r="G2102" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2102" s="25">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2103" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2103">
+        <v>2</v>
+      </c>
+      <c r="F2103">
+        <v>1</v>
+      </c>
+      <c r="G2103" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2103" s="25">
+        <v>43420</v>
+      </c>
+      <c r="I2103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2104" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2104">
+        <v>2</v>
+      </c>
+      <c r="F2104">
+        <v>1</v>
+      </c>
+      <c r="G2104" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2104" s="25">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2105" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2105">
+        <v>2</v>
+      </c>
+      <c r="F2105">
+        <v>2</v>
+      </c>
+      <c r="G2105" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2105" s="25">
+        <v>43420</v>
+      </c>
+      <c r="I2105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2106" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2106">
+        <v>2</v>
+      </c>
+      <c r="F2106">
+        <v>2</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2106" s="25">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2107" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2107">
+        <v>2</v>
+      </c>
+      <c r="F2107">
+        <v>4</v>
+      </c>
+      <c r="G2107" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2107" s="25">
+        <v>43420</v>
+      </c>
+      <c r="I2107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2108" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2108">
+        <v>2</v>
+      </c>
+      <c r="F2108">
+        <v>4</v>
+      </c>
+      <c r="G2108" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2108" s="25">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2109" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2109">
+        <v>2</v>
+      </c>
+      <c r="F2109">
+        <v>1</v>
+      </c>
+      <c r="G2109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2109" s="25">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2110" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2110">
+        <v>2</v>
+      </c>
+      <c r="F2110">
+        <v>2</v>
+      </c>
+      <c r="G2110" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2110" s="25">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2111" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2111">
+        <v>2</v>
+      </c>
+      <c r="F2111">
+        <v>4</v>
+      </c>
+      <c r="G2111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2111" s="25">
+        <v>43423</v>
+      </c>
+      <c r="I2111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2112" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2112">
+        <v>2</v>
+      </c>
+      <c r="F2112">
+        <v>4</v>
+      </c>
+      <c r="G2112" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2112" s="25">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2113" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2113">
+        <v>1</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G2113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2113" s="25">
+        <v>43423</v>
+      </c>
+      <c r="J2113" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2114" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2114">
+        <v>1</v>
+      </c>
+      <c r="G2114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2114" s="25">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2115" s="38" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2115">
+        <v>1</v>
+      </c>
+      <c r="G2115" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2115" s="25">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2116" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2116">
+        <v>2</v>
+      </c>
+      <c r="G2116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2116" s="25">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2117" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2117">
+        <v>1</v>
+      </c>
+      <c r="G2117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2117" s="25">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2118" s="55" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2118">
+        <v>2</v>
+      </c>
+      <c r="G2118" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2118" s="25">
+        <v>43430</v>
+      </c>
+      <c r="I2118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2119" s="55" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2119">
+        <v>2</v>
+      </c>
+      <c r="G2119" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2119" s="25">
+        <v>43430</v>
+      </c>
+      <c r="I2119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2120" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2120" s="55" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2120">
+        <v>2</v>
+      </c>
+      <c r="G2120" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2120" s="25">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2121" s="55" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2121">
+        <v>2</v>
+      </c>
+      <c r="G2121" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2121" s="25">
+        <v>43430</v>
+      </c>
+      <c r="I2121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2122" s="55" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2122">
+        <v>2</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2122" s="25">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2123" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2123" s="56">
+        <v>634.01800000000003</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2123">
+        <v>1</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2123" s="25">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2124" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2124" s="56">
+        <v>634.01800000000003</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2124">
+        <v>1</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2124" s="25">
+        <v>43431</v>
+      </c>
+      <c r="I2124" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2124" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2125" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2125" s="56">
+        <v>634.01800000000003</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2125">
+        <v>1</v>
+      </c>
+      <c r="G2125" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2125" s="25">
+        <v>43432</v>
+      </c>
+      <c r="I2125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2126" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2126" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2126">
+        <v>1</v>
+      </c>
+      <c r="G2126" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2126" s="25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I2126" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2126" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2127" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2127" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2127">
+        <v>1</v>
+      </c>
+      <c r="G2127" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2127" s="25">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2128" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2128" s="56">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2128">
+        <v>1</v>
+      </c>
+      <c r="G2128" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2128" s="25">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2129" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2129" s="56">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2129">
+        <v>1</v>
+      </c>
+      <c r="G2129" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2129" s="25">
+        <v>43431</v>
+      </c>
+      <c r="I2129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2130" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2130" s="56">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2130">
+        <v>2</v>
+      </c>
+      <c r="G2130" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2130" s="25">
+        <v>43432</v>
+      </c>
+      <c r="I2130" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2130" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2131" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2131" s="56">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2131">
+        <v>2</v>
+      </c>
+      <c r="G2131" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2131" s="25">
+        <v>43434</v>
+      </c>
+      <c r="I2131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2132" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2132" s="56">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2132">
+        <v>2</v>
+      </c>
+      <c r="G2132" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2132" s="25">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2133" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2133" s="56">
+        <v>679.00900000000001</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>963</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2133">
+        <v>2</v>
+      </c>
+      <c r="G2133" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2133" s="25">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2134" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2134" s="56">
+        <v>634.01800000000003</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2134">
+        <v>1</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2134" s="25">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2135" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2135" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2135">
+        <v>23</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G2135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2135" s="25">
+        <v>43430</v>
+      </c>
+      <c r="J2135" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2136" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2136" s="38">
+        <v>1101.001</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2136">
+        <v>1</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2136" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2136" s="25">
+        <v>43430</v>
+      </c>
+      <c r="I2136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2137" s="38">
+        <v>1101.001</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2137">
+        <v>1</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2137" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2137" s="25">
+        <v>43431</v>
+      </c>
+      <c r="I2137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2138" s="38">
+        <v>1101.001</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2138">
+        <v>1</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2138" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2138" s="25">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2139" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2139" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2139">
+        <v>1</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2139" s="25">
+        <v>43430</v>
+      </c>
+      <c r="I2139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2140" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2140" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2140">
+        <v>2</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2140" s="25">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2141" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2141" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2141">
+        <v>2</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2141" s="25">
+        <v>43431</v>
+      </c>
+      <c r="J2141" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2142" s="38">
+        <v>1101.001</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2142">
+        <v>3</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2142" s="25">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2143" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2143" s="38">
+        <v>1101.001</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2143">
+        <v>3</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2143" s="25">
+        <v>43431</v>
+      </c>
+      <c r="J2143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2144" s="38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2144">
+        <v>1</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2144" s="25">
+        <v>43432</v>
+      </c>
+      <c r="I2144" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2145" s="38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2145">
+        <v>1</v>
+      </c>
+      <c r="F2145" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2145" s="25">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2146" s="38" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2146">
+        <v>1</v>
+      </c>
+      <c r="F2146">
+        <v>1</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2146" s="25">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2147" s="38" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2147">
+        <v>1</v>
+      </c>
+      <c r="F2147">
+        <v>1</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2147" s="25">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2148" s="38" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2148">
+        <v>1</v>
+      </c>
+      <c r="F2148">
+        <v>1</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2148" s="25">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2149" s="38">
+        <v>750.01199999999994</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2149">
+        <v>7</v>
+      </c>
+      <c r="F2149">
+        <v>1</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2149" s="25">
+        <v>43405</v>
+      </c>
+      <c r="I2149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2150" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2150">
+        <v>1</v>
+      </c>
+      <c r="F2150">
+        <v>1</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2150" s="25">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2151" s="38">
+        <v>1003</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>973</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2151">
+        <v>2</v>
+      </c>
+      <c r="F2151">
+        <v>1</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2151" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2152" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2152">
+        <v>1</v>
+      </c>
+      <c r="F2152">
+        <v>1</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2152" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2153" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2153">
+        <v>1</v>
+      </c>
+      <c r="F2153">
+        <v>1</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2153" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2154" s="38" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2154">
+        <v>1</v>
+      </c>
+      <c r="F2154">
+        <v>1</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2154" s="25">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2155" s="38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>889</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2155">
+        <v>1</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2155" s="25">
+        <v>43410</v>
+      </c>
+      <c r="I2155" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2155" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2156" s="38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>889</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2156">
+        <v>1</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2156" s="25">
+        <v>43410</v>
+      </c>
+      <c r="I2156" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2156" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2157" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2157">
+        <v>2</v>
+      </c>
+      <c r="F2157">
+        <v>4</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2157" s="25">
+        <v>43410</v>
+      </c>
+      <c r="I2157" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2158" s="38">
+        <v>55.040999999999997</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2158">
+        <v>2</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2158" s="25">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2159" s="38" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2159">
+        <v>1</v>
+      </c>
+      <c r="F2159">
+        <v>1</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2159" s="25">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2160" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2160" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2160">
+        <v>1</v>
+      </c>
+      <c r="F2160">
+        <v>2</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2160" s="25">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2161" s="38" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2161">
+        <v>1</v>
+      </c>
+      <c r="F2161">
+        <v>1</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2161" s="25">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2162" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2162" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2162">
+        <v>1</v>
+      </c>
+      <c r="F2162">
+        <v>1</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2162" s="25">
+        <v>43417</v>
+      </c>
+      <c r="I2162" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2162" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2163" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2163">
+        <v>1</v>
+      </c>
+      <c r="F2163">
+        <v>1</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2163" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2164" s="38">
+        <v>1003</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>973</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2164">
+        <v>2</v>
+      </c>
+      <c r="F2164">
+        <v>2</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2164" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2165" s="38">
+        <v>1003</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>973</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2165">
+        <v>1</v>
+      </c>
+      <c r="F2165">
+        <v>1</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2165" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2166" s="38" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2166">
+        <v>1</v>
+      </c>
+      <c r="F2166">
+        <v>1</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2166" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2167" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2167" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2167">
+        <v>1</v>
+      </c>
+      <c r="F2167">
+        <v>1</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2167" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2168" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2168">
+        <v>1</v>
+      </c>
+      <c r="F2168">
+        <v>5</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2168" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2169" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2169" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2169">
+        <v>2</v>
+      </c>
+      <c r="F2169">
+        <v>5</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2169" s="25">
+        <v>43417</v>
+      </c>
+      <c r="I2169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2170" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2170" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2170">
+        <v>1</v>
+      </c>
+      <c r="F2170">
+        <v>1</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2170" s="25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2171" s="38">
+        <v>634.01700000000005</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2171">
+        <v>2</v>
+      </c>
+      <c r="F2171">
+        <v>5</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2171" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2172" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2172">
+        <v>1</v>
+      </c>
+      <c r="F2172">
+        <v>1</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2172" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2173" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2173">
+        <v>3</v>
+      </c>
+      <c r="F2173">
+        <v>1</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2173" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2174" s="38" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2174">
+        <v>1</v>
+      </c>
+      <c r="F2174">
+        <v>1</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2174" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2175" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2175" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2175">
+        <v>1</v>
+      </c>
+      <c r="F2175">
+        <v>1</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2175" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2176" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2176">
+        <v>1</v>
+      </c>
+      <c r="F2176">
+        <v>1</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2176" s="25">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2177" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2177" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2177">
+        <v>1</v>
+      </c>
+      <c r="F2177">
+        <v>1</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2177" s="25">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2178" s="38">
+        <v>1075.002</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2178">
+        <v>1</v>
+      </c>
+      <c r="F2178">
+        <v>1</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2178" s="25">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2179" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2179" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2179">
+        <v>1</v>
+      </c>
+      <c r="F2179">
+        <v>1</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2179" s="25">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2180" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2180" s="38">
+        <v>750.01199999999994</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2180">
+        <v>2</v>
+      </c>
+      <c r="F2180">
+        <v>1</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2180" s="25">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2181" s="38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2181">
+        <v>1</v>
+      </c>
+      <c r="F2181">
+        <v>1</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2181" s="25">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2182" s="38">
+        <v>1129</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2182">
+        <v>1</v>
+      </c>
+      <c r="F2182">
+        <v>1</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2182" s="25">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2183" s="38" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2183">
+        <v>1</v>
+      </c>
+      <c r="F2183">
+        <v>1</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2183" s="25">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2184" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2184" s="38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2184">
+        <v>1</v>
+      </c>
+      <c r="F2184">
+        <v>1</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2184" s="25">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2185" s="38" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2185">
+        <v>1</v>
+      </c>
+      <c r="F2185">
+        <v>1</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2185" s="25">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2186" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2186" s="38" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>973</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2186">
+        <v>1</v>
+      </c>
+      <c r="F2186">
+        <v>1</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2186" s="25">
+        <v>43434</v>
+      </c>
+      <c r="I2186" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2186" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A793:H798">
     <sortCondition ref="H793:H798"/>
   </sortState>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1347">
       <formula1>$A$2:$A$54</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1801:C1862 C2520:C1048576">
-      <formula1>$A$2:$A$61</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61516,12 +67393,12 @@
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G315 G317:G661 G671:G924 G926:G1197 G1208:G1579 G1589:G1765 G1801:G1048576</xm:sqref>
+          <xm:sqref>G2:G315 G317:G661 G671:G924 G926:G1197 G1208:G1579 G1589:G1765 G1801:G2066 G2079:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -61533,19 +67410,13 @@
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A661 A671:A924 A926:A1197 A1208:A1579 A1589:A1765 A1801:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Reasons for Disapproval'!$A$1:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>I1:I661 I671:I1197 I1208:I1579 I1589:I1765 I1801:I1048576</xm:sqref>
+          <xm:sqref>A1:A661 A671:A924 A926:A1197 A1208:A1579 A1589:A1765 A1801:A2066 A2079:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Deliverable Types'!$A$1:$A$31</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D661 D671:D924 D926:D1197 D1208:D1579 D1589:D1765 D1801:D1048576</xm:sqref>
+          <xm:sqref>D2:D661 D671:D924 D926:D1197 D1208:D1579 D1589:D1765 D1801:D2066 D2079:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -61558,12 +67429,6 @@
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G662:G670 G1198:G1207 G925</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Reasons for Disapproval'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I662:I670 I1198:I1207</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -61585,39 +67450,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]Reasons for Disapproval'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I1580:I1588</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A1580:A1588</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Application!$A$2:$A$61</xm:f>
+            <xm:f>Application!$A$2:$A$62</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1765 C1863:C2519</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Application'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1766:C1800</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1766:D1800</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Reasons for Disapproval'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I1766:I1800</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -61631,13 +67478,37 @@
           </x14:formula1>
           <xm:sqref>G1766:G1800</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]Deliverable Types'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2067:D2078</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]SQA'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2067:A2078</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]A or D'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2067:G2078</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Reasons for Disapproval'!$A$1:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -61672,12 +67543,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61872,135 +67743,140 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>911</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>912</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>991</v>
+        <v>912</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>991</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A60"/>
-  <sortState ref="A2:A61">
-    <sortCondition ref="A2:A61"/>
+  <autoFilter ref="A1:A61"/>
+  <sortState ref="A2:A62">
+    <sortCondition ref="A2:A62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
@@ -62177,12 +68053,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62197,63 +68073,78 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A11">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:A14">
+    <sortCondition ref="A1:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D0F35F-7188-4218-8CBD-747E5C1656B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11445" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACR" sheetId="7" r:id="rId1"/>
@@ -28,6 +29,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACR!$A$1:$J$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Application!$A$1:$A$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1385</definedName>
   </definedNames>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12485" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12757" uniqueCount="1222">
   <si>
     <t>Project ID</t>
   </si>
@@ -3579,11 +3581,149 @@
   <si>
     <t>1003</t>
   </si>
+  <si>
+    <t>OE fials to show what the region was changed to.</t>
+  </si>
+  <si>
+    <t>18-37191</t>
+  </si>
+  <si>
+    <t>18-36471</t>
+  </si>
+  <si>
+    <t>CSIT09308</t>
+  </si>
+  <si>
+    <t>CSIT09307</t>
+  </si>
+  <si>
+    <t>CSIT09311</t>
+  </si>
+  <si>
+    <t>CSIT09310</t>
+  </si>
+  <si>
+    <t>CSIT09309</t>
+  </si>
+  <si>
+    <t>CSIT09314</t>
+  </si>
+  <si>
+    <t>Iclude before OE is non-compliant and incomplete</t>
+  </si>
+  <si>
+    <t>18-37352</t>
+  </si>
+  <si>
+    <t>18-37351</t>
+  </si>
+  <si>
+    <t>18-37549</t>
+  </si>
+  <si>
+    <t>18-37718</t>
+  </si>
+  <si>
+    <t>18-37980</t>
+  </si>
+  <si>
+    <t>CSIT09316</t>
+  </si>
+  <si>
+    <t>CSIT09188</t>
+  </si>
+  <si>
+    <t>CSIT09288</t>
+  </si>
+  <si>
+    <t>CSIT09301</t>
+  </si>
+  <si>
+    <t>CSIT09319</t>
+  </si>
+  <si>
+    <t>CSIT09318</t>
+  </si>
+  <si>
+    <t>CSIT09325</t>
+  </si>
+  <si>
+    <t>CSIT09324</t>
+  </si>
+  <si>
+    <t>CSIT09322</t>
+  </si>
+  <si>
+    <t>CSIT09321</t>
+  </si>
+  <si>
+    <t>CSIT09320</t>
+  </si>
+  <si>
+    <t>CSIT09317</t>
+  </si>
+  <si>
+    <t>CSIT09327</t>
+  </si>
+  <si>
+    <t>CSIT09333</t>
+  </si>
+  <si>
+    <t>CSIT09332</t>
+  </si>
+  <si>
+    <t>CSIT09329</t>
+  </si>
+  <si>
+    <t>CSIT09335</t>
+  </si>
+  <si>
+    <t>CSIT09340</t>
+  </si>
+  <si>
+    <t>CSIT09341</t>
+  </si>
+  <si>
+    <t>CSIT09346</t>
+  </si>
+  <si>
+    <t>CSIT09344</t>
+  </si>
+  <si>
+    <t>CSIT09328</t>
+  </si>
+  <si>
+    <t>CSIT09339</t>
+  </si>
+  <si>
+    <t>CSIT09345</t>
+  </si>
+  <si>
+    <t>CSIT09350</t>
+  </si>
+  <si>
+    <t>CSIT09147</t>
+  </si>
+  <si>
+    <t>Change not made to some items</t>
+  </si>
+  <si>
+    <t>CSIT09144</t>
+  </si>
+  <si>
+    <t>CSIT09175</t>
+  </si>
+  <si>
+    <t>CSIT09174</t>
+  </si>
+  <si>
+    <t>CSIT09277</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -4291,12 +4431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,22 +4485,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>779</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="D2" s="47">
-        <v>43376</v>
+        <v>43385</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>1097</v>
+        <v>1052</v>
       </c>
       <c r="G2" s="47">
-        <v>43383</v>
+        <v>43411</v>
       </c>
       <c r="H2" t="s">
         <v>74</v>
@@ -4368,174 +4511,120 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>779</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="D3" s="47">
-        <v>43376</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G3" s="47">
-        <v>43376</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1112</v>
+        <v>43390</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>779</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="D4" s="47">
-        <v>43376</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G4" s="47">
-        <v>43376</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1113</v>
+        <v>43403</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>779</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>1045</v>
+        <v>1122</v>
       </c>
       <c r="D5" s="47">
-        <v>43376</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G5" s="47">
-        <v>43376</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
+        <v>43423</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>1046</v>
+        <v>1126</v>
       </c>
       <c r="D6" s="47">
-        <v>43376</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G6" s="47">
-        <v>43376</v>
-      </c>
-      <c r="H6" t="s">
+        <v>43424</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>779</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>1047</v>
+        <v>1127</v>
       </c>
       <c r="D7" s="47">
-        <v>43375</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G7" s="47">
-        <v>43376</v>
-      </c>
-      <c r="H7" t="s">
+        <v>43423</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>779</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>1048</v>
+        <v>1128</v>
       </c>
       <c r="D8" s="47">
-        <v>43375</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G8" s="47">
-        <v>43376</v>
-      </c>
-      <c r="H8" t="s">
+        <v>43420</v>
+      </c>
+      <c r="E8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>779</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>1129</v>
       </c>
       <c r="C9" t="s">
-        <v>1049</v>
+        <v>1130</v>
       </c>
       <c r="D9" s="47">
-        <v>43375</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G9" s="47">
-        <v>43376</v>
-      </c>
-      <c r="H9" t="s">
+        <v>43430</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4547,16 +4636,16 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D10" s="47">
-        <v>43375</v>
+        <v>43376</v>
       </c>
       <c r="F10" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="G10" s="47">
-        <v>43376</v>
+        <v>43383</v>
       </c>
       <c r="H10" t="s">
         <v>74</v>
@@ -4570,62 +4659,77 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D11" s="47">
-        <v>43370</v>
+        <v>43376</v>
       </c>
       <c r="F11" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="G11" s="47">
-        <v>43381</v>
+        <v>43376</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>779</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="47">
-        <v>43385</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
+        <v>43376</v>
       </c>
       <c r="F12" t="s">
-        <v>1052</v>
+        <v>1098</v>
       </c>
       <c r="G12" s="47">
-        <v>43411</v>
+        <v>43376</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>779</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="47">
-        <v>43390</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
+        <v>43376</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G13" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4636,16 +4740,16 @@
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="D14" s="47">
-        <v>43403</v>
+        <v>43376</v>
       </c>
       <c r="F14" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="G14" s="47">
-        <v>43403</v>
+        <v>43376</v>
       </c>
       <c r="H14" t="s">
         <v>74</v>
@@ -4653,378 +4757,429 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>779</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="D15" s="47">
-        <v>43403</v>
-      </c>
-      <c r="E15" t="s">
+        <v>43375</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="D16" s="47">
-        <v>43374</v>
+        <v>43375</v>
       </c>
       <c r="F16" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+      <c r="G16" s="47">
+        <v>43376</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="D17" s="47">
-        <v>43363</v>
+        <v>43375</v>
       </c>
       <c r="F17" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G17" s="47">
         <v>43376</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="D18" s="47">
+        <v>43375</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G18" s="47">
         <v>43376</v>
       </c>
-      <c r="F18" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G18" s="47">
-        <v>43377</v>
-      </c>
       <c r="H18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D19" s="47">
-        <v>42818</v>
+        <v>43370</v>
       </c>
       <c r="F19" t="s">
-        <v>1059</v>
+        <v>1104</v>
       </c>
       <c r="G19" s="47">
-        <v>43376</v>
+        <v>43381</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D20" s="47">
-        <v>43369</v>
+        <v>43403</v>
       </c>
       <c r="F20" t="s">
-        <v>1060</v>
+        <v>1105</v>
       </c>
       <c r="G20" s="47">
-        <v>43376</v>
+        <v>43403</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>1061</v>
+        <v>1133</v>
       </c>
       <c r="D21" s="47">
-        <v>43356</v>
+        <v>43419</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>1107</v>
+        <v>1134</v>
       </c>
       <c r="G21" s="47">
-        <v>43377</v>
+        <v>43430</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>1062</v>
+        <v>1135</v>
       </c>
       <c r="D22" s="47">
-        <v>43280</v>
+        <v>43419</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>1062</v>
+        <v>1136</v>
       </c>
       <c r="G22" s="47">
-        <v>43377</v>
+        <v>43430</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>1063</v>
+        <v>1137</v>
       </c>
       <c r="D23" s="47">
-        <v>43290</v>
+        <v>43430</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>1063</v>
+        <v>1138</v>
       </c>
       <c r="G23" s="47">
-        <v>43377</v>
+        <v>43433</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>1064</v>
+        <v>1139</v>
       </c>
       <c r="D24" s="47">
-        <v>43370</v>
+        <v>43418</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>1064</v>
+        <v>1140</v>
       </c>
       <c r="G24" s="47">
-        <v>43377</v>
+        <v>43430</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>1065</v>
+        <v>1141</v>
       </c>
       <c r="D25" s="47">
-        <v>43377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43417</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G25" s="47">
+        <v>43430</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>1066</v>
+        <v>1143</v>
       </c>
       <c r="D26" s="47">
-        <v>43377</v>
+        <v>43419</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>1066</v>
+        <v>1144</v>
       </c>
       <c r="G26" s="47">
-        <v>43389</v>
+        <v>43430</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>1067</v>
+        <v>1145</v>
       </c>
       <c r="D27" s="47">
-        <v>43031</v>
+        <v>43419</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>1067</v>
+        <v>1146</v>
       </c>
       <c r="G27" s="47">
-        <v>43377</v>
+        <v>43430</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B28" t="s">
-        <v>912</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>1068</v>
+        <v>1147</v>
       </c>
       <c r="D28" s="47">
-        <v>43378</v>
+        <v>43430</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>1108</v>
+        <v>1148</v>
       </c>
       <c r="G28" s="47">
-        <v>43389</v>
+        <v>43434</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>1069</v>
+        <v>1149</v>
       </c>
       <c r="D29" s="47">
-        <v>43381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43430</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G29" s="47">
+        <v>43434</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>1070</v>
+        <v>1150</v>
       </c>
       <c r="D30" s="47">
-        <v>42704</v>
+        <v>43430</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>1070</v>
+        <v>1138</v>
       </c>
       <c r="G30" s="47">
-        <v>43381</v>
+        <v>43433</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>779</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>1071</v>
+        <v>1151</v>
       </c>
       <c r="D31" s="47">
-        <v>42597</v>
+        <v>43433</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>1071</v>
+        <v>1152</v>
       </c>
       <c r="G31" s="47">
-        <v>43381</v>
+        <v>43434</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -5032,19 +5187,16 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="D32" s="47">
-        <v>43360</v>
+        <v>43374</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G32" s="47">
-        <v>43381</v>
-      </c>
-      <c r="H32" t="s">
-        <v>57</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5055,19 +5207,22 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="D33" s="47">
-        <v>43384</v>
+        <v>43363</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G33" s="47">
+        <v>43376</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5075,22 +5230,25 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="D34" s="47">
-        <v>43385</v>
+        <v>43376</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>1109</v>
+        <v>1058</v>
       </c>
       <c r="G34" s="47">
-        <v>43389</v>
+        <v>43377</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5101,16 +5259,19 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="D35" s="47">
-        <v>43389</v>
+        <v>42818</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="G35" s="47">
-        <v>43398</v>
+        <v>43376</v>
       </c>
       <c r="H35" t="s">
         <v>57</v>
@@ -5124,16 +5285,19 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="D36" s="47">
-        <v>43250</v>
+        <v>43369</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="G36" s="47">
-        <v>43389</v>
+        <v>43376</v>
       </c>
       <c r="H36" t="s">
         <v>57</v>
@@ -5144,19 +5308,22 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="D37" s="47">
-        <v>43223</v>
+        <v>43356</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>1076</v>
+        <v>1107</v>
       </c>
       <c r="G37" s="47">
-        <v>43389</v>
+        <v>43377</v>
       </c>
       <c r="H37" t="s">
         <v>57</v>
@@ -5170,20 +5337,26 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="D38" s="47">
-        <v>43223</v>
+        <v>43280</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="G38" s="47">
-        <v>43389</v>
+        <v>43377</v>
       </c>
       <c r="H38" t="s">
         <v>57</v>
       </c>
+      <c r="J38" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -5193,16 +5366,19 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="D39" s="47">
-        <v>43287</v>
+        <v>43290</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="G39" s="47">
-        <v>43389</v>
+        <v>43377</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
@@ -5216,16 +5392,19 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="D40" s="47">
-        <v>43298</v>
+        <v>43370</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="G40" s="47">
-        <v>43389</v>
+        <v>43377</v>
       </c>
       <c r="H40" t="s">
         <v>57</v>
@@ -5236,21 +5415,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="D41" s="47">
-        <v>43339</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G41" s="47">
-        <v>43389</v>
-      </c>
-      <c r="H41" t="s">
+        <v>43377</v>
+      </c>
+      <c r="E41" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5262,13 +5435,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="D42" s="47">
-        <v>43367</v>
+        <v>43377</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="G42" s="47">
         <v>43389</v>
@@ -5276,6 +5452,9 @@
       <c r="H42" t="s">
         <v>57</v>
       </c>
+      <c r="J42" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5285,36 +5464,45 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="D43" s="47">
-        <v>43354</v>
+        <v>43031</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="G43" s="47">
-        <v>43389</v>
+        <v>43377</v>
       </c>
       <c r="H43" t="s">
         <v>57</v>
       </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>912</v>
       </c>
       <c r="C44" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D44" s="47">
-        <v>43360</v>
+        <v>43378</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>1072</v>
+        <v>1108</v>
       </c>
       <c r="G44" s="47">
         <v>43389</v>
@@ -5328,21 +5516,15 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="D45" s="47">
-        <v>43363</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G45" s="47">
-        <v>43389</v>
-      </c>
-      <c r="H45" t="s">
+        <v>43381</v>
+      </c>
+      <c r="E45" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5354,25 +5536,25 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="D46" s="47">
-        <v>43384</v>
+        <v>42704</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="G46" s="47">
-        <v>43396</v>
+        <v>43381</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
       </c>
-      <c r="I46" t="s">
-        <v>36</v>
-      </c>
       <c r="J46" t="s">
-        <v>1116</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5383,16 +5565,19 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="D47" s="47">
-        <v>43384</v>
+        <v>42597</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
       </c>
       <c r="F47" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="G47" s="47">
-        <v>43389</v>
+        <v>43381</v>
       </c>
       <c r="H47" t="s">
         <v>57</v>
@@ -5403,13 +5588,25 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="D48" s="47">
-        <v>43391</v>
+        <v>43360</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G48" s="47">
+        <v>43381</v>
+      </c>
+      <c r="H48" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5417,22 +5614,22 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="D49" s="47">
-        <v>43391</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G49" s="47">
-        <v>43396</v>
-      </c>
-      <c r="H49" t="s">
-        <v>57</v>
+        <v>43384</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5440,25 +5637,25 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="D50" s="47">
-        <v>43301</v>
+        <v>43385</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
       <c r="G50" s="47">
-        <v>43396</v>
+        <v>43389</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
-      </c>
-      <c r="J50">
-        <v>43391</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5469,16 +5666,19 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="D51" s="47">
-        <v>43392</v>
+        <v>43389</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
       </c>
       <c r="F51" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="G51" s="47">
-        <v>43396</v>
+        <v>43398</v>
       </c>
       <c r="H51" t="s">
         <v>57</v>
@@ -5492,10 +5692,22 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="D52" s="47">
-        <v>43396</v>
+        <v>43250</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G52" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H52" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5506,16 +5718,19 @@
         <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="D53" s="47">
-        <v>43396</v>
+        <v>43223</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="G53" s="47">
-        <v>43398</v>
+        <v>43389</v>
       </c>
       <c r="H53" t="s">
         <v>57</v>
@@ -5526,19 +5741,22 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="D54" s="47">
-        <v>43397</v>
+        <v>43223</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>1110</v>
+        <v>1077</v>
       </c>
       <c r="G54" s="47">
-        <v>43397</v>
+        <v>43389</v>
       </c>
       <c r="H54" t="s">
         <v>57</v>
@@ -5552,10 +5770,22 @@
         <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="D55" s="47">
-        <v>43398</v>
+        <v>43287</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G55" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H55" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5566,10 +5796,22 @@
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D56" s="47">
-        <v>43403</v>
+        <v>43298</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G56" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5577,19 +5819,25 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="D57" s="47">
-        <v>43403</v>
+        <v>43339</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G57" s="47">
+        <v>43389</v>
       </c>
       <c r="H57" t="s">
-        <v>58</v>
-      </c>
-      <c r="I57" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -5597,19 +5845,22 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="D58" s="47">
-        <v>43398</v>
+        <v>43367</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="G58" s="47">
-        <v>43404</v>
+        <v>43389</v>
       </c>
       <c r="H58" t="s">
         <v>57</v>
@@ -5617,399 +5868,1401 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>1122</v>
+        <v>1082</v>
       </c>
       <c r="D59" s="47">
-        <v>43423</v>
+        <v>43354</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G59" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H59" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>1126</v>
+        <v>1072</v>
       </c>
       <c r="D60" s="47">
-        <v>43424</v>
+        <v>43360</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G60" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H60" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>1127</v>
+        <v>1083</v>
       </c>
       <c r="D61" s="47">
-        <v>43423</v>
+        <v>43363</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G61" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H61" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>1128</v>
+        <v>1084</v>
       </c>
       <c r="D62" s="47">
-        <v>43420</v>
+        <v>43384</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G62" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>1129</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>1130</v>
+        <v>1085</v>
       </c>
       <c r="D63" s="47">
-        <v>43430</v>
+        <v>43384</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G63" s="47">
+        <v>43389</v>
+      </c>
+      <c r="H63" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>779</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>1133</v>
+        <v>1086</v>
       </c>
       <c r="D64" s="47">
+        <v>43391</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D65" s="47">
+        <v>43391</v>
+      </c>
+      <c r="E65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G65" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D66" s="47">
+        <v>43301</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G66" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H66" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D67" s="47">
+        <v>43392</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G67" s="47">
+        <v>43396</v>
+      </c>
+      <c r="H67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D68" s="47">
+        <v>43396</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G68" s="47">
+        <v>43418</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D69" s="47">
+        <v>43396</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G69" s="47">
+        <v>43398</v>
+      </c>
+      <c r="H69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D70" s="47">
+        <v>43397</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G70" s="47">
+        <v>43397</v>
+      </c>
+      <c r="H70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D71" s="47">
+        <v>43398</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G71" s="47">
+        <v>43418</v>
+      </c>
+      <c r="H71" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D72" s="47">
+        <v>43403</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G72" s="47">
+        <v>43418</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D73" s="47">
+        <v>43403</v>
+      </c>
+      <c r="E73" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D74" s="47">
+        <v>43398</v>
+      </c>
+      <c r="E74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G74" s="47">
+        <v>43404</v>
+      </c>
+      <c r="H74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D75" s="47">
+        <v>43412</v>
+      </c>
+      <c r="E75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D76" s="47">
+        <v>43412</v>
+      </c>
+      <c r="E76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D77" s="47">
+        <v>43409</v>
+      </c>
+      <c r="E77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>316</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D78" s="47">
+        <v>43412</v>
+      </c>
+      <c r="E78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D79" s="47">
+        <v>43413</v>
+      </c>
+      <c r="E79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D80" s="47">
+        <v>43413</v>
+      </c>
+      <c r="E80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D81" s="47">
+        <v>43413</v>
+      </c>
+      <c r="E81" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G81" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D82" s="47">
+        <v>43413</v>
+      </c>
+      <c r="E82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G82" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D83" s="47">
+        <v>43413</v>
+      </c>
+      <c r="E83" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D84" s="47">
+        <v>43415</v>
+      </c>
+      <c r="E84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D85" s="47">
+        <v>43415</v>
+      </c>
+      <c r="E85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D86" s="47">
+        <v>43416</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G86" s="47">
+        <v>43417</v>
+      </c>
+      <c r="H86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D87" s="47">
+        <v>43418</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G87" s="47">
         <v>43419</v>
       </c>
-      <c r="E64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G64" s="47">
-        <v>43430</v>
-      </c>
-      <c r="H64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>779</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D65" s="47">
+      <c r="H87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D88" s="47">
+        <v>43418</v>
+      </c>
+      <c r="E88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G88" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D89" s="47">
+        <v>43340</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G89" s="47">
+        <v>43418</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D90" s="47">
+        <v>43398</v>
+      </c>
+      <c r="E90" t="s">
+        <v>74</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G90" s="47">
         <v>43419</v>
       </c>
-      <c r="E65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G65" s="47">
-        <v>43430</v>
-      </c>
-      <c r="H65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>779</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D66" s="47">
-        <v>43430</v>
-      </c>
-      <c r="E66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G66" s="47">
+      <c r="H90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D91" s="47">
+        <v>43402</v>
+      </c>
+      <c r="E91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G91" s="47">
+        <v>43418</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D92" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E92" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G92" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D93" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E93" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G93" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D94" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E94" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G94" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D95" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E95" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G95" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D96" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E96" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G96" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D97" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G97" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D98" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E98" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G98" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D99" s="47">
+        <v>43419</v>
+      </c>
+      <c r="E99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D100" s="47">
+        <v>43418</v>
+      </c>
+      <c r="E100" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G100" s="47">
+        <v>43431</v>
+      </c>
+      <c r="H100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D101" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D102" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D103" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D104" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E104" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D105" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D106" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D107" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D108" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D109" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D110" s="47">
+        <v>43431</v>
+      </c>
+      <c r="E110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D111" s="47">
+        <v>43432</v>
+      </c>
+      <c r="E111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D112" s="47">
         <v>43433</v>
       </c>
-      <c r="H66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>779</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D67" s="47">
-        <v>43418</v>
-      </c>
-      <c r="E67" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G67" s="47">
-        <v>43430</v>
-      </c>
-      <c r="H67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>779</v>
-      </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D68" s="47">
-        <v>43417</v>
-      </c>
-      <c r="E68" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G68" s="47">
-        <v>43430</v>
-      </c>
-      <c r="H68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>779</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D69" s="47">
-        <v>43419</v>
-      </c>
-      <c r="E69" t="s">
-        <v>74</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G69" s="47">
-        <v>43430</v>
-      </c>
-      <c r="H69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>779</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D70" s="47">
-        <v>43419</v>
-      </c>
-      <c r="E70" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G70" s="47">
-        <v>43430</v>
-      </c>
-      <c r="H70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>779</v>
-      </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D71" s="47">
-        <v>43430</v>
-      </c>
-      <c r="E71" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G71" s="47">
-        <v>43434</v>
-      </c>
-      <c r="H71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>779</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D72" s="47">
-        <v>43430</v>
-      </c>
-      <c r="E72" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G72" s="47">
-        <v>43434</v>
-      </c>
-      <c r="H72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>779</v>
-      </c>
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D73" s="47">
-        <v>43430</v>
-      </c>
-      <c r="E73" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G73" s="47">
+      <c r="E112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D113" s="47">
         <v>43433</v>
       </c>
-      <c r="H73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>779</v>
-      </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D74" s="47">
-        <v>43433</v>
-      </c>
-      <c r="E74" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G74" s="47">
-        <v>43434</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="E113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D114" s="47">
+        <v>43340</v>
+      </c>
+      <c r="E114" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G114" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H114" t="s">
+        <v>58</v>
+      </c>
+      <c r="I114" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D115" s="47">
+        <v>43340</v>
+      </c>
+      <c r="E115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D116" s="47">
+        <v>43308</v>
+      </c>
+      <c r="E116" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G116" s="47">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D117" s="47">
+        <v>43339</v>
+      </c>
+      <c r="E117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D118" s="47">
+        <v>43334</v>
+      </c>
+      <c r="E118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G118" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D119" s="47">
+        <v>43384</v>
+      </c>
+      <c r="E119" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G119" s="47">
+        <v>43437</v>
+      </c>
+      <c r="H119" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J74">
+    <sortCondition ref="A2:A74"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Application!$A$2:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576 H2:H1048576</xm:sqref>
+          <xm:sqref>H2:H1048576 E1:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$14</xm:f>
           </x14:formula1>
@@ -6022,11 +7275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2157" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2178" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2187" sqref="A2187"/>
     </sheetView>
   </sheetViews>
@@ -67382,7 +68635,7 @@
     <sortCondition ref="H793:H798"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1347">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1347" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$54</formula1>
     </dataValidation>
   </dataValidations>
@@ -67394,109 +68647,109 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G315 G317:G661 G671:G924 G926:G1197 G1208:G1579 G1589:G1765 G1801:G2066 G2079:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 282018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G316</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A661 A671:A924 A926:A1197 A1208:A1579 A1589:A1765 A1801:A2066 A2079:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Deliverable Types'!$A$1:$A$31</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D661 D671:D924 D926:D1197 D1208:D1579 D1589:D1765 D1801:D2066 D2079:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D662:D670 D1198:D1207 D925</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G662:G670 G1198:G1207 G925</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A662:A670 A1198:A1207 A925</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1580:D1588</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G1580:G1588</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A1580:A1588</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Application!$A$2:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1766:D1800</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A1766:A1800</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G1766:G1800</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D2067:D2078</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000010000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A2067:A2078</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000011000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G2067:G2078</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000012000000}">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$14</xm:f>
           </x14:formula1>
@@ -67509,7 +68762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -67544,7 +68797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
@@ -67867,7 +69120,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A61"/>
+  <autoFilter ref="A1:A61" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <sortState ref="A2:A62">
     <sortCondition ref="A2:A62"/>
   </sortState>
@@ -67877,7 +69130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -68054,7 +69307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68145,7 +69398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/First Pass Acceptance.xlsx
+++ b/data/First Pass Acceptance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89DF244A-DC73-44E2-8F07-02C52C25C5E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33A99D54-C3D2-4E60-AE77-6D15F78EDA1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACR" sheetId="7" r:id="rId1"/>
@@ -6094,11 +6094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J273"/>
+  <dimension ref="A1:K273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B274" sqref="B274"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6113,7 +6113,7 @@
     <col min="10" max="10" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -6170,8 +6170,12 @@
       <c r="H2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>G2-D2</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -6187,8 +6191,12 @@
       <c r="E3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>G3-D3</f>
+        <v>-43390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6213,8 +6221,12 @@
       <c r="H4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="0">G4-D4</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -6230,8 +6242,12 @@
       <c r="E5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-43423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -6256,8 +6272,12 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6273,8 +6293,12 @@
       <c r="E7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-43453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6290,8 +6314,12 @@
       <c r="E8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-43453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6316,8 +6344,12 @@
       <c r="H9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -6333,8 +6365,12 @@
       <c r="E10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-43467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -6350,8 +6386,12 @@
       <c r="E11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>-43467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6367,8 +6407,12 @@
       <c r="E12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>-43467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -6384,8 +6428,12 @@
       <c r="E13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>-43472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -6410,8 +6458,12 @@
       <c r="H14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6439,8 +6491,12 @@
       <c r="J15" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -6459,8 +6515,12 @@
       <c r="J16" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>-43473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6488,8 +6548,12 @@
       <c r="J17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -6514,8 +6578,12 @@
       <c r="H18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6540,8 +6608,12 @@
       <c r="H19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -6557,8 +6629,12 @@
       <c r="E20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>-43476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -6583,8 +6659,12 @@
       <c r="H21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -6600,8 +6680,12 @@
       <c r="E22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>-43483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -6617,8 +6701,12 @@
       <c r="E23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>-43490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -6634,8 +6722,12 @@
       <c r="E24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>-43424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -6651,8 +6743,12 @@
       <c r="E25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>-43423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -6677,8 +6773,12 @@
       <c r="H26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -6694,8 +6794,12 @@
       <c r="E27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>-43430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6711,8 +6815,12 @@
       <c r="E28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>-43468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -6737,8 +6845,12 @@
       <c r="H29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6754,8 +6866,12 @@
       <c r="E30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>-43483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -6774,8 +6890,12 @@
       <c r="I31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>-43486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -6794,8 +6914,12 @@
       <c r="I32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>-43487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6811,8 +6935,12 @@
       <c r="E33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>-43488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -6828,8 +6956,12 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>-43486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -6851,8 +6983,12 @@
       <c r="H35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6880,8 +7016,12 @@
       <c r="J36" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>779</v>
       </c>
@@ -6903,8 +7043,12 @@
       <c r="H37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>779</v>
       </c>
@@ -6932,8 +7076,12 @@
       <c r="J38" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>779</v>
       </c>
@@ -6961,8 +7109,12 @@
       <c r="J39" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>779</v>
       </c>
@@ -6984,8 +7136,12 @@
       <c r="H40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>779</v>
       </c>
@@ -7007,8 +7163,12 @@
       <c r="H41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>779</v>
       </c>
@@ -7030,8 +7190,12 @@
       <c r="H42" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>779</v>
       </c>
@@ -7053,8 +7217,12 @@
       <c r="H43" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>779</v>
       </c>
@@ -7076,8 +7244,12 @@
       <c r="H44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>779</v>
       </c>
@@ -7099,8 +7271,12 @@
       <c r="H45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>779</v>
       </c>
@@ -7122,8 +7298,12 @@
       <c r="H46" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>779</v>
       </c>
@@ -7145,8 +7325,12 @@
       <c r="H47" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>779</v>
       </c>
@@ -7171,8 +7355,12 @@
       <c r="H48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>779</v>
       </c>
@@ -7197,8 +7385,12 @@
       <c r="H49" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>779</v>
       </c>
@@ -7223,8 +7415,12 @@
       <c r="H50" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>779</v>
       </c>
@@ -7249,8 +7445,12 @@
       <c r="H51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>779</v>
       </c>
@@ -7275,8 +7475,12 @@
       <c r="H52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>779</v>
       </c>
@@ -7301,8 +7505,12 @@
       <c r="H53" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>779</v>
       </c>
@@ -7327,8 +7535,12 @@
       <c r="H54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>779</v>
       </c>
@@ -7353,8 +7565,12 @@
       <c r="H55" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>779</v>
       </c>
@@ -7379,8 +7595,12 @@
       <c r="H56" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>779</v>
       </c>
@@ -7405,8 +7625,12 @@
       <c r="H57" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>779</v>
       </c>
@@ -7431,8 +7655,12 @@
       <c r="H58" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>779</v>
       </c>
@@ -7457,8 +7685,12 @@
       <c r="H59" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>779</v>
       </c>
@@ -7483,8 +7715,12 @@
       <c r="H60" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>779</v>
       </c>
@@ -7509,8 +7745,12 @@
       <c r="H61" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>779</v>
       </c>
@@ -7535,8 +7775,12 @@
       <c r="H62" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>779</v>
       </c>
@@ -7561,8 +7805,12 @@
       <c r="H63" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>779</v>
       </c>
@@ -7587,8 +7835,12 @@
       <c r="H64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>779</v>
       </c>
@@ -7613,8 +7865,12 @@
       <c r="H65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>779</v>
       </c>
@@ -7639,8 +7895,12 @@
       <c r="H66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>779</v>
       </c>
@@ -7665,8 +7925,12 @@
       <c r="H67" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>779</v>
       </c>
@@ -7691,8 +7955,12 @@
       <c r="H68" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" ref="K68:K131" si="1">G68-D68</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>779</v>
       </c>
@@ -7717,8 +7985,12 @@
       <c r="H69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>779</v>
       </c>
@@ -7743,8 +8015,12 @@
       <c r="H70" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>779</v>
       </c>
@@ -7769,8 +8045,12 @@
       <c r="H71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>779</v>
       </c>
@@ -7795,8 +8075,12 @@
       <c r="H72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>779</v>
       </c>
@@ -7821,8 +8105,12 @@
       <c r="H73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>779</v>
       </c>
@@ -7847,8 +8135,12 @@
       <c r="H74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>779</v>
       </c>
@@ -7873,8 +8165,12 @@
       <c r="H75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>779</v>
       </c>
@@ -7899,8 +8195,12 @@
       <c r="H76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>779</v>
       </c>
@@ -7925,8 +8225,12 @@
       <c r="H77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>779</v>
       </c>
@@ -7951,8 +8255,12 @@
       <c r="H78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>779</v>
       </c>
@@ -7977,8 +8285,12 @@
       <c r="H79" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>779</v>
       </c>
@@ -8003,8 +8315,12 @@
       <c r="H80" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>779</v>
       </c>
@@ -8029,8 +8345,12 @@
       <c r="H81" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>779</v>
       </c>
@@ -8055,8 +8375,12 @@
       <c r="H82" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>779</v>
       </c>
@@ -8081,8 +8405,12 @@
       <c r="H83" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>779</v>
       </c>
@@ -8107,8 +8435,12 @@
       <c r="H84" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>779</v>
       </c>
@@ -8133,8 +8465,12 @@
       <c r="H85" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>779</v>
       </c>
@@ -8159,8 +8495,12 @@
       <c r="H86" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>779</v>
       </c>
@@ -8185,8 +8525,12 @@
       <c r="H87" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>779</v>
       </c>
@@ -8214,8 +8558,12 @@
       <c r="J88" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>779</v>
       </c>
@@ -8240,8 +8588,12 @@
       <c r="H89" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>779</v>
       </c>
@@ -8266,8 +8618,12 @@
       <c r="H90" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>779</v>
       </c>
@@ -8292,8 +8648,12 @@
       <c r="H91" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>779</v>
       </c>
@@ -8318,8 +8678,12 @@
       <c r="H92" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>779</v>
       </c>
@@ -8344,8 +8708,12 @@
       <c r="H93" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>779</v>
       </c>
@@ -8370,8 +8738,12 @@
       <c r="H94" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>779</v>
       </c>
@@ -8396,8 +8768,12 @@
       <c r="H95" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>779</v>
       </c>
@@ -8416,8 +8792,12 @@
       <c r="H96" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f t="shared" si="1"/>
+        <v>-43495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>779</v>
       </c>
@@ -8436,8 +8816,12 @@
       <c r="H97" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="1"/>
+        <v>-43495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>779</v>
       </c>
@@ -8456,8 +8840,12 @@
       <c r="H98" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="1"/>
+        <v>-43495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>779</v>
       </c>
@@ -8476,8 +8864,12 @@
       <c r="H99" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f t="shared" si="1"/>
+        <v>-43495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>779</v>
       </c>
@@ -8502,8 +8894,12 @@
       <c r="H100" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>779</v>
       </c>
@@ -8528,8 +8924,12 @@
       <c r="H101" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>779</v>
       </c>
@@ -8545,8 +8945,12 @@
       <c r="H102" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="1"/>
+        <v>-43495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -8574,8 +8978,12 @@
       <c r="J103" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -8603,8 +9011,12 @@
       <c r="J104" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -8629,8 +9041,12 @@
       <c r="H105" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>39</v>
       </c>
@@ -8655,8 +9071,12 @@
       <c r="H106" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -8673,8 +9093,12 @@
         <v>57</v>
       </c>
       <c r="H107" s="37"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="1"/>
+        <v>-43377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>39</v>
       </c>
@@ -8699,8 +9123,12 @@
       <c r="H108" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -8725,8 +9153,12 @@
       <c r="H109" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -8751,8 +9183,12 @@
       <c r="H110" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -8775,8 +9211,12 @@
       <c r="J111" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f t="shared" si="1"/>
+        <v>-43384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -8801,8 +9241,12 @@
       <c r="H112" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -8827,8 +9271,12 @@
       <c r="H113" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -8848,8 +9296,12 @@
       <c r="I114" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <f t="shared" si="1"/>
+        <v>-43403</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -8874,8 +9326,12 @@
       <c r="H115" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>39</v>
       </c>
@@ -8892,8 +9348,12 @@
         <v>58</v>
       </c>
       <c r="H116" s="37"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f t="shared" si="1"/>
+        <v>-43412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -8918,8 +9378,12 @@
       <c r="H117" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>39</v>
       </c>
@@ -8944,8 +9408,12 @@
       <c r="H118" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -8962,8 +9430,12 @@
         <v>57</v>
       </c>
       <c r="H119" s="37"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <f t="shared" si="1"/>
+        <v>-43415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>39</v>
       </c>
@@ -8988,8 +9460,12 @@
       <c r="H120" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -9014,8 +9490,12 @@
       <c r="H121" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -9040,8 +9520,12 @@
       <c r="H122" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -9069,8 +9553,12 @@
       <c r="J123" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f t="shared" si="1"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -9095,8 +9583,12 @@
       <c r="H124" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -9121,8 +9613,12 @@
       <c r="H125" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -9150,8 +9646,12 @@
       <c r="J126" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -9176,8 +9676,12 @@
       <c r="H127" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -9202,8 +9706,12 @@
       <c r="H128" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>39</v>
       </c>
@@ -9228,8 +9736,12 @@
       <c r="H129" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>39</v>
       </c>
@@ -9257,8 +9769,12 @@
       <c r="J130" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -9283,8 +9799,12 @@
       <c r="H131" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -9309,8 +9829,12 @@
       <c r="H132" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" ref="K132:K195" si="2">G132-D132</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -9335,8 +9859,12 @@
       <c r="H133" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -9364,8 +9892,12 @@
       <c r="J134">
         <v>43391</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -9390,8 +9922,12 @@
       <c r="H135" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>39</v>
       </c>
@@ -9422,8 +9958,12 @@
       <c r="J136" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -9448,8 +9988,12 @@
       <c r="H137" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -9474,8 +10018,12 @@
       <c r="H138" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>39</v>
       </c>
@@ -9500,8 +10048,12 @@
       <c r="H139" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -9526,8 +10078,12 @@
       <c r="H140" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -9552,8 +10108,12 @@
       <c r="H141" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -9578,8 +10138,12 @@
       <c r="H142" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -9610,8 +10174,12 @@
       <c r="J143" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -9636,8 +10204,12 @@
       <c r="H144" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>39</v>
       </c>
@@ -9662,8 +10234,12 @@
       <c r="H145" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -9689,8 +10265,12 @@
         <v>74</v>
       </c>
       <c r="J146" s="37"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -9715,8 +10295,12 @@
       <c r="H147" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -9741,8 +10325,12 @@
       <c r="H148" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -9767,8 +10355,12 @@
       <c r="H149" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -9793,8 +10385,12 @@
       <c r="H150" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -9819,8 +10415,12 @@
       <c r="H151" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -9845,8 +10445,12 @@
       <c r="H152" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -9871,8 +10475,12 @@
       <c r="H153" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -9897,8 +10505,12 @@
       <c r="H154" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -9923,8 +10535,12 @@
       <c r="H155" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -9949,8 +10565,12 @@
       <c r="H156" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -9970,8 +10590,12 @@
         <v>1055</v>
       </c>
       <c r="H157" s="37"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <f t="shared" si="2"/>
+        <v>-43374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -9996,8 +10620,12 @@
       <c r="H158" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -10025,8 +10653,12 @@
       <c r="J159" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>39</v>
       </c>
@@ -10057,8 +10689,12 @@
       <c r="J160" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -10083,8 +10719,12 @@
       <c r="H161" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>39</v>
       </c>
@@ -10109,8 +10749,12 @@
       <c r="H162" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -10135,8 +10779,12 @@
       <c r="H163" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>39</v>
       </c>
@@ -10161,8 +10809,12 @@
       <c r="H164" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>39</v>
       </c>
@@ -10187,8 +10839,12 @@
       <c r="H165" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>39</v>
       </c>
@@ -10213,8 +10869,12 @@
       <c r="H166" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -10239,8 +10899,12 @@
       <c r="H167" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>39</v>
       </c>
@@ -10268,8 +10932,12 @@
       <c r="J168" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -10294,8 +10962,12 @@
       <c r="H169" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -10320,8 +10992,12 @@
       <c r="H170" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -10346,8 +11022,12 @@
       <c r="H171" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -10364,8 +11044,12 @@
         <v>74</v>
       </c>
       <c r="H172" s="37"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <f t="shared" si="2"/>
+        <v>-43413</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -10382,8 +11066,12 @@
         <v>74</v>
       </c>
       <c r="H173" s="37"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <f t="shared" si="2"/>
+        <v>-43409</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>39</v>
       </c>
@@ -10408,8 +11096,12 @@
       <c r="H174" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -10434,8 +11126,12 @@
       <c r="H175" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>39</v>
       </c>
@@ -10455,8 +11151,12 @@
         <v>1179</v>
       </c>
       <c r="H176" s="37"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <f t="shared" si="2"/>
+        <v>-43413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -10479,8 +11179,12 @@
       <c r="J177" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <f t="shared" si="2"/>
+        <v>-43413</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>39</v>
       </c>
@@ -10497,8 +11201,12 @@
         <v>57</v>
       </c>
       <c r="H178" s="37"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <f t="shared" si="2"/>
+        <v>-43415</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -10524,8 +11232,12 @@
         <v>74</v>
       </c>
       <c r="I179" s="37"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -10550,8 +11262,12 @@
       <c r="H180" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>39</v>
       </c>
@@ -10576,8 +11292,12 @@
       <c r="H181" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -10602,8 +11322,12 @@
       <c r="H182" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -10628,8 +11352,12 @@
       <c r="H183" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -10654,8 +11382,12 @@
       <c r="H184" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -10680,8 +11412,12 @@
       <c r="H185" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -10706,8 +11442,12 @@
       <c r="H186" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -10732,8 +11472,12 @@
       <c r="H187" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>39</v>
       </c>
@@ -10758,8 +11502,12 @@
       <c r="H188" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -10775,8 +11523,12 @@
       <c r="E189" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <f t="shared" si="2"/>
+        <v>-43431</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>39</v>
       </c>
@@ -10792,8 +11544,12 @@
       <c r="E190" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <f t="shared" si="2"/>
+        <v>-43431</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -10818,8 +11574,12 @@
       <c r="H191" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>39</v>
       </c>
@@ -10844,8 +11604,12 @@
       <c r="H192" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>39</v>
       </c>
@@ -10870,8 +11634,12 @@
       <c r="H193" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -10896,8 +11664,12 @@
       <c r="H194" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>39</v>
       </c>
@@ -10922,8 +11694,12 @@
       <c r="H195" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -10939,8 +11715,12 @@
       <c r="E196" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <f t="shared" ref="K196:K259" si="3">G196-D196</f>
+        <v>-43431</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -10965,8 +11745,12 @@
       <c r="H197" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>39</v>
       </c>
@@ -10982,8 +11766,12 @@
       <c r="E198" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <f t="shared" si="3"/>
+        <v>-43431</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -11008,8 +11796,12 @@
       <c r="H199" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>39</v>
       </c>
@@ -11034,8 +11826,12 @@
       <c r="H200" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>39</v>
       </c>
@@ -11060,8 +11856,12 @@
       <c r="H201" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -11077,8 +11877,12 @@
       <c r="E202" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <f t="shared" si="3"/>
+        <v>-43438</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>39</v>
       </c>
@@ -11103,8 +11907,12 @@
       <c r="H203" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>39</v>
       </c>
@@ -11129,8 +11937,12 @@
       <c r="H204" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>39</v>
       </c>
@@ -11155,8 +11967,12 @@
       <c r="H205" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>39</v>
       </c>
@@ -11172,8 +11988,12 @@
       <c r="E206" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <f t="shared" si="3"/>
+        <v>-43441</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -11195,8 +12015,12 @@
       <c r="J207" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <f t="shared" si="3"/>
+        <v>-43441</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -11212,8 +12036,12 @@
       <c r="E208" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <f t="shared" si="3"/>
+        <v>-43441</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>39</v>
       </c>
@@ -11238,8 +12066,12 @@
       <c r="H209" s="37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>39</v>
       </c>
@@ -11270,8 +12102,12 @@
       <c r="J210" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>39</v>
       </c>
@@ -11296,8 +12132,12 @@
       <c r="H211" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>39</v>
       </c>
@@ -11328,8 +12168,12 @@
       <c r="J212" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -11345,8 +12189,12 @@
       <c r="E213" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <f t="shared" si="3"/>
+        <v>-43445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>39</v>
       </c>
@@ -11368,8 +12216,12 @@
       <c r="J214" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <f t="shared" si="3"/>
+        <v>-43445</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>39</v>
       </c>
@@ -11394,8 +12246,12 @@
       <c r="H215" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>39</v>
       </c>
@@ -11420,8 +12276,12 @@
       <c r="H216" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>39</v>
       </c>
@@ -11443,8 +12303,12 @@
       <c r="J217" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <f t="shared" si="3"/>
+        <v>-43445</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>39</v>
       </c>
@@ -11469,8 +12333,12 @@
       <c r="H218" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>39</v>
       </c>
@@ -11495,8 +12363,12 @@
       <c r="H219" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>39</v>
       </c>
@@ -11521,8 +12393,12 @@
       <c r="H220" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -11538,8 +12414,12 @@
       <c r="E221" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <f t="shared" si="3"/>
+        <v>-43448</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -11555,8 +12435,12 @@
       <c r="E222" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <f t="shared" si="3"/>
+        <v>-43454</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>39</v>
       </c>
@@ -11575,8 +12459,12 @@
       <c r="I223" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <f t="shared" si="3"/>
+        <v>-43454</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>39</v>
       </c>
@@ -11595,8 +12483,12 @@
       <c r="I224" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <f t="shared" si="3"/>
+        <v>-43453</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>39</v>
       </c>
@@ -11618,8 +12510,12 @@
       <c r="G225" s="37">
         <v>43468</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>39</v>
       </c>
@@ -11641,8 +12537,12 @@
       <c r="J226" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <f t="shared" si="3"/>
+        <v>-43455</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>39</v>
       </c>
@@ -11658,8 +12558,12 @@
       <c r="E227" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <f t="shared" si="3"/>
+        <v>-43462</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>39</v>
       </c>
@@ -11681,8 +12585,12 @@
       <c r="J228" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <f t="shared" si="3"/>
+        <v>-43462</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>39</v>
       </c>
@@ -11713,8 +12621,12 @@
       <c r="J229" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>39</v>
       </c>
@@ -11739,8 +12651,12 @@
       <c r="H230" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -11765,8 +12681,12 @@
       <c r="H231" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>39</v>
       </c>
@@ -11791,8 +12711,12 @@
       <c r="H232" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>39</v>
       </c>
@@ -11817,8 +12741,12 @@
       <c r="H233" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>39</v>
       </c>
@@ -11843,8 +12771,12 @@
       <c r="H234" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>39</v>
       </c>
@@ -11869,8 +12801,12 @@
       <c r="H235" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>39</v>
       </c>
@@ -11886,8 +12822,12 @@
       <c r="E236" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <f t="shared" si="3"/>
+        <v>-43385</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -11903,8 +12843,12 @@
       <c r="E237" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <f t="shared" si="3"/>
+        <v>-43388</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -11920,8 +12864,12 @@
       <c r="E238" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <f t="shared" si="3"/>
+        <v>-43399</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>39</v>
       </c>
@@ -11940,8 +12888,12 @@
       <c r="F239" s="35"/>
       <c r="G239" s="76"/>
       <c r="H239" s="35"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <f t="shared" si="3"/>
+        <v>-43467</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -11966,8 +12918,12 @@
       <c r="H240" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>39</v>
       </c>
@@ -11989,8 +12945,12 @@
       <c r="J241" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <f t="shared" si="3"/>
+        <v>-43473</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -12015,8 +12975,12 @@
       <c r="H242" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -12032,8 +12996,12 @@
       <c r="E243" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <f t="shared" si="3"/>
+        <v>-43473</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>39</v>
       </c>
@@ -12049,8 +13017,12 @@
       <c r="E244" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <f t="shared" si="3"/>
+        <v>-43474</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>39</v>
       </c>
@@ -12075,8 +13047,12 @@
       <c r="H245" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -12104,8 +13080,12 @@
       <c r="I246" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -12121,8 +13101,12 @@
       <c r="E247" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <f t="shared" si="3"/>
+        <v>-43475</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>39</v>
       </c>
@@ -12147,8 +13131,12 @@
       <c r="H248" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -12164,8 +13152,12 @@
       <c r="E249" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <f t="shared" si="3"/>
+        <v>-43475</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -12190,8 +13182,12 @@
       <c r="H250" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -12207,8 +13203,12 @@
       <c r="E251" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <f t="shared" si="3"/>
+        <v>-43476</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -12224,8 +13224,12 @@
       <c r="E252" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <f t="shared" si="3"/>
+        <v>-43479</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>39</v>
       </c>
@@ -12241,8 +13245,12 @@
       <c r="E253" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <f t="shared" si="3"/>
+        <v>-43479</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>39</v>
       </c>
@@ -12258,8 +13266,12 @@
       <c r="E254" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <f t="shared" si="3"/>
+        <v>-43444</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>39</v>
       </c>
@@ -12284,8 +13296,12 @@
       <c r="H255" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>39</v>
       </c>
@@ -12305,13 +13321,17 @@
         <v>1730</v>
       </c>
       <c r="G256" s="37">
-        <v>43480</v>
+        <v>43490</v>
       </c>
       <c r="H256" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>39</v>
       </c>
@@ -12327,8 +13347,12 @@
       <c r="E257" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257">
+        <f t="shared" si="3"/>
+        <v>-43482</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>39</v>
       </c>
@@ -12344,8 +13368,12 @@
       <c r="E258" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258">
+        <f t="shared" si="3"/>
+        <v>-43482</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>39</v>
       </c>
@@ -12373,8 +13401,12 @@
       <c r="J259" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>39</v>
       </c>
@@ -12390,8 +13422,12 @@
       <c r="E260" s="35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260">
+        <f t="shared" ref="K260:K273" si="4">G260-D260</f>
+        <v>-43487</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>39</v>
       </c>
@@ -12407,8 +13443,12 @@
       <c r="E261" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261">
+        <f t="shared" si="4"/>
+        <v>-43488</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>39</v>
       </c>
@@ -12424,8 +13464,12 @@
       <c r="E262" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262">
+        <f t="shared" si="4"/>
+        <v>-43488</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>39</v>
       </c>
@@ -12444,8 +13488,12 @@
       <c r="I263" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263">
+        <f t="shared" si="4"/>
+        <v>-43488</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>39</v>
       </c>
@@ -12461,8 +13509,12 @@
       <c r="E264" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264">
+        <f t="shared" si="4"/>
+        <v>-43490</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>39</v>
       </c>
@@ -12478,8 +13530,12 @@
       <c r="E265" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265">
+        <f t="shared" si="4"/>
+        <v>-43490</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>39</v>
       </c>
@@ -12495,8 +13551,12 @@
       <c r="E266" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266">
+        <f t="shared" si="4"/>
+        <v>-43490</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -12515,8 +13575,12 @@
       <c r="I267" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267">
+        <f t="shared" si="4"/>
+        <v>-43490</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>39</v>
       </c>
@@ -12532,8 +13596,12 @@
       <c r="E268" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268">
+        <f t="shared" si="4"/>
+        <v>-43494</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>39</v>
       </c>
@@ -12549,8 +13617,12 @@
       <c r="E269" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269">
+        <f t="shared" si="4"/>
+        <v>-43494</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>39</v>
       </c>
@@ -12575,8 +13647,12 @@
       <c r="H270" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -12592,8 +13668,12 @@
       <c r="E271" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271">
+        <f t="shared" si="4"/>
+        <v>-43495</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -12609,8 +13689,12 @@
       <c r="E272" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K272">
+        <f t="shared" si="4"/>
+        <v>-43496</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -12625,6 +13709,10 @@
       </c>
       <c r="E273" s="35" t="s">
         <v>74</v>
+      </c>
+      <c r="K273">
+        <f t="shared" si="4"/>
+        <v>-43497</v>
       </c>
     </row>
   </sheetData>
@@ -12694,9 +13782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12709,7 +13797,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="13" style="20" customWidth="1"/>
     <col min="9" max="9" width="36.140625" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
